--- a/design/MiniTemplate/Excels/#skill.xlsx
+++ b/design/MiniTemplate/Excels/#skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F01B4-EB18-44B4-ABF3-031FD17F548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14484D9E-BB60-4534-B0AB-BB265193D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="346">
   <si>
     <t>##var</t>
   </si>
@@ -595,9 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续回合</t>
-  </si>
-  <si>
     <t>概率</t>
   </si>
   <si>
@@ -1104,15 +1101,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>forever</t>
+    <t>持续回合
+没有值则不属于buff类，-1永久，0本轮攻击生效，&gt;0buff时间。Buff属性状态、攻防</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
+    <t>abandon</t>
+  </si>
+  <si>
+    <t>abandon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗内永久改变</t>
+    <t>enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1262,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1310,6 +1311,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,6 +1336,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1347,27 +1372,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1498,140 +1502,148 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>skip</v>
+            <v>abandon</v>
           </cell>
           <cell r="B8" t="str">
             <v>放弃攻击</v>
           </cell>
-          <cell r="C8" t="str">
-            <v>跳过回合</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>ban</v>
+            <v>skip</v>
           </cell>
           <cell r="B9" t="str">
-            <v>禁用^个技能</v>
+            <v>跳过回合</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>replace</v>
+            <v>ban</v>
           </cell>
           <cell r="B10" t="str">
-            <v>变更目标</v>
+            <v>禁用^个技能</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>skill</v>
+            <v>replace</v>
           </cell>
           <cell r="B11" t="str">
-            <v>获得^个技能</v>
+            <v>变更目标</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>learn</v>
+            <v>skill</v>
           </cell>
           <cell r="B12" t="str">
-            <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
+            <v>获得^个技能</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>none</v>
+            <v>learn</v>
           </cell>
           <cell r="B13" t="str">
-            <v>释放技能，但是失败了！</v>
+            <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>(生物)随机获得X个技能。(玩家)增加^个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>self</v>
+            <v>none</v>
           </cell>
           <cell r="B14" t="str">
-            <v>使自身</v>
+            <v>释放技能，但是失败了！</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>enemy</v>
+            <v>self</v>
           </cell>
           <cell r="B15" t="str">
-            <v>使对手</v>
+            <v>使自身</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>ready</v>
+            <v>enemy</v>
           </cell>
           <cell r="B16" t="str">
-            <v>战斗准备阶段</v>
+            <v>使对手</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>start</v>
+            <v>ready</v>
           </cell>
           <cell r="B17" t="str">
-            <v>战斗开始时</v>
+            <v>战斗准备阶段</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>round</v>
+            <v>start</v>
           </cell>
           <cell r="B18" t="str">
-            <v>回合开始时</v>
+            <v>战斗开始时</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>attack</v>
+            <v>round</v>
           </cell>
           <cell r="B19" t="str">
-            <v>攻击前</v>
+            <v>回合开始时</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>attacking</v>
+            <v>attack</v>
           </cell>
           <cell r="B20" t="str">
-            <v>攻击时</v>
+            <v>攻击前</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>attacked</v>
+            <v>attacking</v>
           </cell>
           <cell r="B21" t="str">
-            <v>攻击后</v>
+            <v>攻击时</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>hit</v>
+            <v>attacked</v>
           </cell>
           <cell r="B22" t="str">
-            <v>受击前</v>
+            <v>攻击后</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>hitting</v>
+            <v>hit</v>
           </cell>
           <cell r="B23" t="str">
-            <v>受击时</v>
+            <v>受击前</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
+            <v>hitting</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>受击时</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
             <v>hitted</v>
           </cell>
-          <cell r="B24" t="str">
+          <cell r="B25" t="str">
             <v>受击后</v>
           </cell>
         </row>
@@ -1899,11 +1911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1913,24 +1925,23 @@
     <col min="3" max="3" width="13.44140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="81" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.109375" style="1"/>
-    <col min="17" max="17" width="21.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="42.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="73.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="42.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1950,44 +1961,41 @@
         <v>176</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="O1" s="19"/>
+      <c r="N1" s="20"/>
+      <c r="P1" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="Q1" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,7 +2013,7 @@
         <v>177</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>337</v>
@@ -2013,24 +2021,21 @@
       <c r="I2" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>192</v>
+      <c r="J2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="M2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="O2" s="17"/>
-    </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2042,20 +2047,19 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="J3" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="12"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
       <c r="N3" s="8">
-        <v>1</v>
-      </c>
-      <c r="O3" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2075,19 +2079,19 @@
         <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>185</v>
@@ -2095,117 +2099,117 @@
       <c r="M4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(Q5,"*",_xlfn.IFS(T5&lt;0,"-",T5&gt;0,"+",T5=0,"")),"^",T5)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(P5,"*",_xlfn.IFS(S5&lt;0,"-",S5&gt;0,"+",S5=0,"")),"^",S5)</f>
         <v>+[#×伤害值]的生命值</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>VLOOKUP(J5,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S5&amp;VLOOKUP(I5,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E5,"#",TEXT(IF(ISBLANK(O5),ABS(N5),ABS(O5))*100,"0")&amp;"%")&amp;IF(ISBLANK(G5),"","，永久")&amp;R5</f>
+        <f>VLOOKUP(I5,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R5&amp;VLOOKUP(H5,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E5,"#",TEXT(IF(ISBLANK(N5),ABS(M5),ABS(N5))*100,"0")&amp;"%")&amp;Q5</f>
         <v>攻击后20%的概率使自身+[50%×伤害值]的生命值。</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M5" s="1">
+        <v>329</v>
+      </c>
+      <c r="L5" s="1">
         <v>0.2</v>
       </c>
-      <c r="O5" s="15">
+      <c r="N5" s="15">
         <v>0.5</v>
       </c>
+      <c r="P5" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N5),VLOOKUP(G5,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M5),VLOOKUP(G5,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M5)), NOT(ISBLANK(N5))),VLOOKUP(G5,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×伤害值]的生命值</v>
+      </c>
       <c r="Q5" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O5),VLOOKUP(H5,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N5),VLOOKUP(H5,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N5)), NOT(ISBLANK(O5))),VLOOKUP(H5,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×伤害值]的生命值</v>
+        <f>IF(NOT(ISBLANK(K5))*AND(K5&gt;0),"，持续"&amp;K5&amp;"回合。",IF(K5=-1,"，永久","。"))</f>
+        <v>。</v>
       </c>
       <c r="R5" s="1" t="str">
-        <f>IF(ISBLANK(L5),"。","，持续"&amp;L5&amp;"回合。")</f>
-        <v>。</v>
-      </c>
-      <c r="S5" s="1" t="str">
-        <f>IF(ISBLANK(K5),"","如果"&amp;IF(K5=0,"死亡","生命值&lt;"&amp;TEXT(K5*100,"0")&amp;"%")&amp;"，那么")&amp;IF(M5&lt;1,TEXT(M5*100,"0")&amp;"%的概率","")</f>
+        <f>IF(ISBLANK(J5),"","如果"&amp;IF(J5=0,"死亡","生命值&lt;"&amp;TEXT(J5*100,"0")&amp;"%")&amp;"，那么")&amp;IF(L5&lt;1,TEXT(L5*100,"0")&amp;"%的概率","")</f>
         <v>20%的概率</v>
       </c>
-      <c r="T5" s="1">
-        <f>IF(ISBLANK(N5),O5,N5)</f>
+      <c r="S5" s="1">
+        <f>IF(ISBLANK(M5),N5,M5)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E69" si="0">SUBSTITUTE(SUBSTITUTE(Q6,"*",_xlfn.IFS(T6&lt;0,"-",T6&gt;0,"+",T6=0,"")),"^",T6)</f>
+        <f t="shared" ref="E6:E69" si="0">SUBSTITUTE(SUBSTITUTE(P6,"*",_xlfn.IFS(S6&lt;0,"-",S6&gt;0,"+",S6=0,"")),"^",S6)</f>
         <v>-#防御力</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>VLOOKUP(J6,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S6&amp;VLOOKUP(I6,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E6,"#",TEXT(IF(ISBLANK(O6),ABS(N6),ABS(O6))*100,"0")&amp;"%")&amp;IF(ISBLANK(G6),"","，永久")&amp;R6</f>
+        <f>VLOOKUP(I6,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R6&amp;VLOOKUP(H6,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E6,"#",TEXT(IF(ISBLANK(N6),ABS(M6),ABS(N6))*100,"0")&amp;"%")&amp;Q6</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M6" s="1">
+        <v>330</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>0.2</v>
       </c>
-      <c r="O6" s="15">
+      <c r="N6" s="15">
         <v>-0.5</v>
       </c>
+      <c r="P6" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N6),VLOOKUP(G6,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M6),VLOOKUP(G6,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M6)), NOT(ISBLANK(N6))),VLOOKUP(G6,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#防御力</v>
+      </c>
       <c r="Q6" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O6),VLOOKUP(H6,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N6),VLOOKUP(H6,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N6)), NOT(ISBLANK(O6))),VLOOKUP(H6,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#防御力</v>
+        <f t="shared" ref="Q6:Q69" si="1">IF(NOT(ISBLANK(K6))*AND(K6&gt;0),"，持续"&amp;K6&amp;"回合。",IF(K6=-1,"，永久","。"))</f>
+        <v>。</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f t="shared" ref="R6:R69" si="1">IF(ISBLANK(L6),"。","，持续"&amp;L6&amp;"回合。")</f>
-        <v>。</v>
-      </c>
-      <c r="S6" s="1" t="str">
-        <f t="shared" ref="S6:S69" si="2">IF(ISBLANK(K6),"","如果"&amp;IF(K6=0,"死亡","生命值&lt;"&amp;TEXT(K6*100,"0")&amp;"%")&amp;"，那么")&amp;IF(M6&lt;1,TEXT(M6*100,"0")&amp;"%的概率","")</f>
+        <f t="shared" ref="R6:R69" si="2">IF(ISBLANK(J6),"","如果"&amp;IF(J6=0,"死亡","生命值&lt;"&amp;TEXT(J6*100,"0")&amp;"%")&amp;"，那么")&amp;IF(L6&lt;1,TEXT(L6*100,"0")&amp;"%的概率","")</f>
         <v>20%的概率</v>
       </c>
-      <c r="T6" s="1">
-        <f t="shared" ref="T6:T69" si="3">IF(ISBLANK(N6),O6,N6)</f>
+      <c r="S6" s="1">
+        <f t="shared" ref="S6:S69" si="3">IF(ISBLANK(M6),N6,M6)</f>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -2215,49 +2219,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>VLOOKUP(J7,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S7&amp;VLOOKUP(I7,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E7,"#",TEXT(IF(ISBLANK(O7),ABS(N7),ABS(O7))*100,"0")&amp;"%")&amp;IF(ISBLANK(G7),"","，永久")&amp;R7</f>
+        <f>VLOOKUP(I7,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R7&amp;VLOOKUP(H7,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E7,"#",TEXT(IF(ISBLANK(N7),ABS(M7),ABS(N7))*100,"0")&amp;"%")&amp;Q7</f>
         <v>攻击后20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
         <v>0.2</v>
       </c>
+      <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="P7" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N7),VLOOKUP(G7,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M7),VLOOKUP(G7,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M7)), NOT(ISBLANK(N7))),VLOOKUP(G7,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q7" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O7),VLOOKUP(H7,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N7),VLOOKUP(H7,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N7)), NOT(ISBLANK(O7))),VLOOKUP(H7,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S7" s="1" t="str">
+      <c r="R7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T7" s="1">
+      <c r="S7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -2267,53 +2271,53 @@
         <v>+#攻防</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>VLOOKUP(J8,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S8&amp;VLOOKUP(I8,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E8,"#",TEXT(IF(ISBLANK(O8),ABS(N8),ABS(O8))*100,"0")&amp;"%")&amp;IF(ISBLANK(G8),"","，永久")&amp;R8</f>
-        <v>回合开始时使自身+5%攻防，永久。</v>
-      </c>
-      <c r="G8" s="1">
+        <f>VLOOKUP(I8,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R8&amp;VLOOKUP(H8,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E8,"#",TEXT(IF(ISBLANK(N8),ABS(M8),ABS(N8))*100,"0")&amp;"%")&amp;Q8</f>
+        <v>回合开始时使自身+5%攻防，永久</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
+      <c r="M8" s="15">
+        <v>0.05</v>
       </c>
       <c r="N8" s="15">
         <v>0.05</v>
       </c>
-      <c r="O8" s="15">
-        <v>0.05</v>
+      <c r="P8" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N8),VLOOKUP(G8,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M8),VLOOKUP(G8,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M8)), NOT(ISBLANK(N8))),VLOOKUP(G8,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻防</v>
       </c>
       <c r="Q8" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O8),VLOOKUP(H8,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N8),VLOOKUP(H8,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N8)), NOT(ISBLANK(O8))),VLOOKUP(H8,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻防</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S8" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T8" s="1">
+      <c r="S8" s="1">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -2323,48 +2327,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>VLOOKUP(J9,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S9&amp;VLOOKUP(I9,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E9,"#",TEXT(IF(ISBLANK(O9),ABS(N9),ABS(O9))*100,"0")&amp;"%")&amp;IF(ISBLANK(G9),"","，永久")&amp;R9</f>
+        <f>VLOOKUP(I9,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R9&amp;VLOOKUP(H9,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E9,"#",TEXT(IF(ISBLANK(N9),ABS(M9),ABS(N9))*100,"0")&amp;"%")&amp;Q9</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M9" s="1">
+        <v>330</v>
+      </c>
+      <c r="L9" s="1">
         <v>0.2</v>
       </c>
-      <c r="N9" s="15">
+      <c r="M9" s="15">
         <v>1</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="P9" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N9),VLOOKUP(G9,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M9),VLOOKUP(G9,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M9)), NOT(ISBLANK(N9))),VLOOKUP(G9,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q9" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O9),VLOOKUP(H9,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N9),VLOOKUP(H9,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N9)), NOT(ISBLANK(O9))),VLOOKUP(H9,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S9" s="1" t="str">
+      <c r="R9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T9" s="1">
+      <c r="S9" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -2374,53 +2378,53 @@
         <v>+#攻防</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>VLOOKUP(J10,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S10&amp;VLOOKUP(I10,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E10,"#",TEXT(IF(ISBLANK(O10),ABS(N10),ABS(O10))*100,"0")&amp;"%")&amp;IF(ISBLANK(G10),"","，永久")&amp;R10</f>
-        <v>回合开始时使自身+10%攻防，永久。</v>
-      </c>
-      <c r="G10" s="1">
+        <f>VLOOKUP(I10,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R10&amp;VLOOKUP(H10,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E10,"#",TEXT(IF(ISBLANK(N10),ABS(M10),ABS(N10))*100,"0")&amp;"%")&amp;Q10</f>
+        <v>回合开始时使自身+10%攻防，永久</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
+      <c r="M10" s="15">
+        <v>0.1</v>
       </c>
       <c r="N10" s="15">
         <v>0.1</v>
       </c>
-      <c r="O10" s="15">
-        <v>0.1</v>
+      <c r="P10" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N10),VLOOKUP(G10,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M10),VLOOKUP(G10,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M10)), NOT(ISBLANK(N10))),VLOOKUP(G10,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻防</v>
       </c>
       <c r="Q10" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O10),VLOOKUP(H10,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N10),VLOOKUP(H10,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N10)), NOT(ISBLANK(O10))),VLOOKUP(H10,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻防</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S10" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T10" s="1">
+      <c r="S10" s="1">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -2430,53 +2434,53 @@
         <v>-#攻防</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>VLOOKUP(J11,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S11&amp;VLOOKUP(I11,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E11,"#",TEXT(IF(ISBLANK(O11),ABS(N11),ABS(O11))*100,"0")&amp;"%")&amp;IF(ISBLANK(G11),"","，永久")&amp;R11</f>
-        <v>回合开始时使对手-5%攻防，永久。</v>
-      </c>
-      <c r="G11" s="1">
+        <f>VLOOKUP(I11,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R11&amp;VLOOKUP(H11,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E11,"#",TEXT(IF(ISBLANK(N11),ABS(M11),ABS(N11))*100,"0")&amp;"%")&amp;Q11</f>
+        <v>回合开始时使对手-5%攻防，永久</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
+      <c r="M11" s="15">
+        <v>-0.05</v>
       </c>
       <c r="N11" s="15">
         <v>-0.05</v>
       </c>
-      <c r="O11" s="15">
-        <v>-0.05</v>
+      <c r="P11" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N11),VLOOKUP(G11,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M11),VLOOKUP(G11,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M11)), NOT(ISBLANK(N11))),VLOOKUP(G11,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻防</v>
       </c>
       <c r="Q11" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O11),VLOOKUP(H11,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N11),VLOOKUP(H11,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N11)), NOT(ISBLANK(O11))),VLOOKUP(H11,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻防</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S11" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T11" s="1">
+      <c r="S11" s="1">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -2486,49 +2490,46 @@
         <v>攻防交换</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>VLOOKUP(J12,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S12&amp;VLOOKUP(I12,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E12,"#",TEXT(IF(ISBLANK(O12),ABS(N12),ABS(O12))*100,"0")&amp;"%")&amp;IF(ISBLANK(G12),"","，永久")&amp;R12</f>
-        <v>战斗开始时使对手攻防交换，永久。</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
+        <f>VLOOKUP(I12,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R12&amp;VLOOKUP(H12,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E12,"#",TEXT(IF(ISBLANK(N12),ABS(M12),ABS(N12))*100,"0")&amp;"%")&amp;Q12</f>
+        <v>战斗开始时使对手攻防交换。</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="L12" s="1">
         <v>1</v>
       </c>
+      <c r="M12" s="15"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="P12" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N12),VLOOKUP(G12,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M12),VLOOKUP(G12,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M12)), NOT(ISBLANK(N12))),VLOOKUP(G12,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>攻防交换</v>
+      </c>
       <c r="Q12" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O12),VLOOKUP(H12,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N12),VLOOKUP(H12,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N12)), NOT(ISBLANK(O12))),VLOOKUP(H12,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>攻防交换</v>
-      </c>
-      <c r="R12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S12" s="1" t="str">
+      <c r="R12" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T12" s="1">
+      <c r="S12" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -2538,46 +2539,49 @@
         <v>闪避</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>VLOOKUP(J13,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S13&amp;VLOOKUP(I13,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E13,"#",TEXT(IF(ISBLANK(O13),ABS(N13),ABS(O13))*100,"0")&amp;"%")&amp;IF(ISBLANK(G13),"","，永久")&amp;R13</f>
+        <f>VLOOKUP(I13,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R13&amp;VLOOKUP(H13,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E13,"#",TEXT(IF(ISBLANK(N13),ABS(M13),ABS(N13))*100,"0")&amp;"%")&amp;Q13</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M13" s="1">
+        <v>332</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
         <v>0.2</v>
       </c>
+      <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="P13" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N13),VLOOKUP(G13,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M13),VLOOKUP(G13,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M13)), NOT(ISBLANK(N13))),VLOOKUP(G13,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>闪避</v>
+      </c>
       <c r="Q13" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O13),VLOOKUP(H13,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N13),VLOOKUP(H13,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N13)), NOT(ISBLANK(O13))),VLOOKUP(H13,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>闪避</v>
-      </c>
-      <c r="R13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S13" s="1" t="str">
+      <c r="R13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T13" s="1">
+      <c r="S13" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
@@ -2587,48 +2591,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>VLOOKUP(J14,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S14&amp;VLOOKUP(I14,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E14,"#",TEXT(IF(ISBLANK(O14),ABS(N14),ABS(O14))*100,"0")&amp;"%")&amp;IF(ISBLANK(G14),"","，永久")&amp;R14</f>
+        <f>VLOOKUP(I14,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R14&amp;VLOOKUP(H14,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E14,"#",TEXT(IF(ISBLANK(N14),ABS(M14),ABS(N14))*100,"0")&amp;"%")&amp;Q14</f>
         <v>攻击时20%的概率使自身+50%造成的伤害。</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M14" s="1">
+        <v>330</v>
+      </c>
+      <c r="L14" s="1">
         <v>0.2</v>
       </c>
-      <c r="N14" s="15">
+      <c r="M14" s="15">
         <v>0.5</v>
       </c>
-      <c r="O14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="P14" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N14),VLOOKUP(G14,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M14),VLOOKUP(G14,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M14)), NOT(ISBLANK(N14))),VLOOKUP(G14,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q14" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O14),VLOOKUP(H14,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N14),VLOOKUP(H14,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N14)), NOT(ISBLANK(O14))),VLOOKUP(H14,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S14" s="1" t="str">
+      <c r="R14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T14" s="1">
+      <c r="S14" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
@@ -2638,54 +2642,54 @@
         <v>+#攻击力</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>VLOOKUP(J15,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S15&amp;VLOOKUP(I15,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E15,"#",TEXT(IF(ISBLANK(O15),ABS(N15),ABS(O15))*100,"0")&amp;"%")&amp;IF(ISBLANK(G15),"","，永久")&amp;R15</f>
-        <v>攻击前如果生命值&lt;50%，那么使自身+30%攻击力，永久。</v>
-      </c>
-      <c r="G15" s="1">
+        <f>VLOOKUP(I15,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R15&amp;VLOOKUP(H15,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E15,"#",TEXT(IF(ISBLANK(N15),ABS(M15),ABS(N15))*100,"0")&amp;"%")&amp;Q15</f>
+        <v>攻击前如果生命值&lt;50%，那么使自身+30%攻击力，永久</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="15">
+      <c r="M15" s="15">
         <v>0.3</v>
       </c>
-      <c r="O15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="P15" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N15),VLOOKUP(G15,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M15),VLOOKUP(G15,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M15)), NOT(ISBLANK(N15))),VLOOKUP(G15,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q15" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O15),VLOOKUP(H15,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N15),VLOOKUP(H15,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N15)), NOT(ISBLANK(O15))),VLOOKUP(H15,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>如果生命值&lt;50%，那么</v>
       </c>
-      <c r="T15" s="1">
+      <c r="S15" s="1">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
@@ -2695,46 +2699,49 @@
         <v>无视闪避</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>VLOOKUP(J16,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S16&amp;VLOOKUP(I16,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(O16),ABS(N16),ABS(O16))*100,"0")&amp;"%")&amp;IF(ISBLANK(G16),"","，永久")&amp;R16</f>
+        <f>VLOOKUP(I16,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R16&amp;VLOOKUP(H16,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(N16),ABS(M16),ABS(N16))*100,"0")&amp;"%")&amp;Q16</f>
         <v>攻击时使自身无视闪避。</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M16" s="1">
+        <v>330</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
         <v>1</v>
       </c>
+      <c r="M16" s="15"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+      <c r="P16" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N16),VLOOKUP(G16,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M16),VLOOKUP(G16,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M16)), NOT(ISBLANK(N16))),VLOOKUP(G16,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>无视闪避</v>
+      </c>
       <c r="Q16" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O16),VLOOKUP(H16,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N16),VLOOKUP(H16,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N16)), NOT(ISBLANK(O16))),VLOOKUP(H16,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>无视闪避</v>
-      </c>
-      <c r="R16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S16" s="1" t="str">
+      <c r="R16" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T16" s="1">
+      <c r="S16" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>21</v>
@@ -2744,49 +2751,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>VLOOKUP(J17,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S17&amp;VLOOKUP(I17,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E17,"#",TEXT(IF(ISBLANK(O17),ABS(N17),ABS(O17))*100,"0")&amp;"%")&amp;IF(ISBLANK(G17),"","，永久")&amp;R17</f>
+        <f>VLOOKUP(I17,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R17&amp;VLOOKUP(H17,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E17,"#",TEXT(IF(ISBLANK(N17),ABS(M17),ABS(N17))*100,"0")&amp;"%")&amp;Q17</f>
         <v>攻击后15%的概率使对手放弃攻击，持续2回合。</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
       </c>
       <c r="L17" s="1">
-        <v>2</v>
-      </c>
-      <c r="M17" s="1">
         <v>0.15</v>
       </c>
+      <c r="M17" s="15"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="P17" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N17),VLOOKUP(G17,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M17),VLOOKUP(G17,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M17)), NOT(ISBLANK(N17))),VLOOKUP(G17,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q17" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O17),VLOOKUP(H17,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N17),VLOOKUP(H17,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N17)), NOT(ISBLANK(O17))),VLOOKUP(H17,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S17" s="1" t="str">
+      <c r="R17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>15%的概率</v>
       </c>
-      <c r="T17" s="1">
+      <c r="S17" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>21</v>
@@ -2796,48 +2803,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>VLOOKUP(J18,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S18&amp;VLOOKUP(I18,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(O18),ABS(N18),ABS(O18))*100,"0")&amp;"%")&amp;IF(ISBLANK(G18),"","，永久")&amp;R18</f>
+        <f>VLOOKUP(I18,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R18&amp;VLOOKUP(H18,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(N18),ABS(M18),ABS(N18))*100,"0")&amp;"%")&amp;Q18</f>
         <v>攻击时10%的概率使自身+400%造成的伤害。</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H18" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M18" s="1">
+        <v>330</v>
+      </c>
+      <c r="L18" s="1">
         <v>0.1</v>
       </c>
-      <c r="N18" s="15">
+      <c r="M18" s="15">
         <v>4</v>
       </c>
-      <c r="O18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="P18" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N18),VLOOKUP(G18,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M18),VLOOKUP(G18,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M18)), NOT(ISBLANK(N18))),VLOOKUP(G18,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q18" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O18),VLOOKUP(H18,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N18),VLOOKUP(H18,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N18)), NOT(ISBLANK(O18))),VLOOKUP(H18,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S18" s="1" t="str">
+      <c r="R18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10%的概率</v>
       </c>
-      <c r="T18" s="1">
+      <c r="S18" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -2847,49 +2854,49 @@
         <v>闪避</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>VLOOKUP(J19,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S19&amp;VLOOKUP(I19,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(O19),ABS(N19),ABS(O19))*100,"0")&amp;"%")&amp;IF(ISBLANK(G19),"","，永久")&amp;R19</f>
+        <f>VLOOKUP(I19,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R19&amp;VLOOKUP(H19,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(N19),ABS(M19),ABS(N19))*100,"0")&amp;"%")&amp;Q19</f>
         <v>攻击后30%的概率使自身闪避，持续2回合。</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
       </c>
       <c r="L19" s="1">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1">
         <v>0.3</v>
       </c>
+      <c r="M19" s="15"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="P19" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N19),VLOOKUP(G19,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M19),VLOOKUP(G19,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M19)), NOT(ISBLANK(N19))),VLOOKUP(G19,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>闪避</v>
+      </c>
       <c r="Q19" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O19),VLOOKUP(H19,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N19),VLOOKUP(H19,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N19)), NOT(ISBLANK(O19))),VLOOKUP(H19,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>闪避</v>
-      </c>
-      <c r="R19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S19" s="1" t="str">
+      <c r="R19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T19" s="1">
+      <c r="S19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
@@ -2899,51 +2906,51 @@
         <v>-#攻击力</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>VLOOKUP(J20,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S20&amp;VLOOKUP(I20,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E20,"#",TEXT(IF(ISBLANK(O20),ABS(N20),ABS(O20))*100,"0")&amp;"%")&amp;IF(ISBLANK(G20),"","，永久")&amp;R20</f>
+        <f>VLOOKUP(I20,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R20&amp;VLOOKUP(H20,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E20,"#",TEXT(IF(ISBLANK(N20),ABS(M20),ABS(N20))*100,"0")&amp;"%")&amp;Q20</f>
         <v>攻击前20%的概率使对手-50%攻击力，持续2回合。</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
       </c>
       <c r="L20" s="1">
-        <v>2</v>
-      </c>
-      <c r="M20" s="1">
         <v>0.2</v>
       </c>
-      <c r="N20" s="15">
+      <c r="M20" s="15">
         <v>-0.5</v>
       </c>
-      <c r="O20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="P20" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N20),VLOOKUP(G20,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M20),VLOOKUP(G20,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M20)), NOT(ISBLANK(N20))),VLOOKUP(G20,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q20" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O20),VLOOKUP(H20,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N20),VLOOKUP(H20,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N20)), NOT(ISBLANK(O20))),VLOOKUP(H20,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
-      </c>
-      <c r="R20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S20" s="1" t="str">
+      <c r="R20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T20" s="1">
+      <c r="S20" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>24</v>
@@ -2953,46 +2960,49 @@
         <v>闪避</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>VLOOKUP(J21,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S21&amp;VLOOKUP(I21,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E21,"#",TEXT(IF(ISBLANK(O21),ABS(N21),ABS(O21))*100,"0")&amp;"%")&amp;IF(ISBLANK(G21),"","，永久")&amp;R21</f>
+        <f>VLOOKUP(I21,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R21&amp;VLOOKUP(H21,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E21,"#",TEXT(IF(ISBLANK(N21),ABS(M21),ABS(N21))*100,"0")&amp;"%")&amp;Q21</f>
         <v>受击时40%的概率使自身闪避。</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M21" s="1">
+        <v>332</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
         <v>0.4</v>
       </c>
+      <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="P21" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N21),VLOOKUP(G21,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M21),VLOOKUP(G21,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M21)), NOT(ISBLANK(N21))),VLOOKUP(G21,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>闪避</v>
+      </c>
       <c r="Q21" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O21),VLOOKUP(H21,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N21),VLOOKUP(H21,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N21)), NOT(ISBLANK(O21))),VLOOKUP(H21,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>闪避</v>
-      </c>
-      <c r="R21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S21" s="1" t="str">
+      <c r="R21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T21" s="1">
+      <c r="S21" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -3002,51 +3012,51 @@
         <v>+#最大生命并清除buff，1次</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>VLOOKUP(J22,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S22&amp;VLOOKUP(I22,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E22,"#",TEXT(IF(ISBLANK(O22),ABS(N22),ABS(O22))*100,"0")&amp;"%")&amp;IF(ISBLANK(G22),"","，永久")&amp;R22</f>
+        <f>VLOOKUP(I22,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R22&amp;VLOOKUP(H22,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E22,"#",TEXT(IF(ISBLANK(N22),ABS(M22),ABS(N22))*100,"0")&amp;"%")&amp;Q22</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K22" s="1">
+        <v>334</v>
+      </c>
+      <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1">
+      <c r="L22" s="1">
         <v>1</v>
       </c>
-      <c r="N22" s="15">
+      <c r="M22" s="15">
         <v>1</v>
       </c>
-      <c r="O22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="P22" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N22),VLOOKUP(G22,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M22),VLOOKUP(G22,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M22)), NOT(ISBLANK(N22))),VLOOKUP(G22,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#最大生命并清除buff，^次</v>
+      </c>
       <c r="Q22" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O22),VLOOKUP(H22,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N22),VLOOKUP(H22,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N22)), NOT(ISBLANK(O22))),VLOOKUP(H22,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#最大生命并清除buff，^次</v>
-      </c>
-      <c r="R22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S22" s="1" t="str">
+      <c r="R22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>如果死亡，那么</v>
       </c>
-      <c r="T22" s="1">
+      <c r="S22" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
@@ -3056,51 +3066,51 @@
         <v>-#攻击力</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>VLOOKUP(J23,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S23&amp;VLOOKUP(I23,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E23,"#",TEXT(IF(ISBLANK(O23),ABS(N23),ABS(O23))*100,"0")&amp;"%")&amp;IF(ISBLANK(G23),"","，永久")&amp;R23</f>
-        <v>攻击前使对手-10%攻击力，永久。</v>
-      </c>
-      <c r="G23" s="1">
+        <f>VLOOKUP(I23,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R23&amp;VLOOKUP(H23,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E23,"#",TEXT(IF(ISBLANK(N23),ABS(M23),ABS(N23))*100,"0")&amp;"%")&amp;Q23</f>
+        <v>攻击前使对手-10%攻击力，永久</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="15">
+      <c r="M23" s="15">
         <v>-0.1</v>
       </c>
-      <c r="O23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="P23" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N23),VLOOKUP(G23,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M23),VLOOKUP(G23,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M23)), NOT(ISBLANK(N23))),VLOOKUP(G23,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q23" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O23),VLOOKUP(H23,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N23),VLOOKUP(H23,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N23)), NOT(ISBLANK(O23))),VLOOKUP(H23,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S23" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T23" s="1">
+      <c r="S23" s="1">
         <f t="shared" si="3"/>
         <v>-0.1</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
@@ -3110,46 +3120,49 @@
         <v>闪避</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>VLOOKUP(J24,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S24&amp;VLOOKUP(I24,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E24,"#",TEXT(IF(ISBLANK(O24),ABS(N24),ABS(O24))*100,"0")&amp;"%")&amp;IF(ISBLANK(G24),"","，永久")&amp;R24</f>
+        <f>VLOOKUP(I24,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R24&amp;VLOOKUP(H24,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E24,"#",TEXT(IF(ISBLANK(N24),ABS(M24),ABS(N24))*100,"0")&amp;"%")&amp;Q24</f>
         <v>受击时50%的概率使自身闪避。</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H24" s="1" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M24" s="1">
+        <v>332</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
         <v>0.5</v>
       </c>
+      <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="P24" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N24),VLOOKUP(G24,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M24),VLOOKUP(G24,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M24)), NOT(ISBLANK(N24))),VLOOKUP(G24,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>闪避</v>
+      </c>
       <c r="Q24" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O24),VLOOKUP(H24,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N24),VLOOKUP(H24,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N24)), NOT(ISBLANK(O24))),VLOOKUP(H24,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>闪避</v>
-      </c>
-      <c r="R24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S24" s="1" t="str">
+      <c r="R24" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T24" s="1">
+      <c r="S24" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>28</v>
@@ -3159,47 +3172,47 @@
         <v>-[#×伤害值]的生命值</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>VLOOKUP(J25,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S25&amp;VLOOKUP(I25,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E25,"#",TEXT(IF(ISBLANK(O25),ABS(N25),ABS(O25))*100,"0")&amp;"%")&amp;IF(ISBLANK(G25),"","，永久")&amp;R25</f>
+        <f>VLOOKUP(I25,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R25&amp;VLOOKUP(H25,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E25,"#",TEXT(IF(ISBLANK(N25),ABS(M25),ABS(N25))*100,"0")&amp;"%")&amp;Q25</f>
         <v>受击后使对手-[40%×伤害值]的生命值。</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M25" s="1">
+        <v>334</v>
+      </c>
+      <c r="L25" s="1">
         <v>1</v>
       </c>
-      <c r="O25" s="15">
+      <c r="N25" s="15">
         <v>-0.4</v>
       </c>
+      <c r="P25" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N25),VLOOKUP(G25,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M25),VLOOKUP(G25,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M25)), NOT(ISBLANK(N25))),VLOOKUP(G25,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×伤害值]的生命值</v>
+      </c>
       <c r="Q25" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O25),VLOOKUP(H25,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N25),VLOOKUP(H25,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N25)), NOT(ISBLANK(O25))),VLOOKUP(H25,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×伤害值]的生命值</v>
-      </c>
-      <c r="R25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S25" s="1" t="str">
+      <c r="R25" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T25" s="1">
+      <c r="S25" s="1">
         <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>29</v>
@@ -3209,48 +3222,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>VLOOKUP(J26,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S26&amp;VLOOKUP(I26,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E26,"#",TEXT(IF(ISBLANK(O26),ABS(N26),ABS(O26))*100,"0")&amp;"%")&amp;IF(ISBLANK(G26),"","，永久")&amp;R26</f>
+        <f>VLOOKUP(I26,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R26&amp;VLOOKUP(H26,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E26,"#",TEXT(IF(ISBLANK(N26),ABS(M26),ABS(N26))*100,"0")&amp;"%")&amp;Q26</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H26" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M26" s="1">
+        <v>330</v>
+      </c>
+      <c r="L26" s="1">
         <v>0.2</v>
       </c>
-      <c r="N26" s="15">
+      <c r="M26" s="15">
         <v>1</v>
       </c>
-      <c r="O26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="P26" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N26),VLOOKUP(G26,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M26),VLOOKUP(G26,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M26)), NOT(ISBLANK(N26))),VLOOKUP(G26,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q26" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O26),VLOOKUP(H26,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N26),VLOOKUP(H26,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N26)), NOT(ISBLANK(O26))),VLOOKUP(H26,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S26" s="1" t="str">
+      <c r="R26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T26" s="1">
+      <c r="S26" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>30</v>
@@ -3260,51 +3273,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>VLOOKUP(J27,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S27&amp;VLOOKUP(I27,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E27,"#",TEXT(IF(ISBLANK(O27),ABS(N27),ABS(O27))*100,"0")&amp;"%")&amp;IF(ISBLANK(G27),"","，永久")&amp;R27</f>
+        <f>VLOOKUP(I27,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R27&amp;VLOOKUP(H27,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E27,"#",TEXT(IF(ISBLANK(N27),ABS(M27),ABS(N27))*100,"0")&amp;"%")&amp;Q27</f>
         <v>攻击时20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1">
         <v>0.2</v>
       </c>
-      <c r="N27" s="15">
-        <v>1</v>
-      </c>
-      <c r="O27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="P27" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N27),VLOOKUP(G27,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M27),VLOOKUP(G27,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M27)), NOT(ISBLANK(N27))),VLOOKUP(G27,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q27" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O27),VLOOKUP(H27,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N27),VLOOKUP(H27,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N27)), NOT(ISBLANK(O27))),VLOOKUP(H27,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S27" s="1" t="str">
+      <c r="R27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T27" s="1">
+      <c r="S27" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>31</v>
@@ -3314,48 +3325,51 @@
         <v>-#防御力</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>VLOOKUP(J28,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S28&amp;VLOOKUP(I28,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E28,"#",TEXT(IF(ISBLANK(O28),ABS(N28),ABS(O28))*100,"0")&amp;"%")&amp;IF(ISBLANK(G28),"","，永久")&amp;R28</f>
+        <f>VLOOKUP(I28,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R28&amp;VLOOKUP(H28,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E28,"#",TEXT(IF(ISBLANK(N28),ABS(M28),ABS(N28))*100,"0")&amp;"%")&amp;Q28</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M28" s="1">
+        <v>330</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
         <v>0.2</v>
       </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15">
+      <c r="M28" s="15"/>
+      <c r="N28" s="15">
         <v>-0.5</v>
       </c>
+      <c r="P28" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N28),VLOOKUP(G28,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M28),VLOOKUP(G28,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M28)), NOT(ISBLANK(N28))),VLOOKUP(G28,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#防御力</v>
+      </c>
       <c r="Q28" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O28),VLOOKUP(H28,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N28),VLOOKUP(H28,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N28)), NOT(ISBLANK(O28))),VLOOKUP(H28,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#防御力</v>
-      </c>
-      <c r="R28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S28" s="1" t="str">
+      <c r="R28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T28" s="1">
+      <c r="S28" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>31</v>
@@ -3365,48 +3379,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>VLOOKUP(J29,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S29&amp;VLOOKUP(I29,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E29,"#",TEXT(IF(ISBLANK(O29),ABS(N29),ABS(O29))*100,"0")&amp;"%")&amp;IF(ISBLANK(G29),"","，永久")&amp;R29</f>
+        <f>VLOOKUP(I29,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R29&amp;VLOOKUP(H29,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E29,"#",TEXT(IF(ISBLANK(N29),ABS(M29),ABS(N29))*100,"0")&amp;"%")&amp;Q29</f>
         <v>攻击时30%的概率使自身+200%造成的伤害。</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H29" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M29" s="1">
+        <v>330</v>
+      </c>
+      <c r="L29" s="1">
         <v>0.3</v>
       </c>
-      <c r="N29" s="15">
+      <c r="M29" s="15">
         <v>2</v>
       </c>
-      <c r="O29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="P29" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N29),VLOOKUP(G29,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M29),VLOOKUP(G29,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M29)), NOT(ISBLANK(N29))),VLOOKUP(G29,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q29" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O29),VLOOKUP(H29,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N29),VLOOKUP(H29,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N29)), NOT(ISBLANK(O29))),VLOOKUP(H29,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S29" s="1" t="str">
+      <c r="R29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T29" s="1">
+      <c r="S29" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>32</v>
@@ -3416,48 +3430,48 @@
         <v>-#所受的伤害</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>VLOOKUP(J30,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S30&amp;VLOOKUP(I30,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E30,"#",TEXT(IF(ISBLANK(O30),ABS(N30),ABS(O30))*100,"0")&amp;"%")&amp;IF(ISBLANK(G30),"","，永久")&amp;R30</f>
+        <f>VLOOKUP(I30,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R30&amp;VLOOKUP(H30,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E30,"#",TEXT(IF(ISBLANK(N30),ABS(M30),ABS(N30))*100,"0")&amp;"%")&amp;Q30</f>
         <v>受击时90%的概率使自身-20%所受的伤害。</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H30" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M30" s="1">
+        <v>332</v>
+      </c>
+      <c r="L30" s="1">
         <v>0.9</v>
       </c>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15">
+      <c r="M30" s="15"/>
+      <c r="N30" s="15">
         <v>-0.2</v>
       </c>
+      <c r="P30" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N30),VLOOKUP(G30,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M30),VLOOKUP(G30,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M30)), NOT(ISBLANK(N30))),VLOOKUP(G30,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#所受的伤害</v>
+      </c>
       <c r="Q30" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O30),VLOOKUP(H30,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N30),VLOOKUP(H30,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N30)), NOT(ISBLANK(O30))),VLOOKUP(H30,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#所受的伤害</v>
-      </c>
-      <c r="R30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S30" s="1" t="str">
+      <c r="R30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>90%的概率</v>
       </c>
-      <c r="T30" s="1">
+      <c r="S30" s="1">
         <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>32</v>
@@ -3467,48 +3481,48 @@
         <v>-#所受的伤害</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>VLOOKUP(J31,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S31&amp;VLOOKUP(I31,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E31,"#",TEXT(IF(ISBLANK(O31),ABS(N31),ABS(O31))*100,"0")&amp;"%")&amp;IF(ISBLANK(G31),"","，永久")&amp;R31</f>
+        <f>VLOOKUP(I31,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R31&amp;VLOOKUP(H31,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E31,"#",TEXT(IF(ISBLANK(N31),ABS(M31),ABS(N31))*100,"0")&amp;"%")&amp;Q31</f>
         <v>受击时90%的概率使自身-30%所受的伤害。</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H31" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M31" s="1">
+        <v>332</v>
+      </c>
+      <c r="L31" s="1">
         <v>0.9</v>
       </c>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15">
+      <c r="M31" s="15"/>
+      <c r="N31" s="15">
         <v>-0.3</v>
       </c>
+      <c r="P31" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N31),VLOOKUP(G31,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M31),VLOOKUP(G31,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M31)), NOT(ISBLANK(N31))),VLOOKUP(G31,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#所受的伤害</v>
+      </c>
       <c r="Q31" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O31),VLOOKUP(H31,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N31),VLOOKUP(H31,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N31)), NOT(ISBLANK(O31))),VLOOKUP(H31,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#所受的伤害</v>
-      </c>
-      <c r="R31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S31" s="1" t="str">
+      <c r="R31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>90%的概率</v>
       </c>
-      <c r="T31" s="1">
+      <c r="S31" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>33</v>
@@ -3518,48 +3532,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>VLOOKUP(J32,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S32&amp;VLOOKUP(I32,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E32,"#",TEXT(IF(ISBLANK(O32),ABS(N32),ABS(O32))*100,"0")&amp;"%")&amp;IF(ISBLANK(G32),"","，永久")&amp;R32</f>
+        <f>VLOOKUP(I32,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R32&amp;VLOOKUP(H32,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E32,"#",TEXT(IF(ISBLANK(N32),ABS(M32),ABS(N32))*100,"0")&amp;"%")&amp;Q32</f>
         <v>攻击时10%的概率使自身+150%造成的伤害。</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H32" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M32" s="1">
+        <v>330</v>
+      </c>
+      <c r="L32" s="1">
         <v>0.1</v>
       </c>
-      <c r="N32" s="15">
+      <c r="M32" s="15">
         <v>1.5</v>
       </c>
-      <c r="O32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="P32" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N32),VLOOKUP(G32,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M32),VLOOKUP(G32,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M32)), NOT(ISBLANK(N32))),VLOOKUP(G32,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q32" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O32),VLOOKUP(H32,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N32),VLOOKUP(H32,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N32)), NOT(ISBLANK(O32))),VLOOKUP(H32,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S32" s="1" t="str">
+      <c r="R32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10%的概率</v>
       </c>
-      <c r="T32" s="1">
+      <c r="S32" s="1">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>35</v>
@@ -3569,48 +3583,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>VLOOKUP(J33,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S33&amp;VLOOKUP(I33,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E33,"#",TEXT(IF(ISBLANK(O33),ABS(N33),ABS(O33))*100,"0")&amp;"%")&amp;IF(ISBLANK(G33),"","，永久")&amp;R33</f>
+        <f>VLOOKUP(I33,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R33&amp;VLOOKUP(H33,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E33,"#",TEXT(IF(ISBLANK(N33),ABS(M33),ABS(N33))*100,"0")&amp;"%")&amp;Q33</f>
         <v>攻击时25%的概率使自身+150%造成的伤害。</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H33" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M33" s="1">
+        <v>330</v>
+      </c>
+      <c r="L33" s="1">
         <v>0.25</v>
       </c>
-      <c r="N33" s="15">
+      <c r="M33" s="15">
         <v>1.5</v>
       </c>
-      <c r="O33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="P33" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N33),VLOOKUP(G33,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M33),VLOOKUP(G33,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M33)), NOT(ISBLANK(N33))),VLOOKUP(G33,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q33" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O33),VLOOKUP(H33,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N33),VLOOKUP(H33,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N33)), NOT(ISBLANK(O33))),VLOOKUP(H33,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S33" s="1" t="str">
+      <c r="R33" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T33" s="1">
+      <c r="S33" s="1">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>36</v>
@@ -3620,48 +3634,48 @@
         <v>-[#×伤害值]的生命值</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>VLOOKUP(J34,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S34&amp;VLOOKUP(I34,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E34,"#",TEXT(IF(ISBLANK(O34),ABS(N34),ABS(O34))*100,"0")&amp;"%")&amp;IF(ISBLANK(G34),"","，永久")&amp;R34</f>
+        <f>VLOOKUP(I34,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R34&amp;VLOOKUP(H34,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E34,"#",TEXT(IF(ISBLANK(N34),ABS(M34),ABS(N34))*100,"0")&amp;"%")&amp;Q34</f>
         <v>受击后使对手-[50%×伤害值]的生命值。</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="H34" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M34" s="1">
+        <v>334</v>
+      </c>
+      <c r="L34" s="1">
         <v>1</v>
       </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15">
+      <c r="M34" s="15"/>
+      <c r="N34" s="15">
         <v>-0.5</v>
       </c>
+      <c r="P34" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N34),VLOOKUP(G34,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M34),VLOOKUP(G34,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M34)), NOT(ISBLANK(N34))),VLOOKUP(G34,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×伤害值]的生命值</v>
+      </c>
       <c r="Q34" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O34),VLOOKUP(H34,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N34),VLOOKUP(H34,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N34)), NOT(ISBLANK(O34))),VLOOKUP(H34,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×伤害值]的生命值</v>
-      </c>
-      <c r="R34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S34" s="1" t="str">
+      <c r="R34" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T34" s="1">
+      <c r="S34" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>34</v>
@@ -3671,48 +3685,48 @@
         <v>+[#×攻击力]的生命值</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>VLOOKUP(J35,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S35&amp;VLOOKUP(I35,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E35,"#",TEXT(IF(ISBLANK(O35),ABS(N35),ABS(O35))*100,"0")&amp;"%")&amp;IF(ISBLANK(G35),"","，永久")&amp;R35</f>
+        <f>VLOOKUP(I35,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R35&amp;VLOOKUP(H35,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E35,"#",TEXT(IF(ISBLANK(N35),ABS(M35),ABS(N35))*100,"0")&amp;"%")&amp;Q35</f>
         <v>回合开始时50%的概率使自身+[40%×攻击力]的生命值。</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M35" s="1">
+        <v>331</v>
+      </c>
+      <c r="L35" s="1">
         <v>0.5</v>
       </c>
-      <c r="N35" s="15">
+      <c r="M35" s="15">
         <v>0.4</v>
       </c>
-      <c r="O35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="P35" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N35),VLOOKUP(G35,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M35),VLOOKUP(G35,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M35)), NOT(ISBLANK(N35))),VLOOKUP(G35,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×攻击力]的生命值</v>
+      </c>
       <c r="Q35" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O35),VLOOKUP(H35,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N35),VLOOKUP(H35,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N35)), NOT(ISBLANK(O35))),VLOOKUP(H35,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×攻击力]的生命值</v>
-      </c>
-      <c r="R35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S35" s="1" t="str">
+      <c r="R35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T35" s="1">
+      <c r="S35" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>37</v>
@@ -3722,51 +3736,49 @@
         <v>跳过回合</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>VLOOKUP(J36,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S36&amp;VLOOKUP(I36,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E36,"#",TEXT(IF(ISBLANK(O36),ABS(N36),ABS(O36))*100,"0")&amp;"%")&amp;IF(ISBLANK(G36),"","，永久")&amp;R36</f>
+        <f>VLOOKUP(I36,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R36&amp;VLOOKUP(H36,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E36,"#",TEXT(IF(ISBLANK(N36),ABS(M36),ABS(N36))*100,"0")&amp;"%")&amp;Q36</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
       </c>
       <c r="L36" s="1">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1">
         <v>0.25</v>
       </c>
+      <c r="M36" s="15"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="15">
-        <v>1</v>
+      <c r="P36" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N36),VLOOKUP(G36,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M36),VLOOKUP(G36,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M36)), NOT(ISBLANK(N36))),VLOOKUP(G36,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>跳过回合</v>
       </c>
       <c r="Q36" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O36),VLOOKUP(H36,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N36),VLOOKUP(H36,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N36)), NOT(ISBLANK(O36))),VLOOKUP(H36,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>跳过回合</v>
-      </c>
-      <c r="R36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S36" s="1" t="str">
+      <c r="R36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T36" s="1">
+      <c r="S36" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
@@ -3776,48 +3788,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>VLOOKUP(J37,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S37&amp;VLOOKUP(I37,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E37,"#",TEXT(IF(ISBLANK(O37),ABS(N37),ABS(O37))*100,"0")&amp;"%")&amp;IF(ISBLANK(G37),"","，永久")&amp;R37</f>
+        <f>VLOOKUP(I37,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R37&amp;VLOOKUP(H37,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E37,"#",TEXT(IF(ISBLANK(N37),ABS(M37),ABS(N37))*100,"0")&amp;"%")&amp;Q37</f>
         <v>受击前25%的概率使对手放弃攻击。</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="H37" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M37" s="1">
+        <v>303</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
         <v>0.25</v>
       </c>
-      <c r="N37" s="15">
-        <v>1</v>
-      </c>
-      <c r="O37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="P37" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N37),VLOOKUP(G37,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M37),VLOOKUP(G37,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M37)), NOT(ISBLANK(N37))),VLOOKUP(G37,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q37" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O37),VLOOKUP(H37,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N37),VLOOKUP(H37,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N37)), NOT(ISBLANK(O37))),VLOOKUP(H37,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S37" s="1" t="str">
+      <c r="R37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T37" s="1">
+      <c r="S37" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>39</v>
@@ -3827,51 +3840,51 @@
         <v>-#攻击力</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>VLOOKUP(J38,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S38&amp;VLOOKUP(I38,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E38,"#",TEXT(IF(ISBLANK(O38),ABS(N38),ABS(O38))*100,"0")&amp;"%")&amp;IF(ISBLANK(G38),"","，永久")&amp;R38</f>
-        <v>战斗开始时使对手-30%攻击力，永久。</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
+        <f>VLOOKUP(I38,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R38&amp;VLOOKUP(H38,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E38,"#",TEXT(IF(ISBLANK(N38),ABS(M38),ABS(N38))*100,"0")&amp;"%")&amp;Q38</f>
+        <v>战斗开始时使对手-30%攻击力，永久</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="K38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="1">
         <v>1</v>
       </c>
-      <c r="N38" s="15">
+      <c r="M38" s="15">
         <v>-0.3</v>
       </c>
-      <c r="O38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="P38" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N38),VLOOKUP(G38,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M38),VLOOKUP(G38,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M38)), NOT(ISBLANK(N38))),VLOOKUP(G38,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q38" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O38),VLOOKUP(H38,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N38),VLOOKUP(H38,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N38)), NOT(ISBLANK(O38))),VLOOKUP(H38,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S38" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T38" s="1">
+      <c r="S38" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>40</v>
@@ -3881,51 +3894,48 @@
         <v>禁用3个技能</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>VLOOKUP(J39,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S39&amp;VLOOKUP(I39,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E39,"#",TEXT(IF(ISBLANK(O39),ABS(N39),ABS(O39))*100,"0")&amp;"%")&amp;IF(ISBLANK(G39),"","，永久")&amp;R39</f>
-        <v>战斗准备阶段使对手禁用3个技能，永久。</v>
-      </c>
-      <c r="G39" s="1">
+        <f>VLOOKUP(I39,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R39&amp;VLOOKUP(H39,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E39,"#",TEXT(IF(ISBLANK(N39),ABS(M39),ABS(N39))*100,"0")&amp;"%")&amp;Q39</f>
+        <v>战斗准备阶段使对手禁用3个技能。</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L39" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="15">
+      <c r="M39" s="15">
         <v>3</v>
       </c>
-      <c r="O39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="P39" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N39),VLOOKUP(G39,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M39),VLOOKUP(G39,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M39)), NOT(ISBLANK(N39))),VLOOKUP(G39,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>禁用^个技能</v>
+      </c>
       <c r="Q39" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O39),VLOOKUP(H39,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N39),VLOOKUP(H39,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N39)), NOT(ISBLANK(O39))),VLOOKUP(H39,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>禁用^个技能</v>
-      </c>
-      <c r="R39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S39" s="1" t="str">
+      <c r="R39" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T39" s="1">
+      <c r="S39" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>41</v>
@@ -3935,51 +3945,51 @@
         <v>+#攻击力</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>VLOOKUP(J40,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S40&amp;VLOOKUP(I40,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E40,"#",TEXT(IF(ISBLANK(O40),ABS(N40),ABS(O40))*100,"0")&amp;"%")&amp;IF(ISBLANK(G40),"","，永久")&amp;R40</f>
-        <v>战斗开始时50%的概率使自身+100%攻击力，永久。</v>
-      </c>
-      <c r="G40" s="1">
+        <f>VLOOKUP(I40,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R40&amp;VLOOKUP(H40,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E40,"#",TEXT(IF(ISBLANK(N40),ABS(M40),ABS(N40))*100,"0")&amp;"%")&amp;Q40</f>
+        <v>战斗开始时50%的概率使自身+100%攻击力，永久</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M40" s="15">
         <v>1</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N40" s="15">
-        <v>1</v>
-      </c>
-      <c r="O40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="P40" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N40),VLOOKUP(G40,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M40),VLOOKUP(G40,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M40)), NOT(ISBLANK(N40))),VLOOKUP(G40,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q40" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O40),VLOOKUP(H40,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N40),VLOOKUP(H40,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N40)), NOT(ISBLANK(O40))),VLOOKUP(H40,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T40" s="1">
+      <c r="S40" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>41</v>
@@ -3989,51 +3999,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>VLOOKUP(J41,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S41&amp;VLOOKUP(I41,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E41,"#",TEXT(IF(ISBLANK(O41),ABS(N41),ABS(O41))*100,"0")&amp;"%")&amp;IF(ISBLANK(G41),"","，永久")&amp;R41</f>
+        <f>VLOOKUP(I41,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R41&amp;VLOOKUP(H41,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E41,"#",TEXT(IF(ISBLANK(N41),ABS(M41),ABS(N41))*100,"0")&amp;"%")&amp;Q41</f>
         <v>攻击后30%的概率使对手放弃攻击，持续1回合。</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="H41" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
       </c>
       <c r="L41" s="1">
-        <v>1</v>
-      </c>
-      <c r="M41" s="1">
         <v>0.3</v>
       </c>
-      <c r="N41" s="15">
-        <v>1</v>
-      </c>
-      <c r="O41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="P41" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N41),VLOOKUP(G41,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M41),VLOOKUP(G41,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M41)), NOT(ISBLANK(N41))),VLOOKUP(G41,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q41" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O41),VLOOKUP(H41,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N41),VLOOKUP(H41,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N41)), NOT(ISBLANK(O41))),VLOOKUP(H41,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S41" s="1" t="str">
+      <c r="R41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T41" s="1">
+      <c r="S41" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>42</v>
@@ -4043,53 +4051,53 @@
         <v>-#攻防</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>VLOOKUP(J42,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S42&amp;VLOOKUP(I42,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E42,"#",TEXT(IF(ISBLANK(O42),ABS(N42),ABS(O42))*100,"0")&amp;"%")&amp;IF(ISBLANK(G42),"","，永久")&amp;R42</f>
-        <v>受击后30%的概率使对手-30%攻防，永久。</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
+        <f>VLOOKUP(I42,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R42&amp;VLOOKUP(H42,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E42,"#",TEXT(IF(ISBLANK(N42),ABS(M42),ABS(N42))*100,"0")&amp;"%")&amp;Q42</f>
+        <v>受击后30%的概率使对手-30%攻防，永久</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M42" s="1">
+        <v>334</v>
+      </c>
+      <c r="K42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L42" s="1">
         <v>0.3</v>
+      </c>
+      <c r="M42" s="15">
+        <v>-0.3</v>
       </c>
       <c r="N42" s="15">
         <v>-0.3</v>
       </c>
-      <c r="O42" s="15">
-        <v>-0.3</v>
+      <c r="P42" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N42),VLOOKUP(G42,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M42),VLOOKUP(G42,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M42)), NOT(ISBLANK(N42))),VLOOKUP(G42,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻防</v>
       </c>
       <c r="Q42" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O42),VLOOKUP(H42,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N42),VLOOKUP(H42,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N42)), NOT(ISBLANK(O42))),VLOOKUP(H42,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻防</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T42" s="1">
+      <c r="S42" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>43</v>
@@ -4099,48 +4107,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>VLOOKUP(J43,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S43&amp;VLOOKUP(I43,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E43,"#",TEXT(IF(ISBLANK(O43),ABS(N43),ABS(O43))*100,"0")&amp;"%")&amp;IF(ISBLANK(G43),"","，永久")&amp;R43</f>
+        <f>VLOOKUP(I43,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R43&amp;VLOOKUP(H43,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E43,"#",TEXT(IF(ISBLANK(N43),ABS(M43),ABS(N43))*100,"0")&amp;"%")&amp;Q43</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
+      <c r="G43" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H43" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M43" s="1">
+        <v>330</v>
+      </c>
+      <c r="L43" s="1">
         <v>0.4</v>
       </c>
-      <c r="N43" s="15">
+      <c r="M43" s="15">
         <v>0.5</v>
       </c>
-      <c r="O43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="P43" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N43),VLOOKUP(G43,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M43),VLOOKUP(G43,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M43)), NOT(ISBLANK(N43))),VLOOKUP(G43,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q43" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O43),VLOOKUP(H43,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N43),VLOOKUP(H43,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N43)), NOT(ISBLANK(O43))),VLOOKUP(H43,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S43" s="1" t="str">
+      <c r="R43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T43" s="1">
+      <c r="S43" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>44</v>
@@ -4150,51 +4158,49 @@
         <v>跳过回合</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>VLOOKUP(J44,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S44&amp;VLOOKUP(I44,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(O44),ABS(N44),ABS(O44))*100,"0")&amp;"%")&amp;IF(ISBLANK(G44),"","，永久")&amp;R44</f>
+        <f>VLOOKUP(I44,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R44&amp;VLOOKUP(H44,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(N44),ABS(M44),ABS(N44))*100,"0")&amp;"%")&amp;Q44</f>
         <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
+      <c r="G44" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H44" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
       </c>
       <c r="L44" s="1">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1">
         <v>0.2</v>
       </c>
+      <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="15">
-        <v>1</v>
+      <c r="P44" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N44),VLOOKUP(G44,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M44),VLOOKUP(G44,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M44)), NOT(ISBLANK(N44))),VLOOKUP(G44,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>跳过回合</v>
       </c>
       <c r="Q44" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O44),VLOOKUP(H44,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N44),VLOOKUP(H44,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N44)), NOT(ISBLANK(O44))),VLOOKUP(H44,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>跳过回合</v>
-      </c>
-      <c r="R44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S44" s="1" t="str">
+      <c r="R44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T44" s="1">
+      <c r="S44" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
@@ -4204,205 +4210,208 @@
         <v>闪避</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>VLOOKUP(J45,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S45&amp;VLOOKUP(I45,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(O45),ABS(N45),ABS(O45))*100,"0")&amp;"%")&amp;IF(ISBLANK(G45),"","，永久")&amp;R45</f>
+        <f>VLOOKUP(I45,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R45&amp;VLOOKUP(H45,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(N45),ABS(M45),ABS(N45))*100,"0")&amp;"%")&amp;Q45</f>
         <v>攻击后20%的概率使自身闪避，持续1回合。</v>
       </c>
+      <c r="G45" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H45" s="1" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
       </c>
       <c r="L45" s="1">
-        <v>1</v>
-      </c>
-      <c r="M45" s="1">
         <v>0.2</v>
       </c>
+      <c r="M45" s="15"/>
       <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
+      <c r="P45" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N45),VLOOKUP(G45,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M45),VLOOKUP(G45,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M45)), NOT(ISBLANK(N45))),VLOOKUP(G45,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>闪避</v>
+      </c>
       <c r="Q45" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O45),VLOOKUP(H45,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N45),VLOOKUP(H45,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N45)), NOT(ISBLANK(O45))),VLOOKUP(H45,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>闪避</v>
-      </c>
-      <c r="R45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S45" s="1" t="str">
+      <c r="R45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T45" s="1">
+      <c r="S45" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>-#防御力</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>VLOOKUP(J46,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S46&amp;VLOOKUP(I46,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E46,"#",TEXT(IF(ISBLANK(O46),ABS(N46),ABS(O46))*100,"0")&amp;"%")&amp;IF(ISBLANK(G46),"","，永久")&amp;R46</f>
+        <f>VLOOKUP(I46,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R46&amp;VLOOKUP(H46,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E46,"#",TEXT(IF(ISBLANK(N46),ABS(M46),ABS(N46))*100,"0")&amp;"%")&amp;Q46</f>
         <v>攻击时20%的概率使对手-100%防御力。</v>
       </c>
+      <c r="G46" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H46" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M46" s="1">
+        <v>330</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
         <v>0.2</v>
       </c>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15">
+      <c r="M46" s="15"/>
+      <c r="N46" s="15">
         <v>-1</v>
       </c>
+      <c r="P46" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N46),VLOOKUP(G46,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M46),VLOOKUP(G46,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M46)), NOT(ISBLANK(N46))),VLOOKUP(G46,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#防御力</v>
+      </c>
       <c r="Q46" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O46),VLOOKUP(H46,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N46),VLOOKUP(H46,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N46)), NOT(ISBLANK(O46))),VLOOKUP(H46,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#防御力</v>
-      </c>
-      <c r="R46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S46" s="1" t="str">
+      <c r="R46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T46" s="1">
+      <c r="S46" s="1">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>+#防御力</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>VLOOKUP(J47,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S47&amp;VLOOKUP(I47,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E47,"#",TEXT(IF(ISBLANK(O47),ABS(N47),ABS(O47))*100,"0")&amp;"%")&amp;IF(ISBLANK(G47),"","，永久")&amp;R47</f>
+        <f>VLOOKUP(I47,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R47&amp;VLOOKUP(H47,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E47,"#",TEXT(IF(ISBLANK(N47),ABS(M47),ABS(N47))*100,"0")&amp;"%")&amp;Q47</f>
         <v>回合开始时20%的概率使自身+50%防御力，持续1回合。</v>
       </c>
+      <c r="G47" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H47" s="1" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
       </c>
       <c r="L47" s="1">
-        <v>1</v>
-      </c>
-      <c r="M47" s="1">
         <v>0.2</v>
       </c>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15">
+      <c r="M47" s="15"/>
+      <c r="N47" s="15">
         <v>0.5</v>
       </c>
+      <c r="P47" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N47),VLOOKUP(G47,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M47),VLOOKUP(G47,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M47)), NOT(ISBLANK(N47))),VLOOKUP(G47,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#防御力</v>
+      </c>
       <c r="Q47" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O47),VLOOKUP(H47,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N47),VLOOKUP(H47,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N47)), NOT(ISBLANK(O47))),VLOOKUP(H47,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#防御力</v>
-      </c>
-      <c r="R47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S47" s="1" t="str">
+      <c r="R47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T47" s="1">
+      <c r="S47" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>VLOOKUP(J48,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S48&amp;VLOOKUP(I48,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E48,"#",TEXT(IF(ISBLANK(O48),ABS(N48),ABS(O48))*100,"0")&amp;"%")&amp;IF(ISBLANK(G48),"","，永久")&amp;R48</f>
+        <f>VLOOKUP(I48,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R48&amp;VLOOKUP(H48,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E48,"#",TEXT(IF(ISBLANK(N48),ABS(M48),ABS(N48))*100,"0")&amp;"%")&amp;Q48</f>
         <v>攻击时25%的概率使自身+100%造成的伤害。</v>
       </c>
+      <c r="G48" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H48" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M48" s="1">
+        <v>330</v>
+      </c>
+      <c r="L48" s="1">
         <v>0.25</v>
       </c>
-      <c r="N48" s="15">
+      <c r="M48" s="15">
         <v>1</v>
       </c>
-      <c r="O48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="P48" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N48),VLOOKUP(G48,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M48),VLOOKUP(G48,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M48)), NOT(ISBLANK(N48))),VLOOKUP(G48,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q48" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O48),VLOOKUP(H48,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N48),VLOOKUP(H48,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N48)), NOT(ISBLANK(O48))),VLOOKUP(H48,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S48" s="1" t="str">
+      <c r="R48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T48" s="1">
+      <c r="S48" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>46</v>
@@ -4412,48 +4421,48 @@
         <v>-#所受的伤害</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>VLOOKUP(J49,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S49&amp;VLOOKUP(I49,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(O49),ABS(N49),ABS(O49))*100,"0")&amp;"%")&amp;IF(ISBLANK(G49),"","，永久")&amp;R49</f>
+        <f>VLOOKUP(I49,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R49&amp;VLOOKUP(H49,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(N49),ABS(M49),ABS(N49))*100,"0")&amp;"%")&amp;Q49</f>
         <v>受击时50%的概率使自身-30%所受的伤害。</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H49" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M49" s="1">
+        <v>332</v>
+      </c>
+      <c r="L49" s="1">
         <v>0.5</v>
       </c>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15">
+      <c r="M49" s="15"/>
+      <c r="N49" s="15">
         <v>-0.3</v>
       </c>
+      <c r="P49" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N49),VLOOKUP(G49,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M49),VLOOKUP(G49,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M49)), NOT(ISBLANK(N49))),VLOOKUP(G49,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#所受的伤害</v>
+      </c>
       <c r="Q49" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O49),VLOOKUP(H49,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N49),VLOOKUP(H49,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N49)), NOT(ISBLANK(O49))),VLOOKUP(H49,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#所受的伤害</v>
-      </c>
-      <c r="R49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S49" s="1" t="str">
+      <c r="R49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T49" s="1">
+      <c r="S49" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>47</v>
@@ -4463,51 +4472,49 @@
         <v>跳过回合</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>VLOOKUP(J50,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S50&amp;VLOOKUP(I50,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(O50),ABS(N50),ABS(O50))*100,"0")&amp;"%")&amp;IF(ISBLANK(G50),"","，永久")&amp;R50</f>
+        <f>VLOOKUP(I50,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R50&amp;VLOOKUP(H50,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(N50),ABS(M50),ABS(N50))*100,"0")&amp;"%")&amp;Q50</f>
         <v>攻击后10%的概率使对手跳过回合，持续2回合。</v>
       </c>
+      <c r="G50" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H50" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
       </c>
       <c r="L50" s="1">
-        <v>2</v>
-      </c>
-      <c r="M50" s="1">
         <v>0.1</v>
       </c>
+      <c r="M50" s="15"/>
       <c r="N50" s="15"/>
-      <c r="O50" s="15">
-        <v>1</v>
+      <c r="P50" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N50),VLOOKUP(G50,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M50),VLOOKUP(G50,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M50)), NOT(ISBLANK(N50))),VLOOKUP(G50,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>跳过回合</v>
       </c>
       <c r="Q50" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O50),VLOOKUP(H50,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N50),VLOOKUP(H50,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N50)), NOT(ISBLANK(O50))),VLOOKUP(H50,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>跳过回合</v>
-      </c>
-      <c r="R50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S50" s="1" t="str">
+      <c r="R50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10%的概率</v>
       </c>
-      <c r="T50" s="1">
+      <c r="S50" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>48</v>
@@ -4517,51 +4524,51 @@
         <v>-#攻击力</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>VLOOKUP(J51,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S51&amp;VLOOKUP(I51,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E51,"#",TEXT(IF(ISBLANK(O51),ABS(N51),ABS(O51))*100,"0")&amp;"%")&amp;IF(ISBLANK(G51),"","，永久")&amp;R51</f>
+        <f>VLOOKUP(I51,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R51&amp;VLOOKUP(H51,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E51,"#",TEXT(IF(ISBLANK(N51),ABS(M51),ABS(N51))*100,"0")&amp;"%")&amp;Q51</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续2回合。</v>
       </c>
+      <c r="G51" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H51" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2</v>
       </c>
       <c r="L51" s="1">
-        <v>2</v>
-      </c>
-      <c r="M51" s="1">
         <v>0.3</v>
       </c>
-      <c r="N51" s="15">
+      <c r="M51" s="15">
         <v>-0.3</v>
       </c>
-      <c r="O51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="P51" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N51),VLOOKUP(G51,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M51),VLOOKUP(G51,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M51)), NOT(ISBLANK(N51))),VLOOKUP(G51,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q51" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O51),VLOOKUP(H51,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N51),VLOOKUP(H51,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N51)), NOT(ISBLANK(O51))),VLOOKUP(H51,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
-      </c>
-      <c r="R51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S51" s="1" t="str">
+      <c r="R51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T51" s="1">
+      <c r="S51" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>49</v>
@@ -4571,51 +4578,51 @@
         <v>-#攻击力</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>VLOOKUP(J52,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S52&amp;VLOOKUP(I52,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E52,"#",TEXT(IF(ISBLANK(O52),ABS(N52),ABS(O52))*100,"0")&amp;"%")&amp;IF(ISBLANK(G52),"","，永久")&amp;R52</f>
-        <v>攻击后70%的概率使对手-5%攻击力，永久。</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
+        <f>VLOOKUP(I52,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R52&amp;VLOOKUP(H52,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E52,"#",TEXT(IF(ISBLANK(N52),ABS(M52),ABS(N52))*100,"0")&amp;"%")&amp;Q52</f>
+        <v>攻击后70%的概率使对手-5%攻击力，永久</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M52" s="1">
+        <v>329</v>
+      </c>
+      <c r="K52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L52" s="1">
         <v>0.7</v>
       </c>
-      <c r="N52" s="15">
+      <c r="M52" s="15">
         <v>-0.05</v>
       </c>
-      <c r="O52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="P52" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N52),VLOOKUP(G52,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M52),VLOOKUP(G52,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M52)), NOT(ISBLANK(N52))),VLOOKUP(G52,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q52" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O52),VLOOKUP(H52,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N52),VLOOKUP(H52,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N52)), NOT(ISBLANK(O52))),VLOOKUP(H52,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>70%的概率</v>
       </c>
-      <c r="T52" s="1">
+      <c r="S52" s="1">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>50</v>
@@ -4625,48 +4632,48 @@
         <v>+[#×攻击力]的生命值</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>VLOOKUP(J53,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S53&amp;VLOOKUP(I53,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E53,"#",TEXT(IF(ISBLANK(O53),ABS(N53),ABS(O53))*100,"0")&amp;"%")&amp;IF(ISBLANK(G53),"","，永久")&amp;R53</f>
+        <f>VLOOKUP(I53,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R53&amp;VLOOKUP(H53,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E53,"#",TEXT(IF(ISBLANK(N53),ABS(M53),ABS(N53))*100,"0")&amp;"%")&amp;Q53</f>
         <v>攻击后20%的概率使自身+[100%×攻击力]的生命值。</v>
       </c>
+      <c r="G53" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="H53" s="1" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M53" s="1">
+        <v>329</v>
+      </c>
+      <c r="L53" s="1">
         <v>0.2</v>
       </c>
-      <c r="N53" s="15">
+      <c r="M53" s="15">
         <v>1</v>
       </c>
-      <c r="O53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="P53" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N53),VLOOKUP(G53,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M53),VLOOKUP(G53,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M53)), NOT(ISBLANK(N53))),VLOOKUP(G53,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×攻击力]的生命值</v>
+      </c>
       <c r="Q53" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O53),VLOOKUP(H53,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N53),VLOOKUP(H53,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N53)), NOT(ISBLANK(O53))),VLOOKUP(H53,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×攻击力]的生命值</v>
-      </c>
-      <c r="R53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S53" s="1" t="str">
+      <c r="R53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T53" s="1">
+      <c r="S53" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>50</v>
@@ -4676,51 +4683,51 @@
         <v>-#防御力</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>VLOOKUP(J54,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S54&amp;VLOOKUP(I54,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(O54),ABS(N54),ABS(O54))*100,"0")&amp;"%")&amp;IF(ISBLANK(G54),"","，永久")&amp;R54</f>
-        <v>攻击前50%的概率使对手-5%防御力，永久。</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
+        <f>VLOOKUP(I54,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R54&amp;VLOOKUP(H54,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(N54),ABS(M54),ABS(N54))*100,"0")&amp;"%")&amp;Q54</f>
+        <v>攻击前50%的概率使对手-5%防御力，永久</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M54" s="1">
+        <v>333</v>
+      </c>
+      <c r="K54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L54" s="1">
         <v>0.5</v>
       </c>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15">
+      <c r="M54" s="15"/>
+      <c r="N54" s="15">
         <v>-0.05</v>
       </c>
+      <c r="P54" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N54),VLOOKUP(G54,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M54),VLOOKUP(G54,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M54)), NOT(ISBLANK(N54))),VLOOKUP(G54,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#防御力</v>
+      </c>
       <c r="Q54" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O54),VLOOKUP(H54,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N54),VLOOKUP(H54,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N54)), NOT(ISBLANK(O54))),VLOOKUP(H54,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#防御力</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T54" s="1">
+      <c r="S54" s="1">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>51</v>
@@ -4730,51 +4737,51 @@
         <v>-#防御力</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>VLOOKUP(J55,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S55&amp;VLOOKUP(I55,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E55,"#",TEXT(IF(ISBLANK(O55),ABS(N55),ABS(O55))*100,"0")&amp;"%")&amp;IF(ISBLANK(G55),"","，永久")&amp;R55</f>
+        <f>VLOOKUP(I55,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R55&amp;VLOOKUP(H55,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E55,"#",TEXT(IF(ISBLANK(N55),ABS(M55),ABS(N55))*100,"0")&amp;"%")&amp;Q55</f>
         <v>回合开始时30%的概率使对手-50%防御力，持续2回合。</v>
       </c>
+      <c r="G55" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H55" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2</v>
       </c>
       <c r="L55" s="1">
-        <v>2</v>
-      </c>
-      <c r="M55" s="1">
         <v>0.3</v>
       </c>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15">
+      <c r="M55" s="15"/>
+      <c r="N55" s="15">
         <v>-0.5</v>
       </c>
+      <c r="P55" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N55),VLOOKUP(G55,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M55),VLOOKUP(G55,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M55)), NOT(ISBLANK(N55))),VLOOKUP(G55,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#防御力</v>
+      </c>
       <c r="Q55" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O55),VLOOKUP(H55,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N55),VLOOKUP(H55,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N55)), NOT(ISBLANK(O55))),VLOOKUP(H55,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#防御力</v>
-      </c>
-      <c r="R55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S55" s="1" t="str">
+      <c r="R55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T55" s="1">
+      <c r="S55" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>52</v>
@@ -4784,100 +4791,103 @@
         <v>闪避</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>VLOOKUP(J56,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S56&amp;VLOOKUP(I56,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E56,"#",TEXT(IF(ISBLANK(O56),ABS(N56),ABS(O56))*100,"0")&amp;"%")&amp;IF(ISBLANK(G56),"","，永久")&amp;R56</f>
+        <f>VLOOKUP(I56,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R56&amp;VLOOKUP(H56,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E56,"#",TEXT(IF(ISBLANK(N56),ABS(M56),ABS(N56))*100,"0")&amp;"%")&amp;Q56</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
+      <c r="G56" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H56" s="1" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M56" s="1">
+        <v>332</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
         <v>0.2</v>
       </c>
+      <c r="M56" s="15"/>
       <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
+      <c r="P56" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N56),VLOOKUP(G56,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M56),VLOOKUP(G56,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M56)), NOT(ISBLANK(N56))),VLOOKUP(G56,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>闪避</v>
+      </c>
       <c r="Q56" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O56),VLOOKUP(H56,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N56),VLOOKUP(H56,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N56)), NOT(ISBLANK(O56))),VLOOKUP(H56,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>闪避</v>
-      </c>
-      <c r="R56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S56" s="1" t="str">
+      <c r="R56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T56" s="1">
+      <c r="S56" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>+#攻击力</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>VLOOKUP(J57,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S57&amp;VLOOKUP(I57,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E57,"#",TEXT(IF(ISBLANK(O57),ABS(N57),ABS(O57))*100,"0")&amp;"%")&amp;IF(ISBLANK(G57),"","，永久")&amp;R57</f>
-        <v>战斗开始时50%的概率使自身+50%攻击力，永久。</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
+        <f>VLOOKUP(I57,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R57&amp;VLOOKUP(H57,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E57,"#",TEXT(IF(ISBLANK(N57),ABS(M57),ABS(N57))*100,"0")&amp;"%")&amp;Q57</f>
+        <v>战斗开始时50%的概率使自身+50%攻击力，永久</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M57" s="1">
+        <v>296</v>
+      </c>
+      <c r="K57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L57" s="1">
         <v>0.5</v>
       </c>
-      <c r="N57" s="15">
+      <c r="M57" s="15">
         <v>0.5</v>
       </c>
-      <c r="O57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="P57" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N57),VLOOKUP(G57,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M57),VLOOKUP(G57,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M57)), NOT(ISBLANK(N57))),VLOOKUP(G57,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q57" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O57),VLOOKUP(H57,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N57),VLOOKUP(H57,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N57)), NOT(ISBLANK(O57))),VLOOKUP(H57,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
+        <f t="shared" si="1"/>
+        <v>，永久</v>
       </c>
       <c r="R57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="S57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T57" s="1">
+      <c r="S57" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>56</v>
@@ -4887,51 +4897,48 @@
         <v>获得1个技能</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>VLOOKUP(J58,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S58&amp;VLOOKUP(I58,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E58,"#",TEXT(IF(ISBLANK(O58),ABS(N58),ABS(O58))*100,"0")&amp;"%")&amp;IF(ISBLANK(G58),"","，永久")&amp;R58</f>
-        <v>回合开始时使自身获得1个技能，永久。</v>
-      </c>
-      <c r="G58" s="1">
+        <f>VLOOKUP(I58,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R58&amp;VLOOKUP(H58,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E58,"#",TEXT(IF(ISBLANK(N58),ABS(M58),ABS(N58))*100,"0")&amp;"%")&amp;Q58</f>
+        <v>回合开始时使自身获得1个技能。</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L58" s="1">
         <v>1</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M58" s="1">
+      <c r="M58" s="15">
         <v>1</v>
       </c>
-      <c r="N58" s="15">
-        <v>1</v>
-      </c>
-      <c r="O58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="P58" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N58),VLOOKUP(G58,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M58),VLOOKUP(G58,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M58)), NOT(ISBLANK(N58))),VLOOKUP(G58,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>获得^个技能</v>
+      </c>
       <c r="Q58" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O58),VLOOKUP(H58,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N58),VLOOKUP(H58,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N58)), NOT(ISBLANK(O58))),VLOOKUP(H58,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>获得^个技能</v>
-      </c>
-      <c r="R58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S58" s="1" t="str">
+      <c r="R58" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T58" s="1">
+      <c r="S58" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>57</v>
@@ -4941,48 +4948,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>VLOOKUP(J59,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S59&amp;VLOOKUP(I59,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E59,"#",TEXT(IF(ISBLANK(O59),ABS(N59),ABS(O59))*100,"0")&amp;"%")&amp;IF(ISBLANK(G59),"","，永久")&amp;R59</f>
+        <f>VLOOKUP(I59,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R59&amp;VLOOKUP(H59,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E59,"#",TEXT(IF(ISBLANK(N59),ABS(M59),ABS(N59))*100,"0")&amp;"%")&amp;Q59</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
+      <c r="G59" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="H59" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M59" s="1">
+        <v>303</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
         <v>0.3</v>
       </c>
-      <c r="N59" s="15">
-        <v>1</v>
-      </c>
-      <c r="O59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="P59" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N59),VLOOKUP(G59,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M59),VLOOKUP(G59,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M59)), NOT(ISBLANK(N59))),VLOOKUP(G59,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q59" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O59),VLOOKUP(H59,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N59),VLOOKUP(H59,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N59)), NOT(ISBLANK(O59))),VLOOKUP(H59,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S59" s="1" t="str">
+      <c r="R59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T59" s="1">
+      <c r="S59" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>53</v>
@@ -4992,48 +5000,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>VLOOKUP(J60,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S60&amp;VLOOKUP(I60,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(O60),ABS(N60),ABS(O60))*100,"0")&amp;"%")&amp;IF(ISBLANK(G60),"","，永久")&amp;R60</f>
+        <f>VLOOKUP(I60,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R60&amp;VLOOKUP(H60,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(N60),ABS(M60),ABS(N60))*100,"0")&amp;"%")&amp;Q60</f>
         <v>攻击时40%的概率使自身+20%造成的伤害。</v>
       </c>
+      <c r="G60" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H60" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M60" s="1">
+        <v>330</v>
+      </c>
+      <c r="L60" s="1">
         <v>0.4</v>
       </c>
-      <c r="N60" s="15">
+      <c r="M60" s="15">
         <v>0.2</v>
       </c>
-      <c r="O60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="P60" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N60),VLOOKUP(G60,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M60),VLOOKUP(G60,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M60)), NOT(ISBLANK(N60))),VLOOKUP(G60,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q60" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O60),VLOOKUP(H60,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N60),VLOOKUP(H60,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N60)), NOT(ISBLANK(O60))),VLOOKUP(H60,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S60" s="1" t="str">
+      <c r="R60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T60" s="1">
+      <c r="S60" s="1">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>54</v>
@@ -5043,48 +5051,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>VLOOKUP(J61,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S61&amp;VLOOKUP(I61,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E61,"#",TEXT(IF(ISBLANK(O61),ABS(N61),ABS(O61))*100,"0")&amp;"%")&amp;IF(ISBLANK(G61),"","，永久")&amp;R61</f>
+        <f>VLOOKUP(I61,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R61&amp;VLOOKUP(H61,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E61,"#",TEXT(IF(ISBLANK(N61),ABS(M61),ABS(N61))*100,"0")&amp;"%")&amp;Q61</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
+      <c r="G61" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H61" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M61" s="1">
+        <v>330</v>
+      </c>
+      <c r="L61" s="1">
         <v>0.4</v>
       </c>
-      <c r="N61" s="15">
+      <c r="M61" s="15">
         <v>0.5</v>
       </c>
-      <c r="O61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="P61" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N61),VLOOKUP(G61,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M61),VLOOKUP(G61,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M61)), NOT(ISBLANK(N61))),VLOOKUP(G61,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q61" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O61),VLOOKUP(H61,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N61),VLOOKUP(H61,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N61)), NOT(ISBLANK(O61))),VLOOKUP(H61,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S61" s="1" t="str">
+      <c r="R61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T61" s="1">
+      <c r="S61" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>55</v>
@@ -5094,48 +5102,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>VLOOKUP(J62,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S62&amp;VLOOKUP(I62,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E62,"#",TEXT(IF(ISBLANK(O62),ABS(N62),ABS(O62))*100,"0")&amp;"%")&amp;IF(ISBLANK(G62),"","，永久")&amp;R62</f>
+        <f>VLOOKUP(I62,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R62&amp;VLOOKUP(H62,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E62,"#",TEXT(IF(ISBLANK(N62),ABS(M62),ABS(N62))*100,"0")&amp;"%")&amp;Q62</f>
         <v>攻击时40%的概率使自身+100%造成的伤害。</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H62" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M62" s="1">
+        <v>330</v>
+      </c>
+      <c r="L62" s="1">
         <v>0.4</v>
       </c>
-      <c r="N62" s="15">
+      <c r="M62" s="15">
         <v>1</v>
       </c>
-      <c r="O62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="P62" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N62),VLOOKUP(G62,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M62),VLOOKUP(G62,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M62)), NOT(ISBLANK(N62))),VLOOKUP(G62,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q62" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O62),VLOOKUP(H62,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N62),VLOOKUP(H62,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N62)), NOT(ISBLANK(O62))),VLOOKUP(H62,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S62" s="1" t="str">
+      <c r="R62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T62" s="1">
+      <c r="S62" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>58</v>
@@ -5145,46 +5153,49 @@
         <v>变更目标</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>VLOOKUP(J63,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S63&amp;VLOOKUP(I63,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E63,"#",TEXT(IF(ISBLANK(O63),ABS(N63),ABS(O63))*100,"0")&amp;"%")&amp;IF(ISBLANK(G63),"","，永久")&amp;R63</f>
+        <f>VLOOKUP(I63,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R63&amp;VLOOKUP(H63,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E63,"#",TEXT(IF(ISBLANK(N63),ABS(M63),ABS(N63))*100,"0")&amp;"%")&amp;Q63</f>
         <v>受击前15%的概率使对手变更目标。</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="H63" s="1" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M63" s="1">
+        <v>303</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
         <v>0.15</v>
       </c>
+      <c r="M63" s="15"/>
       <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
+      <c r="P63" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N63),VLOOKUP(G63,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M63),VLOOKUP(G63,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M63)), NOT(ISBLANK(N63))),VLOOKUP(G63,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>变更目标</v>
+      </c>
       <c r="Q63" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O63),VLOOKUP(H63,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N63),VLOOKUP(H63,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N63)), NOT(ISBLANK(O63))),VLOOKUP(H63,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>变更目标</v>
-      </c>
-      <c r="R63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S63" s="1" t="str">
+      <c r="R63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>15%的概率</v>
       </c>
-      <c r="T63" s="1">
+      <c r="S63" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>58</v>
@@ -5194,46 +5205,49 @@
         <v>变更目标</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>VLOOKUP(J64,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S64&amp;VLOOKUP(I64,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E64,"#",TEXT(IF(ISBLANK(O64),ABS(N64),ABS(O64))*100,"0")&amp;"%")&amp;IF(ISBLANK(G64),"","，永久")&amp;R64</f>
+        <f>VLOOKUP(I64,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R64&amp;VLOOKUP(H64,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E64,"#",TEXT(IF(ISBLANK(N64),ABS(M64),ABS(N64))*100,"0")&amp;"%")&amp;Q64</f>
         <v>受击前20%的概率使对手变更目标。</v>
       </c>
+      <c r="G64" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="H64" s="1" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M64" s="1">
+        <v>303</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
         <v>0.2</v>
       </c>
+      <c r="M64" s="15"/>
       <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
+      <c r="P64" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N64),VLOOKUP(G64,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M64),VLOOKUP(G64,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M64)), NOT(ISBLANK(N64))),VLOOKUP(G64,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>变更目标</v>
+      </c>
       <c r="Q64" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O64),VLOOKUP(H64,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N64),VLOOKUP(H64,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N64)), NOT(ISBLANK(O64))),VLOOKUP(H64,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>变更目标</v>
-      </c>
-      <c r="R64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S64" s="1" t="str">
+      <c r="R64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T64" s="1">
+      <c r="S64" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>59</v>
@@ -5243,51 +5257,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>VLOOKUP(J65,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S65&amp;VLOOKUP(I65,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E65,"#",TEXT(IF(ISBLANK(O65),ABS(N65),ABS(O65))*100,"0")&amp;"%")&amp;IF(ISBLANK(G65),"","，永久")&amp;R65</f>
+        <f>VLOOKUP(I65,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R65&amp;VLOOKUP(H65,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E65,"#",TEXT(IF(ISBLANK(N65),ABS(M65),ABS(N65))*100,"0")&amp;"%")&amp;Q65</f>
         <v>攻击后20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
+      <c r="G65" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="H65" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
       </c>
       <c r="L65" s="1">
-        <v>1</v>
-      </c>
-      <c r="M65" s="1">
         <v>0.2</v>
       </c>
-      <c r="N65" s="15">
-        <v>1</v>
-      </c>
-      <c r="O65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="P65" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N65),VLOOKUP(G65,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M65),VLOOKUP(G65,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M65)), NOT(ISBLANK(N65))),VLOOKUP(G65,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q65" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O65),VLOOKUP(H65,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N65),VLOOKUP(H65,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N65)), NOT(ISBLANK(O65))),VLOOKUP(H65,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S65" s="1" t="str">
+      <c r="R65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T65" s="1">
+      <c r="S65" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>59</v>
@@ -5297,51 +5309,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>VLOOKUP(J66,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S66&amp;VLOOKUP(I66,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E66,"#",TEXT(IF(ISBLANK(O66),ABS(N66),ABS(O66))*100,"0")&amp;"%")&amp;IF(ISBLANK(G66),"","，永久")&amp;R66</f>
+        <f>VLOOKUP(I66,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R66&amp;VLOOKUP(H66,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E66,"#",TEXT(IF(ISBLANK(N66),ABS(M66),ABS(N66))*100,"0")&amp;"%")&amp;Q66</f>
         <v>攻击后20%的概率使对手放弃攻击，持续2回合。</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="H66" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K66" s="1">
+        <v>2</v>
       </c>
       <c r="L66" s="1">
-        <v>2</v>
-      </c>
-      <c r="M66" s="1">
         <v>0.2</v>
       </c>
-      <c r="N66" s="15">
-        <v>1</v>
-      </c>
-      <c r="O66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="P66" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N66),VLOOKUP(G66,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M66),VLOOKUP(G66,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M66)), NOT(ISBLANK(N66))),VLOOKUP(G66,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q66" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O66),VLOOKUP(H66,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N66),VLOOKUP(H66,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N66)), NOT(ISBLANK(O66))),VLOOKUP(H66,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S66" s="1" t="str">
+      <c r="R66" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T66" s="1">
+      <c r="S66" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>59</v>
@@ -5351,51 +5361,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>VLOOKUP(J67,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S67&amp;VLOOKUP(I67,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E67,"#",TEXT(IF(ISBLANK(O67),ABS(N67),ABS(O67))*100,"0")&amp;"%")&amp;IF(ISBLANK(G67),"","，永久")&amp;R67</f>
+        <f>VLOOKUP(I67,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R67&amp;VLOOKUP(H67,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E67,"#",TEXT(IF(ISBLANK(N67),ABS(M67),ABS(N67))*100,"0")&amp;"%")&amp;Q67</f>
         <v>攻击后20%的概率使对手放弃攻击，持续3回合。</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="H67" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K67" s="1">
+        <v>3</v>
       </c>
       <c r="L67" s="1">
-        <v>3</v>
-      </c>
-      <c r="M67" s="1">
         <v>0.2</v>
       </c>
-      <c r="N67" s="15">
-        <v>1</v>
-      </c>
-      <c r="O67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="P67" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N67),VLOOKUP(G67,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M67),VLOOKUP(G67,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M67)), NOT(ISBLANK(N67))),VLOOKUP(G67,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q67" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O67),VLOOKUP(H67,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N67),VLOOKUP(H67,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N67)), NOT(ISBLANK(O67))),VLOOKUP(H67,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S67" s="1" t="str">
+      <c r="R67" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T67" s="1">
+      <c r="S67" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>60</v>
@@ -5405,48 +5413,48 @@
         <v>+[#×攻击力]的生命值</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>VLOOKUP(J68,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S68&amp;VLOOKUP(I68,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E68,"#",TEXT(IF(ISBLANK(O68),ABS(N68),ABS(O68))*100,"0")&amp;"%")&amp;IF(ISBLANK(G68),"","，永久")&amp;R68</f>
+        <f>VLOOKUP(I68,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R68&amp;VLOOKUP(H68,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E68,"#",TEXT(IF(ISBLANK(N68),ABS(M68),ABS(N68))*100,"0")&amp;"%")&amp;Q68</f>
         <v>回合开始时使自身+[25%×攻击力]的生命值。</v>
       </c>
+      <c r="G68" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="H68" s="1" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M68" s="1">
+        <v>331</v>
+      </c>
+      <c r="L68" s="1">
         <v>1</v>
       </c>
-      <c r="N68" s="15">
+      <c r="M68" s="15">
         <v>0.25</v>
       </c>
-      <c r="O68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="P68" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N68),VLOOKUP(G68,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M68),VLOOKUP(G68,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M68)), NOT(ISBLANK(N68))),VLOOKUP(G68,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×攻击力]的生命值</v>
+      </c>
       <c r="Q68" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O68),VLOOKUP(H68,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N68),VLOOKUP(H68,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N68)), NOT(ISBLANK(O68))),VLOOKUP(H68,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×攻击力]的生命值</v>
-      </c>
-      <c r="R68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S68" s="1" t="str">
+      <c r="R68" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T68" s="1">
+      <c r="S68" s="1">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>60</v>
@@ -5456,102 +5464,100 @@
         <v>跳过回合</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>VLOOKUP(J69,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S69&amp;VLOOKUP(I69,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(O69),ABS(N69),ABS(O69))*100,"0")&amp;"%")&amp;IF(ISBLANK(G69),"","，永久")&amp;R69</f>
+        <f>VLOOKUP(I69,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R69&amp;VLOOKUP(H69,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(N69),ABS(M69),ABS(N69))*100,"0")&amp;"%")&amp;Q69</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H69" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>1</v>
-      </c>
-      <c r="M69" s="1">
         <v>0.25</v>
       </c>
+      <c r="M69" s="15"/>
       <c r="N69" s="15"/>
-      <c r="O69" s="15">
-        <v>1</v>
+      <c r="P69" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N69),VLOOKUP(G69,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M69),VLOOKUP(G69,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M69)), NOT(ISBLANK(N69))),VLOOKUP(G69,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>跳过回合</v>
       </c>
       <c r="Q69" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O69),VLOOKUP(H69,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N69),VLOOKUP(H69,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N69)), NOT(ISBLANK(O69))),VLOOKUP(H69,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>跳过回合</v>
-      </c>
-      <c r="R69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S69" s="1" t="str">
+      <c r="R69" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T69" s="1">
+      <c r="S69" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" ref="E70:E110" si="4">SUBSTITUTE(SUBSTITUTE(Q70,"*",_xlfn.IFS(T70&lt;0,"-",T70&gt;0,"+",T70=0,"")),"^",T70)</f>
+        <f t="shared" ref="E70:E110" si="4">SUBSTITUTE(SUBSTITUTE(P70,"*",_xlfn.IFS(S70&lt;0,"-",S70&gt;0,"+",S70=0,"")),"^",S70)</f>
         <v>+#造成的伤害</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>VLOOKUP(J70,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S70&amp;VLOOKUP(I70,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E70,"#",TEXT(IF(ISBLANK(O70),ABS(N70),ABS(O70))*100,"0")&amp;"%")&amp;IF(ISBLANK(G70),"","，永久")&amp;R70</f>
+        <f>VLOOKUP(I70,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R70&amp;VLOOKUP(H70,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E70,"#",TEXT(IF(ISBLANK(N70),ABS(M70),ABS(N70))*100,"0")&amp;"%")&amp;Q70</f>
         <v>攻击时15%的概率使自身+200%造成的伤害。</v>
       </c>
+      <c r="G70" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H70" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M70" s="1">
+        <v>330</v>
+      </c>
+      <c r="L70" s="1">
         <v>0.15</v>
       </c>
-      <c r="N70" s="15">
+      <c r="M70" s="15">
         <v>2</v>
       </c>
-      <c r="O70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="P70" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N70),VLOOKUP(G70,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M70),VLOOKUP(G70,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M70)), NOT(ISBLANK(N70))),VLOOKUP(G70,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q70" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O70),VLOOKUP(H70,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N70),VLOOKUP(H70,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N70)), NOT(ISBLANK(O70))),VLOOKUP(H70,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
+        <f t="shared" ref="Q70:Q110" si="5">IF(NOT(ISBLANK(K70))*AND(K70&gt;0),"，持续"&amp;K70&amp;"回合。",IF(K70=-1,"，永久","。"))</f>
+        <v>。</v>
       </c>
       <c r="R70" s="1" t="str">
-        <f t="shared" ref="R70:R110" si="5">IF(ISBLANK(L70),"。","，持续"&amp;L70&amp;"回合。")</f>
-        <v>。</v>
-      </c>
-      <c r="S70" s="1" t="str">
-        <f t="shared" ref="S70:S110" si="6">IF(ISBLANK(K70),"","如果"&amp;IF(K70=0,"死亡","生命值&lt;"&amp;TEXT(K70*100,"0")&amp;"%")&amp;"，那么")&amp;IF(M70&lt;1,TEXT(M70*100,"0")&amp;"%的概率","")</f>
+        <f t="shared" ref="R70:R110" si="6">IF(ISBLANK(J70),"","如果"&amp;IF(J70=0,"死亡","生命值&lt;"&amp;TEXT(J70*100,"0")&amp;"%")&amp;"，那么")&amp;IF(L70&lt;1,TEXT(L70*100,"0")&amp;"%的概率","")</f>
         <v>15%的概率</v>
       </c>
-      <c r="T70" s="1">
-        <f t="shared" ref="T70:T110" si="7">IF(ISBLANK(N70),O70,N70)</f>
+      <c r="S70" s="1">
+        <f t="shared" ref="S70:S110" si="7">IF(ISBLANK(M70),N70,M70)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>63</v>
@@ -5561,48 +5567,51 @@
         <v>-#攻击力</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>VLOOKUP(J71,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S71&amp;VLOOKUP(I71,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(O71),ABS(N71),ABS(O71))*100,"0")&amp;"%")&amp;IF(ISBLANK(G71),"","，永久")&amp;R71</f>
+        <f>VLOOKUP(I71,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R71&amp;VLOOKUP(H71,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(N71),ABS(M71),ABS(N71))*100,"0")&amp;"%")&amp;Q71</f>
         <v>受击前70%的概率使对手-30%攻击力。</v>
       </c>
+      <c r="G71" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H71" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M71" s="1">
+        <v>303</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
         <v>0.7</v>
       </c>
-      <c r="N71" s="15">
+      <c r="M71" s="15">
         <v>-0.3</v>
       </c>
-      <c r="O71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="P71" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N71),VLOOKUP(G71,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M71),VLOOKUP(G71,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M71)), NOT(ISBLANK(N71))),VLOOKUP(G71,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q71" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O71),VLOOKUP(H71,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N71),VLOOKUP(H71,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N71)), NOT(ISBLANK(O71))),VLOOKUP(H71,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
-      </c>
-      <c r="R71" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S71" s="1" t="str">
+      <c r="R71" s="1" t="str">
         <f t="shared" si="6"/>
         <v>70%的概率</v>
       </c>
-      <c r="T71" s="1">
+      <c r="S71" s="1">
         <f t="shared" si="7"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>62</v>
@@ -5612,48 +5621,49 @@
         <v>放弃攻击</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>VLOOKUP(J72,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S72&amp;VLOOKUP(I72,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E72,"#",TEXT(IF(ISBLANK(O72),ABS(N72),ABS(O72))*100,"0")&amp;"%")&amp;IF(ISBLANK(G72),"","，永久")&amp;R72</f>
+        <f>VLOOKUP(I72,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R72&amp;VLOOKUP(H72,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E72,"#",TEXT(IF(ISBLANK(N72),ABS(M72),ABS(N72))*100,"0")&amp;"%")&amp;Q72</f>
         <v>受击前15%的概率使对手放弃攻击。</v>
       </c>
+      <c r="G72" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="H72" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M72" s="1">
+        <v>303</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
         <v>0.15</v>
       </c>
-      <c r="N72" s="15">
-        <v>1</v>
-      </c>
-      <c r="O72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="P72" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N72),VLOOKUP(G72,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M72),VLOOKUP(G72,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M72)), NOT(ISBLANK(N72))),VLOOKUP(G72,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q72" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O72),VLOOKUP(H72,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N72),VLOOKUP(H72,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N72)), NOT(ISBLANK(O72))),VLOOKUP(H72,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R72" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S72" s="1" t="str">
+      <c r="R72" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="T72" s="1">
+      <c r="S72" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>62</v>
@@ -5663,99 +5673,100 @@
         <v>放弃攻击</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>VLOOKUP(J73,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S73&amp;VLOOKUP(I73,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E73,"#",TEXT(IF(ISBLANK(O73),ABS(N73),ABS(O73))*100,"0")&amp;"%")&amp;IF(ISBLANK(G73),"","，永久")&amp;R73</f>
+        <f>VLOOKUP(I73,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R73&amp;VLOOKUP(H73,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E73,"#",TEXT(IF(ISBLANK(N73),ABS(M73),ABS(N73))*100,"0")&amp;"%")&amp;Q73</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
+      <c r="G73" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="H73" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M73" s="1">
+        <v>303</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
         <v>0.3</v>
       </c>
-      <c r="N73" s="15">
-        <v>1</v>
-      </c>
-      <c r="O73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="P73" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N73),VLOOKUP(G73,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M73),VLOOKUP(G73,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M73)), NOT(ISBLANK(N73))),VLOOKUP(G73,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>放弃攻击</v>
+      </c>
       <c r="Q73" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O73),VLOOKUP(H73,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N73),VLOOKUP(H73,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N73)), NOT(ISBLANK(O73))),VLOOKUP(H73,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
-      <c r="R73" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S73" s="1" t="str">
+      <c r="R73" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T73" s="1">
+      <c r="S73" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E74" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>-[#×伤害值]的生命值</v>
+        <v>-[#×攻击力]的生命值</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>VLOOKUP(J74,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S74&amp;VLOOKUP(I74,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E74,"#",TEXT(IF(ISBLANK(O74),ABS(N74),ABS(O74))*100,"0")&amp;"%")&amp;IF(ISBLANK(G74),"","，永久")&amp;R74</f>
-        <v>战斗开始时30%的概率使对手-[200%×伤害值]的生命值。</v>
+        <f>VLOOKUP(I74,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R74&amp;VLOOKUP(H74,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E74,"#",TEXT(IF(ISBLANK(N74),ABS(M74),ABS(N74))*100,"0")&amp;"%")&amp;Q74</f>
+        <v>战斗开始时30%的概率使对手-[200%×攻击力]的生命值。</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M74" s="1">
+      <c r="L74" s="1">
         <v>0.3</v>
       </c>
+      <c r="M74" s="15">
+        <v>-2</v>
+      </c>
       <c r="N74" s="15"/>
-      <c r="O74" s="15">
-        <v>-2</v>
+      <c r="P74" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N74),VLOOKUP(G74,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M74),VLOOKUP(G74,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M74)), NOT(ISBLANK(N74))),VLOOKUP(G74,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×攻击力]的生命值</v>
       </c>
       <c r="Q74" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O74),VLOOKUP(H74,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N74),VLOOKUP(H74,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N74)), NOT(ISBLANK(O74))),VLOOKUP(H74,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×伤害值]的生命值</v>
-      </c>
-      <c r="R74" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S74" s="1" t="str">
+      <c r="R74" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T74" s="1">
+      <c r="S74" s="1">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>64</v>
@@ -5765,48 +5776,48 @@
         <v>+[#×伤害值]的生命值</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>VLOOKUP(J75,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S75&amp;VLOOKUP(I75,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E75,"#",TEXT(IF(ISBLANK(O75),ABS(N75),ABS(O75))*100,"0")&amp;"%")&amp;IF(ISBLANK(G75),"","，永久")&amp;R75</f>
+        <f>VLOOKUP(I75,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R75&amp;VLOOKUP(H75,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E75,"#",TEXT(IF(ISBLANK(N75),ABS(M75),ABS(N75))*100,"0")&amp;"%")&amp;Q75</f>
         <v>攻击后30%的概率使自身+[100%×伤害值]的生命值。</v>
       </c>
+      <c r="G75" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="H75" s="1" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M75" s="1">
+        <v>329</v>
+      </c>
+      <c r="L75" s="1">
         <v>0.3</v>
       </c>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15">
+      <c r="M75" s="15"/>
+      <c r="N75" s="15">
         <v>1</v>
       </c>
+      <c r="P75" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N75),VLOOKUP(G75,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M75),VLOOKUP(G75,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M75)), NOT(ISBLANK(N75))),VLOOKUP(G75,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×伤害值]的生命值</v>
+      </c>
       <c r="Q75" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O75),VLOOKUP(H75,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N75),VLOOKUP(H75,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N75)), NOT(ISBLANK(O75))),VLOOKUP(H75,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×伤害值]的生命值</v>
-      </c>
-      <c r="R75" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S75" s="1" t="str">
+      <c r="R75" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T75" s="1">
+      <c r="S75" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>65</v>
@@ -5816,51 +5827,48 @@
         <v>(生物)随机获得5个技能。(玩家)增加5个技能上限</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>VLOOKUP(J76,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S76&amp;VLOOKUP(I76,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E76,"#",TEXT(IF(ISBLANK(O76),ABS(N76),ABS(O76))*100,"0")&amp;"%")&amp;IF(ISBLANK(G76),"","，永久")&amp;R76</f>
-        <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限，永久。</v>
-      </c>
-      <c r="G76" s="1">
+        <f>VLOOKUP(I76,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R76&amp;VLOOKUP(H76,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E76,"#",TEXT(IF(ISBLANK(N76),ABS(M76),ABS(N76))*100,"0")&amp;"%")&amp;Q76</f>
+        <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L76" s="1">
         <v>1</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M76" s="1">
-        <v>1</v>
-      </c>
-      <c r="N76" s="15">
+      <c r="M76" s="15">
         <v>5</v>
       </c>
-      <c r="O76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="P76" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N76),VLOOKUP(G76,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M76),VLOOKUP(G76,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M76)), NOT(ISBLANK(N76))),VLOOKUP(G76,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
+      </c>
       <c r="Q76" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O76),VLOOKUP(H76,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N76),VLOOKUP(H76,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N76)), NOT(ISBLANK(O76))),VLOOKUP(H76,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
-      </c>
-      <c r="R76" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S76" s="1" t="str">
+      <c r="R76" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T76" s="1">
+      <c r="S76" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>66</v>
@@ -5870,51 +5878,51 @@
         <v>+#攻击力</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>VLOOKUP(J77,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S77&amp;VLOOKUP(I77,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(O77),ABS(N77),ABS(O77))*100,"0")&amp;"%")&amp;IF(ISBLANK(G77),"","，永久")&amp;R77</f>
+        <f>VLOOKUP(I77,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R77&amp;VLOOKUP(H77,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(N77),ABS(M77),ABS(N77))*100,"0")&amp;"%")&amp;Q77</f>
         <v>回合开始时30%的概率使自身+50%攻击力，持续2回合。</v>
       </c>
+      <c r="G77" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H77" s="1" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="K77" s="1">
+        <v>2</v>
       </c>
       <c r="L77" s="1">
-        <v>2</v>
-      </c>
-      <c r="M77" s="1">
         <v>0.3</v>
       </c>
-      <c r="N77" s="15">
+      <c r="M77" s="15">
         <v>0.5</v>
       </c>
-      <c r="O77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="P77" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N77),VLOOKUP(G77,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M77),VLOOKUP(G77,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M77)), NOT(ISBLANK(N77))),VLOOKUP(G77,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q77" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O77),VLOOKUP(H77,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N77),VLOOKUP(H77,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N77)), NOT(ISBLANK(O77))),VLOOKUP(H77,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
-      </c>
-      <c r="R77" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S77" s="1" t="str">
+      <c r="R77" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T77" s="1">
+      <c r="S77" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>66</v>
@@ -5924,51 +5932,51 @@
         <v>+#攻击力</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>VLOOKUP(J78,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S78&amp;VLOOKUP(I78,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(O78),ABS(N78),ABS(O78))*100,"0")&amp;"%")&amp;IF(ISBLANK(G78),"","，永久")&amp;R78</f>
+        <f>VLOOKUP(I78,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R78&amp;VLOOKUP(H78,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(N78),ABS(M78),ABS(N78))*100,"0")&amp;"%")&amp;Q78</f>
         <v>回合开始时30%的概率使自身+100%攻击力，持续2回合。</v>
       </c>
+      <c r="G78" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H78" s="1" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2</v>
       </c>
       <c r="L78" s="1">
-        <v>2</v>
-      </c>
-      <c r="M78" s="1">
         <v>0.3</v>
       </c>
-      <c r="N78" s="15">
+      <c r="M78" s="15">
         <v>1</v>
       </c>
-      <c r="O78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="P78" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N78),VLOOKUP(G78,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M78),VLOOKUP(G78,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M78)), NOT(ISBLANK(N78))),VLOOKUP(G78,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q78" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O78),VLOOKUP(H78,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N78),VLOOKUP(H78,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N78)), NOT(ISBLANK(O78))),VLOOKUP(H78,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
-      </c>
-      <c r="R78" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S78" s="1" t="str">
+      <c r="R78" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T78" s="1">
+      <c r="S78" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>66</v>
@@ -5978,51 +5986,51 @@
         <v>-#攻击力</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>VLOOKUP(J79,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S79&amp;VLOOKUP(I79,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(O79),ABS(N79),ABS(O79))*100,"0")&amp;"%")&amp;IF(ISBLANK(G79),"","，永久")&amp;R79</f>
+        <f>VLOOKUP(I79,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R79&amp;VLOOKUP(H79,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(N79),ABS(M79),ABS(N79))*100,"0")&amp;"%")&amp;Q79</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续1回合。</v>
       </c>
+      <c r="G79" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H79" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
       </c>
       <c r="L79" s="1">
-        <v>1</v>
-      </c>
-      <c r="M79" s="1">
         <v>0.3</v>
       </c>
-      <c r="N79" s="15">
+      <c r="M79" s="15">
         <v>-0.3</v>
       </c>
-      <c r="O79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="P79" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N79),VLOOKUP(G79,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M79),VLOOKUP(G79,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M79)), NOT(ISBLANK(N79))),VLOOKUP(G79,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q79" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O79),VLOOKUP(H79,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N79),VLOOKUP(H79,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N79)), NOT(ISBLANK(O79))),VLOOKUP(H79,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
-      </c>
-      <c r="R79" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S79" s="1" t="str">
+      <c r="R79" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T79" s="1">
+      <c r="S79" s="1">
         <f t="shared" si="7"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>69</v>
@@ -6032,48 +6040,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>VLOOKUP(J80,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S80&amp;VLOOKUP(I80,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E80,"#",TEXT(IF(ISBLANK(O80),ABS(N80),ABS(O80))*100,"0")&amp;"%")&amp;IF(ISBLANK(G80),"","，永久")&amp;R80</f>
+        <f>VLOOKUP(I80,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R80&amp;VLOOKUP(H80,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E80,"#",TEXT(IF(ISBLANK(N80),ABS(M80),ABS(N80))*100,"0")&amp;"%")&amp;Q80</f>
         <v>攻击时30%的概率使自身+100%造成的伤害。</v>
       </c>
+      <c r="G80" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H80" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M80" s="1">
+        <v>330</v>
+      </c>
+      <c r="L80" s="1">
         <v>0.3</v>
       </c>
-      <c r="N80" s="15">
+      <c r="M80" s="15">
         <v>1</v>
       </c>
-      <c r="O80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="P80" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N80),VLOOKUP(G80,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M80),VLOOKUP(G80,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M80)), NOT(ISBLANK(N80))),VLOOKUP(G80,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q80" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O80),VLOOKUP(H80,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N80),VLOOKUP(H80,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N80)), NOT(ISBLANK(O80))),VLOOKUP(H80,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R80" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S80" s="1" t="str">
+      <c r="R80" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T80" s="1">
+      <c r="S80" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>69</v>
@@ -6083,48 +6091,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>VLOOKUP(J81,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S81&amp;VLOOKUP(I81,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E81,"#",TEXT(IF(ISBLANK(O81),ABS(N81),ABS(O81))*100,"0")&amp;"%")&amp;IF(ISBLANK(G81),"","，永久")&amp;R81</f>
+        <f>VLOOKUP(I81,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R81&amp;VLOOKUP(H81,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E81,"#",TEXT(IF(ISBLANK(N81),ABS(M81),ABS(N81))*100,"0")&amp;"%")&amp;Q81</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
+      <c r="G81" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H81" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M81" s="1">
+        <v>330</v>
+      </c>
+      <c r="L81" s="1">
         <v>0.4</v>
       </c>
-      <c r="N81" s="15">
+      <c r="M81" s="15">
         <v>0.5</v>
       </c>
-      <c r="O81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="P81" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N81),VLOOKUP(G81,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M81),VLOOKUP(G81,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M81)), NOT(ISBLANK(N81))),VLOOKUP(G81,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q81" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O81),VLOOKUP(H81,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N81),VLOOKUP(H81,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N81)), NOT(ISBLANK(O81))),VLOOKUP(H81,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R81" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S81" s="1" t="str">
+      <c r="R81" s="1" t="str">
         <f t="shared" si="6"/>
         <v>40%的概率</v>
       </c>
-      <c r="T81" s="1">
+      <c r="S81" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>67</v>
@@ -6134,51 +6142,51 @@
         <v>+#最大生命并清除buff，1次</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>VLOOKUP(J82,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S82&amp;VLOOKUP(I82,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E82,"#",TEXT(IF(ISBLANK(O82),ABS(N82),ABS(O82))*100,"0")&amp;"%")&amp;IF(ISBLANK(G82),"","，永久")&amp;R82</f>
+        <f>VLOOKUP(I82,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R82&amp;VLOOKUP(H82,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E82,"#",TEXT(IF(ISBLANK(N82),ABS(M82),ABS(N82))*100,"0")&amp;"%")&amp;Q82</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
       </c>
+      <c r="G82" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="H82" s="1" t="s">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K82" s="1">
+        <v>334</v>
+      </c>
+      <c r="J82" s="1">
         <v>0</v>
       </c>
-      <c r="M82" s="1">
+      <c r="L82" s="1">
         <v>1</v>
       </c>
-      <c r="N82" s="15">
+      <c r="M82" s="15">
         <v>1</v>
       </c>
-      <c r="O82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="P82" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N82),VLOOKUP(G82,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M82),VLOOKUP(G82,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M82)), NOT(ISBLANK(N82))),VLOOKUP(G82,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#最大生命并清除buff，^次</v>
+      </c>
       <c r="Q82" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O82),VLOOKUP(H82,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N82),VLOOKUP(H82,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N82)), NOT(ISBLANK(O82))),VLOOKUP(H82,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#最大生命并清除buff，^次</v>
-      </c>
-      <c r="R82" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S82" s="1" t="str">
+      <c r="R82" s="1" t="str">
         <f t="shared" si="6"/>
         <v>如果死亡，那么</v>
       </c>
-      <c r="T82" s="1">
+      <c r="S82" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>67</v>
@@ -6188,48 +6196,48 @@
         <v>+#最大生命并清除buff，9次</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>VLOOKUP(J83,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S83&amp;VLOOKUP(I83,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E83,"#",TEXT(IF(ISBLANK(O83),ABS(N83),ABS(O83))*100,"0")&amp;"%")&amp;IF(ISBLANK(G83),"","，永久")&amp;R83</f>
+        <f>VLOOKUP(I83,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R83&amp;VLOOKUP(H83,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E83,"#",TEXT(IF(ISBLANK(N83),ABS(M83),ABS(N83))*100,"0")&amp;"%")&amp;Q83</f>
         <v>受击后如果死亡，那么50%的概率使自身+100%最大生命并清除buff，9次。</v>
       </c>
+      <c r="G83" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="H83" s="1" t="s">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K83" s="1">
+        <v>334</v>
+      </c>
+      <c r="J83" s="1">
         <v>0</v>
       </c>
-      <c r="M83" s="1">
+      <c r="L83" s="1">
         <v>0.5</v>
       </c>
+      <c r="M83" s="15">
+        <v>9</v>
+      </c>
       <c r="N83" s="15">
-        <v>9</v>
-      </c>
-      <c r="O83" s="15">
         <v>1</v>
       </c>
+      <c r="P83" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N83),VLOOKUP(G83,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M83),VLOOKUP(G83,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M83)), NOT(ISBLANK(N83))),VLOOKUP(G83,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#最大生命并清除buff，^次</v>
+      </c>
       <c r="Q83" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O83),VLOOKUP(H83,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N83),VLOOKUP(H83,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N83)), NOT(ISBLANK(O83))),VLOOKUP(H83,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#最大生命并清除buff，^次</v>
-      </c>
-      <c r="R83" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S83" s="1" t="str">
+      <c r="R83" s="1" t="str">
         <f t="shared" si="6"/>
         <v>如果死亡，那么50%的概率</v>
       </c>
-      <c r="T83" s="1">
+      <c r="S83" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>147</v>
       </c>
@@ -6244,43 +6252,43 @@
         <v>-#所受的伤害</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>VLOOKUP(J84,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S84&amp;VLOOKUP(I84,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E84,"#",TEXT(IF(ISBLANK(O84),ABS(N84),ABS(O84))*100,"0")&amp;"%")&amp;IF(ISBLANK(G84),"","，永久")&amp;R84</f>
+        <f>VLOOKUP(I84,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R84&amp;VLOOKUP(H84,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E84,"#",TEXT(IF(ISBLANK(N84),ABS(M84),ABS(N84))*100,"0")&amp;"%")&amp;Q84</f>
         <v>受击时50%的概率使自身-80%所受的伤害。</v>
       </c>
+      <c r="G84" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H84" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M84" s="1">
+        <v>332</v>
+      </c>
+      <c r="L84" s="1">
         <v>0.5</v>
       </c>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15">
+      <c r="M84" s="15"/>
+      <c r="N84" s="15">
         <v>-0.8</v>
       </c>
+      <c r="P84" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N84),VLOOKUP(G84,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M84),VLOOKUP(G84,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M84)), NOT(ISBLANK(N84))),VLOOKUP(G84,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#所受的伤害</v>
+      </c>
       <c r="Q84" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O84),VLOOKUP(H84,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N84),VLOOKUP(H84,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N84)), NOT(ISBLANK(O84))),VLOOKUP(H84,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#所受的伤害</v>
-      </c>
-      <c r="R84" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S84" s="1" t="str">
+      <c r="R84" s="1" t="str">
         <f t="shared" si="6"/>
         <v>50%的概率</v>
       </c>
-      <c r="T84" s="1">
+      <c r="S84" s="1">
         <f t="shared" si="7"/>
         <v>-0.8</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>148</v>
       </c>
@@ -6295,48 +6303,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>VLOOKUP(J85,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S85&amp;VLOOKUP(I85,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E85,"#",TEXT(IF(ISBLANK(O85),ABS(N85),ABS(O85))*100,"0")&amp;"%")&amp;IF(ISBLANK(G85),"","，永久")&amp;R85</f>
+        <f>VLOOKUP(I85,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R85&amp;VLOOKUP(H85,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E85,"#",TEXT(IF(ISBLANK(N85),ABS(M85),ABS(N85))*100,"0")&amp;"%")&amp;Q85</f>
         <v>攻击时1%的概率使自身+9900%造成的伤害。</v>
       </c>
+      <c r="G85" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H85" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M85" s="1">
+        <v>330</v>
+      </c>
+      <c r="L85" s="1">
         <v>0.01</v>
       </c>
-      <c r="N85" s="15">
+      <c r="M85" s="15">
         <v>99</v>
       </c>
-      <c r="O85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="P85" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N85),VLOOKUP(G85,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M85),VLOOKUP(G85,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M85)), NOT(ISBLANK(N85))),VLOOKUP(G85,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q85" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O85),VLOOKUP(H85,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N85),VLOOKUP(H85,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N85)), NOT(ISBLANK(O85))),VLOOKUP(H85,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R85" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S85" s="1" t="str">
+      <c r="R85" s="1" t="str">
         <f t="shared" si="6"/>
         <v>1%的概率</v>
       </c>
-      <c r="T85" s="1">
+      <c r="S85" s="1">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>70</v>
@@ -6346,51 +6354,51 @@
         <v>+#攻击力</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>VLOOKUP(J86,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S86&amp;VLOOKUP(I86,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E86,"#",TEXT(IF(ISBLANK(O86),ABS(N86),ABS(O86))*100,"0")&amp;"%")&amp;IF(ISBLANK(G86),"","，永久")&amp;R86</f>
-        <v>回合开始时使自身+20%攻击力，永久。</v>
-      </c>
-      <c r="G86" s="1">
+        <f>VLOOKUP(I86,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R86&amp;VLOOKUP(H86,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E86,"#",TEXT(IF(ISBLANK(N86),ABS(M86),ABS(N86))*100,"0")&amp;"%")&amp;Q86</f>
+        <v>回合开始时使自身+20%攻击力，永久</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L86" s="1">
         <v>1</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M86" s="1">
-        <v>1</v>
-      </c>
-      <c r="N86" s="15">
+      <c r="M86" s="15">
         <v>0.2</v>
       </c>
-      <c r="O86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="P86" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N86),VLOOKUP(G86,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M86),VLOOKUP(G86,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M86)), NOT(ISBLANK(N86))),VLOOKUP(G86,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q86" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O86),VLOOKUP(H86,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N86),VLOOKUP(H86,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N86)), NOT(ISBLANK(O86))),VLOOKUP(H86,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
+        <f t="shared" si="5"/>
+        <v>，永久</v>
       </c>
       <c r="R86" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>。</v>
-      </c>
-      <c r="S86" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T86" s="1">
+      <c r="S86" s="1">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>70</v>
@@ -6400,48 +6408,48 @@
         <v>-[#×伤害值]的生命值</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>VLOOKUP(J87,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S87&amp;VLOOKUP(I87,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E87,"#",TEXT(IF(ISBLANK(O87),ABS(N87),ABS(O87))*100,"0")&amp;"%")&amp;IF(ISBLANK(G87),"","，永久")&amp;R87</f>
+        <f>VLOOKUP(I87,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R87&amp;VLOOKUP(H87,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E87,"#",TEXT(IF(ISBLANK(N87),ABS(M87),ABS(N87))*100,"0")&amp;"%")&amp;Q87</f>
         <v>受击后30%的概率使对手-[20%×伤害值]的生命值。</v>
       </c>
+      <c r="G87" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="H87" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M87" s="1">
+        <v>334</v>
+      </c>
+      <c r="L87" s="1">
         <v>0.3</v>
       </c>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15">
+      <c r="M87" s="15"/>
+      <c r="N87" s="15">
         <v>-0.2</v>
       </c>
+      <c r="P87" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N87),VLOOKUP(G87,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M87),VLOOKUP(G87,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M87)), NOT(ISBLANK(N87))),VLOOKUP(G87,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×伤害值]的生命值</v>
+      </c>
       <c r="Q87" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O87),VLOOKUP(H87,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N87),VLOOKUP(H87,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N87)), NOT(ISBLANK(O87))),VLOOKUP(H87,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×伤害值]的生命值</v>
-      </c>
-      <c r="R87" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S87" s="1" t="str">
+      <c r="R87" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T87" s="1">
+      <c r="S87" s="1">
         <f t="shared" si="7"/>
         <v>-0.2</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>70</v>
@@ -6451,46 +6459,46 @@
         <v>释放技能，但是失败了！</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>VLOOKUP(J88,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S88&amp;VLOOKUP(I88,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E88,"#",TEXT(IF(ISBLANK(O88),ABS(N88),ABS(O88))*100,"0")&amp;"%")&amp;IF(ISBLANK(G88),"","，永久")&amp;R88</f>
+        <f>VLOOKUP(I88,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R88&amp;VLOOKUP(H88,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E88,"#",TEXT(IF(ISBLANK(N88),ABS(M88),ABS(N88))*100,"0")&amp;"%")&amp;Q88</f>
         <v>回合开始时30%的概率使自身释放技能，但是失败了！。</v>
       </c>
+      <c r="G88" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="H88" s="1" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M88" s="1">
+        <v>331</v>
+      </c>
+      <c r="L88" s="1">
         <v>0.3</v>
       </c>
+      <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
+      <c r="P88" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N88),VLOOKUP(G88,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M88),VLOOKUP(G88,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M88)), NOT(ISBLANK(N88))),VLOOKUP(G88,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>释放技能，但是失败了！</v>
+      </c>
       <c r="Q88" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O88),VLOOKUP(H88,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N88),VLOOKUP(H88,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N88)), NOT(ISBLANK(O88))),VLOOKUP(H88,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>释放技能，但是失败了！</v>
-      </c>
-      <c r="R88" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S88" s="1" t="str">
+      <c r="R88" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T88" s="1">
+      <c r="S88" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>70</v>
@@ -6500,46 +6508,46 @@
         <v>释放技能，但是失败了！</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>VLOOKUP(J89,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S89&amp;VLOOKUP(I89,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E89,"#",TEXT(IF(ISBLANK(O89),ABS(N89),ABS(O89))*100,"0")&amp;"%")&amp;IF(ISBLANK(G89),"","，永久")&amp;R89</f>
+        <f>VLOOKUP(I89,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R89&amp;VLOOKUP(H89,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E89,"#",TEXT(IF(ISBLANK(N89),ABS(M89),ABS(N89))*100,"0")&amp;"%")&amp;Q89</f>
         <v>回合开始时0%的概率使自身释放技能，但是失败了！。</v>
       </c>
+      <c r="G89" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="H89" s="1" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M89" s="1">
+        <v>331</v>
+      </c>
+      <c r="L89" s="1">
         <v>0</v>
       </c>
+      <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
+      <c r="P89" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N89),VLOOKUP(G89,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M89),VLOOKUP(G89,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M89)), NOT(ISBLANK(N89))),VLOOKUP(G89,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>释放技能，但是失败了！</v>
+      </c>
       <c r="Q89" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O89),VLOOKUP(H89,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N89),VLOOKUP(H89,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N89)), NOT(ISBLANK(O89))),VLOOKUP(H89,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>释放技能，但是失败了！</v>
-      </c>
-      <c r="R89" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S89" s="1" t="str">
+      <c r="R89" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0%的概率</v>
       </c>
-      <c r="T89" s="1">
+      <c r="S89" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>8</v>
@@ -6549,51 +6557,48 @@
         <v>(生物)随机获得5个技能。(玩家)增加5个技能上限</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>VLOOKUP(J90,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S90&amp;VLOOKUP(I90,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E90,"#",TEXT(IF(ISBLANK(O90),ABS(N90),ABS(O90))*100,"0")&amp;"%")&amp;IF(ISBLANK(G90),"","，永久")&amp;R90</f>
-        <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限，永久。</v>
-      </c>
-      <c r="G90" s="1">
+        <f>VLOOKUP(I90,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R90&amp;VLOOKUP(H90,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E90,"#",TEXT(IF(ISBLANK(N90),ABS(M90),ABS(N90))*100,"0")&amp;"%")&amp;Q90</f>
+        <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L90" s="1">
         <v>1</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M90" s="1">
-        <v>1</v>
-      </c>
-      <c r="N90" s="15">
+      <c r="M90" s="15">
         <v>5</v>
       </c>
-      <c r="O90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="P90" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N90),VLOOKUP(G90,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M90),VLOOKUP(G90,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M90)), NOT(ISBLANK(N90))),VLOOKUP(G90,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
+      </c>
       <c r="Q90" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O90),VLOOKUP(H90,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N90),VLOOKUP(H90,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N90)), NOT(ISBLANK(O90))),VLOOKUP(H90,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
-      </c>
-      <c r="R90" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S90" s="1" t="str">
+      <c r="R90" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T90" s="1">
+      <c r="S90" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>71</v>
@@ -6603,53 +6608,53 @@
         <v>+#攻防</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>VLOOKUP(J91,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S91&amp;VLOOKUP(I91,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(O91),ABS(N91),ABS(O91))*100,"0")&amp;"%")&amp;IF(ISBLANK(G91),"","，永久")&amp;R91</f>
+        <f>VLOOKUP(I91,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R91&amp;VLOOKUP(H91,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(N91),ABS(M91),ABS(N91))*100,"0")&amp;"%")&amp;Q91</f>
         <v>回合开始时20%的概率使自身+200%攻防，持续3回合。</v>
       </c>
+      <c r="G91" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H91" s="1" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="K91" s="1">
+        <v>3</v>
       </c>
       <c r="L91" s="1">
-        <v>3</v>
-      </c>
-      <c r="M91" s="1">
         <v>0.2</v>
+      </c>
+      <c r="M91" s="15">
+        <v>2</v>
       </c>
       <c r="N91" s="15">
         <v>2</v>
       </c>
-      <c r="O91" s="15">
-        <v>2</v>
+      <c r="P91" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N91),VLOOKUP(G91,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M91),VLOOKUP(G91,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M91)), NOT(ISBLANK(N91))),VLOOKUP(G91,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻防</v>
       </c>
       <c r="Q91" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O91),VLOOKUP(H91,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N91),VLOOKUP(H91,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N91)), NOT(ISBLANK(O91))),VLOOKUP(H91,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻防</v>
-      </c>
-      <c r="R91" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S91" s="1" t="str">
+      <c r="R91" s="1" t="str">
         <f t="shared" si="6"/>
         <v>20%的概率</v>
       </c>
-      <c r="T91" s="1">
+      <c r="S91" s="1">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>71</v>
@@ -6659,51 +6664,48 @@
         <v>(生物)随机获得5个技能。(玩家)增加5个技能上限</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>VLOOKUP(J92,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S92&amp;VLOOKUP(I92,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E92,"#",TEXT(IF(ISBLANK(O92),ABS(N92),ABS(O92))*100,"0")&amp;"%")&amp;IF(ISBLANK(G92),"","，永久")&amp;R92</f>
-        <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限，永久。</v>
-      </c>
-      <c r="G92" s="1">
+        <f>VLOOKUP(I92,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R92&amp;VLOOKUP(H92,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E92,"#",TEXT(IF(ISBLANK(N92),ABS(M92),ABS(N92))*100,"0")&amp;"%")&amp;Q92</f>
+        <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L92" s="1">
         <v>1</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M92" s="1">
-        <v>1</v>
-      </c>
-      <c r="N92" s="15">
+      <c r="M92" s="15">
         <v>5</v>
       </c>
-      <c r="O92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="P92" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N92),VLOOKUP(G92,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M92),VLOOKUP(G92,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M92)), NOT(ISBLANK(N92))),VLOOKUP(G92,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
+      </c>
       <c r="Q92" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O92),VLOOKUP(H92,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N92),VLOOKUP(H92,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N92)), NOT(ISBLANK(O92))),VLOOKUP(H92,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
-      </c>
-      <c r="R92" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S92" s="1" t="str">
+      <c r="R92" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T92" s="1">
+      <c r="S92" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>71</v>
@@ -6713,51 +6715,48 @@
         <v>获得1个技能</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>VLOOKUP(J93,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S93&amp;VLOOKUP(I93,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E93,"#",TEXT(IF(ISBLANK(O93),ABS(N93),ABS(O93))*100,"0")&amp;"%")&amp;IF(ISBLANK(G93),"","，永久")&amp;R93</f>
-        <v>回合开始时30%的概率使自身获得1个技能，永久。</v>
-      </c>
-      <c r="G93" s="1">
+        <f>VLOOKUP(I93,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R93&amp;VLOOKUP(H93,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E93,"#",TEXT(IF(ISBLANK(N93),ABS(M93),ABS(N93))*100,"0")&amp;"%")&amp;Q93</f>
+        <v>回合开始时30%的概率使自身获得1个技能。</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M93" s="15">
         <v>1</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M93" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N93" s="15">
-        <v>1</v>
-      </c>
-      <c r="O93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="P93" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N93),VLOOKUP(G93,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M93),VLOOKUP(G93,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M93)), NOT(ISBLANK(N93))),VLOOKUP(G93,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>获得^个技能</v>
+      </c>
       <c r="Q93" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O93),VLOOKUP(H93,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N93),VLOOKUP(H93,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N93)), NOT(ISBLANK(O93))),VLOOKUP(H93,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>获得^个技能</v>
-      </c>
-      <c r="R93" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S93" s="1" t="str">
+      <c r="R93" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T93" s="1">
+      <c r="S93" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>71</v>
@@ -6767,51 +6766,49 @@
         <v>跳过回合</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>VLOOKUP(J94,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S94&amp;VLOOKUP(I94,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(O94),ABS(N94),ABS(O94))*100,"0")&amp;"%")&amp;IF(ISBLANK(G94),"","，永久")&amp;R94</f>
+        <f>VLOOKUP(I94,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R94&amp;VLOOKUP(H94,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(N94),ABS(M94),ABS(N94))*100,"0")&amp;"%")&amp;Q94</f>
         <v>攻击后25%的概率使对手跳过回合，持续2回合。</v>
       </c>
+      <c r="G94" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H94" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K94" s="1">
+        <v>2</v>
       </c>
       <c r="L94" s="1">
-        <v>2</v>
-      </c>
-      <c r="M94" s="1">
         <v>0.25</v>
       </c>
+      <c r="M94" s="15"/>
       <c r="N94" s="15"/>
-      <c r="O94" s="15">
-        <v>1</v>
+      <c r="P94" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N94),VLOOKUP(G94,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M94),VLOOKUP(G94,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M94)), NOT(ISBLANK(N94))),VLOOKUP(G94,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>跳过回合</v>
       </c>
       <c r="Q94" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O94),VLOOKUP(H94,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N94),VLOOKUP(H94,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N94)), NOT(ISBLANK(O94))),VLOOKUP(H94,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>跳过回合</v>
-      </c>
-      <c r="R94" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S94" s="1" t="str">
+      <c r="R94" s="1" t="str">
         <f t="shared" si="6"/>
         <v>25%的概率</v>
       </c>
-      <c r="T94" s="1">
+      <c r="S94" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>72</v>
@@ -6821,48 +6818,51 @@
         <v>-#攻击力</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>VLOOKUP(J95,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S95&amp;VLOOKUP(I95,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(O95),ABS(N95),ABS(O95))*100,"0")&amp;"%")&amp;IF(ISBLANK(G95),"","，永久")&amp;R95</f>
-        <v>战斗开始时使对手-50%攻击力。</v>
+        <f>VLOOKUP(I95,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R95&amp;VLOOKUP(H95,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(N95),ABS(M95),ABS(N95))*100,"0")&amp;"%")&amp;Q95</f>
+        <v>战斗开始时使对手-50%攻击力，永久</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M95" s="1">
+      <c r="K95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L95" s="1">
         <v>1</v>
       </c>
-      <c r="N95" s="15">
+      <c r="M95" s="15">
         <v>-0.5</v>
       </c>
-      <c r="O95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="P95" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N95),VLOOKUP(G95,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M95),VLOOKUP(G95,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M95)), NOT(ISBLANK(N95))),VLOOKUP(G95,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q95" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O95),VLOOKUP(H95,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N95),VLOOKUP(H95,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N95)), NOT(ISBLANK(O95))),VLOOKUP(H95,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
+        <f t="shared" si="5"/>
+        <v>，永久</v>
       </c>
       <c r="R95" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>。</v>
-      </c>
-      <c r="S95" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T95" s="1">
+      <c r="S95" s="1">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>72</v>
@@ -6872,53 +6872,53 @@
         <v>+#最大生命并清除buff，9次</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>VLOOKUP(J96,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S96&amp;VLOOKUP(I96,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E96,"#",TEXT(IF(ISBLANK(O96),ABS(N96),ABS(O96))*100,"0")&amp;"%")&amp;IF(ISBLANK(G96),"","，永久")&amp;R96</f>
+        <f>VLOOKUP(I96,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R96&amp;VLOOKUP(H96,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E96,"#",TEXT(IF(ISBLANK(N96),ABS(M96),ABS(N96))*100,"0")&amp;"%")&amp;Q96</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，9次。</v>
       </c>
+      <c r="G96" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="H96" s="1" t="s">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K96" s="1">
+        <v>334</v>
+      </c>
+      <c r="J96" s="1">
         <v>0</v>
       </c>
-      <c r="M96" s="1">
+      <c r="L96" s="1">
         <v>1</v>
       </c>
+      <c r="M96" s="15">
+        <v>9</v>
+      </c>
       <c r="N96" s="15">
-        <v>9</v>
-      </c>
-      <c r="O96" s="15">
         <v>1</v>
       </c>
+      <c r="P96" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N96),VLOOKUP(G96,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M96),VLOOKUP(G96,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M96)), NOT(ISBLANK(N96))),VLOOKUP(G96,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#最大生命并清除buff，^次</v>
+      </c>
       <c r="Q96" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O96),VLOOKUP(H96,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N96),VLOOKUP(H96,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N96)), NOT(ISBLANK(O96))),VLOOKUP(H96,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#最大生命并清除buff，^次</v>
-      </c>
-      <c r="R96" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S96" s="1" t="str">
+      <c r="R96" s="1" t="str">
         <f t="shared" si="6"/>
         <v>如果死亡，那么</v>
       </c>
-      <c r="T96" s="1">
+      <c r="S96" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>73</v>
@@ -6928,51 +6928,51 @@
         <v>+#攻击力</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>VLOOKUP(J97,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S97&amp;VLOOKUP(I97,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(O97),ABS(N97),ABS(O97))*100,"0")&amp;"%")&amp;IF(ISBLANK(G97),"","，永久")&amp;R97</f>
+        <f>VLOOKUP(I97,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R97&amp;VLOOKUP(H97,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(N97),ABS(M97),ABS(N97))*100,"0")&amp;"%")&amp;Q97</f>
         <v>回合开始时30%的概率使自身+200%攻击力，持续3回合。</v>
       </c>
+      <c r="G97" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H97" s="1" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="K97" s="1">
+        <v>3</v>
       </c>
       <c r="L97" s="1">
-        <v>3</v>
-      </c>
-      <c r="M97" s="1">
         <v>0.3</v>
       </c>
-      <c r="N97" s="15">
+      <c r="M97" s="15">
         <v>2</v>
       </c>
-      <c r="O97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="P97" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N97),VLOOKUP(G97,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M97),VLOOKUP(G97,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M97)), NOT(ISBLANK(N97))),VLOOKUP(G97,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#攻击力</v>
+      </c>
       <c r="Q97" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O97),VLOOKUP(H97,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N97),VLOOKUP(H97,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N97)), NOT(ISBLANK(O97))),VLOOKUP(H97,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#攻击力</v>
-      </c>
-      <c r="R97" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S97" s="1" t="str">
+      <c r="R97" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T97" s="1">
+      <c r="S97" s="1">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>73</v>
@@ -6982,48 +6982,48 @@
         <v>-#所受的伤害</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>VLOOKUP(J98,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S98&amp;VLOOKUP(I98,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(O98),ABS(N98),ABS(O98))*100,"0")&amp;"%")&amp;IF(ISBLANK(G98),"","，永久")&amp;R98</f>
+        <f>VLOOKUP(I98,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R98&amp;VLOOKUP(H98,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(N98),ABS(M98),ABS(N98))*100,"0")&amp;"%")&amp;Q98</f>
         <v>受击时使自身-50%所受的伤害。</v>
       </c>
+      <c r="G98" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H98" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M98" s="1">
+        <v>332</v>
+      </c>
+      <c r="L98" s="1">
         <v>1</v>
       </c>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15">
+      <c r="M98" s="15"/>
+      <c r="N98" s="15">
         <v>-0.5</v>
       </c>
+      <c r="P98" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N98),VLOOKUP(G98,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M98),VLOOKUP(G98,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M98)), NOT(ISBLANK(N98))),VLOOKUP(G98,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#所受的伤害</v>
+      </c>
       <c r="Q98" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O98),VLOOKUP(H98,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N98),VLOOKUP(H98,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N98)), NOT(ISBLANK(O98))),VLOOKUP(H98,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#所受的伤害</v>
-      </c>
-      <c r="R98" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S98" s="1" t="str">
+      <c r="R98" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T98" s="1">
+      <c r="S98" s="1">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>73</v>
@@ -7033,51 +7033,49 @@
         <v>跳过回合</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>VLOOKUP(J99,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S99&amp;VLOOKUP(I99,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(O99),ABS(N99),ABS(O99))*100,"0")&amp;"%")&amp;IF(ISBLANK(G99),"","，永久")&amp;R99</f>
+        <f>VLOOKUP(I99,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R99&amp;VLOOKUP(H99,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(N99),ABS(M99),ABS(N99))*100,"0")&amp;"%")&amp;Q99</f>
         <v>攻击后15%的概率使对手跳过回合，持续3回合。</v>
       </c>
+      <c r="G99" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H99" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K99" s="1">
+        <v>3</v>
       </c>
       <c r="L99" s="1">
-        <v>3</v>
-      </c>
-      <c r="M99" s="1">
         <v>0.15</v>
       </c>
+      <c r="M99" s="15"/>
       <c r="N99" s="15"/>
-      <c r="O99" s="15">
-        <v>1</v>
+      <c r="P99" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N99),VLOOKUP(G99,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M99),VLOOKUP(G99,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M99)), NOT(ISBLANK(N99))),VLOOKUP(G99,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>跳过回合</v>
       </c>
       <c r="Q99" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O99),VLOOKUP(H99,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N99),VLOOKUP(H99,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N99)), NOT(ISBLANK(O99))),VLOOKUP(H99,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>跳过回合</v>
-      </c>
-      <c r="R99" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S99" s="1" t="str">
+      <c r="R99" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="T99" s="1">
+      <c r="S99" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>73</v>
@@ -7087,51 +7085,49 @@
         <v>跳过回合</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>VLOOKUP(J100,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S100&amp;VLOOKUP(I100,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(O100),ABS(N100),ABS(O100))*100,"0")&amp;"%")&amp;IF(ISBLANK(G100),"","，永久")&amp;R100</f>
+        <f>VLOOKUP(I100,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R100&amp;VLOOKUP(H100,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(N100),ABS(M100),ABS(N100))*100,"0")&amp;"%")&amp;Q100</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
+      <c r="G100" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H100" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="K100" s="1">
+        <v>1</v>
       </c>
       <c r="L100" s="1">
-        <v>1</v>
-      </c>
-      <c r="M100" s="1">
         <v>0.25</v>
       </c>
+      <c r="M100" s="15"/>
       <c r="N100" s="15"/>
-      <c r="O100" s="15">
-        <v>1</v>
+      <c r="P100" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N100),VLOOKUP(G100,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M100),VLOOKUP(G100,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M100)), NOT(ISBLANK(N100))),VLOOKUP(G100,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>跳过回合</v>
       </c>
       <c r="Q100" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O100),VLOOKUP(H100,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N100),VLOOKUP(H100,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N100)), NOT(ISBLANK(O100))),VLOOKUP(H100,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>跳过回合</v>
-      </c>
-      <c r="R100" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S100" s="1" t="str">
+      <c r="R100" s="1" t="str">
         <f t="shared" si="6"/>
         <v>25%的概率</v>
       </c>
-      <c r="T100" s="1">
+      <c r="S100" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>73</v>
@@ -7141,48 +7137,48 @@
         <v>-[#×攻击力]的生命值</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>VLOOKUP(J101,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S101&amp;VLOOKUP(I101,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E101,"#",TEXT(IF(ISBLANK(O101),ABS(N101),ABS(O101))*100,"0")&amp;"%")&amp;IF(ISBLANK(G101),"","，永久")&amp;R101</f>
+        <f>VLOOKUP(I101,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R101&amp;VLOOKUP(H101,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E101,"#",TEXT(IF(ISBLANK(N101),ABS(M101),ABS(N101))*100,"0")&amp;"%")&amp;Q101</f>
         <v>回合开始时10%的概率使对手-[100%×攻击力]的生命值。</v>
       </c>
+      <c r="G101" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="H101" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M101" s="1">
+        <v>331</v>
+      </c>
+      <c r="L101" s="1">
         <v>0.1</v>
       </c>
-      <c r="N101" s="15">
+      <c r="M101" s="15">
         <v>-1</v>
       </c>
-      <c r="O101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="P101" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N101),VLOOKUP(G101,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M101),VLOOKUP(G101,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M101)), NOT(ISBLANK(N101))),VLOOKUP(G101,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*[#×攻击力]的生命值</v>
+      </c>
       <c r="Q101" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O101),VLOOKUP(H101,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N101),VLOOKUP(H101,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N101)), NOT(ISBLANK(O101))),VLOOKUP(H101,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*[#×攻击力]的生命值</v>
-      </c>
-      <c r="R101" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S101" s="1" t="str">
+      <c r="R101" s="1" t="str">
         <f t="shared" si="6"/>
         <v>10%的概率</v>
       </c>
-      <c r="T101" s="1">
+      <c r="S101" s="1">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>73</v>
@@ -7192,49 +7188,49 @@
         <v>闪避</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f>VLOOKUP(J102,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S102&amp;VLOOKUP(I102,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E102,"#",TEXT(IF(ISBLANK(O102),ABS(N102),ABS(O102))*100,"0")&amp;"%")&amp;IF(ISBLANK(G102),"","，永久")&amp;R102</f>
+        <f>VLOOKUP(I102,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R102&amp;VLOOKUP(H102,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E102,"#",TEXT(IF(ISBLANK(N102),ABS(M102),ABS(N102))*100,"0")&amp;"%")&amp;Q102</f>
         <v>回合开始时15%的概率使自身闪避，持续2回合。</v>
       </c>
+      <c r="G102" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H102" s="1" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="K102" s="1">
+        <v>2</v>
       </c>
       <c r="L102" s="1">
-        <v>2</v>
-      </c>
-      <c r="M102" s="1">
         <v>0.15</v>
       </c>
+      <c r="M102" s="15"/>
       <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
+      <c r="P102" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N102),VLOOKUP(G102,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M102),VLOOKUP(G102,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M102)), NOT(ISBLANK(N102))),VLOOKUP(G102,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>闪避</v>
+      </c>
       <c r="Q102" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O102),VLOOKUP(H102,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N102),VLOOKUP(H102,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N102)), NOT(ISBLANK(O102))),VLOOKUP(H102,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>闪避</v>
-      </c>
-      <c r="R102" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S102" s="1" t="str">
+      <c r="R102" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="T102" s="1">
+      <c r="S102" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>73</v>
@@ -7244,207 +7240,201 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>VLOOKUP(J103,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S103&amp;VLOOKUP(I103,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E103,"#",TEXT(IF(ISBLANK(O103),ABS(N103),ABS(O103))*100,"0")&amp;"%")&amp;IF(ISBLANK(G103),"","，永久")&amp;R103</f>
+        <f>VLOOKUP(I103,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R103&amp;VLOOKUP(H103,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E103,"#",TEXT(IF(ISBLANK(N103),ABS(M103),ABS(N103))*100,"0")&amp;"%")&amp;Q103</f>
         <v>攻击时80%的概率使自身+50%造成的伤害。</v>
       </c>
+      <c r="G103" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H103" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M103" s="1">
+        <v>330</v>
+      </c>
+      <c r="L103" s="1">
         <v>0.8</v>
       </c>
-      <c r="N103" s="15">
+      <c r="M103" s="15">
         <v>0.5</v>
       </c>
-      <c r="O103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="P103" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N103),VLOOKUP(G103,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M103),VLOOKUP(G103,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M103)), NOT(ISBLANK(N103))),VLOOKUP(G103,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q103" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O103),VLOOKUP(H103,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N103),VLOOKUP(H103,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N103)), NOT(ISBLANK(O103))),VLOOKUP(H103,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R103" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S103" s="1" t="str">
+      <c r="R103" s="1" t="str">
         <f t="shared" si="6"/>
         <v>80%的概率</v>
       </c>
-      <c r="T103" s="1">
+      <c r="S103" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E104" s="1" t="str">
         <f t="shared" si="4"/>
         <v>获得1个技能</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>VLOOKUP(J104,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S104&amp;VLOOKUP(I104,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E104,"#",TEXT(IF(ISBLANK(O104),ABS(N104),ABS(O104))*100,"0")&amp;"%")&amp;IF(ISBLANK(G104),"","，永久")&amp;R104</f>
-        <v>回合开始时50%的概率使自身获得1个技能，永久。</v>
-      </c>
-      <c r="G104" s="1">
+        <f>VLOOKUP(I104,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R104&amp;VLOOKUP(H104,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E104,"#",TEXT(IF(ISBLANK(N104),ABS(M104),ABS(N104))*100,"0")&amp;"%")&amp;Q104</f>
+        <v>回合开始时50%的概率使自身获得1个技能。</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M104" s="15">
         <v>1</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M104" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N104" s="15">
-        <v>1</v>
-      </c>
-      <c r="O104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="P104" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N104),VLOOKUP(G104,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M104),VLOOKUP(G104,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M104)), NOT(ISBLANK(N104))),VLOOKUP(G104,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>获得^个技能</v>
+      </c>
       <c r="Q104" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O104),VLOOKUP(H104,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N104),VLOOKUP(H104,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N104)), NOT(ISBLANK(O104))),VLOOKUP(H104,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>获得^个技能</v>
-      </c>
-      <c r="R104" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S104" s="1" t="str">
+      <c r="R104" s="1" t="str">
         <f t="shared" si="6"/>
         <v>50%的概率</v>
       </c>
-      <c r="T104" s="1">
+      <c r="S104" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E105" s="1" t="str">
         <f t="shared" si="4"/>
         <v>禁用1个技能</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>VLOOKUP(J105,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S105&amp;VLOOKUP(I105,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E105,"#",TEXT(IF(ISBLANK(O105),ABS(N105),ABS(O105))*100,"0")&amp;"%")&amp;IF(ISBLANK(G105),"","，永久")&amp;R105</f>
-        <v>回合开始时60%的概率使自身禁用1个技能，永久。</v>
-      </c>
-      <c r="G105" s="1">
+        <f>VLOOKUP(I105,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R105&amp;VLOOKUP(H105,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E105,"#",TEXT(IF(ISBLANK(N105),ABS(M105),ABS(N105))*100,"0")&amp;"%")&amp;Q105</f>
+        <v>回合开始时60%的概率使对手禁用1个技能。</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M105" s="15">
         <v>1</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M105" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N105" s="15">
-        <v>1</v>
-      </c>
-      <c r="O105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="P105" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N105),VLOOKUP(G105,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M105),VLOOKUP(G105,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M105)), NOT(ISBLANK(N105))),VLOOKUP(G105,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>禁用^个技能</v>
+      </c>
       <c r="Q105" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O105),VLOOKUP(H105,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N105),VLOOKUP(H105,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N105)), NOT(ISBLANK(O105))),VLOOKUP(H105,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>禁用^个技能</v>
-      </c>
-      <c r="R105" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S105" s="1" t="str">
+      <c r="R105" s="1" t="str">
         <f t="shared" si="6"/>
         <v>60%的概率</v>
       </c>
-      <c r="T105" s="1">
+      <c r="S105" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E106" s="1" t="str">
         <f t="shared" si="4"/>
         <v>+#造成的伤害</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>VLOOKUP(J106,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S106&amp;VLOOKUP(I106,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E106,"#",TEXT(IF(ISBLANK(O106),ABS(N106),ABS(O106))*100,"0")&amp;"%")&amp;IF(ISBLANK(G106),"","，永久")&amp;R106</f>
+        <f>VLOOKUP(I106,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R106&amp;VLOOKUP(H106,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E106,"#",TEXT(IF(ISBLANK(N106),ABS(M106),ABS(N106))*100,"0")&amp;"%")&amp;Q106</f>
         <v>攻击时70%的概率使自身+100%造成的伤害。</v>
       </c>
+      <c r="G106" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H106" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M106" s="1">
+        <v>330</v>
+      </c>
+      <c r="L106" s="1">
         <v>0.7</v>
       </c>
-      <c r="N106" s="15">
+      <c r="M106" s="15">
         <v>1</v>
       </c>
-      <c r="O106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="P106" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N106),VLOOKUP(G106,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M106),VLOOKUP(G106,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M106)), NOT(ISBLANK(N106))),VLOOKUP(G106,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q106" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O106),VLOOKUP(H106,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N106),VLOOKUP(H106,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N106)), NOT(ISBLANK(O106))),VLOOKUP(H106,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R106" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S106" s="1" t="str">
+      <c r="R106" s="1" t="str">
         <f t="shared" si="6"/>
         <v>70%的概率</v>
       </c>
-      <c r="T106" s="1">
+      <c r="S106" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>74</v>
@@ -7454,48 +7444,48 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>VLOOKUP(J107,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S107&amp;VLOOKUP(I107,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E107,"#",TEXT(IF(ISBLANK(O107),ABS(N107),ABS(O107))*100,"0")&amp;"%")&amp;IF(ISBLANK(G107),"","，永久")&amp;R107</f>
+        <f>VLOOKUP(I107,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R107&amp;VLOOKUP(H107,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E107,"#",TEXT(IF(ISBLANK(N107),ABS(M107),ABS(N107))*100,"0")&amp;"%")&amp;Q107</f>
         <v>攻击时60%的概率使自身+200%造成的伤害。</v>
       </c>
+      <c r="G107" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H107" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M107" s="1">
+        <v>330</v>
+      </c>
+      <c r="L107" s="1">
         <v>0.6</v>
       </c>
-      <c r="N107" s="15">
+      <c r="M107" s="15">
         <v>2</v>
       </c>
-      <c r="O107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="P107" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N107),VLOOKUP(G107,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M107),VLOOKUP(G107,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M107)), NOT(ISBLANK(N107))),VLOOKUP(G107,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>*#造成的伤害</v>
+      </c>
       <c r="Q107" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O107),VLOOKUP(H107,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N107),VLOOKUP(H107,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N107)), NOT(ISBLANK(O107))),VLOOKUP(H107,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>*#造成的伤害</v>
-      </c>
-      <c r="R107" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S107" s="1" t="str">
+      <c r="R107" s="1" t="str">
         <f t="shared" si="6"/>
         <v>60%的概率</v>
       </c>
-      <c r="T107" s="1">
+      <c r="S107" s="1">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>74</v>
@@ -7505,51 +7495,48 @@
         <v>禁用1个技能</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>VLOOKUP(J108,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S108&amp;VLOOKUP(I108,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E108,"#",TEXT(IF(ISBLANK(O108),ABS(N108),ABS(O108))*100,"0")&amp;"%")&amp;IF(ISBLANK(G108),"","，永久")&amp;R108</f>
-        <v>回合开始时50%的概率使对手禁用1个技能，永久。</v>
-      </c>
-      <c r="G108" s="1">
+        <f>VLOOKUP(I108,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R108&amp;VLOOKUP(H108,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E108,"#",TEXT(IF(ISBLANK(N108),ABS(M108),ABS(N108))*100,"0")&amp;"%")&amp;Q108</f>
+        <v>回合开始时50%的概率使对手禁用1个技能。</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M108" s="15">
         <v>1</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M108" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N108" s="15">
-        <v>1</v>
-      </c>
-      <c r="O108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="P108" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N108),VLOOKUP(G108,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M108),VLOOKUP(G108,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M108)), NOT(ISBLANK(N108))),VLOOKUP(G108,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>禁用^个技能</v>
+      </c>
       <c r="Q108" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O108),VLOOKUP(H108,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N108),VLOOKUP(H108,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N108)), NOT(ISBLANK(O108))),VLOOKUP(H108,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>禁用^个技能</v>
-      </c>
-      <c r="R108" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S108" s="1" t="str">
+      <c r="R108" s="1" t="str">
         <f t="shared" si="6"/>
         <v>50%的概率</v>
       </c>
-      <c r="T108" s="1">
+      <c r="S108" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>74</v>
@@ -7559,155 +7546,153 @@
         <v>闪避</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>VLOOKUP(J109,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S109&amp;VLOOKUP(I109,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E109,"#",TEXT(IF(ISBLANK(O109),ABS(N109),ABS(O109))*100,"0")&amp;"%")&amp;IF(ISBLANK(G109),"","，永久")&amp;R109</f>
+        <f>VLOOKUP(I109,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R109&amp;VLOOKUP(H109,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E109,"#",TEXT(IF(ISBLANK(N109),ABS(M109),ABS(N109))*100,"0")&amp;"%")&amp;Q109</f>
         <v>回合开始时15%的概率使自身闪避，持续3回合。</v>
       </c>
+      <c r="G109" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H109" s="1" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="K109" s="1">
+        <v>3</v>
       </c>
       <c r="L109" s="1">
-        <v>3</v>
-      </c>
-      <c r="M109" s="1">
         <v>0.15</v>
       </c>
+      <c r="M109" s="15"/>
       <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
+      <c r="P109" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N109),VLOOKUP(G109,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M109),VLOOKUP(G109,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M109)), NOT(ISBLANK(N109))),VLOOKUP(G109,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>闪避</v>
+      </c>
       <c r="Q109" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O109),VLOOKUP(H109,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N109),VLOOKUP(H109,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N109)), NOT(ISBLANK(O109))),VLOOKUP(H109,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>闪避</v>
-      </c>
-      <c r="R109" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S109" s="1" t="str">
+      <c r="R109" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="T109" s="1">
+      <c r="S109" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>(生物)随机获得5个技能。(玩家)增加5个技能上限</v>
+        <v>(生物)随机获得X个技能。(玩家)增加5个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>VLOOKUP(J110,[1]Sheet1!$A$16:$B$24,2,FALSE)&amp;S110&amp;VLOOKUP(I110,[1]Sheet1!$A$1:$B$24,2,FALSE)&amp;SUBSTITUTE(E110,"#",TEXT(IF(ISBLANK(O110),ABS(N110),ABS(O110))*100,"0")&amp;"%")&amp;IF(ISBLANK(G110),"","，永久")&amp;R110</f>
-        <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限，永久。</v>
-      </c>
-      <c r="G110" s="1">
+        <f>VLOOKUP(I110,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R110&amp;VLOOKUP(H110,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E110,"#",TEXT(IF(ISBLANK(N110),ABS(M110),ABS(N110))*100,"0")&amp;"%")&amp;Q110</f>
+        <v>战斗准备阶段使自身(生物)随机获得X个技能。(玩家)增加5个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100。</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L110" s="1">
         <v>1</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M110" s="1">
-        <v>1</v>
-      </c>
+      <c r="M110" s="15"/>
       <c r="N110" s="15">
         <v>5</v>
       </c>
-      <c r="O110" s="15"/>
+      <c r="P110" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(N110),VLOOKUP(G110,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M110),VLOOKUP(G110,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M110)), NOT(ISBLANK(N110))),VLOOKUP(G110,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>(生物)随机获得X个技能。(玩家)增加^个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</v>
+      </c>
       <c r="Q110" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O110),VLOOKUP(H110,[1]Sheet1!$A$1:$B$24, 2, FALSE),ISBLANK(N110),VLOOKUP(H110,[1]Sheet1!$A$1:$C$24, 3, FALSE),AND(NOT(ISBLANK(N110)), NOT(ISBLANK(O110))),VLOOKUP(H110,[1]Sheet1!$A$1:$D$24,4, FALSE))</f>
-        <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
-      </c>
-      <c r="R110" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S110" s="1" t="str">
+      <c r="R110" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T110" s="1">
+      <c r="S110" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B5:E5 F5:M6 O5:O110 U5:XFD110 O6:P6 Q6:S110 F7:P12 N7:N110 F13:O24 P13:P26 F25:M25 F26:O26 A111:XFD149 F5:G36 F27:P110 B6:G110">
-    <cfRule type="expression" dxfId="8" priority="10">
+  <conditionalFormatting sqref="A5:A110">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula xml:space="preserve"> MOD(ROW(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>" = MOD（ROW（），2）"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>" = MOD（ROW（），2）"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:E5 O5:S5 F5:M6 O5:O110 U5:XFD110 O6:P6 F7:P12 N7:N110 F13:O24 P13:P26 F25:M25 F26:O26 A111:XFD149 F5:G36 F27:P110 B6:G110 Q6:S110">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>" = MOD（ROW（），2）"</formula>
+  <conditionalFormatting sqref="B5:E5 F5:L6 F5:F36 N5:N110 T5:XFD110 B6:F110 F7:O12 M7:M110 F13:N24 O13:O26 F25:L25 F26:N26 F27:O110 A111:XFD149">
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5 F5:L6 N5:R6 F5:F36 N5:N110 T5:XFD110 B6:F110 F7:O12 M7:M110 F13:N24 O13:O26 F25:L25 F26:N26 F27:O110 A111:XFD149 Q6:Q110 P7:R110">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:M6 B5:D34 U5:XFD34 E5:E110 O5:O110 S5:S110 O6:P12 Q6:S110 H7:N149 P13:P26 O27:P34 D35:D110 D111:G149 F5:G149">
+  <conditionalFormatting sqref="B5:E5 F5:L6 N5:R6 F5:F36 N5:N110 T5:XFD110 B6:F110 Q6:Q110 F7:O12 M7:M110 P7:R110 F13:N24 O13:O26 F25:L25 F26:N26 F27:O110 A111:XFD149">
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>" = MOD（ROW（），2）"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:L6 B5:D34 T5:XFD34 E5:E110 N5:N110 F5:F149 N6:O12 G7:M149 O13:O26 N27:O34 D35:D110 D111:F149">
     <cfRule type="expression" priority="13">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:R5 R6:R110">
+  <conditionalFormatting sqref="M5:P5 Q5:R6 N6:P6 Q6:Q110 P7:R110">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula xml:space="preserve"> MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:P5 Q5:R110 P6 P7:R110">
     <cfRule type="expression" priority="8">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:S5 R6:R110">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula xml:space="preserve"> MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A110">
-    <cfRule type="expression" priority="4">
-      <formula xml:space="preserve"> MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A110">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula xml:space="preserve"> MOD(ROW(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>" = MOD（ROW（），2）"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>" = MOD（ROW（），2）"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/MiniTemplate/Excels/#skill.xlsx
+++ b/design/MiniTemplate/Excels/#skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14484D9E-BB60-4534-B0AB-BB265193D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFAC67A-433F-42CE-8061-589F46B7313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="417">
   <si>
     <t>##var</t>
   </si>
@@ -1114,6 +1114,244 @@
   </si>
   <si>
     <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复一定生命值</t>
+  </si>
+  <si>
+    <t>无视对手部分防御</t>
+  </si>
+  <si>
+    <t>对手无法动弹</t>
+  </si>
+  <si>
+    <t>属性提升</t>
+  </si>
+  <si>
+    <t>造成大量伤害</t>
+  </si>
+  <si>
+    <t>属性大幅提升</t>
+  </si>
+  <si>
+    <t>对手属性下降</t>
+  </si>
+  <si>
+    <t>对手攻防属性转换</t>
+  </si>
+  <si>
+    <t>闪避一次攻击</t>
+  </si>
+  <si>
+    <t>攻击力提升</t>
+  </si>
+  <si>
+    <t>震慑对手</t>
+  </si>
+  <si>
+    <t>对手攻击力下降</t>
+  </si>
+  <si>
+    <t>复活了</t>
+  </si>
+  <si>
+    <t>对手受到火焰灼烧</t>
+  </si>
+  <si>
+    <t>对手受到震慑</t>
+  </si>
+  <si>
+    <t>无视对手防御</t>
+  </si>
+  <si>
+    <t>受到的伤害降低</t>
+  </si>
+  <si>
+    <t>对手受到反伤</t>
+  </si>
+  <si>
+    <t>生命值恢复了</t>
+  </si>
+  <si>
+    <t>对手眩晕一回合</t>
+  </si>
+  <si>
+    <t>对手不忍袭击仙兽</t>
+  </si>
+  <si>
+    <t>对手为气息所感化</t>
+  </si>
+  <si>
+    <t>识破对手数个技能</t>
+  </si>
+  <si>
+    <t>发现对手心中的邪恶</t>
+  </si>
+  <si>
+    <t>对手被正气所震慑</t>
+  </si>
+  <si>
+    <t>对手被天命惩罚</t>
+  </si>
+  <si>
+    <t>完全无视对手防御</t>
+  </si>
+  <si>
+    <t>防御力提高</t>
+  </si>
+  <si>
+    <t>对手失去战意</t>
+  </si>
+  <si>
+    <t>对手防御力下降两回合</t>
+  </si>
+  <si>
+    <t>拾取物体当做武器</t>
+  </si>
+  <si>
+    <t>迷惑对手使其暂停攻击</t>
+  </si>
+  <si>
+    <t>对手对自己造成伤害</t>
+  </si>
+  <si>
+    <t>对手被魅惑了</t>
+  </si>
+  <si>
+    <t>对手被骗过了</t>
+  </si>
+  <si>
+    <t>吞噬对手</t>
+  </si>
+  <si>
+    <t>从冥界归来</t>
+  </si>
+  <si>
+    <t>对手的造成的伤害被河蟹了</t>
+  </si>
+  <si>
+    <t>对手被河蟹了</t>
+  </si>
+  <si>
+    <t>攻击力上升</t>
+  </si>
+  <si>
+    <t>什么也没发生</t>
+  </si>
+  <si>
+    <t>舍弃一条尾巴复活了</t>
+  </si>
+  <si>
+    <t>识破一个技能</t>
+  </si>
+  <si>
+    <t>藏匿于分身之中</t>
+  </si>
+  <si>
+    <t>学会了数个技能</t>
+  </si>
+  <si>
+    <t>学会了一些技能</t>
+  </si>
+  <si>
+    <t>伤害大量强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成大量伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害巨量强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活走位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将对手眩晕1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将对手束缚3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力巨幅上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使对手攻击力下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将对手眩晕两回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性巨幅提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使对手攻击力小幅下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力大幅上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害少量强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手防御力略微下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害少量降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手眩晕一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避攻击一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避两回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害巨幅提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视对方闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,6 +1574,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -1351,27 +1610,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1911,11 +2149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S110"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1924,24 +2162,24 @@
     <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="1"/>
-    <col min="13" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="42.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="6" width="31.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.109375" style="1"/>
+    <col min="17" max="17" width="21.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="42.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1955,36 +2193,36 @@
         <v>174</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="P1" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="O1" s="20"/>
       <c r="Q1" s="2" t="s">
         <v>339</v>
       </c>
@@ -1994,8 +2232,11 @@
       <c r="S1" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,32 +2251,35 @@
         <v>173</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2047,19 +2291,20 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8">
+      <c r="L3" s="12"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8">
         <v>1</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2076,32 +2321,35 @@
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
@@ -2112,46 +2360,49 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(P5,"*",_xlfn.IFS(S5&lt;0,"-",S5&gt;0,"+",S5=0,"")),"^",S5)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(Q5,"*",_xlfn.IFS(T5&lt;0,"-",T5&gt;0,"+",T5=0,"")),"^",T5)</f>
         <v>+[#×伤害值]的生命值</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f>VLOOKUP(I5,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R5&amp;VLOOKUP(H5,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E5,"#",TEXT(IF(ISBLANK(N5),ABS(M5),ABS(N5))*100,"0")&amp;"%")&amp;Q5</f>
+      <c r="F5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>VLOOKUP(J5,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S5&amp;VLOOKUP(I5,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E5,"#",TEXT(IF(ISBLANK(O5),ABS(N5),ABS(O5))*100,"0")&amp;"%")&amp;R5</f>
         <v>攻击后20%的概率使自身+[50%×伤害值]的生命值。</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>0.2</v>
       </c>
-      <c r="N5" s="15">
+      <c r="O5" s="15">
         <v>0.5</v>
       </c>
-      <c r="P5" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N5),VLOOKUP(G5,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M5),VLOOKUP(G5,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M5)), NOT(ISBLANK(N5))),VLOOKUP(G5,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q5" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O5),VLOOKUP(H5,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N5),VLOOKUP(H5,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N5)), NOT(ISBLANK(O5))),VLOOKUP(H5,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="Q5" s="1" t="str">
-        <f>IF(NOT(ISBLANK(K5))*AND(K5&gt;0),"，持续"&amp;K5&amp;"回合。",IF(K5=-1,"，永久","。"))</f>
+      <c r="R5" s="1" t="str">
+        <f>IF(NOT(ISBLANK(L5))*AND(L5&gt;0),"，持续"&amp;L5&amp;"回合。",IF(L5=-1,"，永久","。"))</f>
         <v>。</v>
       </c>
-      <c r="R5" s="1" t="str">
-        <f>IF(ISBLANK(J5),"","如果"&amp;IF(J5=0,"死亡","生命值&lt;"&amp;TEXT(J5*100,"0")&amp;"%")&amp;"，那么")&amp;IF(L5&lt;1,TEXT(L5*100,"0")&amp;"%的概率","")</f>
+      <c r="S5" s="1" t="str">
+        <f>IF(ISBLANK(K5),"","如果"&amp;IF(K5=0,"死亡","生命值&lt;"&amp;TEXT(K5*100,"0")&amp;"%")&amp;"，那么")&amp;IF(M5&lt;1,TEXT(M5*100,"0")&amp;"%的概率","")</f>
         <v>20%的概率</v>
       </c>
-      <c r="S5" s="1">
-        <f>IF(ISBLANK(M5),N5,M5)</f>
+      <c r="T5" s="1">
+        <f>IF(ISBLANK(N5),O5,N5)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
@@ -2162,49 +2413,52 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E69" si="0">SUBSTITUTE(SUBSTITUTE(P6,"*",_xlfn.IFS(S6&lt;0,"-",S6&gt;0,"+",S6=0,"")),"^",S6)</f>
+        <f t="shared" ref="E6:F69" si="0">SUBSTITUTE(SUBSTITUTE(Q6,"*",_xlfn.IFS(T6&lt;0,"-",T6&gt;0,"+",T6=0,"")),"^",T6)</f>
         <v>-#防御力</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f>VLOOKUP(I6,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R6&amp;VLOOKUP(H6,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E6,"#",TEXT(IF(ISBLANK(N6),ABS(M6),ABS(N6))*100,"0")&amp;"%")&amp;Q6</f>
+      <c r="F6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>VLOOKUP(J6,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S6&amp;VLOOKUP(I6,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E6,"#",TEXT(IF(ISBLANK(O6),ABS(N6),ABS(O6))*100,"0")&amp;"%")&amp;R6</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>0.2</v>
       </c>
-      <c r="N6" s="15">
+      <c r="O6" s="15">
         <v>-0.5</v>
       </c>
-      <c r="P6" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N6),VLOOKUP(G6,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M6),VLOOKUP(G6,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M6)), NOT(ISBLANK(N6))),VLOOKUP(G6,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q6" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O6),VLOOKUP(H6,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N6),VLOOKUP(H6,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N6)), NOT(ISBLANK(O6))),VLOOKUP(H6,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="Q6" s="1" t="str">
-        <f t="shared" ref="Q6:Q69" si="1">IF(NOT(ISBLANK(K6))*AND(K6&gt;0),"，持续"&amp;K6&amp;"回合。",IF(K6=-1,"，永久","。"))</f>
+      <c r="R6" s="1" t="str">
+        <f t="shared" ref="R6:R69" si="1">IF(NOT(ISBLANK(L6))*AND(L6&gt;0),"，持续"&amp;L6&amp;"回合。",IF(L6=-1,"，永久","。"))</f>
         <v>。</v>
       </c>
-      <c r="R6" s="1" t="str">
-        <f t="shared" ref="R6:R69" si="2">IF(ISBLANK(J6),"","如果"&amp;IF(J6=0,"死亡","生命值&lt;"&amp;TEXT(J6*100,"0")&amp;"%")&amp;"，那么")&amp;IF(L6&lt;1,TEXT(L6*100,"0")&amp;"%的概率","")</f>
+      <c r="S6" s="1" t="str">
+        <f t="shared" ref="S6:S69" si="2">IF(ISBLANK(K6),"","如果"&amp;IF(K6=0,"死亡","生命值&lt;"&amp;TEXT(K6*100,"0")&amp;"%")&amp;"，那么")&amp;IF(M6&lt;1,TEXT(M6*100,"0")&amp;"%的概率","")</f>
         <v>20%的概率</v>
       </c>
-      <c r="S6" s="1">
-        <f t="shared" ref="S6:S69" si="3">IF(ISBLANK(M6),N6,M6)</f>
+      <c r="T6" s="1">
+        <f t="shared" ref="T6:T69" si="3">IF(ISBLANK(N6),O6,N6)</f>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
@@ -2216,47 +2470,50 @@
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>放弃攻击</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f>VLOOKUP(I7,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R7&amp;VLOOKUP(H7,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E7,"#",TEXT(IF(ISBLANK(N7),ABS(M7),ABS(N7))*100,"0")&amp;"%")&amp;Q7</f>
-        <v>攻击后20%的概率使对手放弃攻击，持续1回合。</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>344</v>
+        <v>跳过回合</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>VLOOKUP(J7,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S7&amp;VLOOKUP(I7,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E7,"#",TEXT(IF(ISBLANK(O7),ABS(N7),ABS(O7))*100,"0")&amp;"%")&amp;R7</f>
+        <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>0.2</v>
       </c>
-      <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="P7" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N7),VLOOKUP(G7,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M7),VLOOKUP(G7,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M7)), NOT(ISBLANK(N7))),VLOOKUP(G7,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
-        <v>放弃攻击</v>
-      </c>
+      <c r="O7" s="15"/>
       <c r="Q7" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O7),VLOOKUP(H7,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N7),VLOOKUP(H7,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N7)), NOT(ISBLANK(O7))),VLOOKUP(H7,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+        <v>跳过回合</v>
+      </c>
+      <c r="R7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R7" s="1" t="str">
+      <c r="S7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
@@ -2270,49 +2527,52 @@
         <f t="shared" si="0"/>
         <v>+#攻防</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f>VLOOKUP(I8,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R8&amp;VLOOKUP(H8,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E8,"#",TEXT(IF(ISBLANK(N8),ABS(M8),ABS(N8))*100,"0")&amp;"%")&amp;Q8</f>
+      <c r="F8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>VLOOKUP(J8,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S8&amp;VLOOKUP(I8,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E8,"#",TEXT(IF(ISBLANK(O8),ABS(N8),ABS(O8))*100,"0")&amp;"%")&amp;R8</f>
         <v>回合开始时使自身+5%攻防，永久</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>-1</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>1</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0.05</v>
       </c>
       <c r="N8" s="15">
         <v>0.05</v>
       </c>
-      <c r="P8" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N8),VLOOKUP(G8,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M8),VLOOKUP(G8,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M8)), NOT(ISBLANK(N8))),VLOOKUP(G8,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O8" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O8),VLOOKUP(H8,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N8),VLOOKUP(H8,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N8)), NOT(ISBLANK(O8))),VLOOKUP(H8,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="Q8" s="1" t="str">
+      <c r="R8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R8" s="1" t="str">
+      <c r="S8" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -2326,44 +2586,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f>VLOOKUP(I9,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R9&amp;VLOOKUP(H9,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E9,"#",TEXT(IF(ISBLANK(N9),ABS(M9),ABS(N9))*100,"0")&amp;"%")&amp;Q9</f>
+      <c r="F9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>VLOOKUP(J9,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S9&amp;VLOOKUP(I9,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E9,"#",TEXT(IF(ISBLANK(O9),ABS(N9),ABS(O9))*100,"0")&amp;"%")&amp;R9</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>0.2</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="15">
         <v>1</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="P9" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N9),VLOOKUP(G9,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M9),VLOOKUP(G9,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M9)), NOT(ISBLANK(N9))),VLOOKUP(G9,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O9" s="15"/>
+      <c r="Q9" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O9),VLOOKUP(H9,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N9),VLOOKUP(H9,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N9)), NOT(ISBLANK(O9))),VLOOKUP(H9,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q9" s="1" t="str">
+      <c r="R9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R9" s="1" t="str">
+      <c r="S9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>81</v>
       </c>
@@ -2377,49 +2640,52 @@
         <f t="shared" si="0"/>
         <v>+#攻防</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f>VLOOKUP(I10,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R10&amp;VLOOKUP(H10,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E10,"#",TEXT(IF(ISBLANK(N10),ABS(M10),ABS(N10))*100,"0")&amp;"%")&amp;Q10</f>
+      <c r="F10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>VLOOKUP(J10,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S10&amp;VLOOKUP(I10,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E10,"#",TEXT(IF(ISBLANK(O10),ABS(N10),ABS(O10))*100,"0")&amp;"%")&amp;R10</f>
         <v>回合开始时使自身+10%攻防，永久</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>-1</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>1</v>
-      </c>
-      <c r="M10" s="15">
-        <v>0.1</v>
       </c>
       <c r="N10" s="15">
         <v>0.1</v>
       </c>
-      <c r="P10" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N10),VLOOKUP(G10,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M10),VLOOKUP(G10,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M10)), NOT(ISBLANK(N10))),VLOOKUP(G10,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O10),VLOOKUP(H10,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N10),VLOOKUP(H10,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N10)), NOT(ISBLANK(O10))),VLOOKUP(H10,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="Q10" s="1" t="str">
+      <c r="R10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R10" s="1" t="str">
+      <c r="S10" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
@@ -2433,49 +2699,52 @@
         <f t="shared" si="0"/>
         <v>-#攻防</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f>VLOOKUP(I11,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R11&amp;VLOOKUP(H11,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E11,"#",TEXT(IF(ISBLANK(N11),ABS(M11),ABS(N11))*100,"0")&amp;"%")&amp;Q11</f>
+      <c r="F11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>VLOOKUP(J11,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S11&amp;VLOOKUP(I11,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E11,"#",TEXT(IF(ISBLANK(O11),ABS(N11),ABS(O11))*100,"0")&amp;"%")&amp;R11</f>
         <v>回合开始时使对手-5%攻防，永久</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>-1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>1</v>
-      </c>
-      <c r="M11" s="15">
-        <v>-0.05</v>
       </c>
       <c r="N11" s="15">
         <v>-0.05</v>
       </c>
-      <c r="P11" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N11),VLOOKUP(G11,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M11),VLOOKUP(G11,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M11)), NOT(ISBLANK(N11))),VLOOKUP(G11,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O11" s="15">
+        <v>-0.05</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O11),VLOOKUP(H11,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N11),VLOOKUP(H11,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N11)), NOT(ISBLANK(O11))),VLOOKUP(H11,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="Q11" s="1" t="str">
+      <c r="R11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R11" s="1" t="str">
+      <c r="S11" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>84</v>
       </c>
@@ -2489,42 +2758,45 @@
         <f t="shared" si="0"/>
         <v>攻防交换</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <f>VLOOKUP(I12,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R12&amp;VLOOKUP(H12,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E12,"#",TEXT(IF(ISBLANK(N12),ABS(M12),ABS(N12))*100,"0")&amp;"%")&amp;Q12</f>
+      <c r="F12" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>VLOOKUP(J12,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S12&amp;VLOOKUP(I12,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E12,"#",TEXT(IF(ISBLANK(O12),ABS(N12),ABS(O12))*100,"0")&amp;"%")&amp;R12</f>
         <v>战斗开始时使对手攻防交换。</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="15"/>
       <c r="N12" s="15"/>
-      <c r="P12" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N12),VLOOKUP(G12,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M12),VLOOKUP(G12,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M12)), NOT(ISBLANK(N12))),VLOOKUP(G12,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O12" s="15"/>
+      <c r="Q12" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O12),VLOOKUP(H12,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N12),VLOOKUP(H12,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N12)), NOT(ISBLANK(O12))),VLOOKUP(H12,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>攻防交换</v>
       </c>
-      <c r="Q12" s="1" t="str">
+      <c r="R12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R12" s="1" t="str">
+      <c r="S12" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
@@ -2538,45 +2810,48 @@
         <f t="shared" si="0"/>
         <v>闪避</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f>VLOOKUP(I13,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R13&amp;VLOOKUP(H13,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E13,"#",TEXT(IF(ISBLANK(N13),ABS(M13),ABS(N13))*100,"0")&amp;"%")&amp;Q13</f>
+      <c r="F13" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>VLOOKUP(J13,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S13&amp;VLOOKUP(I13,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E13,"#",TEXT(IF(ISBLANK(O13),ABS(N13),ABS(O13))*100,"0")&amp;"%")&amp;R13</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>0.2</v>
       </c>
-      <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-      <c r="P13" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N13),VLOOKUP(G13,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M13),VLOOKUP(G13,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M13)), NOT(ISBLANK(N13))),VLOOKUP(G13,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O13" s="15"/>
+      <c r="Q13" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O13),VLOOKUP(H13,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N13),VLOOKUP(H13,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N13)), NOT(ISBLANK(O13))),VLOOKUP(H13,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="Q13" s="1" t="str">
+      <c r="R13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R13" s="1" t="str">
+      <c r="S13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
@@ -2590,44 +2865,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <f>VLOOKUP(I14,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R14&amp;VLOOKUP(H14,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E14,"#",TEXT(IF(ISBLANK(N14),ABS(M14),ABS(N14))*100,"0")&amp;"%")&amp;Q14</f>
+      <c r="F14" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>VLOOKUP(J14,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S14&amp;VLOOKUP(I14,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E14,"#",TEXT(IF(ISBLANK(O14),ABS(N14),ABS(O14))*100,"0")&amp;"%")&amp;R14</f>
         <v>攻击时20%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>0.2</v>
       </c>
-      <c r="M14" s="15">
+      <c r="N14" s="15">
         <v>0.5</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="P14" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N14),VLOOKUP(G14,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M14),VLOOKUP(G14,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M14)), NOT(ISBLANK(N14))),VLOOKUP(G14,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O14" s="15"/>
+      <c r="Q14" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O14),VLOOKUP(H14,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N14),VLOOKUP(H14,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N14)), NOT(ISBLANK(O14))),VLOOKUP(H14,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q14" s="1" t="str">
+      <c r="R14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R14" s="1" t="str">
+      <c r="S14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>86</v>
       </c>
@@ -2641,50 +2919,53 @@
         <f t="shared" si="0"/>
         <v>+#攻击力</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f>VLOOKUP(I15,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R15&amp;VLOOKUP(H15,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E15,"#",TEXT(IF(ISBLANK(N15),ABS(M15),ABS(N15))*100,"0")&amp;"%")&amp;Q15</f>
+      <c r="F15" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>VLOOKUP(J15,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S15&amp;VLOOKUP(I15,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E15,"#",TEXT(IF(ISBLANK(O15),ABS(N15),ABS(O15))*100,"0")&amp;"%")&amp;R15</f>
         <v>攻击前如果生命值&lt;50%，那么使自身+30%攻击力，永久</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.5</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>-1</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="M15" s="15">
+      <c r="N15" s="15">
         <v>0.3</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="P15" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N15),VLOOKUP(G15,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M15),VLOOKUP(G15,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M15)), NOT(ISBLANK(N15))),VLOOKUP(G15,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O15" s="15"/>
+      <c r="Q15" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O15),VLOOKUP(H15,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N15),VLOOKUP(H15,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N15)), NOT(ISBLANK(O15))),VLOOKUP(H15,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q15" s="1" t="str">
+      <c r="R15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R15" s="1" t="str">
+      <c r="S15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>如果生命值&lt;50%，那么</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
@@ -2698,45 +2979,48 @@
         <f t="shared" si="0"/>
         <v>无视闪避</v>
       </c>
-      <c r="F16" s="1" t="str">
-        <f>VLOOKUP(I16,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R16&amp;VLOOKUP(H16,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(N16),ABS(M16),ABS(N16))*100,"0")&amp;"%")&amp;Q16</f>
+      <c r="F16" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>VLOOKUP(J16,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S16&amp;VLOOKUP(I16,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(O16),ABS(N16),ABS(O16))*100,"0")&amp;"%")&amp;R16</f>
         <v>攻击时使自身无视闪避。</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="M16" s="15"/>
       <c r="N16" s="15"/>
-      <c r="P16" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N16),VLOOKUP(G16,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M16),VLOOKUP(G16,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M16)), NOT(ISBLANK(N16))),VLOOKUP(G16,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O16" s="15"/>
+      <c r="Q16" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O16),VLOOKUP(H16,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N16),VLOOKUP(H16,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N16)), NOT(ISBLANK(O16))),VLOOKUP(H16,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>无视闪避</v>
       </c>
-      <c r="Q16" s="1" t="str">
+      <c r="R16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R16" s="1" t="str">
+      <c r="S16" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>88</v>
       </c>
@@ -2750,45 +3034,48 @@
         <f t="shared" si="0"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F17" s="1" t="str">
-        <f>VLOOKUP(I17,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R17&amp;VLOOKUP(H17,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E17,"#",TEXT(IF(ISBLANK(N17),ABS(M17),ABS(N17))*100,"0")&amp;"%")&amp;Q17</f>
+      <c r="F17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>VLOOKUP(J17,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S17&amp;VLOOKUP(I17,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E17,"#",TEXT(IF(ISBLANK(O17),ABS(N17),ABS(O17))*100,"0")&amp;"%")&amp;R17</f>
         <v>攻击后15%的概率使对手放弃攻击，持续2回合。</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>2</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>0.15</v>
       </c>
-      <c r="M17" s="15"/>
       <c r="N17" s="15"/>
-      <c r="P17" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N17),VLOOKUP(G17,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M17),VLOOKUP(G17,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M17)), NOT(ISBLANK(N17))),VLOOKUP(G17,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O17" s="15"/>
+      <c r="Q17" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O17),VLOOKUP(H17,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N17),VLOOKUP(H17,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N17)), NOT(ISBLANK(O17))),VLOOKUP(H17,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q17" s="1" t="str">
+      <c r="R17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R17" s="1" t="str">
+      <c r="S17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>15%的概率</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>199</v>
       </c>
@@ -2802,44 +3089,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <f>VLOOKUP(I18,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R18&amp;VLOOKUP(H18,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(N18),ABS(M18),ABS(N18))*100,"0")&amp;"%")&amp;Q18</f>
+      <c r="F18" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>VLOOKUP(J18,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S18&amp;VLOOKUP(I18,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(O18),ABS(N18),ABS(O18))*100,"0")&amp;"%")&amp;R18</f>
         <v>攻击时10%的概率使自身+400%造成的伤害。</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>0.1</v>
       </c>
-      <c r="M18" s="15">
+      <c r="N18" s="15">
         <v>4</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="P18" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N18),VLOOKUP(G18,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M18),VLOOKUP(G18,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M18)), NOT(ISBLANK(N18))),VLOOKUP(G18,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O18" s="15"/>
+      <c r="Q18" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O18),VLOOKUP(H18,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N18),VLOOKUP(H18,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N18)), NOT(ISBLANK(O18))),VLOOKUP(H18,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q18" s="1" t="str">
+      <c r="R18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R18" s="1" t="str">
+      <c r="S18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10%的概率</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
@@ -2853,45 +3143,48 @@
         <f t="shared" si="0"/>
         <v>闪避</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f>VLOOKUP(I19,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R19&amp;VLOOKUP(H19,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(N19),ABS(M19),ABS(N19))*100,"0")&amp;"%")&amp;Q19</f>
+      <c r="F19" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>VLOOKUP(J19,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S19&amp;VLOOKUP(I19,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(O19),ABS(N19),ABS(O19))*100,"0")&amp;"%")&amp;R19</f>
         <v>攻击后30%的概率使自身闪避，持续2回合。</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>0.3</v>
       </c>
-      <c r="M19" s="15"/>
       <c r="N19" s="15"/>
-      <c r="P19" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N19),VLOOKUP(G19,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M19),VLOOKUP(G19,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M19)), NOT(ISBLANK(N19))),VLOOKUP(G19,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O19" s="15"/>
+      <c r="Q19" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O19),VLOOKUP(H19,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N19),VLOOKUP(H19,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N19)), NOT(ISBLANK(O19))),VLOOKUP(H19,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="Q19" s="1" t="str">
+      <c r="R19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R19" s="1" t="str">
+      <c r="S19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>323</v>
       </c>
@@ -2905,47 +3198,50 @@
         <f t="shared" si="0"/>
         <v>-#攻击力</v>
       </c>
-      <c r="F20" s="1" t="str">
-        <f>VLOOKUP(I20,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R20&amp;VLOOKUP(H20,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E20,"#",TEXT(IF(ISBLANK(N20),ABS(M20),ABS(N20))*100,"0")&amp;"%")&amp;Q20</f>
+      <c r="F20" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>VLOOKUP(J20,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S20&amp;VLOOKUP(I20,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E20,"#",TEXT(IF(ISBLANK(O20),ABS(N20),ABS(O20))*100,"0")&amp;"%")&amp;R20</f>
         <v>攻击前20%的概率使对手-50%攻击力，持续2回合。</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>2</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>0.2</v>
       </c>
-      <c r="M20" s="15">
+      <c r="N20" s="15">
         <v>-0.5</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="P20" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N20),VLOOKUP(G20,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M20),VLOOKUP(G20,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M20)), NOT(ISBLANK(N20))),VLOOKUP(G20,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O20" s="15"/>
+      <c r="Q20" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O20),VLOOKUP(H20,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N20),VLOOKUP(H20,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N20)), NOT(ISBLANK(O20))),VLOOKUP(H20,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q20" s="1" t="str">
+      <c r="R20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R20" s="1" t="str">
+      <c r="S20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
@@ -2959,45 +3255,48 @@
         <f t="shared" si="0"/>
         <v>闪避</v>
       </c>
-      <c r="F21" s="1" t="str">
-        <f>VLOOKUP(I21,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R21&amp;VLOOKUP(H21,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E21,"#",TEXT(IF(ISBLANK(N21),ABS(M21),ABS(N21))*100,"0")&amp;"%")&amp;Q21</f>
+      <c r="F21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>VLOOKUP(J21,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S21&amp;VLOOKUP(I21,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E21,"#",TEXT(IF(ISBLANK(O21),ABS(N21),ABS(O21))*100,"0")&amp;"%")&amp;R21</f>
         <v>受击时40%的概率使自身闪避。</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>0.4</v>
       </c>
-      <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="P21" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N21),VLOOKUP(G21,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M21),VLOOKUP(G21,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M21)), NOT(ISBLANK(N21))),VLOOKUP(G21,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O21" s="15"/>
+      <c r="Q21" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O21),VLOOKUP(H21,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N21),VLOOKUP(H21,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N21)), NOT(ISBLANK(O21))),VLOOKUP(H21,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="Q21" s="1" t="str">
+      <c r="R21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R21" s="1" t="str">
+      <c r="S21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
@@ -3011,47 +3310,50 @@
         <f t="shared" si="0"/>
         <v>+#最大生命并清除buff，1次</v>
       </c>
-      <c r="F22" s="1" t="str">
-        <f>VLOOKUP(I22,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R22&amp;VLOOKUP(H22,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E22,"#",TEXT(IF(ISBLANK(N22),ABS(M22),ABS(N22))*100,"0")&amp;"%")&amp;Q22</f>
+      <c r="F22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>VLOOKUP(J22,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S22&amp;VLOOKUP(I22,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E22,"#",TEXT(IF(ISBLANK(O22),ABS(N22),ABS(O22))*100,"0")&amp;"%")&amp;R22</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>0</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>1</v>
       </c>
-      <c r="M22" s="15">
+      <c r="N22" s="15">
         <v>1</v>
       </c>
-      <c r="N22" s="15"/>
-      <c r="P22" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N22),VLOOKUP(G22,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M22),VLOOKUP(G22,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M22)), NOT(ISBLANK(N22))),VLOOKUP(G22,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O22" s="15"/>
+      <c r="Q22" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O22),VLOOKUP(H22,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N22),VLOOKUP(H22,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N22)), NOT(ISBLANK(O22))),VLOOKUP(H22,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#最大生命并清除buff，^次</v>
       </c>
-      <c r="Q22" s="1" t="str">
+      <c r="R22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R22" s="1" t="str">
+      <c r="S22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>如果死亡，那么</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>321</v>
       </c>
@@ -3065,47 +3367,50 @@
         <f t="shared" si="0"/>
         <v>-#攻击力</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <f>VLOOKUP(I23,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R23&amp;VLOOKUP(H23,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E23,"#",TEXT(IF(ISBLANK(N23),ABS(M23),ABS(N23))*100,"0")&amp;"%")&amp;Q23</f>
+      <c r="F23" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>VLOOKUP(J23,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S23&amp;VLOOKUP(I23,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E23,"#",TEXT(IF(ISBLANK(O23),ABS(N23),ABS(O23))*100,"0")&amp;"%")&amp;R23</f>
         <v>攻击前使对手-10%攻击力，永久</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>-1</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>1</v>
       </c>
-      <c r="M23" s="15">
+      <c r="N23" s="15">
         <v>-0.1</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="P23" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N23),VLOOKUP(G23,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M23),VLOOKUP(G23,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M23)), NOT(ISBLANK(N23))),VLOOKUP(G23,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O23" s="15"/>
+      <c r="Q23" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O23),VLOOKUP(H23,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N23),VLOOKUP(H23,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N23)), NOT(ISBLANK(O23))),VLOOKUP(H23,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q23" s="1" t="str">
+      <c r="R23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R23" s="1" t="str">
+      <c r="S23" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <f t="shared" si="3"/>
         <v>-0.1</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>92</v>
       </c>
@@ -3119,45 +3424,48 @@
         <f t="shared" si="0"/>
         <v>闪避</v>
       </c>
-      <c r="F24" s="1" t="str">
-        <f>VLOOKUP(I24,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R24&amp;VLOOKUP(H24,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E24,"#",TEXT(IF(ISBLANK(N24),ABS(M24),ABS(N24))*100,"0")&amp;"%")&amp;Q24</f>
+      <c r="F24" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>VLOOKUP(J24,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S24&amp;VLOOKUP(I24,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E24,"#",TEXT(IF(ISBLANK(O24),ABS(N24),ABS(O24))*100,"0")&amp;"%")&amp;R24</f>
         <v>受击时50%的概率使自身闪避。</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>0.5</v>
       </c>
-      <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="P24" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N24),VLOOKUP(G24,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M24),VLOOKUP(G24,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M24)), NOT(ISBLANK(N24))),VLOOKUP(G24,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O24" s="15"/>
+      <c r="Q24" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O24),VLOOKUP(H24,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N24),VLOOKUP(H24,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N24)), NOT(ISBLANK(O24))),VLOOKUP(H24,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="Q24" s="1" t="str">
+      <c r="R24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R24" s="1" t="str">
+      <c r="S24" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
@@ -3171,43 +3479,46 @@
         <f t="shared" si="0"/>
         <v>-[#×伤害值]的生命值</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <f>VLOOKUP(I25,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R25&amp;VLOOKUP(H25,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E25,"#",TEXT(IF(ISBLANK(N25),ABS(M25),ABS(N25))*100,"0")&amp;"%")&amp;Q25</f>
+      <c r="F25" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>VLOOKUP(J25,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S25&amp;VLOOKUP(I25,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E25,"#",TEXT(IF(ISBLANK(O25),ABS(N25),ABS(O25))*100,"0")&amp;"%")&amp;R25</f>
         <v>受击后使对手-[40%×伤害值]的生命值。</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>1</v>
       </c>
-      <c r="N25" s="15">
+      <c r="O25" s="15">
         <v>-0.4</v>
       </c>
-      <c r="P25" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N25),VLOOKUP(G25,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M25),VLOOKUP(G25,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M25)), NOT(ISBLANK(N25))),VLOOKUP(G25,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q25" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O25),VLOOKUP(H25,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N25),VLOOKUP(H25,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N25)), NOT(ISBLANK(O25))),VLOOKUP(H25,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="Q25" s="1" t="str">
+      <c r="R25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R25" s="1" t="str">
+      <c r="S25" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S25" s="1">
+      <c r="T25" s="1">
         <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>94</v>
       </c>
@@ -3221,44 +3532,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <f>VLOOKUP(I26,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R26&amp;VLOOKUP(H26,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E26,"#",TEXT(IF(ISBLANK(N26),ABS(M26),ABS(N26))*100,"0")&amp;"%")&amp;Q26</f>
+      <c r="F26" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>VLOOKUP(J26,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S26&amp;VLOOKUP(I26,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E26,"#",TEXT(IF(ISBLANK(O26),ABS(N26),ABS(O26))*100,"0")&amp;"%")&amp;R26</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>0.2</v>
       </c>
-      <c r="M26" s="15">
+      <c r="N26" s="15">
         <v>1</v>
       </c>
-      <c r="N26" s="15"/>
-      <c r="P26" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N26),VLOOKUP(G26,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M26),VLOOKUP(G26,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M26)), NOT(ISBLANK(N26))),VLOOKUP(G26,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O26" s="15"/>
+      <c r="Q26" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O26),VLOOKUP(H26,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N26),VLOOKUP(H26,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N26)), NOT(ISBLANK(O26))),VLOOKUP(H26,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q26" s="1" t="str">
+      <c r="R26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R26" s="1" t="str">
+      <c r="S26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S26" s="1">
+      <c r="T26" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>96</v>
       </c>
@@ -3272,45 +3586,48 @@
         <f t="shared" si="0"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <f>VLOOKUP(I27,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R27&amp;VLOOKUP(H27,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E27,"#",TEXT(IF(ISBLANK(N27),ABS(M27),ABS(N27))*100,"0")&amp;"%")&amp;Q27</f>
+      <c r="F27" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>VLOOKUP(J27,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S27&amp;VLOOKUP(I27,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E27,"#",TEXT(IF(ISBLANK(O27),ABS(N27),ABS(O27))*100,"0")&amp;"%")&amp;R27</f>
         <v>攻击时20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>1</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>0.2</v>
       </c>
-      <c r="M27" s="15"/>
       <c r="N27" s="15"/>
-      <c r="P27" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N27),VLOOKUP(G27,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M27),VLOOKUP(G27,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M27)), NOT(ISBLANK(N27))),VLOOKUP(G27,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O27" s="15"/>
+      <c r="Q27" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O27),VLOOKUP(H27,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N27),VLOOKUP(H27,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N27)), NOT(ISBLANK(O27))),VLOOKUP(H27,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q27" s="1" t="str">
+      <c r="R27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R27" s="1" t="str">
+      <c r="S27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
@@ -3324,47 +3641,50 @@
         <f t="shared" si="0"/>
         <v>-#防御力</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <f>VLOOKUP(I28,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R28&amp;VLOOKUP(H28,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E28,"#",TEXT(IF(ISBLANK(N28),ABS(M28),ABS(N28))*100,"0")&amp;"%")&amp;Q28</f>
+      <c r="F28" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>VLOOKUP(J28,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S28&amp;VLOOKUP(I28,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E28,"#",TEXT(IF(ISBLANK(O28),ABS(N28),ABS(O28))*100,"0")&amp;"%")&amp;R28</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>0.2</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15">
+      <c r="N28" s="15"/>
+      <c r="O28" s="15">
         <v>-0.5</v>
       </c>
-      <c r="P28" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N28),VLOOKUP(G28,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M28),VLOOKUP(G28,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M28)), NOT(ISBLANK(N28))),VLOOKUP(G28,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q28" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O28),VLOOKUP(H28,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N28),VLOOKUP(H28,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N28)), NOT(ISBLANK(O28))),VLOOKUP(H28,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="Q28" s="1" t="str">
+      <c r="R28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R28" s="1" t="str">
+      <c r="S28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S28" s="1">
+      <c r="T28" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
@@ -3378,44 +3698,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <f>VLOOKUP(I29,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R29&amp;VLOOKUP(H29,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E29,"#",TEXT(IF(ISBLANK(N29),ABS(M29),ABS(N29))*100,"0")&amp;"%")&amp;Q29</f>
+      <c r="F29" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>VLOOKUP(J29,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S29&amp;VLOOKUP(I29,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E29,"#",TEXT(IF(ISBLANK(O29),ABS(N29),ABS(O29))*100,"0")&amp;"%")&amp;R29</f>
         <v>攻击时30%的概率使自身+200%造成的伤害。</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>0.3</v>
       </c>
-      <c r="M29" s="15">
+      <c r="N29" s="15">
         <v>2</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="P29" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N29),VLOOKUP(G29,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M29),VLOOKUP(G29,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M29)), NOT(ISBLANK(N29))),VLOOKUP(G29,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O29" s="15"/>
+      <c r="Q29" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O29),VLOOKUP(H29,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N29),VLOOKUP(H29,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N29)), NOT(ISBLANK(O29))),VLOOKUP(H29,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q29" s="1" t="str">
+      <c r="R29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R29" s="1" t="str">
+      <c r="S29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
@@ -3429,44 +3752,47 @@
         <f t="shared" si="0"/>
         <v>-#所受的伤害</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <f>VLOOKUP(I30,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R30&amp;VLOOKUP(H30,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E30,"#",TEXT(IF(ISBLANK(N30),ABS(M30),ABS(N30))*100,"0")&amp;"%")&amp;Q30</f>
+      <c r="F30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f>VLOOKUP(J30,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S30&amp;VLOOKUP(I30,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E30,"#",TEXT(IF(ISBLANK(O30),ABS(N30),ABS(O30))*100,"0")&amp;"%")&amp;R30</f>
         <v>受击时90%的概率使自身-20%所受的伤害。</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>0.9</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15">
+      <c r="N30" s="15"/>
+      <c r="O30" s="15">
         <v>-0.2</v>
       </c>
-      <c r="P30" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N30),VLOOKUP(G30,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M30),VLOOKUP(G30,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M30)), NOT(ISBLANK(N30))),VLOOKUP(G30,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q30" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O30),VLOOKUP(H30,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N30),VLOOKUP(H30,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N30)), NOT(ISBLANK(O30))),VLOOKUP(H30,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="Q30" s="1" t="str">
+      <c r="R30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R30" s="1" t="str">
+      <c r="S30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>90%的概率</v>
       </c>
-      <c r="S30" s="1">
+      <c r="T30" s="1">
         <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -3480,44 +3806,47 @@
         <f t="shared" si="0"/>
         <v>-#所受的伤害</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <f>VLOOKUP(I31,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R31&amp;VLOOKUP(H31,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E31,"#",TEXT(IF(ISBLANK(N31),ABS(M31),ABS(N31))*100,"0")&amp;"%")&amp;Q31</f>
+      <c r="F31" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f>VLOOKUP(J31,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S31&amp;VLOOKUP(I31,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E31,"#",TEXT(IF(ISBLANK(O31),ABS(N31),ABS(O31))*100,"0")&amp;"%")&amp;R31</f>
         <v>受击时90%的概率使自身-30%所受的伤害。</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>0.9</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15">
+      <c r="N31" s="15"/>
+      <c r="O31" s="15">
         <v>-0.3</v>
       </c>
-      <c r="P31" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N31),VLOOKUP(G31,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M31),VLOOKUP(G31,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M31)), NOT(ISBLANK(N31))),VLOOKUP(G31,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q31" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O31),VLOOKUP(H31,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N31),VLOOKUP(H31,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N31)), NOT(ISBLANK(O31))),VLOOKUP(H31,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="Q31" s="1" t="str">
+      <c r="R31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R31" s="1" t="str">
+      <c r="S31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>90%的概率</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T31" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>201</v>
       </c>
@@ -3531,44 +3860,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <f>VLOOKUP(I32,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R32&amp;VLOOKUP(H32,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E32,"#",TEXT(IF(ISBLANK(N32),ABS(M32),ABS(N32))*100,"0")&amp;"%")&amp;Q32</f>
+      <c r="F32" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>VLOOKUP(J32,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S32&amp;VLOOKUP(I32,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E32,"#",TEXT(IF(ISBLANK(O32),ABS(N32),ABS(O32))*100,"0")&amp;"%")&amp;R32</f>
         <v>攻击时10%的概率使自身+150%造成的伤害。</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>0.1</v>
       </c>
-      <c r="M32" s="15">
+      <c r="N32" s="15">
         <v>1.5</v>
       </c>
-      <c r="N32" s="15"/>
-      <c r="P32" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N32),VLOOKUP(G32,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M32),VLOOKUP(G32,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M32)), NOT(ISBLANK(N32))),VLOOKUP(G32,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O32" s="15"/>
+      <c r="Q32" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O32),VLOOKUP(H32,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N32),VLOOKUP(H32,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N32)), NOT(ISBLANK(O32))),VLOOKUP(H32,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q32" s="1" t="str">
+      <c r="R32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R32" s="1" t="str">
+      <c r="S32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10%的概率</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T32" s="1">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>101</v>
       </c>
@@ -3582,44 +3914,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f>VLOOKUP(I33,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R33&amp;VLOOKUP(H33,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E33,"#",TEXT(IF(ISBLANK(N33),ABS(M33),ABS(N33))*100,"0")&amp;"%")&amp;Q33</f>
+      <c r="F33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f>VLOOKUP(J33,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S33&amp;VLOOKUP(I33,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E33,"#",TEXT(IF(ISBLANK(O33),ABS(N33),ABS(O33))*100,"0")&amp;"%")&amp;R33</f>
         <v>攻击时25%的概率使自身+150%造成的伤害。</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>0.25</v>
       </c>
-      <c r="M33" s="15">
+      <c r="N33" s="15">
         <v>1.5</v>
       </c>
-      <c r="N33" s="15"/>
-      <c r="P33" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N33),VLOOKUP(G33,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M33),VLOOKUP(G33,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M33)), NOT(ISBLANK(N33))),VLOOKUP(G33,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O33" s="15"/>
+      <c r="Q33" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O33),VLOOKUP(H33,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N33),VLOOKUP(H33,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N33)), NOT(ISBLANK(O33))),VLOOKUP(H33,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q33" s="1" t="str">
+      <c r="R33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R33" s="1" t="str">
+      <c r="S33" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
@@ -3633,44 +3968,47 @@
         <f t="shared" si="0"/>
         <v>-[#×伤害值]的生命值</v>
       </c>
-      <c r="F34" s="1" t="str">
-        <f>VLOOKUP(I34,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R34&amp;VLOOKUP(H34,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E34,"#",TEXT(IF(ISBLANK(N34),ABS(M34),ABS(N34))*100,"0")&amp;"%")&amp;Q34</f>
+      <c r="F34" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f>VLOOKUP(J34,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S34&amp;VLOOKUP(I34,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E34,"#",TEXT(IF(ISBLANK(O34),ABS(N34),ABS(O34))*100,"0")&amp;"%")&amp;R34</f>
         <v>受击后使对手-[50%×伤害值]的生命值。</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>1</v>
       </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15">
+      <c r="N34" s="15"/>
+      <c r="O34" s="15">
         <v>-0.5</v>
       </c>
-      <c r="P34" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N34),VLOOKUP(G34,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M34),VLOOKUP(G34,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M34)), NOT(ISBLANK(N34))),VLOOKUP(G34,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q34" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O34),VLOOKUP(H34,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N34),VLOOKUP(H34,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N34)), NOT(ISBLANK(O34))),VLOOKUP(H34,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="Q34" s="1" t="str">
+      <c r="R34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R34" s="1" t="str">
+      <c r="S34" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S34" s="1">
+      <c r="T34" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>100</v>
       </c>
@@ -3684,44 +4022,47 @@
         <f t="shared" si="0"/>
         <v>+[#×攻击力]的生命值</v>
       </c>
-      <c r="F35" s="1" t="str">
-        <f>VLOOKUP(I35,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R35&amp;VLOOKUP(H35,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E35,"#",TEXT(IF(ISBLANK(N35),ABS(M35),ABS(N35))*100,"0")&amp;"%")&amp;Q35</f>
+      <c r="F35" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>VLOOKUP(J35,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S35&amp;VLOOKUP(I35,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E35,"#",TEXT(IF(ISBLANK(O35),ABS(N35),ABS(O35))*100,"0")&amp;"%")&amp;R35</f>
         <v>回合开始时50%的概率使自身+[40%×攻击力]的生命值。</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>0.5</v>
       </c>
-      <c r="M35" s="15">
+      <c r="N35" s="15">
         <v>0.4</v>
       </c>
-      <c r="N35" s="15"/>
-      <c r="P35" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N35),VLOOKUP(G35,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M35),VLOOKUP(G35,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M35)), NOT(ISBLANK(N35))),VLOOKUP(G35,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O35" s="15"/>
+      <c r="Q35" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O35),VLOOKUP(H35,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N35),VLOOKUP(H35,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N35)), NOT(ISBLANK(O35))),VLOOKUP(H35,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="Q35" s="1" t="str">
+      <c r="R35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R35" s="1" t="str">
+      <c r="S35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
@@ -3735,45 +4076,48 @@
         <f t="shared" si="0"/>
         <v>跳过回合</v>
       </c>
-      <c r="F36" s="1" t="str">
-        <f>VLOOKUP(I36,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R36&amp;VLOOKUP(H36,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E36,"#",TEXT(IF(ISBLANK(N36),ABS(M36),ABS(N36))*100,"0")&amp;"%")&amp;Q36</f>
+      <c r="F36" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>VLOOKUP(J36,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S36&amp;VLOOKUP(I36,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E36,"#",TEXT(IF(ISBLANK(O36),ABS(N36),ABS(O36))*100,"0")&amp;"%")&amp;R36</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>1</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>0.25</v>
       </c>
-      <c r="M36" s="15"/>
       <c r="N36" s="15"/>
-      <c r="P36" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N36),VLOOKUP(G36,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M36),VLOOKUP(G36,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M36)), NOT(ISBLANK(N36))),VLOOKUP(G36,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O36" s="15"/>
+      <c r="Q36" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O36),VLOOKUP(H36,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N36),VLOOKUP(H36,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N36)), NOT(ISBLANK(O36))),VLOOKUP(H36,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="Q36" s="1" t="str">
+      <c r="R36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R36" s="1" t="str">
+      <c r="S36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>103</v>
       </c>
@@ -3787,45 +4131,48 @@
         <f t="shared" si="0"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F37" s="1" t="str">
-        <f>VLOOKUP(I37,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R37&amp;VLOOKUP(H37,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E37,"#",TEXT(IF(ISBLANK(N37),ABS(M37),ABS(N37))*100,"0")&amp;"%")&amp;Q37</f>
+      <c r="F37" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f>VLOOKUP(J37,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S37&amp;VLOOKUP(I37,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E37,"#",TEXT(IF(ISBLANK(O37),ABS(N37),ABS(O37))*100,"0")&amp;"%")&amp;R37</f>
         <v>受击前25%的概率使对手放弃攻击。</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>0</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>0.25</v>
       </c>
-      <c r="M37" s="15"/>
       <c r="N37" s="15"/>
-      <c r="P37" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N37),VLOOKUP(G37,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M37),VLOOKUP(G37,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M37)), NOT(ISBLANK(N37))),VLOOKUP(G37,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O37" s="15"/>
+      <c r="Q37" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O37),VLOOKUP(H37,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N37),VLOOKUP(H37,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N37)), NOT(ISBLANK(O37))),VLOOKUP(H37,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q37" s="1" t="str">
+      <c r="R37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R37" s="1" t="str">
+      <c r="S37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>105</v>
       </c>
@@ -3839,47 +4186,50 @@
         <f t="shared" si="0"/>
         <v>-#攻击力</v>
       </c>
-      <c r="F38" s="1" t="str">
-        <f>VLOOKUP(I38,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R38&amp;VLOOKUP(H38,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E38,"#",TEXT(IF(ISBLANK(N38),ABS(M38),ABS(N38))*100,"0")&amp;"%")&amp;Q38</f>
+      <c r="F38" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>VLOOKUP(J38,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S38&amp;VLOOKUP(I38,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E38,"#",TEXT(IF(ISBLANK(O38),ABS(N38),ABS(O38))*100,"0")&amp;"%")&amp;R38</f>
         <v>战斗开始时使对手-30%攻击力，永久</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>-1</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>1</v>
       </c>
-      <c r="M38" s="15">
+      <c r="N38" s="15">
         <v>-0.3</v>
       </c>
-      <c r="N38" s="15"/>
-      <c r="P38" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N38),VLOOKUP(G38,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M38),VLOOKUP(G38,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M38)), NOT(ISBLANK(N38))),VLOOKUP(G38,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O38" s="15"/>
+      <c r="Q38" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O38),VLOOKUP(H38,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N38),VLOOKUP(H38,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N38)), NOT(ISBLANK(O38))),VLOOKUP(H38,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q38" s="1" t="str">
+      <c r="R38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R38" s="1" t="str">
+      <c r="S38" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>107</v>
       </c>
@@ -3893,44 +4243,47 @@
         <f t="shared" si="0"/>
         <v>禁用3个技能</v>
       </c>
-      <c r="F39" s="1" t="str">
-        <f>VLOOKUP(I39,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R39&amp;VLOOKUP(H39,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E39,"#",TEXT(IF(ISBLANK(N39),ABS(M39),ABS(N39))*100,"0")&amp;"%")&amp;Q39</f>
+      <c r="F39" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f>VLOOKUP(J39,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S39&amp;VLOOKUP(I39,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E39,"#",TEXT(IF(ISBLANK(O39),ABS(N39),ABS(O39))*100,"0")&amp;"%")&amp;R39</f>
         <v>战斗准备阶段使对手禁用3个技能。</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>1</v>
       </c>
-      <c r="M39" s="15">
+      <c r="N39" s="15">
         <v>3</v>
       </c>
-      <c r="N39" s="15"/>
-      <c r="P39" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N39),VLOOKUP(G39,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M39),VLOOKUP(G39,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M39)), NOT(ISBLANK(N39))),VLOOKUP(G39,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O39" s="15"/>
+      <c r="Q39" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O39),VLOOKUP(H39,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N39),VLOOKUP(H39,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N39)), NOT(ISBLANK(O39))),VLOOKUP(H39,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>禁用^个技能</v>
       </c>
-      <c r="Q39" s="1" t="str">
+      <c r="R39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R39" s="1" t="str">
+      <c r="S39" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S39" s="1">
+      <c r="T39" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
@@ -3944,47 +4297,50 @@
         <f t="shared" si="0"/>
         <v>+#攻击力</v>
       </c>
-      <c r="F40" s="1" t="str">
-        <f>VLOOKUP(I40,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R40&amp;VLOOKUP(H40,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E40,"#",TEXT(IF(ISBLANK(N40),ABS(M40),ABS(N40))*100,"0")&amp;"%")&amp;Q40</f>
+      <c r="F40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f>VLOOKUP(J40,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S40&amp;VLOOKUP(I40,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E40,"#",TEXT(IF(ISBLANK(O40),ABS(N40),ABS(O40))*100,"0")&amp;"%")&amp;R40</f>
         <v>战斗开始时50%的概率使自身+100%攻击力，永久</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>-1</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>0.5</v>
       </c>
-      <c r="M40" s="15">
+      <c r="N40" s="15">
         <v>1</v>
       </c>
-      <c r="N40" s="15"/>
-      <c r="P40" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N40),VLOOKUP(G40,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M40),VLOOKUP(G40,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M40)), NOT(ISBLANK(N40))),VLOOKUP(G40,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O40" s="15"/>
+      <c r="Q40" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O40),VLOOKUP(H40,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N40),VLOOKUP(H40,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N40)), NOT(ISBLANK(O40))),VLOOKUP(H40,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q40" s="1" t="str">
+      <c r="R40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R40" s="1" t="str">
+      <c r="S40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>109</v>
       </c>
@@ -3998,45 +4354,48 @@
         <f t="shared" si="0"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F41" s="1" t="str">
-        <f>VLOOKUP(I41,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R41&amp;VLOOKUP(H41,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E41,"#",TEXT(IF(ISBLANK(N41),ABS(M41),ABS(N41))*100,"0")&amp;"%")&amp;Q41</f>
+      <c r="F41" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f>VLOOKUP(J41,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S41&amp;VLOOKUP(I41,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E41,"#",TEXT(IF(ISBLANK(O41),ABS(N41),ABS(O41))*100,"0")&amp;"%")&amp;R41</f>
         <v>攻击后30%的概率使对手放弃攻击，持续1回合。</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>1</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>0.3</v>
       </c>
-      <c r="M41" s="15"/>
       <c r="N41" s="15"/>
-      <c r="P41" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N41),VLOOKUP(G41,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M41),VLOOKUP(G41,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M41)), NOT(ISBLANK(N41))),VLOOKUP(G41,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O41" s="15"/>
+      <c r="Q41" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O41),VLOOKUP(H41,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N41),VLOOKUP(H41,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N41)), NOT(ISBLANK(O41))),VLOOKUP(H41,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q41" s="1" t="str">
+      <c r="R41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R41" s="1" t="str">
+      <c r="S41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="S41" s="1">
+      <c r="T41" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>110</v>
       </c>
@@ -4050,49 +4409,52 @@
         <f t="shared" si="0"/>
         <v>-#攻防</v>
       </c>
-      <c r="F42" s="1" t="str">
-        <f>VLOOKUP(I42,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R42&amp;VLOOKUP(H42,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E42,"#",TEXT(IF(ISBLANK(N42),ABS(M42),ABS(N42))*100,"0")&amp;"%")&amp;Q42</f>
+      <c r="F42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f>VLOOKUP(J42,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S42&amp;VLOOKUP(I42,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E42,"#",TEXT(IF(ISBLANK(O42),ABS(N42),ABS(O42))*100,"0")&amp;"%")&amp;R42</f>
         <v>受击后30%的概率使对手-30%攻防，永久</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>-1</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>0.3</v>
-      </c>
-      <c r="M42" s="15">
-        <v>-0.3</v>
       </c>
       <c r="N42" s="15">
         <v>-0.3</v>
       </c>
-      <c r="P42" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N42),VLOOKUP(G42,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M42),VLOOKUP(G42,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M42)), NOT(ISBLANK(N42))),VLOOKUP(G42,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O42" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O42),VLOOKUP(H42,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N42),VLOOKUP(H42,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N42)), NOT(ISBLANK(O42))),VLOOKUP(H42,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="Q42" s="1" t="str">
+      <c r="R42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R42" s="1" t="str">
+      <c r="S42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="S42" s="1">
+      <c r="T42" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
@@ -4106,44 +4468,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F43" s="1" t="str">
-        <f>VLOOKUP(I43,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R43&amp;VLOOKUP(H43,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E43,"#",TEXT(IF(ISBLANK(N43),ABS(M43),ABS(N43))*100,"0")&amp;"%")&amp;Q43</f>
+      <c r="F43" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f>VLOOKUP(J43,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S43&amp;VLOOKUP(I43,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E43,"#",TEXT(IF(ISBLANK(O43),ABS(N43),ABS(O43))*100,"0")&amp;"%")&amp;R43</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <v>0.4</v>
       </c>
-      <c r="M43" s="15">
+      <c r="N43" s="15">
         <v>0.5</v>
       </c>
-      <c r="N43" s="15"/>
-      <c r="P43" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N43),VLOOKUP(G43,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M43),VLOOKUP(G43,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M43)), NOT(ISBLANK(N43))),VLOOKUP(G43,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O43" s="15"/>
+      <c r="Q43" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O43),VLOOKUP(H43,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N43),VLOOKUP(H43,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N43)), NOT(ISBLANK(O43))),VLOOKUP(H43,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q43" s="1" t="str">
+      <c r="R43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R43" s="1" t="str">
+      <c r="S43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="S43" s="1">
+      <c r="T43" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
@@ -4157,45 +4522,48 @@
         <f t="shared" si="0"/>
         <v>跳过回合</v>
       </c>
-      <c r="F44" s="1" t="str">
-        <f>VLOOKUP(I44,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R44&amp;VLOOKUP(H44,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(N44),ABS(M44),ABS(N44))*100,"0")&amp;"%")&amp;Q44</f>
+      <c r="F44" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f>VLOOKUP(J44,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S44&amp;VLOOKUP(I44,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(O44),ABS(N44),ABS(O44))*100,"0")&amp;"%")&amp;R44</f>
         <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>1</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <v>0.2</v>
       </c>
-      <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="P44" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N44),VLOOKUP(G44,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M44),VLOOKUP(G44,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M44)), NOT(ISBLANK(N44))),VLOOKUP(G44,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O44" s="15"/>
+      <c r="Q44" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O44),VLOOKUP(H44,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N44),VLOOKUP(H44,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N44)), NOT(ISBLANK(O44))),VLOOKUP(H44,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="Q44" s="1" t="str">
+      <c r="R44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R44" s="1" t="str">
+      <c r="S44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S44" s="1">
+      <c r="T44" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>112</v>
       </c>
@@ -4209,45 +4577,48 @@
         <f t="shared" si="0"/>
         <v>闪避</v>
       </c>
-      <c r="F45" s="1" t="str">
-        <f>VLOOKUP(I45,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R45&amp;VLOOKUP(H45,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(N45),ABS(M45),ABS(N45))*100,"0")&amp;"%")&amp;Q45</f>
+      <c r="F45" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f>VLOOKUP(J45,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S45&amp;VLOOKUP(I45,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(O45),ABS(N45),ABS(O45))*100,"0")&amp;"%")&amp;R45</f>
         <v>攻击后20%的概率使自身闪避，持续1回合。</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>1</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>0.2</v>
       </c>
-      <c r="M45" s="15"/>
       <c r="N45" s="15"/>
-      <c r="P45" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N45),VLOOKUP(G45,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M45),VLOOKUP(G45,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M45)), NOT(ISBLANK(N45))),VLOOKUP(G45,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O45" s="15"/>
+      <c r="Q45" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O45),VLOOKUP(H45,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N45),VLOOKUP(H45,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N45)), NOT(ISBLANK(O45))),VLOOKUP(H45,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="Q45" s="1" t="str">
+      <c r="R45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R45" s="1" t="str">
+      <c r="S45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S45" s="1">
+      <c r="T45" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>113</v>
       </c>
@@ -4261,47 +4632,50 @@
         <f t="shared" si="0"/>
         <v>-#防御力</v>
       </c>
-      <c r="F46" s="1" t="str">
-        <f>VLOOKUP(I46,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R46&amp;VLOOKUP(H46,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E46,"#",TEXT(IF(ISBLANK(N46),ABS(M46),ABS(N46))*100,"0")&amp;"%")&amp;Q46</f>
+      <c r="F46" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f>VLOOKUP(J46,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S46&amp;VLOOKUP(I46,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E46,"#",TEXT(IF(ISBLANK(O46),ABS(N46),ABS(O46))*100,"0")&amp;"%")&amp;R46</f>
         <v>攻击时20%的概率使对手-100%防御力。</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>0</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>0.2</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15">
+      <c r="N46" s="15"/>
+      <c r="O46" s="15">
         <v>-1</v>
       </c>
-      <c r="P46" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N46),VLOOKUP(G46,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M46),VLOOKUP(G46,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M46)), NOT(ISBLANK(N46))),VLOOKUP(G46,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q46" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O46),VLOOKUP(H46,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N46),VLOOKUP(H46,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N46)), NOT(ISBLANK(O46))),VLOOKUP(H46,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="Q46" s="1" t="str">
+      <c r="R46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R46" s="1" t="str">
+      <c r="S46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S46" s="1">
+      <c r="T46" s="1">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
@@ -4315,47 +4689,50 @@
         <f t="shared" si="0"/>
         <v>+#防御力</v>
       </c>
-      <c r="F47" s="1" t="str">
-        <f>VLOOKUP(I47,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R47&amp;VLOOKUP(H47,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E47,"#",TEXT(IF(ISBLANK(N47),ABS(M47),ABS(N47))*100,"0")&amp;"%")&amp;Q47</f>
+      <c r="F47" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f>VLOOKUP(J47,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S47&amp;VLOOKUP(I47,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E47,"#",TEXT(IF(ISBLANK(O47),ABS(N47),ABS(O47))*100,"0")&amp;"%")&amp;R47</f>
         <v>回合开始时20%的概率使自身+50%防御力，持续1回合。</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>1</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <v>0.2</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15">
+      <c r="N47" s="15"/>
+      <c r="O47" s="15">
         <v>0.5</v>
       </c>
-      <c r="P47" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N47),VLOOKUP(G47,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M47),VLOOKUP(G47,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M47)), NOT(ISBLANK(N47))),VLOOKUP(G47,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q47" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O47),VLOOKUP(H47,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N47),VLOOKUP(H47,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N47)), NOT(ISBLANK(O47))),VLOOKUP(H47,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="Q47" s="1" t="str">
+      <c r="R47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R47" s="1" t="str">
+      <c r="S47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T47" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>115</v>
       </c>
@@ -4369,44 +4746,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F48" s="1" t="str">
-        <f>VLOOKUP(I48,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R48&amp;VLOOKUP(H48,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E48,"#",TEXT(IF(ISBLANK(N48),ABS(M48),ABS(N48))*100,"0")&amp;"%")&amp;Q48</f>
+      <c r="F48" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f>VLOOKUP(J48,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S48&amp;VLOOKUP(I48,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E48,"#",TEXT(IF(ISBLANK(O48),ABS(N48),ABS(O48))*100,"0")&amp;"%")&amp;R48</f>
         <v>攻击时25%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <v>0.25</v>
       </c>
-      <c r="M48" s="15">
+      <c r="N48" s="15">
         <v>1</v>
       </c>
-      <c r="N48" s="15"/>
-      <c r="P48" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N48),VLOOKUP(G48,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M48),VLOOKUP(G48,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M48)), NOT(ISBLANK(N48))),VLOOKUP(G48,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O48" s="15"/>
+      <c r="Q48" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O48),VLOOKUP(H48,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N48),VLOOKUP(H48,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N48)), NOT(ISBLANK(O48))),VLOOKUP(H48,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q48" s="1" t="str">
+      <c r="R48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R48" s="1" t="str">
+      <c r="S48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="S48" s="1">
+      <c r="T48" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>116</v>
       </c>
@@ -4420,44 +4800,47 @@
         <f t="shared" si="0"/>
         <v>-#所受的伤害</v>
       </c>
-      <c r="F49" s="1" t="str">
-        <f>VLOOKUP(I49,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R49&amp;VLOOKUP(H49,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(N49),ABS(M49),ABS(N49))*100,"0")&amp;"%")&amp;Q49</f>
+      <c r="F49" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f>VLOOKUP(J49,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S49&amp;VLOOKUP(I49,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(O49),ABS(N49),ABS(O49))*100,"0")&amp;"%")&amp;R49</f>
         <v>受击时50%的概率使自身-30%所受的伤害。</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>0.5</v>
       </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15">
+      <c r="N49" s="15"/>
+      <c r="O49" s="15">
         <v>-0.3</v>
       </c>
-      <c r="P49" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N49),VLOOKUP(G49,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M49),VLOOKUP(G49,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M49)), NOT(ISBLANK(N49))),VLOOKUP(G49,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q49" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O49),VLOOKUP(H49,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N49),VLOOKUP(H49,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N49)), NOT(ISBLANK(O49))),VLOOKUP(H49,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="Q49" s="1" t="str">
+      <c r="R49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R49" s="1" t="str">
+      <c r="S49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="S49" s="1">
+      <c r="T49" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
@@ -4471,45 +4854,48 @@
         <f t="shared" si="0"/>
         <v>跳过回合</v>
       </c>
-      <c r="F50" s="1" t="str">
-        <f>VLOOKUP(I50,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R50&amp;VLOOKUP(H50,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(N50),ABS(M50),ABS(N50))*100,"0")&amp;"%")&amp;Q50</f>
+      <c r="F50" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f>VLOOKUP(J50,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S50&amp;VLOOKUP(I50,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(O50),ABS(N50),ABS(O50))*100,"0")&amp;"%")&amp;R50</f>
         <v>攻击后10%的概率使对手跳过回合，持续2回合。</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>2</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <v>0.1</v>
       </c>
-      <c r="M50" s="15"/>
       <c r="N50" s="15"/>
-      <c r="P50" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N50),VLOOKUP(G50,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M50),VLOOKUP(G50,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M50)), NOT(ISBLANK(N50))),VLOOKUP(G50,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O50" s="15"/>
+      <c r="Q50" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O50),VLOOKUP(H50,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N50),VLOOKUP(H50,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N50)), NOT(ISBLANK(O50))),VLOOKUP(H50,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="Q50" s="1" t="str">
+      <c r="R50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R50" s="1" t="str">
+      <c r="S50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10%的概率</v>
       </c>
-      <c r="S50" s="1">
+      <c r="T50" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
@@ -4523,47 +4909,50 @@
         <f t="shared" si="0"/>
         <v>-#攻击力</v>
       </c>
-      <c r="F51" s="1" t="str">
-        <f>VLOOKUP(I51,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R51&amp;VLOOKUP(H51,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E51,"#",TEXT(IF(ISBLANK(N51),ABS(M51),ABS(N51))*100,"0")&amp;"%")&amp;Q51</f>
+      <c r="F51" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f>VLOOKUP(J51,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S51&amp;VLOOKUP(I51,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E51,"#",TEXT(IF(ISBLANK(O51),ABS(N51),ABS(O51))*100,"0")&amp;"%")&amp;R51</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续2回合。</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>2</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <v>0.3</v>
       </c>
-      <c r="M51" s="15">
+      <c r="N51" s="15">
         <v>-0.3</v>
       </c>
-      <c r="N51" s="15"/>
-      <c r="P51" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N51),VLOOKUP(G51,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M51),VLOOKUP(G51,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M51)), NOT(ISBLANK(N51))),VLOOKUP(G51,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O51" s="15"/>
+      <c r="Q51" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O51),VLOOKUP(H51,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N51),VLOOKUP(H51,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N51)), NOT(ISBLANK(O51))),VLOOKUP(H51,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q51" s="1" t="str">
+      <c r="R51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R51" s="1" t="str">
+      <c r="S51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="S51" s="1">
+      <c r="T51" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>322</v>
       </c>
@@ -4577,47 +4966,50 @@
         <f t="shared" si="0"/>
         <v>-#攻击力</v>
       </c>
-      <c r="F52" s="1" t="str">
-        <f>VLOOKUP(I52,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R52&amp;VLOOKUP(H52,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E52,"#",TEXT(IF(ISBLANK(N52),ABS(M52),ABS(N52))*100,"0")&amp;"%")&amp;Q52</f>
+      <c r="F52" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f>VLOOKUP(J52,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S52&amp;VLOOKUP(I52,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E52,"#",TEXT(IF(ISBLANK(O52),ABS(N52),ABS(O52))*100,"0")&amp;"%")&amp;R52</f>
         <v>攻击后70%的概率使对手-5%攻击力，永久</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>-1</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <v>0.7</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <v>-0.05</v>
       </c>
-      <c r="N52" s="15"/>
-      <c r="P52" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N52),VLOOKUP(G52,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M52),VLOOKUP(G52,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M52)), NOT(ISBLANK(N52))),VLOOKUP(G52,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O52" s="15"/>
+      <c r="Q52" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O52),VLOOKUP(H52,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N52),VLOOKUP(H52,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N52)), NOT(ISBLANK(O52))),VLOOKUP(H52,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q52" s="1" t="str">
+      <c r="R52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R52" s="1" t="str">
+      <c r="S52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>70%的概率</v>
       </c>
-      <c r="S52" s="1">
+      <c r="T52" s="1">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>119</v>
       </c>
@@ -4631,44 +5023,47 @@
         <f t="shared" si="0"/>
         <v>+[#×攻击力]的生命值</v>
       </c>
-      <c r="F53" s="1" t="str">
-        <f>VLOOKUP(I53,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R53&amp;VLOOKUP(H53,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E53,"#",TEXT(IF(ISBLANK(N53),ABS(M53),ABS(N53))*100,"0")&amp;"%")&amp;Q53</f>
+      <c r="F53" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f>VLOOKUP(J53,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S53&amp;VLOOKUP(I53,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E53,"#",TEXT(IF(ISBLANK(O53),ABS(N53),ABS(O53))*100,"0")&amp;"%")&amp;R53</f>
         <v>攻击后20%的概率使自身+[100%×攻击力]的生命值。</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <v>0.2</v>
       </c>
-      <c r="M53" s="15">
+      <c r="N53" s="15">
         <v>1</v>
       </c>
-      <c r="N53" s="15"/>
-      <c r="P53" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N53),VLOOKUP(G53,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M53),VLOOKUP(G53,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M53)), NOT(ISBLANK(N53))),VLOOKUP(G53,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O53" s="15"/>
+      <c r="Q53" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O53),VLOOKUP(H53,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N53),VLOOKUP(H53,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N53)), NOT(ISBLANK(O53))),VLOOKUP(H53,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="Q53" s="1" t="str">
+      <c r="R53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R53" s="1" t="str">
+      <c r="S53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S53" s="1">
+      <c r="T53" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>324</v>
       </c>
@@ -4682,47 +5077,50 @@
         <f t="shared" si="0"/>
         <v>-#防御力</v>
       </c>
-      <c r="F54" s="1" t="str">
-        <f>VLOOKUP(I54,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R54&amp;VLOOKUP(H54,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(N54),ABS(M54),ABS(N54))*100,"0")&amp;"%")&amp;Q54</f>
+      <c r="F54" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f>VLOOKUP(J54,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S54&amp;VLOOKUP(I54,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(O54),ABS(N54),ABS(O54))*100,"0")&amp;"%")&amp;R54</f>
         <v>攻击前50%的概率使对手-5%防御力，永久</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <v>-1</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>0.5</v>
       </c>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15">
+      <c r="N54" s="15"/>
+      <c r="O54" s="15">
         <v>-0.05</v>
       </c>
-      <c r="P54" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N54),VLOOKUP(G54,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M54),VLOOKUP(G54,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M54)), NOT(ISBLANK(N54))),VLOOKUP(G54,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q54" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O54),VLOOKUP(H54,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N54),VLOOKUP(H54,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N54)), NOT(ISBLANK(O54))),VLOOKUP(H54,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="Q54" s="1" t="str">
+      <c r="R54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R54" s="1" t="str">
+      <c r="S54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="S54" s="1">
+      <c r="T54" s="1">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>120</v>
       </c>
@@ -4736,47 +5134,50 @@
         <f t="shared" si="0"/>
         <v>-#防御力</v>
       </c>
-      <c r="F55" s="1" t="str">
-        <f>VLOOKUP(I55,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R55&amp;VLOOKUP(H55,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E55,"#",TEXT(IF(ISBLANK(N55),ABS(M55),ABS(N55))*100,"0")&amp;"%")&amp;Q55</f>
+      <c r="F55" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f>VLOOKUP(J55,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S55&amp;VLOOKUP(I55,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E55,"#",TEXT(IF(ISBLANK(O55),ABS(N55),ABS(O55))*100,"0")&amp;"%")&amp;R55</f>
         <v>回合开始时30%的概率使对手-50%防御力，持续2回合。</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="1">
         <v>2</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <v>0.3</v>
       </c>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15">
+      <c r="N55" s="15"/>
+      <c r="O55" s="15">
         <v>-0.5</v>
       </c>
-      <c r="P55" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N55),VLOOKUP(G55,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M55),VLOOKUP(G55,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M55)), NOT(ISBLANK(N55))),VLOOKUP(G55,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q55" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O55),VLOOKUP(H55,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N55),VLOOKUP(H55,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N55)), NOT(ISBLANK(O55))),VLOOKUP(H55,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="Q55" s="1" t="str">
+      <c r="R55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R55" s="1" t="str">
+      <c r="S55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="S55" s="1">
+      <c r="T55" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>122</v>
       </c>
@@ -4790,45 +5191,48 @@
         <f t="shared" si="0"/>
         <v>闪避</v>
       </c>
-      <c r="F56" s="1" t="str">
-        <f>VLOOKUP(I56,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R56&amp;VLOOKUP(H56,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E56,"#",TEXT(IF(ISBLANK(N56),ABS(M56),ABS(N56))*100,"0")&amp;"%")&amp;Q56</f>
+      <c r="F56" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f>VLOOKUP(J56,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S56&amp;VLOOKUP(I56,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E56,"#",TEXT(IF(ISBLANK(O56),ABS(N56),ABS(O56))*100,"0")&amp;"%")&amp;R56</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>0</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>0.2</v>
       </c>
-      <c r="M56" s="15"/>
       <c r="N56" s="15"/>
-      <c r="P56" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N56),VLOOKUP(G56,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M56),VLOOKUP(G56,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M56)), NOT(ISBLANK(N56))),VLOOKUP(G56,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O56" s="15"/>
+      <c r="Q56" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O56),VLOOKUP(H56,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N56),VLOOKUP(H56,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N56)), NOT(ISBLANK(O56))),VLOOKUP(H56,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="Q56" s="1" t="str">
+      <c r="R56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R56" s="1" t="str">
+      <c r="S56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S56" s="1">
+      <c r="T56" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>121</v>
       </c>
@@ -4842,47 +5246,50 @@
         <f t="shared" si="0"/>
         <v>+#攻击力</v>
       </c>
-      <c r="F57" s="1" t="str">
-        <f>VLOOKUP(I57,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R57&amp;VLOOKUP(H57,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E57,"#",TEXT(IF(ISBLANK(N57),ABS(M57),ABS(N57))*100,"0")&amp;"%")&amp;Q57</f>
+      <c r="F57" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f>VLOOKUP(J57,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S57&amp;VLOOKUP(I57,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E57,"#",TEXT(IF(ISBLANK(O57),ABS(N57),ABS(O57))*100,"0")&amp;"%")&amp;R57</f>
         <v>战斗开始时50%的概率使自身+50%攻击力，永久</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>-1</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>0.5</v>
       </c>
-      <c r="M57" s="15">
+      <c r="N57" s="15">
         <v>0.5</v>
       </c>
-      <c r="N57" s="15"/>
-      <c r="P57" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N57),VLOOKUP(G57,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M57),VLOOKUP(G57,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M57)), NOT(ISBLANK(N57))),VLOOKUP(G57,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O57" s="15"/>
+      <c r="Q57" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O57),VLOOKUP(H57,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N57),VLOOKUP(H57,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N57)), NOT(ISBLANK(O57))),VLOOKUP(H57,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q57" s="1" t="str">
+      <c r="R57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="R57" s="1" t="str">
+      <c r="S57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="S57" s="1">
+      <c r="T57" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>126</v>
       </c>
@@ -4896,44 +5303,47 @@
         <f t="shared" si="0"/>
         <v>获得1个技能</v>
       </c>
-      <c r="F58" s="1" t="str">
-        <f>VLOOKUP(I58,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R58&amp;VLOOKUP(H58,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E58,"#",TEXT(IF(ISBLANK(N58),ABS(M58),ABS(N58))*100,"0")&amp;"%")&amp;Q58</f>
+      <c r="F58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f>VLOOKUP(J58,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S58&amp;VLOOKUP(I58,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E58,"#",TEXT(IF(ISBLANK(O58),ABS(N58),ABS(O58))*100,"0")&amp;"%")&amp;R58</f>
         <v>回合开始时使自身获得1个技能。</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="1">
         <v>1</v>
       </c>
-      <c r="M58" s="15">
+      <c r="N58" s="15">
         <v>1</v>
       </c>
-      <c r="N58" s="15"/>
-      <c r="P58" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N58),VLOOKUP(G58,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M58),VLOOKUP(G58,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M58)), NOT(ISBLANK(N58))),VLOOKUP(G58,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O58" s="15"/>
+      <c r="Q58" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O58),VLOOKUP(H58,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N58),VLOOKUP(H58,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N58)), NOT(ISBLANK(O58))),VLOOKUP(H58,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>获得^个技能</v>
       </c>
-      <c r="Q58" s="1" t="str">
+      <c r="R58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R58" s="1" t="str">
+      <c r="S58" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S58" s="1">
+      <c r="T58" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>127</v>
       </c>
@@ -4947,45 +5357,48 @@
         <f t="shared" si="0"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F59" s="1" t="str">
-        <f>VLOOKUP(I59,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R59&amp;VLOOKUP(H59,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E59,"#",TEXT(IF(ISBLANK(N59),ABS(M59),ABS(N59))*100,"0")&amp;"%")&amp;Q59</f>
+      <c r="F59" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f>VLOOKUP(J59,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S59&amp;VLOOKUP(I59,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E59,"#",TEXT(IF(ISBLANK(O59),ABS(N59),ABS(O59))*100,"0")&amp;"%")&amp;R59</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>0</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <v>0.3</v>
       </c>
-      <c r="M59" s="15"/>
       <c r="N59" s="15"/>
-      <c r="P59" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N59),VLOOKUP(G59,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M59),VLOOKUP(G59,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M59)), NOT(ISBLANK(N59))),VLOOKUP(G59,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O59" s="15"/>
+      <c r="Q59" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O59),VLOOKUP(H59,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N59),VLOOKUP(H59,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N59)), NOT(ISBLANK(O59))),VLOOKUP(H59,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q59" s="1" t="str">
+      <c r="R59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R59" s="1" t="str">
+      <c r="S59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="S59" s="1">
+      <c r="T59" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>123</v>
       </c>
@@ -4999,44 +5412,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F60" s="1" t="str">
-        <f>VLOOKUP(I60,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R60&amp;VLOOKUP(H60,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(N60),ABS(M60),ABS(N60))*100,"0")&amp;"%")&amp;Q60</f>
+      <c r="F60" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f>VLOOKUP(J60,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S60&amp;VLOOKUP(I60,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(O60),ABS(N60),ABS(O60))*100,"0")&amp;"%")&amp;R60</f>
         <v>攻击时40%的概率使自身+20%造成的伤害。</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L60" s="1">
+      <c r="M60" s="1">
         <v>0.4</v>
       </c>
-      <c r="M60" s="15">
+      <c r="N60" s="15">
         <v>0.2</v>
       </c>
-      <c r="N60" s="15"/>
-      <c r="P60" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N60),VLOOKUP(G60,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M60),VLOOKUP(G60,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M60)), NOT(ISBLANK(N60))),VLOOKUP(G60,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O60" s="15"/>
+      <c r="Q60" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O60),VLOOKUP(H60,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N60),VLOOKUP(H60,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N60)), NOT(ISBLANK(O60))),VLOOKUP(H60,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q60" s="1" t="str">
+      <c r="R60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R60" s="1" t="str">
+      <c r="S60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="S60" s="1">
+      <c r="T60" s="1">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
@@ -5050,44 +5466,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F61" s="1" t="str">
-        <f>VLOOKUP(I61,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R61&amp;VLOOKUP(H61,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E61,"#",TEXT(IF(ISBLANK(N61),ABS(M61),ABS(N61))*100,"0")&amp;"%")&amp;Q61</f>
+      <c r="F61" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f>VLOOKUP(J61,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S61&amp;VLOOKUP(I61,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E61,"#",TEXT(IF(ISBLANK(O61),ABS(N61),ABS(O61))*100,"0")&amp;"%")&amp;R61</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <v>0.4</v>
       </c>
-      <c r="M61" s="15">
+      <c r="N61" s="15">
         <v>0.5</v>
       </c>
-      <c r="N61" s="15"/>
-      <c r="P61" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N61),VLOOKUP(G61,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M61),VLOOKUP(G61,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M61)), NOT(ISBLANK(N61))),VLOOKUP(G61,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O61" s="15"/>
+      <c r="Q61" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O61),VLOOKUP(H61,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N61),VLOOKUP(H61,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N61)), NOT(ISBLANK(O61))),VLOOKUP(H61,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q61" s="1" t="str">
+      <c r="R61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R61" s="1" t="str">
+      <c r="S61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="S61" s="1">
+      <c r="T61" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>125</v>
       </c>
@@ -5101,44 +5520,47 @@
         <f t="shared" si="0"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F62" s="1" t="str">
-        <f>VLOOKUP(I62,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R62&amp;VLOOKUP(H62,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E62,"#",TEXT(IF(ISBLANK(N62),ABS(M62),ABS(N62))*100,"0")&amp;"%")&amp;Q62</f>
+      <c r="F62" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f>VLOOKUP(J62,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S62&amp;VLOOKUP(I62,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E62,"#",TEXT(IF(ISBLANK(O62),ABS(N62),ABS(O62))*100,"0")&amp;"%")&amp;R62</f>
         <v>攻击时40%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <v>0.4</v>
       </c>
-      <c r="M62" s="15">
+      <c r="N62" s="15">
         <v>1</v>
       </c>
-      <c r="N62" s="15"/>
-      <c r="P62" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N62),VLOOKUP(G62,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M62),VLOOKUP(G62,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M62)), NOT(ISBLANK(N62))),VLOOKUP(G62,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O62" s="15"/>
+      <c r="Q62" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O62),VLOOKUP(H62,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N62),VLOOKUP(H62,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N62)), NOT(ISBLANK(O62))),VLOOKUP(H62,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q62" s="1" t="str">
+      <c r="R62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R62" s="1" t="str">
+      <c r="S62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="S62" s="1">
+      <c r="T62" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
@@ -5152,45 +5574,48 @@
         <f t="shared" si="0"/>
         <v>变更目标</v>
       </c>
-      <c r="F63" s="1" t="str">
-        <f>VLOOKUP(I63,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R63&amp;VLOOKUP(H63,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E63,"#",TEXT(IF(ISBLANK(N63),ABS(M63),ABS(N63))*100,"0")&amp;"%")&amp;Q63</f>
+      <c r="F63" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f>VLOOKUP(J63,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S63&amp;VLOOKUP(I63,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E63,"#",TEXT(IF(ISBLANK(O63),ABS(N63),ABS(O63))*100,"0")&amp;"%")&amp;R63</f>
         <v>受击前15%的概率使对手变更目标。</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <v>0</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>0.15</v>
       </c>
-      <c r="M63" s="15"/>
       <c r="N63" s="15"/>
-      <c r="P63" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N63),VLOOKUP(G63,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M63),VLOOKUP(G63,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M63)), NOT(ISBLANK(N63))),VLOOKUP(G63,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O63" s="15"/>
+      <c r="Q63" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O63),VLOOKUP(H63,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N63),VLOOKUP(H63,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N63)), NOT(ISBLANK(O63))),VLOOKUP(H63,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>变更目标</v>
       </c>
-      <c r="Q63" s="1" t="str">
+      <c r="R63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R63" s="1" t="str">
+      <c r="S63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>15%的概率</v>
       </c>
-      <c r="S63" s="1">
+      <c r="T63" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
@@ -5204,45 +5629,48 @@
         <f t="shared" si="0"/>
         <v>变更目标</v>
       </c>
-      <c r="F64" s="1" t="str">
-        <f>VLOOKUP(I64,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R64&amp;VLOOKUP(H64,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E64,"#",TEXT(IF(ISBLANK(N64),ABS(M64),ABS(N64))*100,"0")&amp;"%")&amp;Q64</f>
+      <c r="F64" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f>VLOOKUP(J64,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S64&amp;VLOOKUP(I64,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E64,"#",TEXT(IF(ISBLANK(O64),ABS(N64),ABS(O64))*100,"0")&amp;"%")&amp;R64</f>
         <v>受击前20%的概率使对手变更目标。</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="1">
         <v>0</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <v>0.2</v>
       </c>
-      <c r="M64" s="15"/>
       <c r="N64" s="15"/>
-      <c r="P64" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N64),VLOOKUP(G64,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M64),VLOOKUP(G64,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M64)), NOT(ISBLANK(N64))),VLOOKUP(G64,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O64" s="15"/>
+      <c r="Q64" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O64),VLOOKUP(H64,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N64),VLOOKUP(H64,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N64)), NOT(ISBLANK(O64))),VLOOKUP(H64,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>变更目标</v>
       </c>
-      <c r="Q64" s="1" t="str">
+      <c r="R64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R64" s="1" t="str">
+      <c r="S64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S64" s="1">
+      <c r="T64" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
@@ -5256,45 +5684,48 @@
         <f t="shared" si="0"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F65" s="1" t="str">
-        <f>VLOOKUP(I65,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R65&amp;VLOOKUP(H65,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E65,"#",TEXT(IF(ISBLANK(N65),ABS(M65),ABS(N65))*100,"0")&amp;"%")&amp;Q65</f>
+      <c r="F65" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f>VLOOKUP(J65,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S65&amp;VLOOKUP(I65,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E65,"#",TEXT(IF(ISBLANK(O65),ABS(N65),ABS(O65))*100,"0")&amp;"%")&amp;R65</f>
         <v>攻击后20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K65" s="1">
+      <c r="L65" s="1">
         <v>1</v>
       </c>
-      <c r="L65" s="1">
+      <c r="M65" s="1">
         <v>0.2</v>
       </c>
-      <c r="M65" s="15"/>
       <c r="N65" s="15"/>
-      <c r="P65" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N65),VLOOKUP(G65,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M65),VLOOKUP(G65,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M65)), NOT(ISBLANK(N65))),VLOOKUP(G65,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O65" s="15"/>
+      <c r="Q65" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O65),VLOOKUP(H65,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N65),VLOOKUP(H65,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N65)), NOT(ISBLANK(O65))),VLOOKUP(H65,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q65" s="1" t="str">
+      <c r="R65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R65" s="1" t="str">
+      <c r="S65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S65" s="1">
+      <c r="T65" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
@@ -5308,45 +5739,48 @@
         <f t="shared" si="0"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F66" s="1" t="str">
-        <f>VLOOKUP(I66,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R66&amp;VLOOKUP(H66,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E66,"#",TEXT(IF(ISBLANK(N66),ABS(M66),ABS(N66))*100,"0")&amp;"%")&amp;Q66</f>
+      <c r="F66" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f>VLOOKUP(J66,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S66&amp;VLOOKUP(I66,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E66,"#",TEXT(IF(ISBLANK(O66),ABS(N66),ABS(O66))*100,"0")&amp;"%")&amp;R66</f>
         <v>攻击后20%的概率使对手放弃攻击，持续2回合。</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L66" s="1">
         <v>2</v>
       </c>
-      <c r="L66" s="1">
+      <c r="M66" s="1">
         <v>0.2</v>
       </c>
-      <c r="M66" s="15"/>
       <c r="N66" s="15"/>
-      <c r="P66" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N66),VLOOKUP(G66,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M66),VLOOKUP(G66,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M66)), NOT(ISBLANK(N66))),VLOOKUP(G66,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O66" s="15"/>
+      <c r="Q66" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O66),VLOOKUP(H66,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N66),VLOOKUP(H66,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N66)), NOT(ISBLANK(O66))),VLOOKUP(H66,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q66" s="1" t="str">
+      <c r="R66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R66" s="1" t="str">
+      <c r="S66" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S66" s="1">
+      <c r="T66" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
@@ -5360,45 +5794,48 @@
         <f t="shared" si="0"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F67" s="1" t="str">
-        <f>VLOOKUP(I67,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R67&amp;VLOOKUP(H67,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E67,"#",TEXT(IF(ISBLANK(N67),ABS(M67),ABS(N67))*100,"0")&amp;"%")&amp;Q67</f>
+      <c r="F67" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f>VLOOKUP(J67,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S67&amp;VLOOKUP(I67,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E67,"#",TEXT(IF(ISBLANK(O67),ABS(N67),ABS(O67))*100,"0")&amp;"%")&amp;R67</f>
         <v>攻击后20%的概率使对手放弃攻击，持续3回合。</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K67" s="1">
+      <c r="L67" s="1">
         <v>3</v>
       </c>
-      <c r="L67" s="1">
+      <c r="M67" s="1">
         <v>0.2</v>
       </c>
-      <c r="M67" s="15"/>
       <c r="N67" s="15"/>
-      <c r="P67" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N67),VLOOKUP(G67,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M67),VLOOKUP(G67,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M67)), NOT(ISBLANK(N67))),VLOOKUP(G67,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O67" s="15"/>
+      <c r="Q67" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O67),VLOOKUP(H67,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N67),VLOOKUP(H67,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N67)), NOT(ISBLANK(O67))),VLOOKUP(H67,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q67" s="1" t="str">
+      <c r="R67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="R67" s="1" t="str">
+      <c r="S67" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="S67" s="1">
+      <c r="T67" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>133</v>
       </c>
@@ -5412,44 +5849,47 @@
         <f t="shared" si="0"/>
         <v>+[#×攻击力]的生命值</v>
       </c>
-      <c r="F68" s="1" t="str">
-        <f>VLOOKUP(I68,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R68&amp;VLOOKUP(H68,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E68,"#",TEXT(IF(ISBLANK(N68),ABS(M68),ABS(N68))*100,"0")&amp;"%")&amp;Q68</f>
+      <c r="F68" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f>VLOOKUP(J68,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S68&amp;VLOOKUP(I68,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E68,"#",TEXT(IF(ISBLANK(O68),ABS(N68),ABS(O68))*100,"0")&amp;"%")&amp;R68</f>
         <v>回合开始时使自身+[25%×攻击力]的生命值。</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L68" s="1">
+      <c r="M68" s="1">
         <v>1</v>
       </c>
-      <c r="M68" s="15">
+      <c r="N68" s="15">
         <v>0.25</v>
       </c>
-      <c r="N68" s="15"/>
-      <c r="P68" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N68),VLOOKUP(G68,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M68),VLOOKUP(G68,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M68)), NOT(ISBLANK(N68))),VLOOKUP(G68,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O68" s="15"/>
+      <c r="Q68" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O68),VLOOKUP(H68,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N68),VLOOKUP(H68,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N68)), NOT(ISBLANK(O68))),VLOOKUP(H68,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="Q68" s="1" t="str">
+      <c r="R68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="R68" s="1" t="str">
+      <c r="S68" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S68" s="1">
+      <c r="T68" s="1">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>134</v>
       </c>
@@ -5463,45 +5903,48 @@
         <f t="shared" si="0"/>
         <v>跳过回合</v>
       </c>
-      <c r="F69" s="1" t="str">
-        <f>VLOOKUP(I69,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R69&amp;VLOOKUP(H69,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(N69),ABS(M69),ABS(N69))*100,"0")&amp;"%")&amp;Q69</f>
+      <c r="F69" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f>VLOOKUP(J69,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S69&amp;VLOOKUP(I69,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(O69),ABS(N69),ABS(O69))*100,"0")&amp;"%")&amp;R69</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K69" s="1">
+      <c r="L69" s="1">
         <v>1</v>
       </c>
-      <c r="L69" s="1">
+      <c r="M69" s="1">
         <v>0.25</v>
       </c>
-      <c r="M69" s="15"/>
       <c r="N69" s="15"/>
-      <c r="P69" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N69),VLOOKUP(G69,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M69),VLOOKUP(G69,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M69)), NOT(ISBLANK(N69))),VLOOKUP(G69,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O69" s="15"/>
+      <c r="Q69" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O69),VLOOKUP(H69,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N69),VLOOKUP(H69,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N69)), NOT(ISBLANK(O69))),VLOOKUP(H69,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="Q69" s="1" t="str">
+      <c r="R69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R69" s="1" t="str">
+      <c r="S69" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="S69" s="1">
+      <c r="T69" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>135</v>
       </c>
@@ -5512,47 +5955,50 @@
         <v>61</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" ref="E70:E110" si="4">SUBSTITUTE(SUBSTITUTE(P70,"*",_xlfn.IFS(S70&lt;0,"-",S70&gt;0,"+",S70=0,"")),"^",S70)</f>
+        <f t="shared" ref="E70:E110" si="4">SUBSTITUTE(SUBSTITUTE(Q70,"*",_xlfn.IFS(T70&lt;0,"-",T70&gt;0,"+",T70=0,"")),"^",T70)</f>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F70" s="1" t="str">
-        <f>VLOOKUP(I70,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R70&amp;VLOOKUP(H70,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E70,"#",TEXT(IF(ISBLANK(N70),ABS(M70),ABS(N70))*100,"0")&amp;"%")&amp;Q70</f>
+      <c r="F70" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f>VLOOKUP(J70,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S70&amp;VLOOKUP(I70,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E70,"#",TEXT(IF(ISBLANK(O70),ABS(N70),ABS(O70))*100,"0")&amp;"%")&amp;R70</f>
         <v>攻击时15%的概率使自身+200%造成的伤害。</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J70" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L70" s="1">
+      <c r="M70" s="1">
         <v>0.15</v>
       </c>
-      <c r="M70" s="15">
+      <c r="N70" s="15">
         <v>2</v>
       </c>
-      <c r="N70" s="15"/>
-      <c r="P70" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N70),VLOOKUP(G70,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M70),VLOOKUP(G70,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M70)), NOT(ISBLANK(N70))),VLOOKUP(G70,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O70" s="15"/>
+      <c r="Q70" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O70),VLOOKUP(H70,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N70),VLOOKUP(H70,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N70)), NOT(ISBLANK(O70))),VLOOKUP(H70,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q70" s="1" t="str">
-        <f t="shared" ref="Q70:Q110" si="5">IF(NOT(ISBLANK(K70))*AND(K70&gt;0),"，持续"&amp;K70&amp;"回合。",IF(K70=-1,"，永久","。"))</f>
+      <c r="R70" s="1" t="str">
+        <f t="shared" ref="R70:R110" si="5">IF(NOT(ISBLANK(L70))*AND(L70&gt;0),"，持续"&amp;L70&amp;"回合。",IF(L70=-1,"，永久","。"))</f>
         <v>。</v>
       </c>
-      <c r="R70" s="1" t="str">
-        <f t="shared" ref="R70:R110" si="6">IF(ISBLANK(J70),"","如果"&amp;IF(J70=0,"死亡","生命值&lt;"&amp;TEXT(J70*100,"0")&amp;"%")&amp;"，那么")&amp;IF(L70&lt;1,TEXT(L70*100,"0")&amp;"%的概率","")</f>
+      <c r="S70" s="1" t="str">
+        <f t="shared" ref="S70:S110" si="6">IF(ISBLANK(K70),"","如果"&amp;IF(K70=0,"死亡","生命值&lt;"&amp;TEXT(K70*100,"0")&amp;"%")&amp;"，那么")&amp;IF(M70&lt;1,TEXT(M70*100,"0")&amp;"%的概率","")</f>
         <v>15%的概率</v>
       </c>
-      <c r="S70" s="1">
-        <f t="shared" ref="S70:S110" si="7">IF(ISBLANK(M70),N70,M70)</f>
+      <c r="T70" s="1">
+        <f t="shared" ref="T70:T110" si="7">IF(ISBLANK(N70),O70,N70)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>138</v>
       </c>
@@ -5566,47 +6012,50 @@
         <f t="shared" si="4"/>
         <v>-#攻击力</v>
       </c>
-      <c r="F71" s="1" t="str">
-        <f>VLOOKUP(I71,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R71&amp;VLOOKUP(H71,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(N71),ABS(M71),ABS(N71))*100,"0")&amp;"%")&amp;Q71</f>
+      <c r="F71" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f>VLOOKUP(J71,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S71&amp;VLOOKUP(I71,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(O71),ABS(N71),ABS(O71))*100,"0")&amp;"%")&amp;R71</f>
         <v>受击前70%的概率使对手-30%攻击力。</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K71" s="1">
+      <c r="L71" s="1">
         <v>0</v>
       </c>
-      <c r="L71" s="1">
+      <c r="M71" s="1">
         <v>0.7</v>
       </c>
-      <c r="M71" s="15">
+      <c r="N71" s="15">
         <v>-0.3</v>
       </c>
-      <c r="N71" s="15"/>
-      <c r="P71" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N71),VLOOKUP(G71,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M71),VLOOKUP(G71,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M71)), NOT(ISBLANK(N71))),VLOOKUP(G71,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O71" s="15"/>
+      <c r="Q71" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O71),VLOOKUP(H71,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N71),VLOOKUP(H71,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N71)), NOT(ISBLANK(O71))),VLOOKUP(H71,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q71" s="1" t="str">
+      <c r="R71" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R71" s="1" t="str">
+      <c r="S71" s="1" t="str">
         <f t="shared" si="6"/>
         <v>70%的概率</v>
       </c>
-      <c r="S71" s="1">
+      <c r="T71" s="1">
         <f t="shared" si="7"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>136</v>
       </c>
@@ -5620,45 +6069,48 @@
         <f t="shared" si="4"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F72" s="1" t="str">
-        <f>VLOOKUP(I72,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R72&amp;VLOOKUP(H72,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E72,"#",TEXT(IF(ISBLANK(N72),ABS(M72),ABS(N72))*100,"0")&amp;"%")&amp;Q72</f>
+      <c r="F72" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f>VLOOKUP(J72,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S72&amp;VLOOKUP(I72,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E72,"#",TEXT(IF(ISBLANK(O72),ABS(N72),ABS(O72))*100,"0")&amp;"%")&amp;R72</f>
         <v>受击前15%的概率使对手放弃攻击。</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L72" s="1">
         <v>0</v>
       </c>
-      <c r="L72" s="1">
+      <c r="M72" s="1">
         <v>0.15</v>
       </c>
-      <c r="M72" s="15"/>
       <c r="N72" s="15"/>
-      <c r="P72" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N72),VLOOKUP(G72,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M72),VLOOKUP(G72,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M72)), NOT(ISBLANK(N72))),VLOOKUP(G72,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O72" s="15"/>
+      <c r="Q72" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O72),VLOOKUP(H72,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N72),VLOOKUP(H72,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N72)), NOT(ISBLANK(O72))),VLOOKUP(H72,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q72" s="1" t="str">
+      <c r="R72" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R72" s="1" t="str">
+      <c r="S72" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="S72" s="1">
+      <c r="T72" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>137</v>
       </c>
@@ -5672,45 +6124,48 @@
         <f t="shared" si="4"/>
         <v>放弃攻击</v>
       </c>
-      <c r="F73" s="1" t="str">
-        <f>VLOOKUP(I73,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R73&amp;VLOOKUP(H73,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E73,"#",TEXT(IF(ISBLANK(N73),ABS(M73),ABS(N73))*100,"0")&amp;"%")&amp;Q73</f>
+      <c r="F73" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f>VLOOKUP(J73,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S73&amp;VLOOKUP(I73,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E73,"#",TEXT(IF(ISBLANK(O73),ABS(N73),ABS(O73))*100,"0")&amp;"%")&amp;R73</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>0</v>
       </c>
-      <c r="L73" s="1">
+      <c r="M73" s="1">
         <v>0.3</v>
       </c>
-      <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="P73" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N73),VLOOKUP(G73,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M73),VLOOKUP(G73,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M73)), NOT(ISBLANK(N73))),VLOOKUP(G73,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O73" s="15"/>
+      <c r="Q73" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O73),VLOOKUP(H73,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N73),VLOOKUP(H73,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N73)), NOT(ISBLANK(O73))),VLOOKUP(H73,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="Q73" s="1" t="str">
+      <c r="R73" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R73" s="1" t="str">
+      <c r="S73" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S73" s="1">
+      <c r="T73" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>139</v>
       </c>
@@ -5724,44 +6179,47 @@
         <f t="shared" si="4"/>
         <v>-[#×攻击力]的生命值</v>
       </c>
-      <c r="F74" s="1" t="str">
-        <f>VLOOKUP(I74,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R74&amp;VLOOKUP(H74,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E74,"#",TEXT(IF(ISBLANK(N74),ABS(M74),ABS(N74))*100,"0")&amp;"%")&amp;Q74</f>
+      <c r="F74" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f>VLOOKUP(J74,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S74&amp;VLOOKUP(I74,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E74,"#",TEXT(IF(ISBLANK(O74),ABS(N74),ABS(O74))*100,"0")&amp;"%")&amp;R74</f>
         <v>战斗开始时30%的概率使对手-[200%×攻击力]的生命值。</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L74" s="1">
+      <c r="M74" s="1">
         <v>0.3</v>
       </c>
-      <c r="M74" s="15">
+      <c r="N74" s="15">
         <v>-2</v>
       </c>
-      <c r="N74" s="15"/>
-      <c r="P74" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N74),VLOOKUP(G74,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M74),VLOOKUP(G74,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M74)), NOT(ISBLANK(N74))),VLOOKUP(G74,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O74" s="15"/>
+      <c r="Q74" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O74),VLOOKUP(H74,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N74),VLOOKUP(H74,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N74)), NOT(ISBLANK(O74))),VLOOKUP(H74,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="Q74" s="1" t="str">
+      <c r="R74" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R74" s="1" t="str">
+      <c r="S74" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S74" s="1">
+      <c r="T74" s="1">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>142</v>
       </c>
@@ -5775,44 +6233,47 @@
         <f t="shared" si="4"/>
         <v>+[#×伤害值]的生命值</v>
       </c>
-      <c r="F75" s="1" t="str">
-        <f>VLOOKUP(I75,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R75&amp;VLOOKUP(H75,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E75,"#",TEXT(IF(ISBLANK(N75),ABS(M75),ABS(N75))*100,"0")&amp;"%")&amp;Q75</f>
+      <c r="F75" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f>VLOOKUP(J75,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S75&amp;VLOOKUP(I75,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E75,"#",TEXT(IF(ISBLANK(O75),ABS(N75),ABS(O75))*100,"0")&amp;"%")&amp;R75</f>
         <v>攻击后30%的概率使自身+[100%×伤害值]的生命值。</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L75" s="1">
+      <c r="M75" s="1">
         <v>0.3</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15">
+      <c r="N75" s="15"/>
+      <c r="O75" s="15">
         <v>1</v>
       </c>
-      <c r="P75" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N75),VLOOKUP(G75,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M75),VLOOKUP(G75,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M75)), NOT(ISBLANK(N75))),VLOOKUP(G75,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q75" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O75),VLOOKUP(H75,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N75),VLOOKUP(H75,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N75)), NOT(ISBLANK(O75))),VLOOKUP(H75,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="Q75" s="1" t="str">
+      <c r="R75" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R75" s="1" t="str">
+      <c r="S75" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S75" s="1">
+      <c r="T75" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>143</v>
       </c>
@@ -5826,44 +6287,47 @@
         <f t="shared" si="4"/>
         <v>(生物)随机获得5个技能。(玩家)增加5个技能上限</v>
       </c>
-      <c r="F76" s="1" t="str">
-        <f>VLOOKUP(I76,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R76&amp;VLOOKUP(H76,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E76,"#",TEXT(IF(ISBLANK(N76),ABS(M76),ABS(N76))*100,"0")&amp;"%")&amp;Q76</f>
+      <c r="F76" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f>VLOOKUP(J76,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S76&amp;VLOOKUP(I76,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E76,"#",TEXT(IF(ISBLANK(O76),ABS(N76),ABS(O76))*100,"0")&amp;"%")&amp;R76</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L76" s="1">
+      <c r="M76" s="1">
         <v>1</v>
       </c>
-      <c r="M76" s="15">
+      <c r="N76" s="15">
         <v>5</v>
       </c>
-      <c r="N76" s="15"/>
-      <c r="P76" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N76),VLOOKUP(G76,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M76),VLOOKUP(G76,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M76)), NOT(ISBLANK(N76))),VLOOKUP(G76,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O76" s="15"/>
+      <c r="Q76" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O76),VLOOKUP(H76,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N76),VLOOKUP(H76,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N76)), NOT(ISBLANK(O76))),VLOOKUP(H76,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
       </c>
-      <c r="Q76" s="1" t="str">
+      <c r="R76" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R76" s="1" t="str">
+      <c r="S76" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S76" s="1">
+      <c r="T76" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>140</v>
       </c>
@@ -5877,47 +6341,50 @@
         <f t="shared" si="4"/>
         <v>+#攻击力</v>
       </c>
-      <c r="F77" s="1" t="str">
-        <f>VLOOKUP(I77,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R77&amp;VLOOKUP(H77,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(N77),ABS(M77),ABS(N77))*100,"0")&amp;"%")&amp;Q77</f>
+      <c r="F77" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f>VLOOKUP(J77,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S77&amp;VLOOKUP(I77,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(O77),ABS(N77),ABS(O77))*100,"0")&amp;"%")&amp;R77</f>
         <v>回合开始时30%的概率使自身+50%攻击力，持续2回合。</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K77" s="1">
+      <c r="L77" s="1">
         <v>2</v>
       </c>
-      <c r="L77" s="1">
+      <c r="M77" s="1">
         <v>0.3</v>
       </c>
-      <c r="M77" s="15">
+      <c r="N77" s="15">
         <v>0.5</v>
       </c>
-      <c r="N77" s="15"/>
-      <c r="P77" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N77),VLOOKUP(G77,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M77),VLOOKUP(G77,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M77)), NOT(ISBLANK(N77))),VLOOKUP(G77,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O77" s="15"/>
+      <c r="Q77" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O77),VLOOKUP(H77,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N77),VLOOKUP(H77,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N77)), NOT(ISBLANK(O77))),VLOOKUP(H77,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q77" s="1" t="str">
+      <c r="R77" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R77" s="1" t="str">
+      <c r="S77" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S77" s="1">
+      <c r="T77" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>141</v>
       </c>
@@ -5931,47 +6398,50 @@
         <f t="shared" si="4"/>
         <v>+#攻击力</v>
       </c>
-      <c r="F78" s="1" t="str">
-        <f>VLOOKUP(I78,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R78&amp;VLOOKUP(H78,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(N78),ABS(M78),ABS(N78))*100,"0")&amp;"%")&amp;Q78</f>
+      <c r="F78" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f>VLOOKUP(J78,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S78&amp;VLOOKUP(I78,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(O78),ABS(N78),ABS(O78))*100,"0")&amp;"%")&amp;R78</f>
         <v>回合开始时30%的概率使自身+100%攻击力，持续2回合。</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K78" s="1">
+      <c r="L78" s="1">
         <v>2</v>
       </c>
-      <c r="L78" s="1">
+      <c r="M78" s="1">
         <v>0.3</v>
       </c>
-      <c r="M78" s="15">
+      <c r="N78" s="15">
         <v>1</v>
       </c>
-      <c r="N78" s="15"/>
-      <c r="P78" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N78),VLOOKUP(G78,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M78),VLOOKUP(G78,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M78)), NOT(ISBLANK(N78))),VLOOKUP(G78,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O78" s="15"/>
+      <c r="Q78" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O78),VLOOKUP(H78,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N78),VLOOKUP(H78,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N78)), NOT(ISBLANK(O78))),VLOOKUP(H78,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q78" s="1" t="str">
+      <c r="R78" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R78" s="1" t="str">
+      <c r="S78" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S78" s="1">
+      <c r="T78" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>144</v>
       </c>
@@ -5985,47 +6455,50 @@
         <f t="shared" si="4"/>
         <v>-#攻击力</v>
       </c>
-      <c r="F79" s="1" t="str">
-        <f>VLOOKUP(I79,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R79&amp;VLOOKUP(H79,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(N79),ABS(M79),ABS(N79))*100,"0")&amp;"%")&amp;Q79</f>
+      <c r="F79" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f>VLOOKUP(J79,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S79&amp;VLOOKUP(I79,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(O79),ABS(N79),ABS(O79))*100,"0")&amp;"%")&amp;R79</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续1回合。</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K79" s="1">
+      <c r="L79" s="1">
         <v>1</v>
       </c>
-      <c r="L79" s="1">
+      <c r="M79" s="1">
         <v>0.3</v>
       </c>
-      <c r="M79" s="15">
+      <c r="N79" s="15">
         <v>-0.3</v>
       </c>
-      <c r="N79" s="15"/>
-      <c r="P79" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N79),VLOOKUP(G79,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M79),VLOOKUP(G79,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M79)), NOT(ISBLANK(N79))),VLOOKUP(G79,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O79" s="15"/>
+      <c r="Q79" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O79),VLOOKUP(H79,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N79),VLOOKUP(H79,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N79)), NOT(ISBLANK(O79))),VLOOKUP(H79,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q79" s="1" t="str">
+      <c r="R79" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R79" s="1" t="str">
+      <c r="S79" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S79" s="1">
+      <c r="T79" s="1">
         <f t="shared" si="7"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>149</v>
       </c>
@@ -6039,44 +6512,47 @@
         <f t="shared" si="4"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F80" s="1" t="str">
-        <f>VLOOKUP(I80,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R80&amp;VLOOKUP(H80,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E80,"#",TEXT(IF(ISBLANK(N80),ABS(M80),ABS(N80))*100,"0")&amp;"%")&amp;Q80</f>
+      <c r="F80" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G80" s="1" t="str">
+        <f>VLOOKUP(J80,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S80&amp;VLOOKUP(I80,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E80,"#",TEXT(IF(ISBLANK(O80),ABS(N80),ABS(O80))*100,"0")&amp;"%")&amp;R80</f>
         <v>攻击时30%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L80" s="1">
+      <c r="M80" s="1">
         <v>0.3</v>
       </c>
-      <c r="M80" s="15">
+      <c r="N80" s="15">
         <v>1</v>
       </c>
-      <c r="N80" s="15"/>
-      <c r="P80" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N80),VLOOKUP(G80,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M80),VLOOKUP(G80,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M80)), NOT(ISBLANK(N80))),VLOOKUP(G80,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O80" s="15"/>
+      <c r="Q80" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O80),VLOOKUP(H80,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N80),VLOOKUP(H80,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N80)), NOT(ISBLANK(O80))),VLOOKUP(H80,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q80" s="1" t="str">
+      <c r="R80" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R80" s="1" t="str">
+      <c r="S80" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S80" s="1">
+      <c r="T80" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>150</v>
       </c>
@@ -6090,44 +6566,47 @@
         <f t="shared" si="4"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F81" s="1" t="str">
-        <f>VLOOKUP(I81,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R81&amp;VLOOKUP(H81,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E81,"#",TEXT(IF(ISBLANK(N81),ABS(M81),ABS(N81))*100,"0")&amp;"%")&amp;Q81</f>
+      <c r="F81" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G81" s="1" t="str">
+        <f>VLOOKUP(J81,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S81&amp;VLOOKUP(I81,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E81,"#",TEXT(IF(ISBLANK(O81),ABS(N81),ABS(O81))*100,"0")&amp;"%")&amp;R81</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L81" s="1">
+      <c r="M81" s="1">
         <v>0.4</v>
       </c>
-      <c r="M81" s="15">
+      <c r="N81" s="15">
         <v>0.5</v>
       </c>
-      <c r="N81" s="15"/>
-      <c r="P81" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N81),VLOOKUP(G81,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M81),VLOOKUP(G81,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M81)), NOT(ISBLANK(N81))),VLOOKUP(G81,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O81" s="15"/>
+      <c r="Q81" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O81),VLOOKUP(H81,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N81),VLOOKUP(H81,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N81)), NOT(ISBLANK(O81))),VLOOKUP(H81,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q81" s="1" t="str">
+      <c r="R81" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R81" s="1" t="str">
+      <c r="S81" s="1" t="str">
         <f t="shared" si="6"/>
         <v>40%的概率</v>
       </c>
-      <c r="S81" s="1">
+      <c r="T81" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>145</v>
       </c>
@@ -6141,47 +6620,50 @@
         <f t="shared" si="4"/>
         <v>+#最大生命并清除buff，1次</v>
       </c>
-      <c r="F82" s="1" t="str">
-        <f>VLOOKUP(I82,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R82&amp;VLOOKUP(H82,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E82,"#",TEXT(IF(ISBLANK(N82),ABS(M82),ABS(N82))*100,"0")&amp;"%")&amp;Q82</f>
+      <c r="F82" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G82" s="1" t="str">
+        <f>VLOOKUP(J82,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S82&amp;VLOOKUP(I82,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E82,"#",TEXT(IF(ISBLANK(O82),ABS(N82),ABS(O82))*100,"0")&amp;"%")&amp;R82</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J82" s="1">
+      <c r="K82" s="1">
         <v>0</v>
       </c>
-      <c r="L82" s="1">
+      <c r="M82" s="1">
         <v>1</v>
       </c>
-      <c r="M82" s="15">
+      <c r="N82" s="15">
         <v>1</v>
       </c>
-      <c r="N82" s="15"/>
-      <c r="P82" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N82),VLOOKUP(G82,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M82),VLOOKUP(G82,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M82)), NOT(ISBLANK(N82))),VLOOKUP(G82,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O82" s="15"/>
+      <c r="Q82" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O82),VLOOKUP(H82,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N82),VLOOKUP(H82,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N82)), NOT(ISBLANK(O82))),VLOOKUP(H82,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#最大生命并清除buff，^次</v>
       </c>
-      <c r="Q82" s="1" t="str">
+      <c r="R82" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R82" s="1" t="str">
+      <c r="S82" s="1" t="str">
         <f t="shared" si="6"/>
         <v>如果死亡，那么</v>
       </c>
-      <c r="S82" s="1">
+      <c r="T82" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>146</v>
       </c>
@@ -6195,49 +6677,52 @@
         <f t="shared" si="4"/>
         <v>+#最大生命并清除buff，9次</v>
       </c>
-      <c r="F83" s="1" t="str">
-        <f>VLOOKUP(I83,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R83&amp;VLOOKUP(H83,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E83,"#",TEXT(IF(ISBLANK(N83),ABS(M83),ABS(N83))*100,"0")&amp;"%")&amp;Q83</f>
+      <c r="F83" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G83" s="1" t="str">
+        <f>VLOOKUP(J83,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S83&amp;VLOOKUP(I83,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E83,"#",TEXT(IF(ISBLANK(O83),ABS(N83),ABS(O83))*100,"0")&amp;"%")&amp;R83</f>
         <v>受击后如果死亡，那么50%的概率使自身+100%最大生命并清除buff，9次。</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J83" s="1">
+      <c r="K83" s="1">
         <v>0</v>
       </c>
-      <c r="L83" s="1">
+      <c r="M83" s="1">
         <v>0.5</v>
       </c>
-      <c r="M83" s="15">
+      <c r="N83" s="15">
         <v>9</v>
       </c>
-      <c r="N83" s="15">
+      <c r="O83" s="15">
         <v>1</v>
       </c>
-      <c r="P83" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N83),VLOOKUP(G83,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M83),VLOOKUP(G83,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M83)), NOT(ISBLANK(N83))),VLOOKUP(G83,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q83" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O83),VLOOKUP(H83,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N83),VLOOKUP(H83,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N83)), NOT(ISBLANK(O83))),VLOOKUP(H83,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#最大生命并清除buff，^次</v>
       </c>
-      <c r="Q83" s="1" t="str">
+      <c r="R83" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R83" s="1" t="str">
+      <c r="S83" s="1" t="str">
         <f t="shared" si="6"/>
         <v>如果死亡，那么50%的概率</v>
       </c>
-      <c r="S83" s="1">
+      <c r="T83" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>147</v>
       </c>
@@ -6251,44 +6736,47 @@
         <f t="shared" si="4"/>
         <v>-#所受的伤害</v>
       </c>
-      <c r="F84" s="1" t="str">
-        <f>VLOOKUP(I84,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R84&amp;VLOOKUP(H84,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E84,"#",TEXT(IF(ISBLANK(N84),ABS(M84),ABS(N84))*100,"0")&amp;"%")&amp;Q84</f>
+      <c r="F84" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f>VLOOKUP(J84,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S84&amp;VLOOKUP(I84,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E84,"#",TEXT(IF(ISBLANK(O84),ABS(N84),ABS(O84))*100,"0")&amp;"%")&amp;R84</f>
         <v>受击时50%的概率使自身-80%所受的伤害。</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L84" s="1">
+      <c r="M84" s="1">
         <v>0.5</v>
       </c>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15">
+      <c r="N84" s="15"/>
+      <c r="O84" s="15">
         <v>-0.8</v>
       </c>
-      <c r="P84" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N84),VLOOKUP(G84,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M84),VLOOKUP(G84,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M84)), NOT(ISBLANK(N84))),VLOOKUP(G84,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q84" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O84),VLOOKUP(H84,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N84),VLOOKUP(H84,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N84)), NOT(ISBLANK(O84))),VLOOKUP(H84,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="Q84" s="1" t="str">
+      <c r="R84" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R84" s="1" t="str">
+      <c r="S84" s="1" t="str">
         <f t="shared" si="6"/>
         <v>50%的概率</v>
       </c>
-      <c r="S84" s="1">
+      <c r="T84" s="1">
         <f t="shared" si="7"/>
         <v>-0.8</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>148</v>
       </c>
@@ -6302,44 +6790,47 @@
         <f t="shared" si="4"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F85" s="1" t="str">
-        <f>VLOOKUP(I85,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R85&amp;VLOOKUP(H85,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E85,"#",TEXT(IF(ISBLANK(N85),ABS(M85),ABS(N85))*100,"0")&amp;"%")&amp;Q85</f>
+      <c r="F85" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G85" s="1" t="str">
+        <f>VLOOKUP(J85,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S85&amp;VLOOKUP(I85,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E85,"#",TEXT(IF(ISBLANK(O85),ABS(N85),ABS(O85))*100,"0")&amp;"%")&amp;R85</f>
         <v>攻击时1%的概率使自身+9900%造成的伤害。</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L85" s="1">
+      <c r="M85" s="1">
         <v>0.01</v>
       </c>
-      <c r="M85" s="15">
+      <c r="N85" s="15">
         <v>99</v>
       </c>
-      <c r="N85" s="15"/>
-      <c r="P85" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N85),VLOOKUP(G85,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M85),VLOOKUP(G85,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M85)), NOT(ISBLANK(N85))),VLOOKUP(G85,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O85" s="15"/>
+      <c r="Q85" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O85),VLOOKUP(H85,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N85),VLOOKUP(H85,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N85)), NOT(ISBLANK(O85))),VLOOKUP(H85,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q85" s="1" t="str">
+      <c r="R85" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R85" s="1" t="str">
+      <c r="S85" s="1" t="str">
         <f t="shared" si="6"/>
         <v>1%的概率</v>
       </c>
-      <c r="S85" s="1">
+      <c r="T85" s="1">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>152</v>
       </c>
@@ -6353,47 +6844,50 @@
         <f t="shared" si="4"/>
         <v>+#攻击力</v>
       </c>
-      <c r="F86" s="1" t="str">
-        <f>VLOOKUP(I86,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R86&amp;VLOOKUP(H86,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E86,"#",TEXT(IF(ISBLANK(N86),ABS(M86),ABS(N86))*100,"0")&amp;"%")&amp;Q86</f>
+      <c r="F86" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G86" s="1" t="str">
+        <f>VLOOKUP(J86,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S86&amp;VLOOKUP(I86,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E86,"#",TEXT(IF(ISBLANK(O86),ABS(N86),ABS(O86))*100,"0")&amp;"%")&amp;R86</f>
         <v>回合开始时使自身+20%攻击力，永久</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K86" s="1">
+      <c r="L86" s="1">
         <v>-1</v>
       </c>
-      <c r="L86" s="1">
+      <c r="M86" s="1">
         <v>1</v>
       </c>
-      <c r="M86" s="15">
+      <c r="N86" s="15">
         <v>0.2</v>
       </c>
-      <c r="N86" s="15"/>
-      <c r="P86" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N86),VLOOKUP(G86,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M86),VLOOKUP(G86,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M86)), NOT(ISBLANK(N86))),VLOOKUP(G86,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O86" s="15"/>
+      <c r="Q86" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O86),VLOOKUP(H86,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N86),VLOOKUP(H86,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N86)), NOT(ISBLANK(O86))),VLOOKUP(H86,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q86" s="1" t="str">
+      <c r="R86" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，永久</v>
       </c>
-      <c r="R86" s="1" t="str">
+      <c r="S86" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S86" s="1">
+      <c r="T86" s="1">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>153</v>
       </c>
@@ -6407,44 +6901,47 @@
         <f t="shared" si="4"/>
         <v>-[#×伤害值]的生命值</v>
       </c>
-      <c r="F87" s="1" t="str">
-        <f>VLOOKUP(I87,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R87&amp;VLOOKUP(H87,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E87,"#",TEXT(IF(ISBLANK(N87),ABS(M87),ABS(N87))*100,"0")&amp;"%")&amp;Q87</f>
+      <c r="F87" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G87" s="1" t="str">
+        <f>VLOOKUP(J87,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S87&amp;VLOOKUP(I87,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E87,"#",TEXT(IF(ISBLANK(O87),ABS(N87),ABS(O87))*100,"0")&amp;"%")&amp;R87</f>
         <v>受击后30%的概率使对手-[20%×伤害值]的生命值。</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L87" s="1">
+      <c r="M87" s="1">
         <v>0.3</v>
       </c>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15">
+      <c r="N87" s="15"/>
+      <c r="O87" s="15">
         <v>-0.2</v>
       </c>
-      <c r="P87" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N87),VLOOKUP(G87,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M87),VLOOKUP(G87,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M87)), NOT(ISBLANK(N87))),VLOOKUP(G87,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q87" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O87),VLOOKUP(H87,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N87),VLOOKUP(H87,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N87)), NOT(ISBLANK(O87))),VLOOKUP(H87,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="Q87" s="1" t="str">
+      <c r="R87" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R87" s="1" t="str">
+      <c r="S87" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S87" s="1">
+      <c r="T87" s="1">
         <f t="shared" si="7"/>
         <v>-0.2</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>151</v>
       </c>
@@ -6458,42 +6955,45 @@
         <f t="shared" si="4"/>
         <v>释放技能，但是失败了！</v>
       </c>
-      <c r="F88" s="1" t="str">
-        <f>VLOOKUP(I88,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R88&amp;VLOOKUP(H88,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E88,"#",TEXT(IF(ISBLANK(N88),ABS(M88),ABS(N88))*100,"0")&amp;"%")&amp;Q88</f>
+      <c r="F88" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G88" s="1" t="str">
+        <f>VLOOKUP(J88,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S88&amp;VLOOKUP(I88,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E88,"#",TEXT(IF(ISBLANK(O88),ABS(N88),ABS(O88))*100,"0")&amp;"%")&amp;R88</f>
         <v>回合开始时30%的概率使自身释放技能，但是失败了！。</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L88" s="1">
+      <c r="M88" s="1">
         <v>0.3</v>
       </c>
-      <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="P88" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N88),VLOOKUP(G88,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M88),VLOOKUP(G88,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M88)), NOT(ISBLANK(N88))),VLOOKUP(G88,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O88" s="15"/>
+      <c r="Q88" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O88),VLOOKUP(H88,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N88),VLOOKUP(H88,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N88)), NOT(ISBLANK(O88))),VLOOKUP(H88,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>释放技能，但是失败了！</v>
       </c>
-      <c r="Q88" s="1" t="str">
+      <c r="R88" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R88" s="1" t="str">
+      <c r="S88" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S88" s="1">
+      <c r="T88" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>106</v>
       </c>
@@ -6507,42 +7007,45 @@
         <f t="shared" si="4"/>
         <v>释放技能，但是失败了！</v>
       </c>
-      <c r="F89" s="1" t="str">
-        <f>VLOOKUP(I89,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R89&amp;VLOOKUP(H89,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E89,"#",TEXT(IF(ISBLANK(N89),ABS(M89),ABS(N89))*100,"0")&amp;"%")&amp;Q89</f>
+      <c r="F89" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G89" s="1" t="str">
+        <f>VLOOKUP(J89,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S89&amp;VLOOKUP(I89,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E89,"#",TEXT(IF(ISBLANK(O89),ABS(N89),ABS(O89))*100,"0")&amp;"%")&amp;R89</f>
         <v>回合开始时0%的概率使自身释放技能，但是失败了！。</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L89" s="1">
+      <c r="M89" s="1">
         <v>0</v>
       </c>
-      <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="P89" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N89),VLOOKUP(G89,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M89),VLOOKUP(G89,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M89)), NOT(ISBLANK(N89))),VLOOKUP(G89,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O89" s="15"/>
+      <c r="Q89" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O89),VLOOKUP(H89,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N89),VLOOKUP(H89,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N89)), NOT(ISBLANK(O89))),VLOOKUP(H89,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>释放技能，但是失败了！</v>
       </c>
-      <c r="Q89" s="1" t="str">
+      <c r="R89" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R89" s="1" t="str">
+      <c r="S89" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0%的概率</v>
       </c>
-      <c r="S89" s="1">
+      <c r="T89" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>202</v>
       </c>
@@ -6556,44 +7059,47 @@
         <f t="shared" si="4"/>
         <v>(生物)随机获得5个技能。(玩家)增加5个技能上限</v>
       </c>
-      <c r="F90" s="1" t="str">
-        <f>VLOOKUP(I90,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R90&amp;VLOOKUP(H90,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E90,"#",TEXT(IF(ISBLANK(N90),ABS(M90),ABS(N90))*100,"0")&amp;"%")&amp;Q90</f>
+      <c r="F90" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f>VLOOKUP(J90,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S90&amp;VLOOKUP(I90,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E90,"#",TEXT(IF(ISBLANK(O90),ABS(N90),ABS(O90))*100,"0")&amp;"%")&amp;R90</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L90" s="1">
+      <c r="M90" s="1">
         <v>1</v>
       </c>
-      <c r="M90" s="15">
+      <c r="N90" s="15">
         <v>5</v>
       </c>
-      <c r="N90" s="15"/>
-      <c r="P90" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N90),VLOOKUP(G90,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M90),VLOOKUP(G90,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M90)), NOT(ISBLANK(N90))),VLOOKUP(G90,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O90" s="15"/>
+      <c r="Q90" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O90),VLOOKUP(H90,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N90),VLOOKUP(H90,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N90)), NOT(ISBLANK(O90))),VLOOKUP(H90,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
       </c>
-      <c r="Q90" s="1" t="str">
+      <c r="R90" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R90" s="1" t="str">
+      <c r="S90" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S90" s="1">
+      <c r="T90" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>154</v>
       </c>
@@ -6607,49 +7113,52 @@
         <f t="shared" si="4"/>
         <v>+#攻防</v>
       </c>
-      <c r="F91" s="1" t="str">
-        <f>VLOOKUP(I91,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R91&amp;VLOOKUP(H91,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(N91),ABS(M91),ABS(N91))*100,"0")&amp;"%")&amp;Q91</f>
+      <c r="F91" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G91" s="1" t="str">
+        <f>VLOOKUP(J91,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S91&amp;VLOOKUP(I91,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(O91),ABS(N91),ABS(O91))*100,"0")&amp;"%")&amp;R91</f>
         <v>回合开始时20%的概率使自身+200%攻防，持续3回合。</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K91" s="1">
+      <c r="L91" s="1">
         <v>3</v>
       </c>
-      <c r="L91" s="1">
+      <c r="M91" s="1">
         <v>0.2</v>
-      </c>
-      <c r="M91" s="15">
-        <v>2</v>
       </c>
       <c r="N91" s="15">
         <v>2</v>
       </c>
-      <c r="P91" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N91),VLOOKUP(G91,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M91),VLOOKUP(G91,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M91)), NOT(ISBLANK(N91))),VLOOKUP(G91,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O91" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O91),VLOOKUP(H91,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N91),VLOOKUP(H91,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N91)), NOT(ISBLANK(O91))),VLOOKUP(H91,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="Q91" s="1" t="str">
+      <c r="R91" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="R91" s="1" t="str">
+      <c r="S91" s="1" t="str">
         <f t="shared" si="6"/>
         <v>20%的概率</v>
       </c>
-      <c r="S91" s="1">
+      <c r="T91" s="1">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>155</v>
       </c>
@@ -6663,44 +7172,47 @@
         <f t="shared" si="4"/>
         <v>(生物)随机获得5个技能。(玩家)增加5个技能上限</v>
       </c>
-      <c r="F92" s="1" t="str">
-        <f>VLOOKUP(I92,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R92&amp;VLOOKUP(H92,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E92,"#",TEXT(IF(ISBLANK(N92),ABS(M92),ABS(N92))*100,"0")&amp;"%")&amp;Q92</f>
+      <c r="F92" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G92" s="1" t="str">
+        <f>VLOOKUP(J92,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S92&amp;VLOOKUP(I92,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E92,"#",TEXT(IF(ISBLANK(O92),ABS(N92),ABS(O92))*100,"0")&amp;"%")&amp;R92</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L92" s="1">
+      <c r="M92" s="1">
         <v>1</v>
       </c>
-      <c r="M92" s="15">
+      <c r="N92" s="15">
         <v>5</v>
       </c>
-      <c r="N92" s="15"/>
-      <c r="P92" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N92),VLOOKUP(G92,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M92),VLOOKUP(G92,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M92)), NOT(ISBLANK(N92))),VLOOKUP(G92,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O92" s="15"/>
+      <c r="Q92" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O92),VLOOKUP(H92,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N92),VLOOKUP(H92,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N92)), NOT(ISBLANK(O92))),VLOOKUP(H92,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
       </c>
-      <c r="Q92" s="1" t="str">
+      <c r="R92" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R92" s="1" t="str">
+      <c r="S92" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S92" s="1">
+      <c r="T92" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>156</v>
       </c>
@@ -6714,44 +7226,47 @@
         <f t="shared" si="4"/>
         <v>获得1个技能</v>
       </c>
-      <c r="F93" s="1" t="str">
-        <f>VLOOKUP(I93,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R93&amp;VLOOKUP(H93,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E93,"#",TEXT(IF(ISBLANK(N93),ABS(M93),ABS(N93))*100,"0")&amp;"%")&amp;Q93</f>
+      <c r="F93" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G93" s="1" t="str">
+        <f>VLOOKUP(J93,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S93&amp;VLOOKUP(I93,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E93,"#",TEXT(IF(ISBLANK(O93),ABS(N93),ABS(O93))*100,"0")&amp;"%")&amp;R93</f>
         <v>回合开始时30%的概率使自身获得1个技能。</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L93" s="1">
+      <c r="M93" s="1">
         <v>0.3</v>
       </c>
-      <c r="M93" s="15">
+      <c r="N93" s="15">
         <v>1</v>
       </c>
-      <c r="N93" s="15"/>
-      <c r="P93" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N93),VLOOKUP(G93,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M93),VLOOKUP(G93,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M93)), NOT(ISBLANK(N93))),VLOOKUP(G93,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O93" s="15"/>
+      <c r="Q93" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O93),VLOOKUP(H93,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N93),VLOOKUP(H93,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N93)), NOT(ISBLANK(O93))),VLOOKUP(H93,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>获得^个技能</v>
       </c>
-      <c r="Q93" s="1" t="str">
+      <c r="R93" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R93" s="1" t="str">
+      <c r="S93" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S93" s="1">
+      <c r="T93" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>157</v>
       </c>
@@ -6765,45 +7280,48 @@
         <f t="shared" si="4"/>
         <v>跳过回合</v>
       </c>
-      <c r="F94" s="1" t="str">
-        <f>VLOOKUP(I94,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R94&amp;VLOOKUP(H94,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(N94),ABS(M94),ABS(N94))*100,"0")&amp;"%")&amp;Q94</f>
+      <c r="F94" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G94" s="1" t="str">
+        <f>VLOOKUP(J94,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S94&amp;VLOOKUP(I94,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(O94),ABS(N94),ABS(O94))*100,"0")&amp;"%")&amp;R94</f>
         <v>攻击后25%的概率使对手跳过回合，持续2回合。</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K94" s="1">
+      <c r="L94" s="1">
         <v>2</v>
       </c>
-      <c r="L94" s="1">
+      <c r="M94" s="1">
         <v>0.25</v>
       </c>
-      <c r="M94" s="15"/>
       <c r="N94" s="15"/>
-      <c r="P94" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N94),VLOOKUP(G94,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M94),VLOOKUP(G94,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M94)), NOT(ISBLANK(N94))),VLOOKUP(G94,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O94" s="15"/>
+      <c r="Q94" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O94),VLOOKUP(H94,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N94),VLOOKUP(H94,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N94)), NOT(ISBLANK(O94))),VLOOKUP(H94,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="Q94" s="1" t="str">
+      <c r="R94" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R94" s="1" t="str">
+      <c r="S94" s="1" t="str">
         <f t="shared" si="6"/>
         <v>25%的概率</v>
       </c>
-      <c r="S94" s="1">
+      <c r="T94" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>158</v>
       </c>
@@ -6817,47 +7335,50 @@
         <f t="shared" si="4"/>
         <v>-#攻击力</v>
       </c>
-      <c r="F95" s="1" t="str">
-        <f>VLOOKUP(I95,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R95&amp;VLOOKUP(H95,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(N95),ABS(M95),ABS(N95))*100,"0")&amp;"%")&amp;Q95</f>
+      <c r="F95" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G95" s="1" t="str">
+        <f>VLOOKUP(J95,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S95&amp;VLOOKUP(I95,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(O95),ABS(N95),ABS(O95))*100,"0")&amp;"%")&amp;R95</f>
         <v>战斗开始时使对手-50%攻击力，永久</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K95" s="1">
+      <c r="L95" s="1">
         <v>-1</v>
       </c>
-      <c r="L95" s="1">
+      <c r="M95" s="1">
         <v>1</v>
       </c>
-      <c r="M95" s="15">
+      <c r="N95" s="15">
         <v>-0.5</v>
       </c>
-      <c r="N95" s="15"/>
-      <c r="P95" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N95),VLOOKUP(G95,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M95),VLOOKUP(G95,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M95)), NOT(ISBLANK(N95))),VLOOKUP(G95,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O95" s="15"/>
+      <c r="Q95" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O95),VLOOKUP(H95,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N95),VLOOKUP(H95,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N95)), NOT(ISBLANK(O95))),VLOOKUP(H95,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q95" s="1" t="str">
+      <c r="R95" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，永久</v>
       </c>
-      <c r="R95" s="1" t="str">
+      <c r="S95" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S95" s="1">
+      <c r="T95" s="1">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>159</v>
       </c>
@@ -6871,49 +7392,52 @@
         <f t="shared" si="4"/>
         <v>+#最大生命并清除buff，9次</v>
       </c>
-      <c r="F96" s="1" t="str">
-        <f>VLOOKUP(I96,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R96&amp;VLOOKUP(H96,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E96,"#",TEXT(IF(ISBLANK(N96),ABS(M96),ABS(N96))*100,"0")&amp;"%")&amp;Q96</f>
+      <c r="F96" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G96" s="1" t="str">
+        <f>VLOOKUP(J96,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S96&amp;VLOOKUP(I96,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E96,"#",TEXT(IF(ISBLANK(O96),ABS(N96),ABS(O96))*100,"0")&amp;"%")&amp;R96</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，9次。</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J96" s="1">
+      <c r="K96" s="1">
         <v>0</v>
       </c>
-      <c r="L96" s="1">
+      <c r="M96" s="1">
         <v>1</v>
       </c>
-      <c r="M96" s="15">
+      <c r="N96" s="15">
         <v>9</v>
       </c>
-      <c r="N96" s="15">
+      <c r="O96" s="15">
         <v>1</v>
       </c>
-      <c r="P96" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N96),VLOOKUP(G96,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M96),VLOOKUP(G96,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M96)), NOT(ISBLANK(N96))),VLOOKUP(G96,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q96" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O96),VLOOKUP(H96,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N96),VLOOKUP(H96,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N96)), NOT(ISBLANK(O96))),VLOOKUP(H96,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#最大生命并清除buff，^次</v>
       </c>
-      <c r="Q96" s="1" t="str">
+      <c r="R96" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R96" s="1" t="str">
+      <c r="S96" s="1" t="str">
         <f t="shared" si="6"/>
         <v>如果死亡，那么</v>
       </c>
-      <c r="S96" s="1">
+      <c r="T96" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>160</v>
       </c>
@@ -6927,47 +7451,50 @@
         <f t="shared" si="4"/>
         <v>+#攻击力</v>
       </c>
-      <c r="F97" s="1" t="str">
-        <f>VLOOKUP(I97,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R97&amp;VLOOKUP(H97,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(N97),ABS(M97),ABS(N97))*100,"0")&amp;"%")&amp;Q97</f>
+      <c r="F97" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G97" s="1" t="str">
+        <f>VLOOKUP(J97,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S97&amp;VLOOKUP(I97,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(O97),ABS(N97),ABS(O97))*100,"0")&amp;"%")&amp;R97</f>
         <v>回合开始时30%的概率使自身+200%攻击力，持续3回合。</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K97" s="1">
+      <c r="L97" s="1">
         <v>3</v>
       </c>
-      <c r="L97" s="1">
+      <c r="M97" s="1">
         <v>0.3</v>
       </c>
-      <c r="M97" s="15">
+      <c r="N97" s="15">
         <v>2</v>
       </c>
-      <c r="N97" s="15"/>
-      <c r="P97" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N97),VLOOKUP(G97,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M97),VLOOKUP(G97,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M97)), NOT(ISBLANK(N97))),VLOOKUP(G97,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O97" s="15"/>
+      <c r="Q97" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O97),VLOOKUP(H97,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N97),VLOOKUP(H97,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N97)), NOT(ISBLANK(O97))),VLOOKUP(H97,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="Q97" s="1" t="str">
+      <c r="R97" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="R97" s="1" t="str">
+      <c r="S97" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="S97" s="1">
+      <c r="T97" s="1">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>161</v>
       </c>
@@ -6981,44 +7508,47 @@
         <f t="shared" si="4"/>
         <v>-#所受的伤害</v>
       </c>
-      <c r="F98" s="1" t="str">
-        <f>VLOOKUP(I98,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R98&amp;VLOOKUP(H98,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(N98),ABS(M98),ABS(N98))*100,"0")&amp;"%")&amp;Q98</f>
+      <c r="F98" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f>VLOOKUP(J98,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S98&amp;VLOOKUP(I98,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(O98),ABS(N98),ABS(O98))*100,"0")&amp;"%")&amp;R98</f>
         <v>受击时使自身-50%所受的伤害。</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L98" s="1">
+      <c r="M98" s="1">
         <v>1</v>
       </c>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15">
+      <c r="N98" s="15"/>
+      <c r="O98" s="15">
         <v>-0.5</v>
       </c>
-      <c r="P98" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N98),VLOOKUP(G98,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M98),VLOOKUP(G98,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M98)), NOT(ISBLANK(N98))),VLOOKUP(G98,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q98" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O98),VLOOKUP(H98,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N98),VLOOKUP(H98,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N98)), NOT(ISBLANK(O98))),VLOOKUP(H98,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="Q98" s="1" t="str">
+      <c r="R98" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R98" s="1" t="str">
+      <c r="S98" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S98" s="1">
+      <c r="T98" s="1">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>162</v>
       </c>
@@ -7032,45 +7562,48 @@
         <f t="shared" si="4"/>
         <v>跳过回合</v>
       </c>
-      <c r="F99" s="1" t="str">
-        <f>VLOOKUP(I99,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R99&amp;VLOOKUP(H99,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(N99),ABS(M99),ABS(N99))*100,"0")&amp;"%")&amp;Q99</f>
+      <c r="F99" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f>VLOOKUP(J99,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S99&amp;VLOOKUP(I99,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(O99),ABS(N99),ABS(O99))*100,"0")&amp;"%")&amp;R99</f>
         <v>攻击后15%的概率使对手跳过回合，持续3回合。</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="J99" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K99" s="1">
+      <c r="L99" s="1">
         <v>3</v>
       </c>
-      <c r="L99" s="1">
+      <c r="M99" s="1">
         <v>0.15</v>
       </c>
-      <c r="M99" s="15"/>
       <c r="N99" s="15"/>
-      <c r="P99" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N99),VLOOKUP(G99,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M99),VLOOKUP(G99,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M99)), NOT(ISBLANK(N99))),VLOOKUP(G99,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O99" s="15"/>
+      <c r="Q99" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O99),VLOOKUP(H99,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N99),VLOOKUP(H99,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N99)), NOT(ISBLANK(O99))),VLOOKUP(H99,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="Q99" s="1" t="str">
+      <c r="R99" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="R99" s="1" t="str">
+      <c r="S99" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="S99" s="1">
+      <c r="T99" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>163</v>
       </c>
@@ -7084,45 +7617,48 @@
         <f t="shared" si="4"/>
         <v>跳过回合</v>
       </c>
-      <c r="F100" s="1" t="str">
-        <f>VLOOKUP(I100,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R100&amp;VLOOKUP(H100,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(N100),ABS(M100),ABS(N100))*100,"0")&amp;"%")&amp;Q100</f>
+      <c r="F100" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G100" s="1" t="str">
+        <f>VLOOKUP(J100,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S100&amp;VLOOKUP(I100,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(O100),ABS(N100),ABS(O100))*100,"0")&amp;"%")&amp;R100</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K100" s="1">
+      <c r="L100" s="1">
         <v>1</v>
       </c>
-      <c r="L100" s="1">
+      <c r="M100" s="1">
         <v>0.25</v>
       </c>
-      <c r="M100" s="15"/>
       <c r="N100" s="15"/>
-      <c r="P100" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N100),VLOOKUP(G100,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M100),VLOOKUP(G100,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M100)), NOT(ISBLANK(N100))),VLOOKUP(G100,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O100" s="15"/>
+      <c r="Q100" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O100),VLOOKUP(H100,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N100),VLOOKUP(H100,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N100)), NOT(ISBLANK(O100))),VLOOKUP(H100,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="Q100" s="1" t="str">
+      <c r="R100" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="R100" s="1" t="str">
+      <c r="S100" s="1" t="str">
         <f t="shared" si="6"/>
         <v>25%的概率</v>
       </c>
-      <c r="S100" s="1">
+      <c r="T100" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>164</v>
       </c>
@@ -7136,44 +7672,47 @@
         <f t="shared" si="4"/>
         <v>-[#×攻击力]的生命值</v>
       </c>
-      <c r="F101" s="1" t="str">
-        <f>VLOOKUP(I101,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R101&amp;VLOOKUP(H101,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E101,"#",TEXT(IF(ISBLANK(N101),ABS(M101),ABS(N101))*100,"0")&amp;"%")&amp;Q101</f>
+      <c r="F101" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f>VLOOKUP(J101,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S101&amp;VLOOKUP(I101,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E101,"#",TEXT(IF(ISBLANK(O101),ABS(N101),ABS(O101))*100,"0")&amp;"%")&amp;R101</f>
         <v>回合开始时10%的概率使对手-[100%×攻击力]的生命值。</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L101" s="1">
+      <c r="M101" s="1">
         <v>0.1</v>
       </c>
-      <c r="M101" s="15">
+      <c r="N101" s="15">
         <v>-1</v>
       </c>
-      <c r="N101" s="15"/>
-      <c r="P101" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N101),VLOOKUP(G101,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M101),VLOOKUP(G101,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M101)), NOT(ISBLANK(N101))),VLOOKUP(G101,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O101" s="15"/>
+      <c r="Q101" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O101),VLOOKUP(H101,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N101),VLOOKUP(H101,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N101)), NOT(ISBLANK(O101))),VLOOKUP(H101,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="Q101" s="1" t="str">
+      <c r="R101" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R101" s="1" t="str">
+      <c r="S101" s="1" t="str">
         <f t="shared" si="6"/>
         <v>10%的概率</v>
       </c>
-      <c r="S101" s="1">
+      <c r="T101" s="1">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>165</v>
       </c>
@@ -7187,45 +7726,48 @@
         <f t="shared" si="4"/>
         <v>闪避</v>
       </c>
-      <c r="F102" s="1" t="str">
-        <f>VLOOKUP(I102,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R102&amp;VLOOKUP(H102,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E102,"#",TEXT(IF(ISBLANK(N102),ABS(M102),ABS(N102))*100,"0")&amp;"%")&amp;Q102</f>
+      <c r="F102" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f>VLOOKUP(J102,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S102&amp;VLOOKUP(I102,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E102,"#",TEXT(IF(ISBLANK(O102),ABS(N102),ABS(O102))*100,"0")&amp;"%")&amp;R102</f>
         <v>回合开始时15%的概率使自身闪避，持续2回合。</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K102" s="1">
+      <c r="L102" s="1">
         <v>2</v>
       </c>
-      <c r="L102" s="1">
+      <c r="M102" s="1">
         <v>0.15</v>
       </c>
-      <c r="M102" s="15"/>
       <c r="N102" s="15"/>
-      <c r="P102" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N102),VLOOKUP(G102,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M102),VLOOKUP(G102,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M102)), NOT(ISBLANK(N102))),VLOOKUP(G102,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O102" s="15"/>
+      <c r="Q102" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O102),VLOOKUP(H102,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N102),VLOOKUP(H102,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N102)), NOT(ISBLANK(O102))),VLOOKUP(H102,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="Q102" s="1" t="str">
+      <c r="R102" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="R102" s="1" t="str">
+      <c r="S102" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="S102" s="1">
+      <c r="T102" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>166</v>
       </c>
@@ -7239,44 +7781,47 @@
         <f t="shared" si="4"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F103" s="1" t="str">
-        <f>VLOOKUP(I103,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R103&amp;VLOOKUP(H103,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E103,"#",TEXT(IF(ISBLANK(N103),ABS(M103),ABS(N103))*100,"0")&amp;"%")&amp;Q103</f>
+      <c r="F103" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G103" s="1" t="str">
+        <f>VLOOKUP(J103,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S103&amp;VLOOKUP(I103,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E103,"#",TEXT(IF(ISBLANK(O103),ABS(N103),ABS(O103))*100,"0")&amp;"%")&amp;R103</f>
         <v>攻击时80%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L103" s="1">
+      <c r="M103" s="1">
         <v>0.8</v>
       </c>
-      <c r="M103" s="15">
+      <c r="N103" s="15">
         <v>0.5</v>
       </c>
-      <c r="N103" s="15"/>
-      <c r="P103" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N103),VLOOKUP(G103,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M103),VLOOKUP(G103,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M103)), NOT(ISBLANK(N103))),VLOOKUP(G103,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O103" s="15"/>
+      <c r="Q103" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O103),VLOOKUP(H103,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N103),VLOOKUP(H103,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N103)), NOT(ISBLANK(O103))),VLOOKUP(H103,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q103" s="1" t="str">
+      <c r="R103" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R103" s="1" t="str">
+      <c r="S103" s="1" t="str">
         <f t="shared" si="6"/>
         <v>80%的概率</v>
       </c>
-      <c r="S103" s="1">
+      <c r="T103" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>167</v>
       </c>
@@ -7290,44 +7835,47 @@
         <f t="shared" si="4"/>
         <v>获得1个技能</v>
       </c>
-      <c r="F104" s="1" t="str">
-        <f>VLOOKUP(I104,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R104&amp;VLOOKUP(H104,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E104,"#",TEXT(IF(ISBLANK(N104),ABS(M104),ABS(N104))*100,"0")&amp;"%")&amp;Q104</f>
+      <c r="F104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104" s="1" t="str">
+        <f>VLOOKUP(J104,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S104&amp;VLOOKUP(I104,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E104,"#",TEXT(IF(ISBLANK(O104),ABS(N104),ABS(O104))*100,"0")&amp;"%")&amp;R104</f>
         <v>回合开始时50%的概率使自身获得1个技能。</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="I104" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="J104" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L104" s="1">
+      <c r="M104" s="1">
         <v>0.5</v>
       </c>
-      <c r="M104" s="15">
+      <c r="N104" s="15">
         <v>1</v>
       </c>
-      <c r="N104" s="15"/>
-      <c r="P104" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N104),VLOOKUP(G104,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M104),VLOOKUP(G104,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M104)), NOT(ISBLANK(N104))),VLOOKUP(G104,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O104" s="15"/>
+      <c r="Q104" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O104),VLOOKUP(H104,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N104),VLOOKUP(H104,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N104)), NOT(ISBLANK(O104))),VLOOKUP(H104,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>获得^个技能</v>
       </c>
-      <c r="Q104" s="1" t="str">
+      <c r="R104" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R104" s="1" t="str">
+      <c r="S104" s="1" t="str">
         <f t="shared" si="6"/>
         <v>50%的概率</v>
       </c>
-      <c r="S104" s="1">
+      <c r="T104" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>168</v>
       </c>
@@ -7341,44 +7889,47 @@
         <f t="shared" si="4"/>
         <v>禁用1个技能</v>
       </c>
-      <c r="F105" s="1" t="str">
-        <f>VLOOKUP(I105,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R105&amp;VLOOKUP(H105,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E105,"#",TEXT(IF(ISBLANK(N105),ABS(M105),ABS(N105))*100,"0")&amp;"%")&amp;Q105</f>
+      <c r="F105" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G105" s="1" t="str">
+        <f>VLOOKUP(J105,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S105&amp;VLOOKUP(I105,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E105,"#",TEXT(IF(ISBLANK(O105),ABS(N105),ABS(O105))*100,"0")&amp;"%")&amp;R105</f>
         <v>回合开始时60%的概率使对手禁用1个技能。</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="J105" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L105" s="1">
+      <c r="M105" s="1">
         <v>0.6</v>
       </c>
-      <c r="M105" s="15">
+      <c r="N105" s="15">
         <v>1</v>
       </c>
-      <c r="N105" s="15"/>
-      <c r="P105" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N105),VLOOKUP(G105,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M105),VLOOKUP(G105,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M105)), NOT(ISBLANK(N105))),VLOOKUP(G105,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O105" s="15"/>
+      <c r="Q105" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O105),VLOOKUP(H105,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N105),VLOOKUP(H105,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N105)), NOT(ISBLANK(O105))),VLOOKUP(H105,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>禁用^个技能</v>
       </c>
-      <c r="Q105" s="1" t="str">
+      <c r="R105" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R105" s="1" t="str">
+      <c r="S105" s="1" t="str">
         <f t="shared" si="6"/>
         <v>60%的概率</v>
       </c>
-      <c r="S105" s="1">
+      <c r="T105" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>169</v>
       </c>
@@ -7392,44 +7943,47 @@
         <f t="shared" si="4"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F106" s="1" t="str">
-        <f>VLOOKUP(I106,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R106&amp;VLOOKUP(H106,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E106,"#",TEXT(IF(ISBLANK(N106),ABS(M106),ABS(N106))*100,"0")&amp;"%")&amp;Q106</f>
+      <c r="F106" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G106" s="1" t="str">
+        <f>VLOOKUP(J106,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S106&amp;VLOOKUP(I106,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E106,"#",TEXT(IF(ISBLANK(O106),ABS(N106),ABS(O106))*100,"0")&amp;"%")&amp;R106</f>
         <v>攻击时70%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="J106" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L106" s="1">
+      <c r="M106" s="1">
         <v>0.7</v>
       </c>
-      <c r="M106" s="15">
+      <c r="N106" s="15">
         <v>1</v>
       </c>
-      <c r="N106" s="15"/>
-      <c r="P106" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N106),VLOOKUP(G106,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M106),VLOOKUP(G106,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M106)), NOT(ISBLANK(N106))),VLOOKUP(G106,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O106" s="15"/>
+      <c r="Q106" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O106),VLOOKUP(H106,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N106),VLOOKUP(H106,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N106)), NOT(ISBLANK(O106))),VLOOKUP(H106,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q106" s="1" t="str">
+      <c r="R106" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R106" s="1" t="str">
+      <c r="S106" s="1" t="str">
         <f t="shared" si="6"/>
         <v>70%的概率</v>
       </c>
-      <c r="S106" s="1">
+      <c r="T106" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>170</v>
       </c>
@@ -7443,44 +7997,47 @@
         <f t="shared" si="4"/>
         <v>+#造成的伤害</v>
       </c>
-      <c r="F107" s="1" t="str">
-        <f>VLOOKUP(I107,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R107&amp;VLOOKUP(H107,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E107,"#",TEXT(IF(ISBLANK(N107),ABS(M107),ABS(N107))*100,"0")&amp;"%")&amp;Q107</f>
+      <c r="F107" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G107" s="1" t="str">
+        <f>VLOOKUP(J107,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S107&amp;VLOOKUP(I107,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E107,"#",TEXT(IF(ISBLANK(O107),ABS(N107),ABS(O107))*100,"0")&amp;"%")&amp;R107</f>
         <v>攻击时60%的概率使自身+200%造成的伤害。</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L107" s="1">
+      <c r="M107" s="1">
         <v>0.6</v>
       </c>
-      <c r="M107" s="15">
+      <c r="N107" s="15">
         <v>2</v>
       </c>
-      <c r="N107" s="15"/>
-      <c r="P107" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N107),VLOOKUP(G107,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M107),VLOOKUP(G107,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M107)), NOT(ISBLANK(N107))),VLOOKUP(G107,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O107" s="15"/>
+      <c r="Q107" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O107),VLOOKUP(H107,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N107),VLOOKUP(H107,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N107)), NOT(ISBLANK(O107))),VLOOKUP(H107,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="Q107" s="1" t="str">
+      <c r="R107" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R107" s="1" t="str">
+      <c r="S107" s="1" t="str">
         <f t="shared" si="6"/>
         <v>60%的概率</v>
       </c>
-      <c r="S107" s="1">
+      <c r="T107" s="1">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>171</v>
       </c>
@@ -7494,44 +8051,47 @@
         <f t="shared" si="4"/>
         <v>禁用1个技能</v>
       </c>
-      <c r="F108" s="1" t="str">
-        <f>VLOOKUP(I108,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R108&amp;VLOOKUP(H108,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E108,"#",TEXT(IF(ISBLANK(N108),ABS(M108),ABS(N108))*100,"0")&amp;"%")&amp;Q108</f>
+      <c r="F108" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G108" s="1" t="str">
+        <f>VLOOKUP(J108,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S108&amp;VLOOKUP(I108,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E108,"#",TEXT(IF(ISBLANK(O108),ABS(N108),ABS(O108))*100,"0")&amp;"%")&amp;R108</f>
         <v>回合开始时50%的概率使对手禁用1个技能。</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="J108" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L108" s="1">
+      <c r="M108" s="1">
         <v>0.5</v>
       </c>
-      <c r="M108" s="15">
+      <c r="N108" s="15">
         <v>1</v>
       </c>
-      <c r="N108" s="15"/>
-      <c r="P108" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N108),VLOOKUP(G108,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M108),VLOOKUP(G108,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M108)), NOT(ISBLANK(N108))),VLOOKUP(G108,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O108" s="15"/>
+      <c r="Q108" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O108),VLOOKUP(H108,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N108),VLOOKUP(H108,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N108)), NOT(ISBLANK(O108))),VLOOKUP(H108,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>禁用^个技能</v>
       </c>
-      <c r="Q108" s="1" t="str">
+      <c r="R108" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R108" s="1" t="str">
+      <c r="S108" s="1" t="str">
         <f t="shared" si="6"/>
         <v>50%的概率</v>
       </c>
-      <c r="S108" s="1">
+      <c r="T108" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>172</v>
       </c>
@@ -7545,45 +8105,48 @@
         <f t="shared" si="4"/>
         <v>闪避</v>
       </c>
-      <c r="F109" s="1" t="str">
-        <f>VLOOKUP(I109,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R109&amp;VLOOKUP(H109,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E109,"#",TEXT(IF(ISBLANK(N109),ABS(M109),ABS(N109))*100,"0")&amp;"%")&amp;Q109</f>
+      <c r="F109" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G109" s="1" t="str">
+        <f>VLOOKUP(J109,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S109&amp;VLOOKUP(I109,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E109,"#",TEXT(IF(ISBLANK(O109),ABS(N109),ABS(O109))*100,"0")&amp;"%")&amp;R109</f>
         <v>回合开始时15%的概率使自身闪避，持续3回合。</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="J109" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K109" s="1">
+      <c r="L109" s="1">
         <v>3</v>
       </c>
-      <c r="L109" s="1">
+      <c r="M109" s="1">
         <v>0.15</v>
       </c>
-      <c r="M109" s="15"/>
       <c r="N109" s="15"/>
-      <c r="P109" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N109),VLOOKUP(G109,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M109),VLOOKUP(G109,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M109)), NOT(ISBLANK(N109))),VLOOKUP(G109,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O109" s="15"/>
+      <c r="Q109" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O109),VLOOKUP(H109,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N109),VLOOKUP(H109,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N109)), NOT(ISBLANK(O109))),VLOOKUP(H109,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="Q109" s="1" t="str">
+      <c r="R109" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="R109" s="1" t="str">
+      <c r="S109" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="S109" s="1">
+      <c r="T109" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>203</v>
       </c>
@@ -7597,47 +8160,50 @@
         <f t="shared" si="4"/>
         <v>(生物)随机获得X个技能。(玩家)增加5个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</v>
       </c>
-      <c r="F110" s="1" t="str">
-        <f>VLOOKUP(I110,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;R110&amp;VLOOKUP(H110,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E110,"#",TEXT(IF(ISBLANK(N110),ABS(M110),ABS(N110))*100,"0")&amp;"%")&amp;Q110</f>
+      <c r="F110" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G110" s="1" t="str">
+        <f>VLOOKUP(J110,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S110&amp;VLOOKUP(I110,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E110,"#",TEXT(IF(ISBLANK(O110),ABS(N110),ABS(O110))*100,"0")&amp;"%")&amp;R110</f>
         <v>战斗准备阶段使自身(生物)随机获得X个技能。(玩家)增加5个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100。</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="J110" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L110" s="1">
+      <c r="M110" s="1">
         <v>1</v>
       </c>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15">
+      <c r="N110" s="15"/>
+      <c r="O110" s="15">
         <v>5</v>
       </c>
-      <c r="P110" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(N110),VLOOKUP(G110,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(M110),VLOOKUP(G110,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(M110)), NOT(ISBLANK(N110))),VLOOKUP(G110,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="Q110" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(O110),VLOOKUP(H110,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N110),VLOOKUP(H110,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N110)), NOT(ISBLANK(O110))),VLOOKUP(H110,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>(生物)随机获得X个技能。(玩家)增加^个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</v>
       </c>
-      <c r="Q110" s="1" t="str">
+      <c r="R110" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="R110" s="1" t="str">
+      <c r="S110" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S110" s="1">
+      <c r="T110" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A5:A110">
@@ -7654,40 +8220,40 @@
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:E5 F5:L6 F5:F36 N5:N110 T5:XFD110 B6:F110 F7:O12 M7:M110 F13:N24 O13:O26 F25:L25 F26:N26 F27:O110 A111:XFD149">
-    <cfRule type="expression" dxfId="5" priority="10">
+  <conditionalFormatting sqref="B5:F5 G5:M6 G5:G36 O5:O110 U5:XFD110 G7:P12 N7:N110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149 B6:G110">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:E5 F5:L6 N5:R6 F5:F36 N5:N110 T5:XFD110 B6:F110 F7:O12 M7:M110 F13:N24 O13:O26 F25:L25 F26:N26 F27:O110 A111:XFD149 Q6:Q110 P7:R110">
-    <cfRule type="expression" dxfId="4" priority="11">
+  <conditionalFormatting sqref="B5:F5 G5:M6 O5:S6 G5:G36 O5:O110 U5:XFD110 G7:P12 N7:N110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149 R6:R110 Q7:S110 B6:G110">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:E5 F5:L6 N5:R6 F5:F36 N5:N110 T5:XFD110 B6:F110 Q6:Q110 F7:O12 M7:M110 P7:R110 F13:N24 O13:O26 F25:L25 F26:N26 F27:O110 A111:XFD149">
-    <cfRule type="expression" dxfId="3" priority="12">
+  <conditionalFormatting sqref="B5:F5 G5:M6 O5:S6 G5:G36 O5:O110 U5:XFD110 R6:R110 G7:P12 N7:N110 Q7:S110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149 B6:G110">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:L6 B5:D34 T5:XFD34 E5:E110 N5:N110 F5:F149 N6:O12 G7:M149 O13:O26 N27:O34 D35:D110 D111:F149">
+  <conditionalFormatting sqref="H5:M6 B5:D34 U5:XFD34 O5:O110 G5:G149 O6:P12 H7:N149 P13:P26 O27:P34 D35:D110 D111:G149 E5:F110">
     <cfRule type="expression" priority="13">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="2" priority="6">
+  <conditionalFormatting sqref="N5">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:P5 Q5:R6 N6:P6 Q6:Q110 P7:R110">
-    <cfRule type="expression" dxfId="0" priority="5">
+  <conditionalFormatting sqref="N5:Q5 R5:S6 O6:Q6 R6:R110 Q7:S110">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:P5 Q5:R110 P6 P7:R110">
+  <conditionalFormatting sqref="N5:Q5 R5:S110 Q6 Q7:S110">
     <cfRule type="expression" priority="8">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>

--- a/design/MiniTemplate/Excels/#skill.xlsx
+++ b/design/MiniTemplate/Excels/#skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFAC67A-433F-42CE-8061-589F46B7313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2C2E0A-1507-4669-BF9F-4F20C71672A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10236" yWindow="1908" windowWidth="19764" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1279,14 +1279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将对手眩晕1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将对手束缚3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受到伤害降低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1352,6 +1344,13 @@
   </si>
   <si>
     <t>skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将对手眩晕一回合</t>
+  </si>
+  <si>
+    <t>将对手束缚三回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1574,6 +1573,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1589,27 +1609,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2152,8 +2151,8 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2412,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:F69" si="0">SUBSTITUTE(SUBSTITUTE(Q6,"*",_xlfn.IFS(T6&lt;0,"-",T6&gt;0,"+",T6=0,"")),"^",T6)</f>
+        <f t="shared" ref="E6:E69" si="0">SUBSTITUTE(SUBSTITUTE(Q6,"*",_xlfn.IFS(T6&lt;0,"-",T6&gt;0,"+",T6=0,"")),"^",T6)</f>
         <v>-#防御力</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2480,7 +2479,7 @@
         <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>295</v>
@@ -2980,7 +2979,7 @@
         <v>无视闪避</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>VLOOKUP(J16,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S16&amp;VLOOKUP(I16,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(O16),ABS(N16),ABS(O16))*100,"0")&amp;"%")&amp;R16</f>
@@ -3090,7 +3089,7 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>VLOOKUP(J18,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S18&amp;VLOOKUP(I18,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(O18),ABS(N18),ABS(O18))*100,"0")&amp;"%")&amp;R18</f>
@@ -3144,7 +3143,7 @@
         <v>闪避</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G19" s="1" t="str">
         <f>VLOOKUP(J19,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S19&amp;VLOOKUP(I19,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(O19),ABS(N19),ABS(O19))*100,"0")&amp;"%")&amp;R19</f>
@@ -4523,7 +4522,7 @@
         <v>跳过回合</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G44" s="1" t="str">
         <f>VLOOKUP(J44,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S44&amp;VLOOKUP(I44,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(O44),ABS(N44),ABS(O44))*100,"0")&amp;"%")&amp;R44</f>
@@ -4578,7 +4577,7 @@
         <v>闪避</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G45" s="1" t="str">
         <f>VLOOKUP(J45,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S45&amp;VLOOKUP(I45,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(O45),ABS(N45),ABS(O45))*100,"0")&amp;"%")&amp;R45</f>
@@ -4801,7 +4800,7 @@
         <v>-#所受的伤害</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G49" s="1" t="str">
         <f>VLOOKUP(J49,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S49&amp;VLOOKUP(I49,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(O49),ABS(N49),ABS(O49))*100,"0")&amp;"%")&amp;R49</f>
@@ -4855,7 +4854,7 @@
         <v>跳过回合</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G50" s="1" t="str">
         <f>VLOOKUP(J50,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S50&amp;VLOOKUP(I50,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(O50),ABS(N50),ABS(O50))*100,"0")&amp;"%")&amp;R50</f>
@@ -5078,7 +5077,7 @@
         <v>-#防御力</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G54" s="1" t="str">
         <f>VLOOKUP(J54,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S54&amp;VLOOKUP(I54,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(O54),ABS(N54),ABS(O54))*100,"0")&amp;"%")&amp;R54</f>
@@ -5413,7 +5412,7 @@
         <v>+#造成的伤害</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G60" s="1" t="str">
         <f>VLOOKUP(J60,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S60&amp;VLOOKUP(I60,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(O60),ABS(N60),ABS(O60))*100,"0")&amp;"%")&amp;R60</f>
@@ -5904,7 +5903,7 @@
         <v>跳过回合</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="G69" s="1" t="str">
         <f>VLOOKUP(J69,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S69&amp;VLOOKUP(I69,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(O69),ABS(N69),ABS(O69))*100,"0")&amp;"%")&amp;R69</f>
@@ -6013,7 +6012,7 @@
         <v>-#攻击力</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G71" s="1" t="str">
         <f>VLOOKUP(J71,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S71&amp;VLOOKUP(I71,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(O71),ABS(N71),ABS(O71))*100,"0")&amp;"%")&amp;R71</f>
@@ -6342,7 +6341,7 @@
         <v>+#攻击力</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G77" s="1" t="str">
         <f>VLOOKUP(J77,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S77&amp;VLOOKUP(I77,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(O77),ABS(N77),ABS(O77))*100,"0")&amp;"%")&amp;R77</f>
@@ -6399,7 +6398,7 @@
         <v>+#攻击力</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G78" s="1" t="str">
         <f>VLOOKUP(J78,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S78&amp;VLOOKUP(I78,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(O78),ABS(N78),ABS(O78))*100,"0")&amp;"%")&amp;R78</f>
@@ -6456,7 +6455,7 @@
         <v>-#攻击力</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G79" s="1" t="str">
         <f>VLOOKUP(J79,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S79&amp;VLOOKUP(I79,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(O79),ABS(N79),ABS(O79))*100,"0")&amp;"%")&amp;R79</f>
@@ -7114,7 +7113,7 @@
         <v>+#攻防</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G91" s="1" t="str">
         <f>VLOOKUP(J91,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S91&amp;VLOOKUP(I91,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(O91),ABS(N91),ABS(O91))*100,"0")&amp;"%")&amp;R91</f>
@@ -7281,7 +7280,7 @@
         <v>跳过回合</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G94" s="1" t="str">
         <f>VLOOKUP(J94,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S94&amp;VLOOKUP(I94,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(O94),ABS(N94),ABS(O94))*100,"0")&amp;"%")&amp;R94</f>
@@ -7336,7 +7335,7 @@
         <v>-#攻击力</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G95" s="1" t="str">
         <f>VLOOKUP(J95,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S95&amp;VLOOKUP(I95,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(O95),ABS(N95),ABS(O95))*100,"0")&amp;"%")&amp;R95</f>
@@ -7452,7 +7451,7 @@
         <v>+#攻击力</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G97" s="1" t="str">
         <f>VLOOKUP(J97,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S97&amp;VLOOKUP(I97,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(O97),ABS(N97),ABS(O97))*100,"0")&amp;"%")&amp;R97</f>
@@ -7509,7 +7508,7 @@
         <v>-#所受的伤害</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G98" s="1" t="str">
         <f>VLOOKUP(J98,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S98&amp;VLOOKUP(I98,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(O98),ABS(N98),ABS(O98))*100,"0")&amp;"%")&amp;R98</f>
@@ -7563,7 +7562,7 @@
         <v>跳过回合</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="G99" s="1" t="str">
         <f>VLOOKUP(J99,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S99&amp;VLOOKUP(I99,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(O99),ABS(N99),ABS(O99))*100,"0")&amp;"%")&amp;R99</f>
@@ -7618,7 +7617,7 @@
         <v>跳过回合</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="G100" s="1" t="str">
         <f>VLOOKUP(J100,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S100&amp;VLOOKUP(I100,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(O100),ABS(N100),ABS(O100))*100,"0")&amp;"%")&amp;R100</f>
@@ -8220,36 +8219,36 @@
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 G5:M6 G5:G36 O5:O110 U5:XFD110 G7:P12 N7:N110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149 B6:G110">
-    <cfRule type="expression" dxfId="2" priority="10">
+  <conditionalFormatting sqref="B5:F5 G5:M6 G5:G36 O5:O110 U5:XFD110 B6:G110 G7:P12 N7:N110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 G5:M6 O5:S6 G5:G36 O5:O110 U5:XFD110 G7:P12 N7:N110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149 R6:R110 Q7:S110 B6:G110">
-    <cfRule type="expression" dxfId="1" priority="11">
+  <conditionalFormatting sqref="B5:F5 G5:M6 O5:S6 G5:G36 O5:O110 U5:XFD110 B6:G110 G7:P12 N7:N110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149 R6:R110 Q7:S110">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 G5:M6 O5:S6 G5:G36 O5:O110 U5:XFD110 R6:R110 G7:P12 N7:N110 Q7:S110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149 B6:G110">
-    <cfRule type="expression" dxfId="0" priority="12">
+  <conditionalFormatting sqref="B5:F5 G5:M6 O5:S6 G5:G36 O5:O110 U5:XFD110 B6:G110 R6:R110 G7:P12 N7:N110 Q7:S110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:M6 B5:D34 U5:XFD34 O5:O110 G5:G149 O6:P12 H7:N149 P13:P26 O27:P34 D35:D110 D111:G149 E5:F110">
+  <conditionalFormatting sqref="H5:M6 B5:D34 U5:XFD34 E5:F110 O5:O110 G5:G149 O6:P12 H7:N149 P13:P26 O27:P34 D35:D110 D111:G149">
     <cfRule type="expression" priority="13">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:Q5 R5:S6 O6:Q6 R6:R110 Q7:S110">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/design/MiniTemplate/Excels/#skill.xlsx
+++ b/design/MiniTemplate/Excels/#skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2C2E0A-1507-4669-BF9F-4F20C71672A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA52C2-6C9D-48A4-A35C-D28885998936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10236" yWindow="1908" windowWidth="19764" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="419">
   <si>
     <t>##var</t>
   </si>
@@ -1351,6 +1351,13 @@
   </si>
   <si>
     <t>将对手束缚三回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1358,7 +1365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1408,6 +1415,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1440,7 +1453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1489,6 +1502,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1499,7 +1527,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1563,6 +1591,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2148,11 +2181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2163,22 +2196,23 @@
     <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
     <col min="5" max="6" width="31.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="73.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.109375" style="1"/>
-    <col min="17" max="17" width="21.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="42.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="8" width="8.88671875" style="22"/>
+    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1"/>
+    <col min="15" max="15" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="21.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="42.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2200,31 +2234,31 @@
       <c r="G1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="Q1" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="P1" s="20"/>
       <c r="R1" s="2" t="s">
         <v>339</v>
       </c>
@@ -2234,8 +2268,11 @@
       <c r="T1" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,30 +2292,33 @@
       <c r="G2" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2288,22 +2328,23 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8">
-        <v>1</v>
-      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2325,30 +2366,33 @@
       <c r="G4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
@@ -2359,49 +2403,52 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(Q5,"*",_xlfn.IFS(T5&lt;0,"-",T5&gt;0,"+",T5=0,"")),"^",T5)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(R5,"*",_xlfn.IFS(U5&lt;0,"-",U5&gt;0,"+",U5=0,"")),"^",U5)</f>
         <v>+[#×伤害值]的生命值</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>346</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>VLOOKUP(J5,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S5&amp;VLOOKUP(I5,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E5,"#",TEXT(IF(ISBLANK(O5),ABS(N5),ABS(O5))*100,"0")&amp;"%")&amp;R5</f>
+        <f>VLOOKUP(K5,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T5&amp;VLOOKUP(J5,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E5,"#",TEXT(IF(ISBLANK(P5),ABS(O5),ABS(P5))*100,"0")&amp;"%")&amp;S5</f>
         <v>攻击后20%的概率使自身+[50%×伤害值]的生命值。</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>0.2</v>
       </c>
-      <c r="O5" s="15">
+      <c r="P5" s="15">
         <v>0.5</v>
       </c>
-      <c r="Q5" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O5),VLOOKUP(H5,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N5),VLOOKUP(H5,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N5)), NOT(ISBLANK(O5))),VLOOKUP(H5,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R5" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P5),VLOOKUP(I5,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O5),VLOOKUP(I5,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O5)), NOT(ISBLANK(P5))),VLOOKUP(I5,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="R5" s="1" t="str">
-        <f>IF(NOT(ISBLANK(L5))*AND(L5&gt;0),"，持续"&amp;L5&amp;"回合。",IF(L5=-1,"，永久","。"))</f>
+      <c r="S5" s="1" t="str">
+        <f>IF(NOT(ISBLANK(M5))*AND(M5&gt;0),"，持续"&amp;M5&amp;"回合。",IF(M5=-1,"，永久","。"))</f>
         <v>。</v>
       </c>
-      <c r="S5" s="1" t="str">
-        <f>IF(ISBLANK(K5),"","如果"&amp;IF(K5=0,"死亡","生命值&lt;"&amp;TEXT(K5*100,"0")&amp;"%")&amp;"，那么")&amp;IF(M5&lt;1,TEXT(M5*100,"0")&amp;"%的概率","")</f>
+      <c r="T5" s="1" t="str">
+        <f>IF(ISBLANK(L5),"","如果"&amp;IF(L5=0,"死亡","生命值&lt;"&amp;TEXT(L5*100,"0")&amp;"%")&amp;"，那么")&amp;IF(N5&lt;1,TEXT(N5*100,"0")&amp;"%的概率","")</f>
         <v>20%的概率</v>
       </c>
-      <c r="T5" s="1">
-        <f>IF(ISBLANK(N5),O5,N5)</f>
+      <c r="U5" s="1">
+        <f>IF(ISBLANK(O5),P5,O5)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
@@ -2412,52 +2459,55 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E69" si="0">SUBSTITUTE(SUBSTITUTE(Q6,"*",_xlfn.IFS(T6&lt;0,"-",T6&gt;0,"+",T6=0,"")),"^",T6)</f>
+        <f t="shared" ref="E6:E69" si="0">SUBSTITUTE(SUBSTITUTE(R6,"*",_xlfn.IFS(U6&lt;0,"-",U6&gt;0,"+",U6=0,"")),"^",U6)</f>
         <v>-#防御力</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>347</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>VLOOKUP(J6,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S6&amp;VLOOKUP(I6,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E6,"#",TEXT(IF(ISBLANK(O6),ABS(N6),ABS(O6))*100,"0")&amp;"%")&amp;R6</f>
+        <f>VLOOKUP(K6,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T6&amp;VLOOKUP(J6,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E6,"#",TEXT(IF(ISBLANK(P6),ABS(O6),ABS(P6))*100,"0")&amp;"%")&amp;S6</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>0.2</v>
       </c>
-      <c r="O6" s="15">
+      <c r="P6" s="15">
         <v>-0.5</v>
       </c>
-      <c r="Q6" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O6),VLOOKUP(H6,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N6),VLOOKUP(H6,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N6)), NOT(ISBLANK(O6))),VLOOKUP(H6,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R6" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P6),VLOOKUP(I6,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O6),VLOOKUP(I6,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O6)), NOT(ISBLANK(P6))),VLOOKUP(I6,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="R6" s="1" t="str">
-        <f t="shared" ref="R6:R69" si="1">IF(NOT(ISBLANK(L6))*AND(L6&gt;0),"，持续"&amp;L6&amp;"回合。",IF(L6=-1,"，永久","。"))</f>
+      <c r="S6" s="1" t="str">
+        <f t="shared" ref="S6:S69" si="1">IF(NOT(ISBLANK(M6))*AND(M6&gt;0),"，持续"&amp;M6&amp;"回合。",IF(M6=-1,"，永久","。"))</f>
         <v>。</v>
       </c>
-      <c r="S6" s="1" t="str">
-        <f t="shared" ref="S6:S69" si="2">IF(ISBLANK(K6),"","如果"&amp;IF(K6=0,"死亡","生命值&lt;"&amp;TEXT(K6*100,"0")&amp;"%")&amp;"，那么")&amp;IF(M6&lt;1,TEXT(M6*100,"0")&amp;"%的概率","")</f>
+      <c r="T6" s="1" t="str">
+        <f t="shared" ref="T6:T69" si="2">IF(ISBLANK(L6),"","如果"&amp;IF(L6=0,"死亡","生命值&lt;"&amp;TEXT(L6*100,"0")&amp;"%")&amp;"，那么")&amp;IF(N6&lt;1,TEXT(N6*100,"0")&amp;"%的概率","")</f>
         <v>20%的概率</v>
       </c>
-      <c r="T6" s="1">
-        <f t="shared" ref="T6:T69" si="3">IF(ISBLANK(N6),O6,N6)</f>
+      <c r="U6" s="1">
+        <f t="shared" ref="U6:U69" si="3">IF(ISBLANK(O6),P6,O6)</f>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
@@ -2475,44 +2525,47 @@
         <v>348</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>VLOOKUP(J7,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S7&amp;VLOOKUP(I7,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E7,"#",TEXT(IF(ISBLANK(O7),ABS(N7),ABS(O7))*100,"0")&amp;"%")&amp;R7</f>
+        <f>VLOOKUP(K7,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T7&amp;VLOOKUP(J7,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E7,"#",TEXT(IF(ISBLANK(P7),ABS(O7),ABS(P7))*100,"0")&amp;"%")&amp;S7</f>
         <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
       <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
         <v>0.2</v>
       </c>
-      <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="Q7" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O7),VLOOKUP(H7,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N7),VLOOKUP(H7,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N7)), NOT(ISBLANK(O7))),VLOOKUP(H7,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P7" s="15"/>
+      <c r="R7" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P7),VLOOKUP(I7,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O7),VLOOKUP(I7,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O7)), NOT(ISBLANK(P7))),VLOOKUP(I7,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="R7" s="1" t="str">
+      <c r="S7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S7" s="1" t="str">
+      <c r="T7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
@@ -2530,48 +2583,51 @@
         <v>349</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>VLOOKUP(J8,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S8&amp;VLOOKUP(I8,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E8,"#",TEXT(IF(ISBLANK(O8),ABS(N8),ABS(O8))*100,"0")&amp;"%")&amp;R8</f>
+        <f>VLOOKUP(K8,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T8&amp;VLOOKUP(J8,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E8,"#",TEXT(IF(ISBLANK(P8),ABS(O8),ABS(P8))*100,"0")&amp;"%")&amp;S8</f>
         <v>回合开始时使自身+5%攻防，永久</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="22">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>-1</v>
       </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0.05</v>
+      <c r="N8" s="1">
+        <v>1</v>
       </c>
       <c r="O8" s="15">
         <v>0.05</v>
       </c>
-      <c r="Q8" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O8),VLOOKUP(H8,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N8),VLOOKUP(H8,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N8)), NOT(ISBLANK(O8))),VLOOKUP(H8,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P8" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P8),VLOOKUP(I8,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O8),VLOOKUP(I8,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O8)), NOT(ISBLANK(P8))),VLOOKUP(I8,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="R8" s="1" t="str">
+      <c r="S8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S8" s="1" t="str">
+      <c r="T8" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -2589,43 +2645,46 @@
         <v>392</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>VLOOKUP(J9,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S9&amp;VLOOKUP(I9,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E9,"#",TEXT(IF(ISBLANK(O9),ABS(N9),ABS(O9))*100,"0")&amp;"%")&amp;R9</f>
+        <f>VLOOKUP(K9,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T9&amp;VLOOKUP(J9,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E9,"#",TEXT(IF(ISBLANK(P9),ABS(O9),ABS(P9))*100,"0")&amp;"%")&amp;S9</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>0.2</v>
       </c>
-      <c r="N9" s="15">
-        <v>1</v>
-      </c>
-      <c r="O9" s="15"/>
-      <c r="Q9" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O9),VLOOKUP(H9,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N9),VLOOKUP(H9,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N9)), NOT(ISBLANK(O9))),VLOOKUP(H9,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O9" s="15">
+        <v>1</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="R9" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P9),VLOOKUP(I9,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O9),VLOOKUP(I9,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O9)), NOT(ISBLANK(P9))),VLOOKUP(I9,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R9" s="1" t="str">
+      <c r="S9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S9" s="1" t="str">
+      <c r="T9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>81</v>
       </c>
@@ -2643,48 +2702,51 @@
         <v>351</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>VLOOKUP(J10,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S10&amp;VLOOKUP(I10,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E10,"#",TEXT(IF(ISBLANK(O10),ABS(N10),ABS(O10))*100,"0")&amp;"%")&amp;R10</f>
+        <f>VLOOKUP(K10,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T10&amp;VLOOKUP(J10,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E10,"#",TEXT(IF(ISBLANK(P10),ABS(O10),ABS(P10))*100,"0")&amp;"%")&amp;S10</f>
         <v>回合开始时使自身+10%攻防，永久</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="22">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>-1</v>
       </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="15">
-        <v>0.1</v>
+      <c r="N10" s="1">
+        <v>1</v>
       </c>
       <c r="O10" s="15">
         <v>0.1</v>
       </c>
-      <c r="Q10" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O10),VLOOKUP(H10,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N10),VLOOKUP(H10,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N10)), NOT(ISBLANK(O10))),VLOOKUP(H10,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P10),VLOOKUP(I10,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O10),VLOOKUP(I10,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O10)), NOT(ISBLANK(P10))),VLOOKUP(I10,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="R10" s="1" t="str">
+      <c r="S10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S10" s="1" t="str">
+      <c r="T10" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
@@ -2702,48 +2764,51 @@
         <v>352</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>VLOOKUP(J11,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S11&amp;VLOOKUP(I11,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E11,"#",TEXT(IF(ISBLANK(O11),ABS(N11),ABS(O11))*100,"0")&amp;"%")&amp;R11</f>
+        <f>VLOOKUP(K11,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T11&amp;VLOOKUP(J11,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E11,"#",TEXT(IF(ISBLANK(P11),ABS(O11),ABS(P11))*100,"0")&amp;"%")&amp;S11</f>
         <v>回合开始时使对手-5%攻防，永久</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="22">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="15">
-        <v>-0.05</v>
+      <c r="N11" s="1">
+        <v>1</v>
       </c>
       <c r="O11" s="15">
         <v>-0.05</v>
       </c>
-      <c r="Q11" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O11),VLOOKUP(H11,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N11),VLOOKUP(H11,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N11)), NOT(ISBLANK(O11))),VLOOKUP(H11,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P11" s="15">
+        <v>-0.05</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P11),VLOOKUP(I11,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O11),VLOOKUP(I11,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O11)), NOT(ISBLANK(P11))),VLOOKUP(I11,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="R11" s="1" t="str">
+      <c r="S11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S11" s="1" t="str">
+      <c r="T11" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>84</v>
       </c>
@@ -2761,41 +2826,44 @@
         <v>353</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>VLOOKUP(J12,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S12&amp;VLOOKUP(I12,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E12,"#",TEXT(IF(ISBLANK(O12),ABS(N12),ABS(O12))*100,"0")&amp;"%")&amp;R12</f>
+        <f>VLOOKUP(K12,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T12&amp;VLOOKUP(J12,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E12,"#",TEXT(IF(ISBLANK(P12),ABS(O12),ABS(P12))*100,"0")&amp;"%")&amp;S12</f>
         <v>战斗开始时使对手攻防交换。</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="22">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="15"/>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
       <c r="O12" s="15"/>
-      <c r="Q12" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O12),VLOOKUP(H12,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N12),VLOOKUP(H12,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N12)), NOT(ISBLANK(O12))),VLOOKUP(H12,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P12" s="15"/>
+      <c r="R12" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P12),VLOOKUP(I12,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O12),VLOOKUP(I12,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O12)), NOT(ISBLANK(P12))),VLOOKUP(I12,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>攻防交换</v>
       </c>
-      <c r="R12" s="1" t="str">
+      <c r="S12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S12" s="1" t="str">
+      <c r="T12" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
@@ -2813,44 +2881,47 @@
         <v>354</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>VLOOKUP(J13,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S13&amp;VLOOKUP(I13,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E13,"#",TEXT(IF(ISBLANK(O13),ABS(N13),ABS(O13))*100,"0")&amp;"%")&amp;R13</f>
+        <f>VLOOKUP(K13,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T13&amp;VLOOKUP(J13,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E13,"#",TEXT(IF(ISBLANK(P13),ABS(O13),ABS(P13))*100,"0")&amp;"%")&amp;S13</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="22">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>0.2</v>
       </c>
-      <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-      <c r="Q13" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O13),VLOOKUP(H13,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N13),VLOOKUP(H13,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N13)), NOT(ISBLANK(O13))),VLOOKUP(H13,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P13" s="15"/>
+      <c r="R13" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P13),VLOOKUP(I13,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O13),VLOOKUP(I13,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O13)), NOT(ISBLANK(P13))),VLOOKUP(I13,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="R13" s="1" t="str">
+      <c r="S13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S13" s="1" t="str">
+      <c r="T13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
@@ -2868,43 +2939,46 @@
         <v>395</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>VLOOKUP(J14,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S14&amp;VLOOKUP(I14,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E14,"#",TEXT(IF(ISBLANK(O14),ABS(N14),ABS(O14))*100,"0")&amp;"%")&amp;R14</f>
+        <f>VLOOKUP(K14,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T14&amp;VLOOKUP(J14,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E14,"#",TEXT(IF(ISBLANK(P14),ABS(O14),ABS(P14))*100,"0")&amp;"%")&amp;S14</f>
         <v>攻击时20%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="22">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>0.2</v>
       </c>
-      <c r="N14" s="15">
+      <c r="O14" s="15">
         <v>0.5</v>
       </c>
-      <c r="O14" s="15"/>
-      <c r="Q14" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O14),VLOOKUP(H14,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N14),VLOOKUP(H14,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N14)), NOT(ISBLANK(O14))),VLOOKUP(H14,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P14" s="15"/>
+      <c r="R14" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P14),VLOOKUP(I14,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O14),VLOOKUP(I14,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O14)), NOT(ISBLANK(P14))),VLOOKUP(I14,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R14" s="1" t="str">
+      <c r="S14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S14" s="1" t="str">
+      <c r="T14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>86</v>
       </c>
@@ -2922,49 +2996,52 @@
         <v>355</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>VLOOKUP(J15,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S15&amp;VLOOKUP(I15,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E15,"#",TEXT(IF(ISBLANK(O15),ABS(N15),ABS(O15))*100,"0")&amp;"%")&amp;R15</f>
+        <f>VLOOKUP(K15,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T15&amp;VLOOKUP(J15,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E15,"#",TEXT(IF(ISBLANK(P15),ABS(O15),ABS(P15))*100,"0")&amp;"%")&amp;S15</f>
         <v>攻击前如果生命值&lt;50%，那么使自身+30%攻击力，永久</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="22">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>0.5</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>-1</v>
       </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="15">
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="15">
         <v>0.3</v>
       </c>
-      <c r="O15" s="15"/>
-      <c r="Q15" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O15),VLOOKUP(H15,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N15),VLOOKUP(H15,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N15)), NOT(ISBLANK(O15))),VLOOKUP(H15,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P15" s="15"/>
+      <c r="R15" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P15),VLOOKUP(I15,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O15),VLOOKUP(I15,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O15)), NOT(ISBLANK(P15))),VLOOKUP(I15,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R15" s="1" t="str">
+      <c r="S15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S15" s="1" t="str">
+      <c r="T15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>如果生命值&lt;50%，那么</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
@@ -2982,44 +3059,47 @@
         <v>413</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>VLOOKUP(J16,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S16&amp;VLOOKUP(I16,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(O16),ABS(N16),ABS(O16))*100,"0")&amp;"%")&amp;R16</f>
+        <f>VLOOKUP(K16,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T16&amp;VLOOKUP(J16,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(P16),ABS(O16),ABS(P16))*100,"0")&amp;"%")&amp;S16</f>
         <v>攻击时使自身无视闪避。</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="22">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="15"/>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
       <c r="O16" s="15"/>
-      <c r="Q16" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O16),VLOOKUP(H16,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N16),VLOOKUP(H16,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N16)), NOT(ISBLANK(O16))),VLOOKUP(H16,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P16" s="15"/>
+      <c r="R16" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P16),VLOOKUP(I16,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O16),VLOOKUP(I16,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O16)), NOT(ISBLANK(P16))),VLOOKUP(I16,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>无视闪避</v>
       </c>
-      <c r="R16" s="1" t="str">
+      <c r="S16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S16" s="1" t="str">
+      <c r="T16" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>88</v>
       </c>
@@ -3037,44 +3117,47 @@
         <v>356</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>VLOOKUP(J17,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S17&amp;VLOOKUP(I17,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E17,"#",TEXT(IF(ISBLANK(O17),ABS(N17),ABS(O17))*100,"0")&amp;"%")&amp;R17</f>
+        <f>VLOOKUP(K17,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T17&amp;VLOOKUP(J17,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E17,"#",TEXT(IF(ISBLANK(P17),ABS(O17),ABS(P17))*100,"0")&amp;"%")&amp;S17</f>
         <v>攻击后15%的概率使对手放弃攻击，持续2回合。</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="22">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>0.15</v>
       </c>
-      <c r="N17" s="15"/>
       <c r="O17" s="15"/>
-      <c r="Q17" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O17),VLOOKUP(H17,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N17),VLOOKUP(H17,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N17)), NOT(ISBLANK(O17))),VLOOKUP(H17,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P17" s="15"/>
+      <c r="R17" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P17),VLOOKUP(I17,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O17),VLOOKUP(I17,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O17)), NOT(ISBLANK(P17))),VLOOKUP(I17,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R17" s="1" t="str">
+      <c r="S17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S17" s="1" t="str">
+      <c r="T17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>15%的概率</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>199</v>
       </c>
@@ -3092,43 +3175,46 @@
         <v>412</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>VLOOKUP(J18,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S18&amp;VLOOKUP(I18,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(O18),ABS(N18),ABS(O18))*100,"0")&amp;"%")&amp;R18</f>
+        <f>VLOOKUP(K18,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T18&amp;VLOOKUP(J18,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(P18),ABS(O18),ABS(P18))*100,"0")&amp;"%")&amp;S18</f>
         <v>攻击时10%的概率使自身+400%造成的伤害。</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="22">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>0.1</v>
       </c>
-      <c r="N18" s="15">
+      <c r="O18" s="15">
         <v>4</v>
       </c>
-      <c r="O18" s="15"/>
-      <c r="Q18" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O18),VLOOKUP(H18,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N18),VLOOKUP(H18,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N18)), NOT(ISBLANK(O18))),VLOOKUP(H18,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P18" s="15"/>
+      <c r="R18" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P18),VLOOKUP(I18,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O18),VLOOKUP(I18,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O18)), NOT(ISBLANK(P18))),VLOOKUP(I18,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R18" s="1" t="str">
+      <c r="S18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S18" s="1" t="str">
+      <c r="T18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10%的概率</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
@@ -3146,44 +3232,47 @@
         <v>411</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>VLOOKUP(J19,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S19&amp;VLOOKUP(I19,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(O19),ABS(N19),ABS(O19))*100,"0")&amp;"%")&amp;R19</f>
+        <f>VLOOKUP(K19,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T19&amp;VLOOKUP(J19,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(P19),ABS(O19),ABS(P19))*100,"0")&amp;"%")&amp;S19</f>
         <v>攻击后30%的概率使自身闪避，持续2回合。</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="22">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>0.3</v>
       </c>
-      <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="Q19" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O19),VLOOKUP(H19,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N19),VLOOKUP(H19,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N19)), NOT(ISBLANK(O19))),VLOOKUP(H19,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P19" s="15"/>
+      <c r="R19" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P19),VLOOKUP(I19,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O19),VLOOKUP(I19,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O19)), NOT(ISBLANK(P19))),VLOOKUP(I19,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="R19" s="1" t="str">
+      <c r="S19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S19" s="1" t="str">
+      <c r="T19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>323</v>
       </c>
@@ -3201,46 +3290,49 @@
         <v>357</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>VLOOKUP(J20,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S20&amp;VLOOKUP(I20,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E20,"#",TEXT(IF(ISBLANK(O20),ABS(N20),ABS(O20))*100,"0")&amp;"%")&amp;R20</f>
+        <f>VLOOKUP(K20,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T20&amp;VLOOKUP(J20,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E20,"#",TEXT(IF(ISBLANK(P20),ABS(O20),ABS(P20))*100,"0")&amp;"%")&amp;S20</f>
         <v>攻击前20%的概率使对手-50%攻击力，持续2回合。</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="22">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>2</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>0.2</v>
       </c>
-      <c r="N20" s="15">
+      <c r="O20" s="15">
         <v>-0.5</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="Q20" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O20),VLOOKUP(H20,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N20),VLOOKUP(H20,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N20)), NOT(ISBLANK(O20))),VLOOKUP(H20,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P20" s="15"/>
+      <c r="R20" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P20),VLOOKUP(I20,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O20),VLOOKUP(I20,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O20)), NOT(ISBLANK(P20))),VLOOKUP(I20,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R20" s="1" t="str">
+      <c r="S20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S20" s="1" t="str">
+      <c r="T20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
@@ -3258,44 +3350,47 @@
         <v>354</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>VLOOKUP(J21,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S21&amp;VLOOKUP(I21,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E21,"#",TEXT(IF(ISBLANK(O21),ABS(N21),ABS(O21))*100,"0")&amp;"%")&amp;R21</f>
+        <f>VLOOKUP(K21,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T21&amp;VLOOKUP(J21,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E21,"#",TEXT(IF(ISBLANK(P21),ABS(O21),ABS(P21))*100,"0")&amp;"%")&amp;S21</f>
         <v>受击时40%的概率使自身闪避。</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="22">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>0.4</v>
       </c>
-      <c r="N21" s="15"/>
       <c r="O21" s="15"/>
-      <c r="Q21" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O21),VLOOKUP(H21,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N21),VLOOKUP(H21,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N21)), NOT(ISBLANK(O21))),VLOOKUP(H21,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P21" s="15"/>
+      <c r="R21" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P21),VLOOKUP(I21,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O21),VLOOKUP(I21,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O21)), NOT(ISBLANK(P21))),VLOOKUP(I21,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="R21" s="1" t="str">
+      <c r="S21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S21" s="1" t="str">
+      <c r="T21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
@@ -3313,46 +3408,49 @@
         <v>358</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>VLOOKUP(J22,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S22&amp;VLOOKUP(I22,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E22,"#",TEXT(IF(ISBLANK(O22),ABS(N22),ABS(O22))*100,"0")&amp;"%")&amp;R22</f>
+        <f>VLOOKUP(K22,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T22&amp;VLOOKUP(J22,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E22,"#",TEXT(IF(ISBLANK(P22),ABS(O22),ABS(P22))*100,"0")&amp;"%")&amp;S22</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="22">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="15">
-        <v>1</v>
-      </c>
-      <c r="O22" s="15"/>
-      <c r="Q22" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O22),VLOOKUP(H22,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N22),VLOOKUP(H22,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N22)), NOT(ISBLANK(O22))),VLOOKUP(H22,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="15">
+        <v>1</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="R22" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P22),VLOOKUP(I22,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O22),VLOOKUP(I22,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O22)), NOT(ISBLANK(P22))),VLOOKUP(I22,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#最大生命并清除buff，^次</v>
       </c>
-      <c r="R22" s="1" t="str">
+      <c r="S22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S22" s="1" t="str">
+      <c r="T22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>如果死亡，那么</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>321</v>
       </c>
@@ -3370,46 +3468,49 @@
         <v>357</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>VLOOKUP(J23,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S23&amp;VLOOKUP(I23,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E23,"#",TEXT(IF(ISBLANK(O23),ABS(N23),ABS(O23))*100,"0")&amp;"%")&amp;R23</f>
+        <f>VLOOKUP(K23,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T23&amp;VLOOKUP(J23,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E23,"#",TEXT(IF(ISBLANK(P23),ABS(O23),ABS(P23))*100,"0")&amp;"%")&amp;S23</f>
         <v>攻击前使对手-10%攻击力，永久</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="22">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>-1</v>
       </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="15">
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="15">
         <v>-0.1</v>
       </c>
-      <c r="O23" s="15"/>
-      <c r="Q23" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O23),VLOOKUP(H23,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N23),VLOOKUP(H23,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N23)), NOT(ISBLANK(O23))),VLOOKUP(H23,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P23" s="15"/>
+      <c r="R23" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P23),VLOOKUP(I23,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O23),VLOOKUP(I23,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O23)), NOT(ISBLANK(P23))),VLOOKUP(I23,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R23" s="1" t="str">
+      <c r="S23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S23" s="1" t="str">
+      <c r="T23" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <f t="shared" si="3"/>
         <v>-0.1</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>92</v>
       </c>
@@ -3427,44 +3528,47 @@
         <v>354</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>VLOOKUP(J24,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S24&amp;VLOOKUP(I24,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E24,"#",TEXT(IF(ISBLANK(O24),ABS(N24),ABS(O24))*100,"0")&amp;"%")&amp;R24</f>
+        <f>VLOOKUP(K24,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T24&amp;VLOOKUP(J24,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E24,"#",TEXT(IF(ISBLANK(P24),ABS(O24),ABS(P24))*100,"0")&amp;"%")&amp;S24</f>
         <v>受击时50%的概率使自身闪避。</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="22">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>0.5</v>
       </c>
-      <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="Q24" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O24),VLOOKUP(H24,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N24),VLOOKUP(H24,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N24)), NOT(ISBLANK(O24))),VLOOKUP(H24,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P24" s="15"/>
+      <c r="R24" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P24),VLOOKUP(I24,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O24),VLOOKUP(I24,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O24)), NOT(ISBLANK(P24))),VLOOKUP(I24,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="R24" s="1" t="str">
+      <c r="S24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S24" s="1" t="str">
+      <c r="T24" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
@@ -3482,42 +3586,45 @@
         <v>359</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>VLOOKUP(J25,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S25&amp;VLOOKUP(I25,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E25,"#",TEXT(IF(ISBLANK(O25),ABS(N25),ABS(O25))*100,"0")&amp;"%")&amp;R25</f>
+        <f>VLOOKUP(K25,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T25&amp;VLOOKUP(J25,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E25,"#",TEXT(IF(ISBLANK(P25),ABS(O25),ABS(P25))*100,"0")&amp;"%")&amp;S25</f>
         <v>受击后使对手-[40%×伤害值]的生命值。</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="22">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="O25" s="15">
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="15">
         <v>-0.4</v>
       </c>
-      <c r="Q25" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O25),VLOOKUP(H25,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N25),VLOOKUP(H25,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N25)), NOT(ISBLANK(O25))),VLOOKUP(H25,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R25" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P25),VLOOKUP(I25,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O25),VLOOKUP(I25,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O25)), NOT(ISBLANK(P25))),VLOOKUP(I25,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="R25" s="1" t="str">
+      <c r="S25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S25" s="1" t="str">
+      <c r="T25" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>94</v>
       </c>
@@ -3535,43 +3642,46 @@
         <v>392</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>VLOOKUP(J26,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S26&amp;VLOOKUP(I26,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E26,"#",TEXT(IF(ISBLANK(O26),ABS(N26),ABS(O26))*100,"0")&amp;"%")&amp;R26</f>
+        <f>VLOOKUP(K26,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T26&amp;VLOOKUP(J26,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E26,"#",TEXT(IF(ISBLANK(P26),ABS(O26),ABS(P26))*100,"0")&amp;"%")&amp;S26</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="22">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>0.2</v>
       </c>
-      <c r="N26" s="15">
-        <v>1</v>
-      </c>
-      <c r="O26" s="15"/>
-      <c r="Q26" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O26),VLOOKUP(H26,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N26),VLOOKUP(H26,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N26)), NOT(ISBLANK(O26))),VLOOKUP(H26,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O26" s="15">
+        <v>1</v>
+      </c>
+      <c r="P26" s="15"/>
+      <c r="R26" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P26),VLOOKUP(I26,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O26),VLOOKUP(I26,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O26)), NOT(ISBLANK(P26))),VLOOKUP(I26,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R26" s="1" t="str">
+      <c r="S26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S26" s="1" t="str">
+      <c r="T26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>96</v>
       </c>
@@ -3589,44 +3699,47 @@
         <v>360</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>VLOOKUP(J27,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S27&amp;VLOOKUP(I27,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E27,"#",TEXT(IF(ISBLANK(O27),ABS(N27),ABS(O27))*100,"0")&amp;"%")&amp;R27</f>
+        <f>VLOOKUP(K27,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T27&amp;VLOOKUP(J27,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E27,"#",TEXT(IF(ISBLANK(P27),ABS(O27),ABS(P27))*100,"0")&amp;"%")&amp;S27</f>
         <v>攻击时20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="22">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
       <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
         <v>0.2</v>
       </c>
-      <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="Q27" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O27),VLOOKUP(H27,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N27),VLOOKUP(H27,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N27)), NOT(ISBLANK(O27))),VLOOKUP(H27,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P27" s="15"/>
+      <c r="R27" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P27),VLOOKUP(I27,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O27),VLOOKUP(I27,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O27)), NOT(ISBLANK(P27))),VLOOKUP(I27,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R27" s="1" t="str">
+      <c r="S27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S27" s="1" t="str">
+      <c r="T27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
@@ -3644,46 +3757,49 @@
         <v>361</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>VLOOKUP(J28,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S28&amp;VLOOKUP(I28,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E28,"#",TEXT(IF(ISBLANK(O28),ABS(N28),ABS(O28))*100,"0")&amp;"%")&amp;R28</f>
+        <f>VLOOKUP(K28,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T28&amp;VLOOKUP(J28,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E28,"#",TEXT(IF(ISBLANK(P28),ABS(O28),ABS(P28))*100,"0")&amp;"%")&amp;S28</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="22">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>0.2</v>
       </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15">
+      <c r="O28" s="15"/>
+      <c r="P28" s="15">
         <v>-0.5</v>
       </c>
-      <c r="Q28" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O28),VLOOKUP(H28,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N28),VLOOKUP(H28,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N28)), NOT(ISBLANK(O28))),VLOOKUP(H28,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R28" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P28),VLOOKUP(I28,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O28),VLOOKUP(I28,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O28)), NOT(ISBLANK(P28))),VLOOKUP(I28,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="R28" s="1" t="str">
+      <c r="S28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S28" s="1" t="str">
+      <c r="T28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
@@ -3701,43 +3817,46 @@
         <v>396</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>VLOOKUP(J29,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S29&amp;VLOOKUP(I29,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E29,"#",TEXT(IF(ISBLANK(O29),ABS(N29),ABS(O29))*100,"0")&amp;"%")&amp;R29</f>
+        <f>VLOOKUP(K29,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T29&amp;VLOOKUP(J29,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E29,"#",TEXT(IF(ISBLANK(P29),ABS(O29),ABS(P29))*100,"0")&amp;"%")&amp;S29</f>
         <v>攻击时30%的概率使自身+200%造成的伤害。</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="22">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>0.3</v>
       </c>
-      <c r="N29" s="15">
+      <c r="O29" s="15">
         <v>2</v>
       </c>
-      <c r="O29" s="15"/>
-      <c r="Q29" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O29),VLOOKUP(H29,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N29),VLOOKUP(H29,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N29)), NOT(ISBLANK(O29))),VLOOKUP(H29,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P29" s="15"/>
+      <c r="R29" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P29),VLOOKUP(I29,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O29),VLOOKUP(I29,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O29)), NOT(ISBLANK(P29))),VLOOKUP(I29,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R29" s="1" t="str">
+      <c r="S29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S29" s="1" t="str">
+      <c r="T29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
@@ -3755,43 +3874,46 @@
         <v>362</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>VLOOKUP(J30,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S30&amp;VLOOKUP(I30,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E30,"#",TEXT(IF(ISBLANK(O30),ABS(N30),ABS(O30))*100,"0")&amp;"%")&amp;R30</f>
+        <f>VLOOKUP(K30,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T30&amp;VLOOKUP(J30,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E30,"#",TEXT(IF(ISBLANK(P30),ABS(O30),ABS(P30))*100,"0")&amp;"%")&amp;S30</f>
         <v>受击时90%的概率使自身-20%所受的伤害。</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="22">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>0.9</v>
       </c>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15">
+      <c r="O30" s="15"/>
+      <c r="P30" s="15">
         <v>-0.2</v>
       </c>
-      <c r="Q30" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O30),VLOOKUP(H30,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N30),VLOOKUP(H30,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N30)), NOT(ISBLANK(O30))),VLOOKUP(H30,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R30" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P30),VLOOKUP(I30,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O30),VLOOKUP(I30,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O30)), NOT(ISBLANK(P30))),VLOOKUP(I30,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="R30" s="1" t="str">
+      <c r="S30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S30" s="1" t="str">
+      <c r="T30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>90%的概率</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -3809,43 +3931,46 @@
         <v>362</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>VLOOKUP(J31,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S31&amp;VLOOKUP(I31,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E31,"#",TEXT(IF(ISBLANK(O31),ABS(N31),ABS(O31))*100,"0")&amp;"%")&amp;R31</f>
+        <f>VLOOKUP(K31,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T31&amp;VLOOKUP(J31,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E31,"#",TEXT(IF(ISBLANK(P31),ABS(O31),ABS(P31))*100,"0")&amp;"%")&amp;S31</f>
         <v>受击时90%的概率使自身-30%所受的伤害。</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="22">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>0.9</v>
       </c>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15">
+      <c r="O31" s="15"/>
+      <c r="P31" s="15">
         <v>-0.3</v>
       </c>
-      <c r="Q31" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O31),VLOOKUP(H31,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N31),VLOOKUP(H31,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N31)), NOT(ISBLANK(O31))),VLOOKUP(H31,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R31" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P31),VLOOKUP(I31,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O31),VLOOKUP(I31,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O31)), NOT(ISBLANK(P31))),VLOOKUP(I31,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="R31" s="1" t="str">
+      <c r="S31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S31" s="1" t="str">
+      <c r="T31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>90%的概率</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>201</v>
       </c>
@@ -3863,43 +3988,46 @@
         <v>392</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>VLOOKUP(J32,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S32&amp;VLOOKUP(I32,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E32,"#",TEXT(IF(ISBLANK(O32),ABS(N32),ABS(O32))*100,"0")&amp;"%")&amp;R32</f>
+        <f>VLOOKUP(K32,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T32&amp;VLOOKUP(J32,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E32,"#",TEXT(IF(ISBLANK(P32),ABS(O32),ABS(P32))*100,"0")&amp;"%")&amp;S32</f>
         <v>攻击时10%的概率使自身+150%造成的伤害。</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="22">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>0.1</v>
       </c>
-      <c r="N32" s="15">
+      <c r="O32" s="15">
         <v>1.5</v>
       </c>
-      <c r="O32" s="15"/>
-      <c r="Q32" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O32),VLOOKUP(H32,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N32),VLOOKUP(H32,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N32)), NOT(ISBLANK(O32))),VLOOKUP(H32,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P32" s="15"/>
+      <c r="R32" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P32),VLOOKUP(I32,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O32),VLOOKUP(I32,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O32)), NOT(ISBLANK(P32))),VLOOKUP(I32,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R32" s="1" t="str">
+      <c r="S32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S32" s="1" t="str">
+      <c r="T32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10%的概率</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>101</v>
       </c>
@@ -3917,43 +4045,46 @@
         <v>392</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>VLOOKUP(J33,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S33&amp;VLOOKUP(I33,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E33,"#",TEXT(IF(ISBLANK(O33),ABS(N33),ABS(O33))*100,"0")&amp;"%")&amp;R33</f>
+        <f>VLOOKUP(K33,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T33&amp;VLOOKUP(J33,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E33,"#",TEXT(IF(ISBLANK(P33),ABS(O33),ABS(P33))*100,"0")&amp;"%")&amp;S33</f>
         <v>攻击时25%的概率使自身+150%造成的伤害。</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="22">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>0.25</v>
       </c>
-      <c r="N33" s="15">
+      <c r="O33" s="15">
         <v>1.5</v>
       </c>
-      <c r="O33" s="15"/>
-      <c r="Q33" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O33),VLOOKUP(H33,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N33),VLOOKUP(H33,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N33)), NOT(ISBLANK(O33))),VLOOKUP(H33,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P33" s="15"/>
+      <c r="R33" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P33),VLOOKUP(I33,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O33),VLOOKUP(I33,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O33)), NOT(ISBLANK(P33))),VLOOKUP(I33,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R33" s="1" t="str">
+      <c r="S33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S33" s="1" t="str">
+      <c r="T33" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
@@ -3971,43 +4102,46 @@
         <v>363</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>VLOOKUP(J34,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S34&amp;VLOOKUP(I34,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E34,"#",TEXT(IF(ISBLANK(O34),ABS(N34),ABS(O34))*100,"0")&amp;"%")&amp;R34</f>
+        <f>VLOOKUP(K34,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T34&amp;VLOOKUP(J34,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E34,"#",TEXT(IF(ISBLANK(P34),ABS(O34),ABS(P34))*100,"0")&amp;"%")&amp;S34</f>
         <v>受击后使对手-[50%×伤害值]的生命值。</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="22">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15">
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15">
         <v>-0.5</v>
       </c>
-      <c r="Q34" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O34),VLOOKUP(H34,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N34),VLOOKUP(H34,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N34)), NOT(ISBLANK(O34))),VLOOKUP(H34,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R34" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P34),VLOOKUP(I34,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O34),VLOOKUP(I34,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O34)), NOT(ISBLANK(P34))),VLOOKUP(I34,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="R34" s="1" t="str">
+      <c r="S34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S34" s="1" t="str">
+      <c r="T34" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>100</v>
       </c>
@@ -4025,43 +4159,46 @@
         <v>364</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>VLOOKUP(J35,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S35&amp;VLOOKUP(I35,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E35,"#",TEXT(IF(ISBLANK(O35),ABS(N35),ABS(O35))*100,"0")&amp;"%")&amp;R35</f>
+        <f>VLOOKUP(K35,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T35&amp;VLOOKUP(J35,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E35,"#",TEXT(IF(ISBLANK(P35),ABS(O35),ABS(P35))*100,"0")&amp;"%")&amp;S35</f>
         <v>回合开始时50%的概率使自身+[40%×攻击力]的生命值。</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="22">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>0.5</v>
       </c>
-      <c r="N35" s="15">
+      <c r="O35" s="15">
         <v>0.4</v>
       </c>
-      <c r="O35" s="15"/>
-      <c r="Q35" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O35),VLOOKUP(H35,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N35),VLOOKUP(H35,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N35)), NOT(ISBLANK(O35))),VLOOKUP(H35,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P35" s="15"/>
+      <c r="R35" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P35),VLOOKUP(I35,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O35),VLOOKUP(I35,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O35)), NOT(ISBLANK(P35))),VLOOKUP(I35,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="R35" s="1" t="str">
+      <c r="S35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S35" s="1" t="str">
+      <c r="T35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T35" s="1">
+      <c r="U35" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
@@ -4079,44 +4216,47 @@
         <v>365</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>VLOOKUP(J36,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S36&amp;VLOOKUP(I36,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E36,"#",TEXT(IF(ISBLANK(O36),ABS(N36),ABS(O36))*100,"0")&amp;"%")&amp;R36</f>
+        <f>VLOOKUP(K36,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T36&amp;VLOOKUP(J36,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E36,"#",TEXT(IF(ISBLANK(P36),ABS(O36),ABS(P36))*100,"0")&amp;"%")&amp;S36</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="22">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L36" s="1">
-        <v>1</v>
-      </c>
       <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
         <v>0.25</v>
       </c>
-      <c r="N36" s="15"/>
       <c r="O36" s="15"/>
-      <c r="Q36" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O36),VLOOKUP(H36,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N36),VLOOKUP(H36,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N36)), NOT(ISBLANK(O36))),VLOOKUP(H36,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P36" s="15"/>
+      <c r="R36" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P36),VLOOKUP(I36,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O36),VLOOKUP(I36,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O36)), NOT(ISBLANK(P36))),VLOOKUP(I36,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="R36" s="1" t="str">
+      <c r="S36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S36" s="1" t="str">
+      <c r="T36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T36" s="1">
+      <c r="U36" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>103</v>
       </c>
@@ -4134,44 +4274,47 @@
         <v>366</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>VLOOKUP(J37,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S37&amp;VLOOKUP(I37,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E37,"#",TEXT(IF(ISBLANK(O37),ABS(N37),ABS(O37))*100,"0")&amp;"%")&amp;R37</f>
+        <f>VLOOKUP(K37,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T37&amp;VLOOKUP(J37,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E37,"#",TEXT(IF(ISBLANK(P37),ABS(O37),ABS(P37))*100,"0")&amp;"%")&amp;S37</f>
         <v>受击前25%的概率使对手放弃攻击。</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="22">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>0</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>0.25</v>
       </c>
-      <c r="N37" s="15"/>
       <c r="O37" s="15"/>
-      <c r="Q37" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O37),VLOOKUP(H37,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N37),VLOOKUP(H37,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N37)), NOT(ISBLANK(O37))),VLOOKUP(H37,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P37" s="15"/>
+      <c r="R37" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P37),VLOOKUP(I37,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O37),VLOOKUP(I37,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O37)), NOT(ISBLANK(P37))),VLOOKUP(I37,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R37" s="1" t="str">
+      <c r="S37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S37" s="1" t="str">
+      <c r="T37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T37" s="1">
+      <c r="U37" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>105</v>
       </c>
@@ -4189,46 +4332,49 @@
         <v>367</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>VLOOKUP(J38,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S38&amp;VLOOKUP(I38,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E38,"#",TEXT(IF(ISBLANK(O38),ABS(N38),ABS(O38))*100,"0")&amp;"%")&amp;R38</f>
+        <f>VLOOKUP(K38,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T38&amp;VLOOKUP(J38,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E38,"#",TEXT(IF(ISBLANK(P38),ABS(O38),ABS(P38))*100,"0")&amp;"%")&amp;S38</f>
         <v>战斗开始时使对手-30%攻击力，永久</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="22">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>-1</v>
       </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="15">
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="15">
         <v>-0.3</v>
       </c>
-      <c r="O38" s="15"/>
-      <c r="Q38" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O38),VLOOKUP(H38,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N38),VLOOKUP(H38,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N38)), NOT(ISBLANK(O38))),VLOOKUP(H38,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P38" s="15"/>
+      <c r="R38" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P38),VLOOKUP(I38,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O38),VLOOKUP(I38,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O38)), NOT(ISBLANK(P38))),VLOOKUP(I38,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R38" s="1" t="str">
+      <c r="S38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S38" s="1" t="str">
+      <c r="T38" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T38" s="1">
+      <c r="U38" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>107</v>
       </c>
@@ -4246,43 +4392,46 @@
         <v>368</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>VLOOKUP(J39,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S39&amp;VLOOKUP(I39,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E39,"#",TEXT(IF(ISBLANK(O39),ABS(N39),ABS(O39))*100,"0")&amp;"%")&amp;R39</f>
+        <f>VLOOKUP(K39,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T39&amp;VLOOKUP(J39,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E39,"#",TEXT(IF(ISBLANK(P39),ABS(O39),ABS(P39))*100,"0")&amp;"%")&amp;S39</f>
         <v>战斗准备阶段使对手禁用3个技能。</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="22">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="15">
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="15">
         <v>3</v>
       </c>
-      <c r="O39" s="15"/>
-      <c r="Q39" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O39),VLOOKUP(H39,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N39),VLOOKUP(H39,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N39)), NOT(ISBLANK(O39))),VLOOKUP(H39,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P39" s="15"/>
+      <c r="R39" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P39),VLOOKUP(I39,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O39),VLOOKUP(I39,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O39)), NOT(ISBLANK(P39))),VLOOKUP(I39,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>禁用^个技能</v>
       </c>
-      <c r="R39" s="1" t="str">
+      <c r="S39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S39" s="1" t="str">
+      <c r="T39" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T39" s="1">
+      <c r="U39" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
@@ -4300,46 +4449,49 @@
         <v>369</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>VLOOKUP(J40,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S40&amp;VLOOKUP(I40,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E40,"#",TEXT(IF(ISBLANK(O40),ABS(N40),ABS(O40))*100,"0")&amp;"%")&amp;R40</f>
+        <f>VLOOKUP(K40,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T40&amp;VLOOKUP(J40,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E40,"#",TEXT(IF(ISBLANK(P40),ABS(O40),ABS(P40))*100,"0")&amp;"%")&amp;S40</f>
         <v>战斗开始时50%的概率使自身+100%攻击力，永久</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="22">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>-1</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <v>0.5</v>
       </c>
-      <c r="N40" s="15">
-        <v>1</v>
-      </c>
-      <c r="O40" s="15"/>
-      <c r="Q40" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O40),VLOOKUP(H40,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N40),VLOOKUP(H40,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N40)), NOT(ISBLANK(O40))),VLOOKUP(H40,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O40" s="15">
+        <v>1</v>
+      </c>
+      <c r="P40" s="15"/>
+      <c r="R40" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P40),VLOOKUP(I40,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O40),VLOOKUP(I40,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O40)), NOT(ISBLANK(P40))),VLOOKUP(I40,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R40" s="1" t="str">
+      <c r="S40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S40" s="1" t="str">
+      <c r="T40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T40" s="1">
+      <c r="U40" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>109</v>
       </c>
@@ -4357,44 +4509,47 @@
         <v>370</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>VLOOKUP(J41,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S41&amp;VLOOKUP(I41,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E41,"#",TEXT(IF(ISBLANK(O41),ABS(N41),ABS(O41))*100,"0")&amp;"%")&amp;R41</f>
+        <f>VLOOKUP(K41,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T41&amp;VLOOKUP(J41,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E41,"#",TEXT(IF(ISBLANK(P41),ABS(O41),ABS(P41))*100,"0")&amp;"%")&amp;S41</f>
         <v>攻击后30%的概率使对手放弃攻击，持续1回合。</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="22">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L41" s="1">
-        <v>1</v>
-      </c>
       <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
         <v>0.3</v>
       </c>
-      <c r="N41" s="15"/>
       <c r="O41" s="15"/>
-      <c r="Q41" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O41),VLOOKUP(H41,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N41),VLOOKUP(H41,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N41)), NOT(ISBLANK(O41))),VLOOKUP(H41,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P41" s="15"/>
+      <c r="R41" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P41),VLOOKUP(I41,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O41),VLOOKUP(I41,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O41)), NOT(ISBLANK(P41))),VLOOKUP(I41,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R41" s="1" t="str">
+      <c r="S41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S41" s="1" t="str">
+      <c r="T41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T41" s="1">
+      <c r="U41" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>110</v>
       </c>
@@ -4412,48 +4567,51 @@
         <v>371</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>VLOOKUP(J42,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S42&amp;VLOOKUP(I42,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E42,"#",TEXT(IF(ISBLANK(O42),ABS(N42),ABS(O42))*100,"0")&amp;"%")&amp;R42</f>
+        <f>VLOOKUP(K42,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T42&amp;VLOOKUP(J42,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E42,"#",TEXT(IF(ISBLANK(P42),ABS(O42),ABS(P42))*100,"0")&amp;"%")&amp;S42</f>
         <v>受击后30%的概率使对手-30%攻防，永久</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="22">
+        <v>4</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>-1</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <v>0.3</v>
-      </c>
-      <c r="N42" s="15">
-        <v>-0.3</v>
       </c>
       <c r="O42" s="15">
         <v>-0.3</v>
       </c>
-      <c r="Q42" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O42),VLOOKUP(H42,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N42),VLOOKUP(H42,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N42)), NOT(ISBLANK(O42))),VLOOKUP(H42,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P42" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="R42" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P42),VLOOKUP(I42,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O42),VLOOKUP(I42,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O42)), NOT(ISBLANK(P42))),VLOOKUP(I42,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="R42" s="1" t="str">
+      <c r="S42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S42" s="1" t="str">
+      <c r="T42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T42" s="1">
+      <c r="U42" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
@@ -4471,43 +4629,46 @@
         <v>395</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>VLOOKUP(J43,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S43&amp;VLOOKUP(I43,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E43,"#",TEXT(IF(ISBLANK(O43),ABS(N43),ABS(O43))*100,"0")&amp;"%")&amp;R43</f>
+        <f>VLOOKUP(K43,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T43&amp;VLOOKUP(J43,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E43,"#",TEXT(IF(ISBLANK(P43),ABS(O43),ABS(P43))*100,"0")&amp;"%")&amp;S43</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="22">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="1">
         <v>0.4</v>
       </c>
-      <c r="N43" s="15">
+      <c r="O43" s="15">
         <v>0.5</v>
       </c>
-      <c r="O43" s="15"/>
-      <c r="Q43" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O43),VLOOKUP(H43,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N43),VLOOKUP(H43,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N43)), NOT(ISBLANK(O43))),VLOOKUP(H43,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P43" s="15"/>
+      <c r="R43" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P43),VLOOKUP(I43,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O43),VLOOKUP(I43,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O43)), NOT(ISBLANK(P43))),VLOOKUP(I43,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R43" s="1" t="str">
+      <c r="S43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S43" s="1" t="str">
+      <c r="T43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T43" s="1">
+      <c r="U43" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
@@ -4525,44 +4686,47 @@
         <v>409</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>VLOOKUP(J44,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S44&amp;VLOOKUP(I44,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(O44),ABS(N44),ABS(O44))*100,"0")&amp;"%")&amp;R44</f>
+        <f>VLOOKUP(K44,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T44&amp;VLOOKUP(J44,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(P44),ABS(O44),ABS(P44))*100,"0")&amp;"%")&amp;S44</f>
         <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="22">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
       <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
         <v>0.2</v>
       </c>
-      <c r="N44" s="15"/>
       <c r="O44" s="15"/>
-      <c r="Q44" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O44),VLOOKUP(H44,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N44),VLOOKUP(H44,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N44)), NOT(ISBLANK(O44))),VLOOKUP(H44,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P44" s="15"/>
+      <c r="R44" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P44),VLOOKUP(I44,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O44),VLOOKUP(I44,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O44)), NOT(ISBLANK(P44))),VLOOKUP(I44,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="R44" s="1" t="str">
+      <c r="S44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S44" s="1" t="str">
+      <c r="T44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T44" s="1">
+      <c r="U44" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>112</v>
       </c>
@@ -4580,44 +4744,47 @@
         <v>410</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>VLOOKUP(J45,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S45&amp;VLOOKUP(I45,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(O45),ABS(N45),ABS(O45))*100,"0")&amp;"%")&amp;R45</f>
+        <f>VLOOKUP(K45,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T45&amp;VLOOKUP(J45,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(P45),ABS(O45),ABS(P45))*100,"0")&amp;"%")&amp;S45</f>
         <v>攻击后20%的概率使自身闪避，持续1回合。</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="22">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
       <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
         <v>0.2</v>
       </c>
-      <c r="N45" s="15"/>
       <c r="O45" s="15"/>
-      <c r="Q45" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O45),VLOOKUP(H45,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N45),VLOOKUP(H45,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N45)), NOT(ISBLANK(O45))),VLOOKUP(H45,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P45" s="15"/>
+      <c r="R45" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P45),VLOOKUP(I45,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O45),VLOOKUP(I45,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O45)), NOT(ISBLANK(P45))),VLOOKUP(I45,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="R45" s="1" t="str">
+      <c r="S45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S45" s="1" t="str">
+      <c r="T45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T45" s="1">
+      <c r="U45" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>113</v>
       </c>
@@ -4635,46 +4802,49 @@
         <v>372</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>VLOOKUP(J46,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S46&amp;VLOOKUP(I46,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E46,"#",TEXT(IF(ISBLANK(O46),ABS(N46),ABS(O46))*100,"0")&amp;"%")&amp;R46</f>
+        <f>VLOOKUP(K46,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T46&amp;VLOOKUP(J46,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E46,"#",TEXT(IF(ISBLANK(P46),ABS(O46),ABS(P46))*100,"0")&amp;"%")&amp;S46</f>
         <v>攻击时20%的概率使对手-100%防御力。</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="22">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46" s="1">
         <v>0.2</v>
       </c>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15">
+      <c r="O46" s="15"/>
+      <c r="P46" s="15">
         <v>-1</v>
       </c>
-      <c r="Q46" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O46),VLOOKUP(H46,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N46),VLOOKUP(H46,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N46)), NOT(ISBLANK(O46))),VLOOKUP(H46,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R46" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P46),VLOOKUP(I46,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O46),VLOOKUP(I46,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O46)), NOT(ISBLANK(P46))),VLOOKUP(I46,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="R46" s="1" t="str">
+      <c r="S46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S46" s="1" t="str">
+      <c r="T46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T46" s="1">
+      <c r="U46" s="1">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
@@ -4692,46 +4862,49 @@
         <v>373</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>VLOOKUP(J47,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S47&amp;VLOOKUP(I47,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E47,"#",TEXT(IF(ISBLANK(O47),ABS(N47),ABS(O47))*100,"0")&amp;"%")&amp;R47</f>
+        <f>VLOOKUP(K47,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T47&amp;VLOOKUP(J47,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E47,"#",TEXT(IF(ISBLANK(P47),ABS(O47),ABS(P47))*100,"0")&amp;"%")&amp;S47</f>
         <v>回合开始时20%的概率使自身+50%防御力，持续1回合。</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="22">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L47" s="1">
-        <v>1</v>
-      </c>
       <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
         <v>0.2</v>
       </c>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15">
+      <c r="O47" s="15"/>
+      <c r="P47" s="15">
         <v>0.5</v>
       </c>
-      <c r="Q47" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O47),VLOOKUP(H47,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N47),VLOOKUP(H47,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N47)), NOT(ISBLANK(O47))),VLOOKUP(H47,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R47" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P47),VLOOKUP(I47,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O47),VLOOKUP(I47,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O47)), NOT(ISBLANK(P47))),VLOOKUP(I47,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="R47" s="1" t="str">
+      <c r="S47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S47" s="1" t="str">
+      <c r="T47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T47" s="1">
+      <c r="U47" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>115</v>
       </c>
@@ -4749,43 +4922,46 @@
         <v>392</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>VLOOKUP(J48,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S48&amp;VLOOKUP(I48,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E48,"#",TEXT(IF(ISBLANK(O48),ABS(N48),ABS(O48))*100,"0")&amp;"%")&amp;R48</f>
+        <f>VLOOKUP(K48,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T48&amp;VLOOKUP(J48,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E48,"#",TEXT(IF(ISBLANK(P48),ABS(O48),ABS(P48))*100,"0")&amp;"%")&amp;S48</f>
         <v>攻击时25%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="22">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48" s="1">
         <v>0.25</v>
       </c>
-      <c r="N48" s="15">
-        <v>1</v>
-      </c>
-      <c r="O48" s="15"/>
-      <c r="Q48" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O48),VLOOKUP(H48,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N48),VLOOKUP(H48,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N48)), NOT(ISBLANK(O48))),VLOOKUP(H48,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O48" s="15">
+        <v>1</v>
+      </c>
+      <c r="P48" s="15"/>
+      <c r="R48" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P48),VLOOKUP(I48,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O48),VLOOKUP(I48,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O48)), NOT(ISBLANK(P48))),VLOOKUP(I48,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R48" s="1" t="str">
+      <c r="S48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S48" s="1" t="str">
+      <c r="T48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T48" s="1">
+      <c r="U48" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>116</v>
       </c>
@@ -4803,43 +4979,46 @@
         <v>408</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>VLOOKUP(J49,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S49&amp;VLOOKUP(I49,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(O49),ABS(N49),ABS(O49))*100,"0")&amp;"%")&amp;R49</f>
+        <f>VLOOKUP(K49,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T49&amp;VLOOKUP(J49,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(P49),ABS(O49),ABS(P49))*100,"0")&amp;"%")&amp;S49</f>
         <v>受击时50%的概率使自身-30%所受的伤害。</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="22">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <v>0.5</v>
       </c>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15">
+      <c r="O49" s="15"/>
+      <c r="P49" s="15">
         <v>-0.3</v>
       </c>
-      <c r="Q49" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O49),VLOOKUP(H49,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N49),VLOOKUP(H49,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N49)), NOT(ISBLANK(O49))),VLOOKUP(H49,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R49" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P49),VLOOKUP(I49,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O49),VLOOKUP(I49,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O49)), NOT(ISBLANK(P49))),VLOOKUP(I49,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="R49" s="1" t="str">
+      <c r="S49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S49" s="1" t="str">
+      <c r="T49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T49" s="1">
+      <c r="U49" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
@@ -4857,44 +5036,47 @@
         <v>401</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>VLOOKUP(J50,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S50&amp;VLOOKUP(I50,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(O50),ABS(N50),ABS(O50))*100,"0")&amp;"%")&amp;R50</f>
+        <f>VLOOKUP(K50,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T50&amp;VLOOKUP(J50,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(P50),ABS(O50),ABS(P50))*100,"0")&amp;"%")&amp;S50</f>
         <v>攻击后10%的概率使对手跳过回合，持续2回合。</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="22">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <v>2</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50" s="1">
         <v>0.1</v>
       </c>
-      <c r="N50" s="15"/>
       <c r="O50" s="15"/>
-      <c r="Q50" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O50),VLOOKUP(H50,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N50),VLOOKUP(H50,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N50)), NOT(ISBLANK(O50))),VLOOKUP(H50,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P50" s="15"/>
+      <c r="R50" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P50),VLOOKUP(I50,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O50),VLOOKUP(I50,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O50)), NOT(ISBLANK(P50))),VLOOKUP(I50,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="R50" s="1" t="str">
+      <c r="S50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S50" s="1" t="str">
+      <c r="T50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10%的概率</v>
       </c>
-      <c r="T50" s="1">
+      <c r="U50" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
@@ -4912,46 +5094,49 @@
         <v>357</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>VLOOKUP(J51,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S51&amp;VLOOKUP(I51,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E51,"#",TEXT(IF(ISBLANK(O51),ABS(N51),ABS(O51))*100,"0")&amp;"%")&amp;R51</f>
+        <f>VLOOKUP(K51,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T51&amp;VLOOKUP(J51,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E51,"#",TEXT(IF(ISBLANK(P51),ABS(O51),ABS(P51))*100,"0")&amp;"%")&amp;S51</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续2回合。</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="22">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <v>2</v>
       </c>
-      <c r="M51" s="1">
+      <c r="N51" s="1">
         <v>0.3</v>
       </c>
-      <c r="N51" s="15">
+      <c r="O51" s="15">
         <v>-0.3</v>
       </c>
-      <c r="O51" s="15"/>
-      <c r="Q51" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O51),VLOOKUP(H51,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N51),VLOOKUP(H51,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N51)), NOT(ISBLANK(O51))),VLOOKUP(H51,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P51" s="15"/>
+      <c r="R51" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P51),VLOOKUP(I51,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O51),VLOOKUP(I51,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O51)), NOT(ISBLANK(P51))),VLOOKUP(I51,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R51" s="1" t="str">
+      <c r="S51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S51" s="1" t="str">
+      <c r="T51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T51" s="1">
+      <c r="U51" s="1">
         <f t="shared" si="3"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>322</v>
       </c>
@@ -4969,46 +5154,49 @@
         <v>374</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>VLOOKUP(J52,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S52&amp;VLOOKUP(I52,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E52,"#",TEXT(IF(ISBLANK(O52),ABS(N52),ABS(O52))*100,"0")&amp;"%")&amp;R52</f>
+        <f>VLOOKUP(K52,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T52&amp;VLOOKUP(J52,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E52,"#",TEXT(IF(ISBLANK(P52),ABS(O52),ABS(P52))*100,"0")&amp;"%")&amp;S52</f>
         <v>攻击后70%的概率使对手-5%攻击力，永久</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="22">
+        <v>4</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <v>-1</v>
       </c>
-      <c r="M52" s="1">
+      <c r="N52" s="1">
         <v>0.7</v>
       </c>
-      <c r="N52" s="15">
+      <c r="O52" s="15">
         <v>-0.05</v>
       </c>
-      <c r="O52" s="15"/>
-      <c r="Q52" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O52),VLOOKUP(H52,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N52),VLOOKUP(H52,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N52)), NOT(ISBLANK(O52))),VLOOKUP(H52,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P52" s="15"/>
+      <c r="R52" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P52),VLOOKUP(I52,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O52),VLOOKUP(I52,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O52)), NOT(ISBLANK(P52))),VLOOKUP(I52,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R52" s="1" t="str">
+      <c r="S52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S52" s="1" t="str">
+      <c r="T52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>70%的概率</v>
       </c>
-      <c r="T52" s="1">
+      <c r="U52" s="1">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>119</v>
       </c>
@@ -5026,43 +5214,46 @@
         <v>346</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>VLOOKUP(J53,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S53&amp;VLOOKUP(I53,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E53,"#",TEXT(IF(ISBLANK(O53),ABS(N53),ABS(O53))*100,"0")&amp;"%")&amp;R53</f>
+        <f>VLOOKUP(K53,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T53&amp;VLOOKUP(J53,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E53,"#",TEXT(IF(ISBLANK(P53),ABS(O53),ABS(P53))*100,"0")&amp;"%")&amp;S53</f>
         <v>攻击后20%的概率使自身+[100%×攻击力]的生命值。</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="22">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <v>0.2</v>
       </c>
-      <c r="N53" s="15">
-        <v>1</v>
-      </c>
-      <c r="O53" s="15"/>
-      <c r="Q53" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O53),VLOOKUP(H53,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N53),VLOOKUP(H53,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N53)), NOT(ISBLANK(O53))),VLOOKUP(H53,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O53" s="15">
+        <v>1</v>
+      </c>
+      <c r="P53" s="15"/>
+      <c r="R53" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P53),VLOOKUP(I53,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O53),VLOOKUP(I53,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O53)), NOT(ISBLANK(P53))),VLOOKUP(I53,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="R53" s="1" t="str">
+      <c r="S53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S53" s="1" t="str">
+      <c r="T53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T53" s="1">
+      <c r="U53" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>324</v>
       </c>
@@ -5080,46 +5271,49 @@
         <v>407</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>VLOOKUP(J54,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S54&amp;VLOOKUP(I54,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(O54),ABS(N54),ABS(O54))*100,"0")&amp;"%")&amp;R54</f>
+        <f>VLOOKUP(K54,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T54&amp;VLOOKUP(J54,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(P54),ABS(O54),ABS(P54))*100,"0")&amp;"%")&amp;S54</f>
         <v>攻击前50%的概率使对手-5%防御力，永久</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="22">
+        <v>4</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>-1</v>
       </c>
-      <c r="M54" s="1">
+      <c r="N54" s="1">
         <v>0.5</v>
       </c>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15">
+      <c r="O54" s="15"/>
+      <c r="P54" s="15">
         <v>-0.05</v>
       </c>
-      <c r="Q54" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O54),VLOOKUP(H54,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N54),VLOOKUP(H54,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N54)), NOT(ISBLANK(O54))),VLOOKUP(H54,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R54" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P54),VLOOKUP(I54,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O54),VLOOKUP(I54,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O54)), NOT(ISBLANK(P54))),VLOOKUP(I54,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="R54" s="1" t="str">
+      <c r="S54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S54" s="1" t="str">
+      <c r="T54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T54" s="1">
+      <c r="U54" s="1">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>120</v>
       </c>
@@ -5137,46 +5331,49 @@
         <v>375</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>VLOOKUP(J55,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S55&amp;VLOOKUP(I55,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E55,"#",TEXT(IF(ISBLANK(O55),ABS(N55),ABS(O55))*100,"0")&amp;"%")&amp;R55</f>
+        <f>VLOOKUP(K55,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T55&amp;VLOOKUP(J55,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E55,"#",TEXT(IF(ISBLANK(P55),ABS(O55),ABS(P55))*100,"0")&amp;"%")&amp;S55</f>
         <v>回合开始时30%的概率使对手-50%防御力，持续2回合。</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="22">
+        <v>4</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <v>2</v>
       </c>
-      <c r="M55" s="1">
+      <c r="N55" s="1">
         <v>0.3</v>
       </c>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15">
+      <c r="O55" s="15"/>
+      <c r="P55" s="15">
         <v>-0.5</v>
       </c>
-      <c r="Q55" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O55),VLOOKUP(H55,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N55),VLOOKUP(H55,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N55)), NOT(ISBLANK(O55))),VLOOKUP(H55,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R55" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P55),VLOOKUP(I55,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O55),VLOOKUP(I55,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O55)), NOT(ISBLANK(P55))),VLOOKUP(I55,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#防御力</v>
       </c>
-      <c r="R55" s="1" t="str">
+      <c r="S55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S55" s="1" t="str">
+      <c r="T55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T55" s="1">
+      <c r="U55" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>122</v>
       </c>
@@ -5194,44 +5391,47 @@
         <v>354</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>VLOOKUP(J56,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S56&amp;VLOOKUP(I56,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E56,"#",TEXT(IF(ISBLANK(O56),ABS(N56),ABS(O56))*100,"0")&amp;"%")&amp;R56</f>
+        <f>VLOOKUP(K56,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T56&amp;VLOOKUP(J56,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E56,"#",TEXT(IF(ISBLANK(P56),ABS(O56),ABS(P56))*100,"0")&amp;"%")&amp;S56</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="22">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>0</v>
       </c>
-      <c r="M56" s="1">
+      <c r="N56" s="1">
         <v>0.2</v>
       </c>
-      <c r="N56" s="15"/>
       <c r="O56" s="15"/>
-      <c r="Q56" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O56),VLOOKUP(H56,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N56),VLOOKUP(H56,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N56)), NOT(ISBLANK(O56))),VLOOKUP(H56,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P56" s="15"/>
+      <c r="R56" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P56),VLOOKUP(I56,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O56),VLOOKUP(I56,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O56)), NOT(ISBLANK(P56))),VLOOKUP(I56,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="R56" s="1" t="str">
+      <c r="S56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S56" s="1" t="str">
+      <c r="T56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T56" s="1">
+      <c r="U56" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>121</v>
       </c>
@@ -5249,46 +5449,49 @@
         <v>376</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>VLOOKUP(J57,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S57&amp;VLOOKUP(I57,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E57,"#",TEXT(IF(ISBLANK(O57),ABS(N57),ABS(O57))*100,"0")&amp;"%")&amp;R57</f>
+        <f>VLOOKUP(K57,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T57&amp;VLOOKUP(J57,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E57,"#",TEXT(IF(ISBLANK(P57),ABS(O57),ABS(P57))*100,"0")&amp;"%")&amp;S57</f>
         <v>战斗开始时50%的概率使自身+50%攻击力，永久</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="22">
+        <v>5</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>-1</v>
       </c>
-      <c r="M57" s="1">
+      <c r="N57" s="1">
         <v>0.5</v>
       </c>
-      <c r="N57" s="15">
+      <c r="O57" s="15">
         <v>0.5</v>
       </c>
-      <c r="O57" s="15"/>
-      <c r="Q57" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O57),VLOOKUP(H57,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N57),VLOOKUP(H57,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N57)), NOT(ISBLANK(O57))),VLOOKUP(H57,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P57" s="15"/>
+      <c r="R57" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P57),VLOOKUP(I57,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O57),VLOOKUP(I57,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O57)), NOT(ISBLANK(P57))),VLOOKUP(I57,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R57" s="1" t="str">
+      <c r="S57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，永久</v>
       </c>
-      <c r="S57" s="1" t="str">
+      <c r="T57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>50%的概率</v>
       </c>
-      <c r="T57" s="1">
+      <c r="U57" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>126</v>
       </c>
@@ -5306,43 +5509,46 @@
         <v>393</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>VLOOKUP(J58,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S58&amp;VLOOKUP(I58,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E58,"#",TEXT(IF(ISBLANK(O58),ABS(N58),ABS(O58))*100,"0")&amp;"%")&amp;R58</f>
+        <f>VLOOKUP(K58,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T58&amp;VLOOKUP(J58,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E58,"#",TEXT(IF(ISBLANK(P58),ABS(O58),ABS(P58))*100,"0")&amp;"%")&amp;S58</f>
         <v>回合开始时使自身获得1个技能。</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="22">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M58" s="1">
-        <v>1</v>
-      </c>
-      <c r="N58" s="15">
-        <v>1</v>
-      </c>
-      <c r="O58" s="15"/>
-      <c r="Q58" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O58),VLOOKUP(H58,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N58),VLOOKUP(H58,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N58)), NOT(ISBLANK(O58))),VLOOKUP(H58,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="15">
+        <v>1</v>
+      </c>
+      <c r="P58" s="15"/>
+      <c r="R58" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P58),VLOOKUP(I58,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O58),VLOOKUP(I58,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O58)), NOT(ISBLANK(P58))),VLOOKUP(I58,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>获得^个技能</v>
       </c>
-      <c r="R58" s="1" t="str">
+      <c r="S58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S58" s="1" t="str">
+      <c r="T58" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T58" s="1">
+      <c r="U58" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>127</v>
       </c>
@@ -5360,44 +5566,47 @@
         <v>377</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>VLOOKUP(J59,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S59&amp;VLOOKUP(I59,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E59,"#",TEXT(IF(ISBLANK(O59),ABS(N59),ABS(O59))*100,"0")&amp;"%")&amp;R59</f>
+        <f>VLOOKUP(K59,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T59&amp;VLOOKUP(J59,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E59,"#",TEXT(IF(ISBLANK(P59),ABS(O59),ABS(P59))*100,"0")&amp;"%")&amp;S59</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="22">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <v>0</v>
       </c>
-      <c r="M59" s="1">
+      <c r="N59" s="1">
         <v>0.3</v>
       </c>
-      <c r="N59" s="15"/>
       <c r="O59" s="15"/>
-      <c r="Q59" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O59),VLOOKUP(H59,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N59),VLOOKUP(H59,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N59)), NOT(ISBLANK(O59))),VLOOKUP(H59,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P59" s="15"/>
+      <c r="R59" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P59),VLOOKUP(I59,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O59),VLOOKUP(I59,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O59)), NOT(ISBLANK(P59))),VLOOKUP(I59,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R59" s="1" t="str">
+      <c r="S59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S59" s="1" t="str">
+      <c r="T59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>30%的概率</v>
       </c>
-      <c r="T59" s="1">
+      <c r="U59" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>123</v>
       </c>
@@ -5415,43 +5624,46 @@
         <v>406</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>VLOOKUP(J60,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S60&amp;VLOOKUP(I60,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(O60),ABS(N60),ABS(O60))*100,"0")&amp;"%")&amp;R60</f>
+        <f>VLOOKUP(K60,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T60&amp;VLOOKUP(J60,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(P60),ABS(O60),ABS(P60))*100,"0")&amp;"%")&amp;S60</f>
         <v>攻击时40%的概率使自身+20%造成的伤害。</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="22">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M60" s="1">
+      <c r="N60" s="1">
         <v>0.4</v>
       </c>
-      <c r="N60" s="15">
+      <c r="O60" s="15">
         <v>0.2</v>
       </c>
-      <c r="O60" s="15"/>
-      <c r="Q60" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O60),VLOOKUP(H60,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N60),VLOOKUP(H60,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N60)), NOT(ISBLANK(O60))),VLOOKUP(H60,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P60" s="15"/>
+      <c r="R60" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P60),VLOOKUP(I60,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O60),VLOOKUP(I60,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O60)), NOT(ISBLANK(P60))),VLOOKUP(I60,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R60" s="1" t="str">
+      <c r="S60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S60" s="1" t="str">
+      <c r="T60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T60" s="1">
+      <c r="U60" s="1">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
@@ -5469,43 +5681,46 @@
         <v>395</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>VLOOKUP(J61,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S61&amp;VLOOKUP(I61,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E61,"#",TEXT(IF(ISBLANK(O61),ABS(N61),ABS(O61))*100,"0")&amp;"%")&amp;R61</f>
+        <f>VLOOKUP(K61,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T61&amp;VLOOKUP(J61,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E61,"#",TEXT(IF(ISBLANK(P61),ABS(O61),ABS(P61))*100,"0")&amp;"%")&amp;S61</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="22">
+        <v>3</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M61" s="1">
+      <c r="N61" s="1">
         <v>0.4</v>
       </c>
-      <c r="N61" s="15">
+      <c r="O61" s="15">
         <v>0.5</v>
       </c>
-      <c r="O61" s="15"/>
-      <c r="Q61" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O61),VLOOKUP(H61,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N61),VLOOKUP(H61,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N61)), NOT(ISBLANK(O61))),VLOOKUP(H61,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P61" s="15"/>
+      <c r="R61" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P61),VLOOKUP(I61,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O61),VLOOKUP(I61,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O61)), NOT(ISBLANK(P61))),VLOOKUP(I61,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R61" s="1" t="str">
+      <c r="S61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S61" s="1" t="str">
+      <c r="T61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T61" s="1">
+      <c r="U61" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>125</v>
       </c>
@@ -5523,43 +5738,46 @@
         <v>392</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>VLOOKUP(J62,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S62&amp;VLOOKUP(I62,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E62,"#",TEXT(IF(ISBLANK(O62),ABS(N62),ABS(O62))*100,"0")&amp;"%")&amp;R62</f>
+        <f>VLOOKUP(K62,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T62&amp;VLOOKUP(J62,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E62,"#",TEXT(IF(ISBLANK(P62),ABS(O62),ABS(P62))*100,"0")&amp;"%")&amp;S62</f>
         <v>攻击时40%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="22">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M62" s="1">
+      <c r="N62" s="1">
         <v>0.4</v>
       </c>
-      <c r="N62" s="15">
-        <v>1</v>
-      </c>
-      <c r="O62" s="15"/>
-      <c r="Q62" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O62),VLOOKUP(H62,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N62),VLOOKUP(H62,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N62)), NOT(ISBLANK(O62))),VLOOKUP(H62,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O62" s="15">
+        <v>1</v>
+      </c>
+      <c r="P62" s="15"/>
+      <c r="R62" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P62),VLOOKUP(I62,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O62),VLOOKUP(I62,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O62)), NOT(ISBLANK(P62))),VLOOKUP(I62,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R62" s="1" t="str">
+      <c r="S62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S62" s="1" t="str">
+      <c r="T62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>40%的概率</v>
       </c>
-      <c r="T62" s="1">
+      <c r="U62" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
@@ -5577,44 +5795,47 @@
         <v>378</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>VLOOKUP(J63,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S63&amp;VLOOKUP(I63,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E63,"#",TEXT(IF(ISBLANK(O63),ABS(N63),ABS(O63))*100,"0")&amp;"%")&amp;R63</f>
+        <f>VLOOKUP(K63,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T63&amp;VLOOKUP(J63,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E63,"#",TEXT(IF(ISBLANK(P63),ABS(O63),ABS(P63))*100,"0")&amp;"%")&amp;S63</f>
         <v>受击前15%的概率使对手变更目标。</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="22">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="M63" s="1">
+      <c r="N63" s="1">
         <v>0.15</v>
       </c>
-      <c r="N63" s="15"/>
       <c r="O63" s="15"/>
-      <c r="Q63" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O63),VLOOKUP(H63,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N63),VLOOKUP(H63,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N63)), NOT(ISBLANK(O63))),VLOOKUP(H63,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P63" s="15"/>
+      <c r="R63" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P63),VLOOKUP(I63,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O63),VLOOKUP(I63,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O63)), NOT(ISBLANK(P63))),VLOOKUP(I63,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>变更目标</v>
       </c>
-      <c r="R63" s="1" t="str">
+      <c r="S63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S63" s="1" t="str">
+      <c r="T63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>15%的概率</v>
       </c>
-      <c r="T63" s="1">
+      <c r="U63" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
@@ -5632,44 +5853,47 @@
         <v>378</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>VLOOKUP(J64,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S64&amp;VLOOKUP(I64,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E64,"#",TEXT(IF(ISBLANK(O64),ABS(N64),ABS(O64))*100,"0")&amp;"%")&amp;R64</f>
+        <f>VLOOKUP(K64,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T64&amp;VLOOKUP(J64,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E64,"#",TEXT(IF(ISBLANK(P64),ABS(O64),ABS(P64))*100,"0")&amp;"%")&amp;S64</f>
         <v>受击前20%的概率使对手变更目标。</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="22">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <v>0</v>
       </c>
-      <c r="M64" s="1">
+      <c r="N64" s="1">
         <v>0.2</v>
       </c>
-      <c r="N64" s="15"/>
       <c r="O64" s="15"/>
-      <c r="Q64" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O64),VLOOKUP(H64,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N64),VLOOKUP(H64,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N64)), NOT(ISBLANK(O64))),VLOOKUP(H64,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P64" s="15"/>
+      <c r="R64" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P64),VLOOKUP(I64,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O64),VLOOKUP(I64,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O64)), NOT(ISBLANK(P64))),VLOOKUP(I64,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>变更目标</v>
       </c>
-      <c r="R64" s="1" t="str">
+      <c r="S64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S64" s="1" t="str">
+      <c r="T64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T64" s="1">
+      <c r="U64" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
@@ -5687,44 +5911,47 @@
         <v>379</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>VLOOKUP(J65,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S65&amp;VLOOKUP(I65,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E65,"#",TEXT(IF(ISBLANK(O65),ABS(N65),ABS(O65))*100,"0")&amp;"%")&amp;R65</f>
+        <f>VLOOKUP(K65,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T65&amp;VLOOKUP(J65,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E65,"#",TEXT(IF(ISBLANK(P65),ABS(O65),ABS(P65))*100,"0")&amp;"%")&amp;S65</f>
         <v>攻击后20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="22">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L65" s="1">
-        <v>1</v>
-      </c>
       <c r="M65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1">
         <v>0.2</v>
       </c>
-      <c r="N65" s="15"/>
       <c r="O65" s="15"/>
-      <c r="Q65" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O65),VLOOKUP(H65,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N65),VLOOKUP(H65,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N65)), NOT(ISBLANK(O65))),VLOOKUP(H65,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P65" s="15"/>
+      <c r="R65" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P65),VLOOKUP(I65,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O65),VLOOKUP(I65,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O65)), NOT(ISBLANK(P65))),VLOOKUP(I65,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R65" s="1" t="str">
+      <c r="S65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S65" s="1" t="str">
+      <c r="T65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T65" s="1">
+      <c r="U65" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
@@ -5742,44 +5969,47 @@
         <v>379</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>VLOOKUP(J66,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S66&amp;VLOOKUP(I66,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E66,"#",TEXT(IF(ISBLANK(O66),ABS(N66),ABS(O66))*100,"0")&amp;"%")&amp;R66</f>
+        <f>VLOOKUP(K66,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T66&amp;VLOOKUP(J66,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E66,"#",TEXT(IF(ISBLANK(P66),ABS(O66),ABS(P66))*100,"0")&amp;"%")&amp;S66</f>
         <v>攻击后20%的概率使对手放弃攻击，持续2回合。</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="22">
+        <v>3</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L66" s="1">
+      <c r="M66" s="1">
         <v>2</v>
       </c>
-      <c r="M66" s="1">
+      <c r="N66" s="1">
         <v>0.2</v>
       </c>
-      <c r="N66" s="15"/>
       <c r="O66" s="15"/>
-      <c r="Q66" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O66),VLOOKUP(H66,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N66),VLOOKUP(H66,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N66)), NOT(ISBLANK(O66))),VLOOKUP(H66,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P66" s="15"/>
+      <c r="R66" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P66),VLOOKUP(I66,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O66),VLOOKUP(I66,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O66)), NOT(ISBLANK(P66))),VLOOKUP(I66,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R66" s="1" t="str">
+      <c r="S66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S66" s="1" t="str">
+      <c r="T66" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T66" s="1">
+      <c r="U66" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
@@ -5797,44 +6027,47 @@
         <v>379</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>VLOOKUP(J67,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S67&amp;VLOOKUP(I67,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E67,"#",TEXT(IF(ISBLANK(O67),ABS(N67),ABS(O67))*100,"0")&amp;"%")&amp;R67</f>
+        <f>VLOOKUP(K67,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T67&amp;VLOOKUP(J67,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E67,"#",TEXT(IF(ISBLANK(P67),ABS(O67),ABS(P67))*100,"0")&amp;"%")&amp;S67</f>
         <v>攻击后20%的概率使对手放弃攻击，持续3回合。</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="22">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L67" s="1">
+      <c r="M67" s="1">
         <v>3</v>
       </c>
-      <c r="M67" s="1">
+      <c r="N67" s="1">
         <v>0.2</v>
       </c>
-      <c r="N67" s="15"/>
       <c r="O67" s="15"/>
-      <c r="Q67" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O67),VLOOKUP(H67,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N67),VLOOKUP(H67,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N67)), NOT(ISBLANK(O67))),VLOOKUP(H67,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P67" s="15"/>
+      <c r="R67" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P67),VLOOKUP(I67,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O67),VLOOKUP(I67,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O67)), NOT(ISBLANK(P67))),VLOOKUP(I67,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R67" s="1" t="str">
+      <c r="S67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S67" s="1" t="str">
+      <c r="T67" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20%的概率</v>
       </c>
-      <c r="T67" s="1">
+      <c r="U67" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>133</v>
       </c>
@@ -5852,43 +6085,46 @@
         <v>364</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>VLOOKUP(J68,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S68&amp;VLOOKUP(I68,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E68,"#",TEXT(IF(ISBLANK(O68),ABS(N68),ABS(O68))*100,"0")&amp;"%")&amp;R68</f>
+        <f>VLOOKUP(K68,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T68&amp;VLOOKUP(J68,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E68,"#",TEXT(IF(ISBLANK(P68),ABS(O68),ABS(P68))*100,"0")&amp;"%")&amp;S68</f>
         <v>回合开始时使自身+[25%×攻击力]的生命值。</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="22">
+        <v>4</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M68" s="1">
-        <v>1</v>
-      </c>
-      <c r="N68" s="15">
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="15">
         <v>0.25</v>
       </c>
-      <c r="O68" s="15"/>
-      <c r="Q68" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O68),VLOOKUP(H68,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N68),VLOOKUP(H68,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N68)), NOT(ISBLANK(O68))),VLOOKUP(H68,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P68" s="15"/>
+      <c r="R68" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P68),VLOOKUP(I68,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O68),VLOOKUP(I68,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O68)), NOT(ISBLANK(P68))),VLOOKUP(I68,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="R68" s="1" t="str">
+      <c r="S68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>。</v>
       </c>
-      <c r="S68" s="1" t="str">
+      <c r="T68" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T68" s="1">
+      <c r="U68" s="1">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>134</v>
       </c>
@@ -5906,44 +6142,47 @@
         <v>415</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>VLOOKUP(J69,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S69&amp;VLOOKUP(I69,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(O69),ABS(N69),ABS(O69))*100,"0")&amp;"%")&amp;R69</f>
+        <f>VLOOKUP(K69,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T69&amp;VLOOKUP(J69,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(P69),ABS(O69),ABS(P69))*100,"0")&amp;"%")&amp;S69</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="22">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L69" s="1">
-        <v>1</v>
-      </c>
       <c r="M69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
         <v>0.25</v>
       </c>
-      <c r="N69" s="15"/>
       <c r="O69" s="15"/>
-      <c r="Q69" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O69),VLOOKUP(H69,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N69),VLOOKUP(H69,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N69)), NOT(ISBLANK(O69))),VLOOKUP(H69,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P69" s="15"/>
+      <c r="R69" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P69),VLOOKUP(I69,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O69),VLOOKUP(I69,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O69)), NOT(ISBLANK(P69))),VLOOKUP(I69,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="R69" s="1" t="str">
+      <c r="S69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S69" s="1" t="str">
+      <c r="T69" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25%的概率</v>
       </c>
-      <c r="T69" s="1">
+      <c r="U69" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>135</v>
       </c>
@@ -5954,50 +6193,53 @@
         <v>61</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" ref="E70:E110" si="4">SUBSTITUTE(SUBSTITUTE(Q70,"*",_xlfn.IFS(T70&lt;0,"-",T70&gt;0,"+",T70=0,"")),"^",T70)</f>
+        <f t="shared" ref="E70:E110" si="4">SUBSTITUTE(SUBSTITUTE(R70,"*",_xlfn.IFS(U70&lt;0,"-",U70&gt;0,"+",U70=0,"")),"^",U70)</f>
         <v>+#造成的伤害</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>396</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>VLOOKUP(J70,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S70&amp;VLOOKUP(I70,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E70,"#",TEXT(IF(ISBLANK(O70),ABS(N70),ABS(O70))*100,"0")&amp;"%")&amp;R70</f>
+        <f>VLOOKUP(K70,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T70&amp;VLOOKUP(J70,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E70,"#",TEXT(IF(ISBLANK(P70),ABS(O70),ABS(P70))*100,"0")&amp;"%")&amp;S70</f>
         <v>攻击时15%的概率使自身+200%造成的伤害。</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="22">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J70" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M70" s="1">
+      <c r="N70" s="1">
         <v>0.15</v>
       </c>
-      <c r="N70" s="15">
+      <c r="O70" s="15">
         <v>2</v>
       </c>
-      <c r="O70" s="15"/>
-      <c r="Q70" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O70),VLOOKUP(H70,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N70),VLOOKUP(H70,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N70)), NOT(ISBLANK(O70))),VLOOKUP(H70,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P70" s="15"/>
+      <c r="R70" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P70),VLOOKUP(I70,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O70),VLOOKUP(I70,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O70)), NOT(ISBLANK(P70))),VLOOKUP(I70,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R70" s="1" t="str">
-        <f t="shared" ref="R70:R110" si="5">IF(NOT(ISBLANK(L70))*AND(L70&gt;0),"，持续"&amp;L70&amp;"回合。",IF(L70=-1,"，永久","。"))</f>
+      <c r="S70" s="1" t="str">
+        <f t="shared" ref="S70:S110" si="5">IF(NOT(ISBLANK(M70))*AND(M70&gt;0),"，持续"&amp;M70&amp;"回合。",IF(M70=-1,"，永久","。"))</f>
         <v>。</v>
       </c>
-      <c r="S70" s="1" t="str">
-        <f t="shared" ref="S70:S110" si="6">IF(ISBLANK(K70),"","如果"&amp;IF(K70=0,"死亡","生命值&lt;"&amp;TEXT(K70*100,"0")&amp;"%")&amp;"，那么")&amp;IF(M70&lt;1,TEXT(M70*100,"0")&amp;"%的概率","")</f>
+      <c r="T70" s="1" t="str">
+        <f t="shared" ref="T70:T110" si="6">IF(ISBLANK(L70),"","如果"&amp;IF(L70=0,"死亡","生命值&lt;"&amp;TEXT(L70*100,"0")&amp;"%")&amp;"，那么")&amp;IF(N70&lt;1,TEXT(N70*100,"0")&amp;"%的概率","")</f>
         <v>15%的概率</v>
       </c>
-      <c r="T70" s="1">
-        <f t="shared" ref="T70:T110" si="7">IF(ISBLANK(N70),O70,N70)</f>
+      <c r="U70" s="1">
+        <f t="shared" ref="U70:U110" si="7">IF(ISBLANK(O70),P70,O70)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>138</v>
       </c>
@@ -6015,46 +6257,49 @@
         <v>403</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>VLOOKUP(J71,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S71&amp;VLOOKUP(I71,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(O71),ABS(N71),ABS(O71))*100,"0")&amp;"%")&amp;R71</f>
+        <f>VLOOKUP(K71,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T71&amp;VLOOKUP(J71,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(P71),ABS(O71),ABS(P71))*100,"0")&amp;"%")&amp;S71</f>
         <v>受击前70%的概率使对手-30%攻击力。</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="22">
+        <v>3</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L71" s="1">
+      <c r="M71" s="1">
         <v>0</v>
       </c>
-      <c r="M71" s="1">
+      <c r="N71" s="1">
         <v>0.7</v>
       </c>
-      <c r="N71" s="15">
+      <c r="O71" s="15">
         <v>-0.3</v>
       </c>
-      <c r="O71" s="15"/>
-      <c r="Q71" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O71),VLOOKUP(H71,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N71),VLOOKUP(H71,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N71)), NOT(ISBLANK(O71))),VLOOKUP(H71,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P71" s="15"/>
+      <c r="R71" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P71),VLOOKUP(I71,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O71),VLOOKUP(I71,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O71)), NOT(ISBLANK(P71))),VLOOKUP(I71,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R71" s="1" t="str">
+      <c r="S71" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S71" s="1" t="str">
+      <c r="T71" s="1" t="str">
         <f t="shared" si="6"/>
         <v>70%的概率</v>
       </c>
-      <c r="T71" s="1">
+      <c r="U71" s="1">
         <f t="shared" si="7"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>136</v>
       </c>
@@ -6072,44 +6317,47 @@
         <v>380</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>VLOOKUP(J72,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S72&amp;VLOOKUP(I72,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E72,"#",TEXT(IF(ISBLANK(O72),ABS(N72),ABS(O72))*100,"0")&amp;"%")&amp;R72</f>
+        <f>VLOOKUP(K72,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T72&amp;VLOOKUP(J72,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E72,"#",TEXT(IF(ISBLANK(P72),ABS(O72),ABS(P72))*100,"0")&amp;"%")&amp;S72</f>
         <v>受击前15%的概率使对手放弃攻击。</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="22">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L72" s="1">
+      <c r="M72" s="1">
         <v>0</v>
       </c>
-      <c r="M72" s="1">
+      <c r="N72" s="1">
         <v>0.15</v>
       </c>
-      <c r="N72" s="15"/>
       <c r="O72" s="15"/>
-      <c r="Q72" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O72),VLOOKUP(H72,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N72),VLOOKUP(H72,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N72)), NOT(ISBLANK(O72))),VLOOKUP(H72,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P72" s="15"/>
+      <c r="R72" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P72),VLOOKUP(I72,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O72),VLOOKUP(I72,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O72)), NOT(ISBLANK(P72))),VLOOKUP(I72,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R72" s="1" t="str">
+      <c r="S72" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S72" s="1" t="str">
+      <c r="T72" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="T72" s="1">
+      <c r="U72" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>137</v>
       </c>
@@ -6127,44 +6375,47 @@
         <v>380</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>VLOOKUP(J73,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S73&amp;VLOOKUP(I73,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E73,"#",TEXT(IF(ISBLANK(O73),ABS(N73),ABS(O73))*100,"0")&amp;"%")&amp;R73</f>
+        <f>VLOOKUP(K73,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T73&amp;VLOOKUP(J73,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E73,"#",TEXT(IF(ISBLANK(P73),ABS(O73),ABS(P73))*100,"0")&amp;"%")&amp;S73</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="22">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L73" s="1">
+      <c r="M73" s="1">
         <v>0</v>
       </c>
-      <c r="M73" s="1">
+      <c r="N73" s="1">
         <v>0.3</v>
       </c>
-      <c r="N73" s="15"/>
       <c r="O73" s="15"/>
-      <c r="Q73" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O73),VLOOKUP(H73,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N73),VLOOKUP(H73,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N73)), NOT(ISBLANK(O73))),VLOOKUP(H73,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P73" s="15"/>
+      <c r="R73" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P73),VLOOKUP(I73,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O73),VLOOKUP(I73,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O73)), NOT(ISBLANK(P73))),VLOOKUP(I73,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>放弃攻击</v>
       </c>
-      <c r="R73" s="1" t="str">
+      <c r="S73" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S73" s="1" t="str">
+      <c r="T73" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T73" s="1">
+      <c r="U73" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>139</v>
       </c>
@@ -6182,43 +6433,46 @@
         <v>350</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>VLOOKUP(J74,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S74&amp;VLOOKUP(I74,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E74,"#",TEXT(IF(ISBLANK(O74),ABS(N74),ABS(O74))*100,"0")&amp;"%")&amp;R74</f>
+        <f>VLOOKUP(K74,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T74&amp;VLOOKUP(J74,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E74,"#",TEXT(IF(ISBLANK(P74),ABS(O74),ABS(P74))*100,"0")&amp;"%")&amp;S74</f>
         <v>战斗开始时30%的概率使对手-[200%×攻击力]的生命值。</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="22">
+        <v>3</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M74" s="1">
+      <c r="N74" s="1">
         <v>0.3</v>
       </c>
-      <c r="N74" s="15">
+      <c r="O74" s="15">
         <v>-2</v>
       </c>
-      <c r="O74" s="15"/>
-      <c r="Q74" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O74),VLOOKUP(H74,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N74),VLOOKUP(H74,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N74)), NOT(ISBLANK(O74))),VLOOKUP(H74,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P74" s="15"/>
+      <c r="R74" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P74),VLOOKUP(I74,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O74),VLOOKUP(I74,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O74)), NOT(ISBLANK(P74))),VLOOKUP(I74,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="R74" s="1" t="str">
+      <c r="S74" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S74" s="1" t="str">
+      <c r="T74" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T74" s="1">
+      <c r="U74" s="1">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>142</v>
       </c>
@@ -6236,43 +6490,46 @@
         <v>381</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>VLOOKUP(J75,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S75&amp;VLOOKUP(I75,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E75,"#",TEXT(IF(ISBLANK(O75),ABS(N75),ABS(O75))*100,"0")&amp;"%")&amp;R75</f>
+        <f>VLOOKUP(K75,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T75&amp;VLOOKUP(J75,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E75,"#",TEXT(IF(ISBLANK(P75),ABS(O75),ABS(P75))*100,"0")&amp;"%")&amp;S75</f>
         <v>攻击后30%的概率使自身+[100%×伤害值]的生命值。</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="22">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M75" s="1">
+      <c r="N75" s="1">
         <v>0.3</v>
       </c>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O75),VLOOKUP(H75,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N75),VLOOKUP(H75,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N75)), NOT(ISBLANK(O75))),VLOOKUP(H75,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15">
+        <v>1</v>
+      </c>
+      <c r="R75" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P75),VLOOKUP(I75,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O75),VLOOKUP(I75,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O75)), NOT(ISBLANK(P75))),VLOOKUP(I75,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="R75" s="1" t="str">
+      <c r="S75" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S75" s="1" t="str">
+      <c r="T75" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T75" s="1">
+      <c r="U75" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>143</v>
       </c>
@@ -6290,43 +6547,46 @@
         <v>390</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>VLOOKUP(J76,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S76&amp;VLOOKUP(I76,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E76,"#",TEXT(IF(ISBLANK(O76),ABS(N76),ABS(O76))*100,"0")&amp;"%")&amp;R76</f>
+        <f>VLOOKUP(K76,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T76&amp;VLOOKUP(J76,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E76,"#",TEXT(IF(ISBLANK(P76),ABS(O76),ABS(P76))*100,"0")&amp;"%")&amp;S76</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="22">
+        <v>5</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M76" s="1">
-        <v>1</v>
-      </c>
-      <c r="N76" s="15">
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="15">
         <v>5</v>
       </c>
-      <c r="O76" s="15"/>
-      <c r="Q76" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O76),VLOOKUP(H76,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N76),VLOOKUP(H76,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N76)), NOT(ISBLANK(O76))),VLOOKUP(H76,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P76" s="15"/>
+      <c r="R76" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P76),VLOOKUP(I76,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O76),VLOOKUP(I76,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O76)), NOT(ISBLANK(P76))),VLOOKUP(I76,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
       </c>
-      <c r="R76" s="1" t="str">
+      <c r="S76" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S76" s="1" t="str">
+      <c r="T76" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T76" s="1">
+      <c r="U76" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>140</v>
       </c>
@@ -6344,46 +6604,49 @@
         <v>405</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>VLOOKUP(J77,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S77&amp;VLOOKUP(I77,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(O77),ABS(N77),ABS(O77))*100,"0")&amp;"%")&amp;R77</f>
+        <f>VLOOKUP(K77,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T77&amp;VLOOKUP(J77,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(P77),ABS(O77),ABS(P77))*100,"0")&amp;"%")&amp;S77</f>
         <v>回合开始时30%的概率使自身+50%攻击力，持续2回合。</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="22">
+        <v>4</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L77" s="1">
+      <c r="M77" s="1">
         <v>2</v>
       </c>
-      <c r="M77" s="1">
+      <c r="N77" s="1">
         <v>0.3</v>
       </c>
-      <c r="N77" s="15">
+      <c r="O77" s="15">
         <v>0.5</v>
       </c>
-      <c r="O77" s="15"/>
-      <c r="Q77" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O77),VLOOKUP(H77,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N77),VLOOKUP(H77,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N77)), NOT(ISBLANK(O77))),VLOOKUP(H77,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P77" s="15"/>
+      <c r="R77" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P77),VLOOKUP(I77,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O77),VLOOKUP(I77,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O77)), NOT(ISBLANK(P77))),VLOOKUP(I77,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R77" s="1" t="str">
+      <c r="S77" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S77" s="1" t="str">
+      <c r="T77" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T77" s="1">
+      <c r="U77" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>141</v>
       </c>
@@ -6401,46 +6664,49 @@
         <v>404</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>VLOOKUP(J78,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S78&amp;VLOOKUP(I78,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(O78),ABS(N78),ABS(O78))*100,"0")&amp;"%")&amp;R78</f>
+        <f>VLOOKUP(K78,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T78&amp;VLOOKUP(J78,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(P78),ABS(O78),ABS(P78))*100,"0")&amp;"%")&amp;S78</f>
         <v>回合开始时30%的概率使自身+100%攻击力，持续2回合。</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="22">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L78" s="1">
+      <c r="M78" s="1">
         <v>2</v>
       </c>
-      <c r="M78" s="1">
+      <c r="N78" s="1">
         <v>0.3</v>
       </c>
-      <c r="N78" s="15">
-        <v>1</v>
-      </c>
-      <c r="O78" s="15"/>
-      <c r="Q78" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O78),VLOOKUP(H78,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N78),VLOOKUP(H78,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N78)), NOT(ISBLANK(O78))),VLOOKUP(H78,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O78" s="15">
+        <v>1</v>
+      </c>
+      <c r="P78" s="15"/>
+      <c r="R78" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P78),VLOOKUP(I78,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O78),VLOOKUP(I78,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O78)), NOT(ISBLANK(P78))),VLOOKUP(I78,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R78" s="1" t="str">
+      <c r="S78" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S78" s="1" t="str">
+      <c r="T78" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T78" s="1">
+      <c r="U78" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>144</v>
       </c>
@@ -6458,46 +6724,49 @@
         <v>403</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>VLOOKUP(J79,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S79&amp;VLOOKUP(I79,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(O79),ABS(N79),ABS(O79))*100,"0")&amp;"%")&amp;R79</f>
+        <f>VLOOKUP(K79,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T79&amp;VLOOKUP(J79,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(P79),ABS(O79),ABS(P79))*100,"0")&amp;"%")&amp;S79</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续1回合。</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="22">
+        <v>3</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L79" s="1">
-        <v>1</v>
-      </c>
       <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
         <v>0.3</v>
       </c>
-      <c r="N79" s="15">
+      <c r="O79" s="15">
         <v>-0.3</v>
       </c>
-      <c r="O79" s="15"/>
-      <c r="Q79" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O79),VLOOKUP(H79,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N79),VLOOKUP(H79,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N79)), NOT(ISBLANK(O79))),VLOOKUP(H79,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P79" s="15"/>
+      <c r="R79" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P79),VLOOKUP(I79,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O79),VLOOKUP(I79,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O79)), NOT(ISBLANK(P79))),VLOOKUP(I79,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R79" s="1" t="str">
+      <c r="S79" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S79" s="1" t="str">
+      <c r="T79" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T79" s="1">
+      <c r="U79" s="1">
         <f t="shared" si="7"/>
         <v>-0.3</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>149</v>
       </c>
@@ -6515,43 +6784,46 @@
         <v>392</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>VLOOKUP(J80,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S80&amp;VLOOKUP(I80,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E80,"#",TEXT(IF(ISBLANK(O80),ABS(N80),ABS(O80))*100,"0")&amp;"%")&amp;R80</f>
+        <f>VLOOKUP(K80,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T80&amp;VLOOKUP(J80,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E80,"#",TEXT(IF(ISBLANK(P80),ABS(O80),ABS(P80))*100,"0")&amp;"%")&amp;S80</f>
         <v>攻击时30%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="22">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M80" s="1">
+      <c r="N80" s="1">
         <v>0.3</v>
       </c>
-      <c r="N80" s="15">
-        <v>1</v>
-      </c>
-      <c r="O80" s="15"/>
-      <c r="Q80" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O80),VLOOKUP(H80,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N80),VLOOKUP(H80,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N80)), NOT(ISBLANK(O80))),VLOOKUP(H80,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O80" s="15">
+        <v>1</v>
+      </c>
+      <c r="P80" s="15"/>
+      <c r="R80" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P80),VLOOKUP(I80,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O80),VLOOKUP(I80,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O80)), NOT(ISBLANK(P80))),VLOOKUP(I80,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R80" s="1" t="str">
+      <c r="S80" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S80" s="1" t="str">
+      <c r="T80" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T80" s="1">
+      <c r="U80" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>150</v>
       </c>
@@ -6569,43 +6841,46 @@
         <v>395</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>VLOOKUP(J81,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S81&amp;VLOOKUP(I81,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E81,"#",TEXT(IF(ISBLANK(O81),ABS(N81),ABS(O81))*100,"0")&amp;"%")&amp;R81</f>
+        <f>VLOOKUP(K81,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T81&amp;VLOOKUP(J81,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E81,"#",TEXT(IF(ISBLANK(P81),ABS(O81),ABS(P81))*100,"0")&amp;"%")&amp;S81</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="22">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M81" s="1">
+      <c r="N81" s="1">
         <v>0.4</v>
       </c>
-      <c r="N81" s="15">
+      <c r="O81" s="15">
         <v>0.5</v>
       </c>
-      <c r="O81" s="15"/>
-      <c r="Q81" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O81),VLOOKUP(H81,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N81),VLOOKUP(H81,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N81)), NOT(ISBLANK(O81))),VLOOKUP(H81,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P81" s="15"/>
+      <c r="R81" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P81),VLOOKUP(I81,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O81),VLOOKUP(I81,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O81)), NOT(ISBLANK(P81))),VLOOKUP(I81,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R81" s="1" t="str">
+      <c r="S81" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S81" s="1" t="str">
+      <c r="T81" s="1" t="str">
         <f t="shared" si="6"/>
         <v>40%的概率</v>
       </c>
-      <c r="T81" s="1">
+      <c r="U81" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>145</v>
       </c>
@@ -6623,46 +6898,49 @@
         <v>382</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>VLOOKUP(J82,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S82&amp;VLOOKUP(I82,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E82,"#",TEXT(IF(ISBLANK(O82),ABS(N82),ABS(O82))*100,"0")&amp;"%")&amp;R82</f>
+        <f>VLOOKUP(K82,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T82&amp;VLOOKUP(J82,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E82,"#",TEXT(IF(ISBLANK(P82),ABS(O82),ABS(P82))*100,"0")&amp;"%")&amp;S82</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="22">
+        <v>5</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K82" s="1">
+      <c r="L82" s="1">
         <v>0</v>
       </c>
-      <c r="M82" s="1">
-        <v>1</v>
-      </c>
-      <c r="N82" s="15">
-        <v>1</v>
-      </c>
-      <c r="O82" s="15"/>
-      <c r="Q82" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O82),VLOOKUP(H82,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N82),VLOOKUP(H82,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N82)), NOT(ISBLANK(O82))),VLOOKUP(H82,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="15">
+        <v>1</v>
+      </c>
+      <c r="P82" s="15"/>
+      <c r="R82" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P82),VLOOKUP(I82,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O82),VLOOKUP(I82,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O82)), NOT(ISBLANK(P82))),VLOOKUP(I82,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#最大生命并清除buff，^次</v>
       </c>
-      <c r="R82" s="1" t="str">
+      <c r="S82" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S82" s="1" t="str">
+      <c r="T82" s="1" t="str">
         <f t="shared" si="6"/>
         <v>如果死亡，那么</v>
       </c>
-      <c r="T82" s="1">
+      <c r="U82" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>146</v>
       </c>
@@ -6680,48 +6958,51 @@
         <v>382</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>VLOOKUP(J83,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S83&amp;VLOOKUP(I83,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E83,"#",TEXT(IF(ISBLANK(O83),ABS(N83),ABS(O83))*100,"0")&amp;"%")&amp;R83</f>
+        <f>VLOOKUP(K83,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T83&amp;VLOOKUP(J83,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E83,"#",TEXT(IF(ISBLANK(P83),ABS(O83),ABS(P83))*100,"0")&amp;"%")&amp;S83</f>
         <v>受击后如果死亡，那么50%的概率使自身+100%最大生命并清除buff，9次。</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="22">
+        <v>4</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K83" s="1">
+      <c r="L83" s="1">
         <v>0</v>
       </c>
-      <c r="M83" s="1">
+      <c r="N83" s="1">
         <v>0.5</v>
       </c>
-      <c r="N83" s="15">
+      <c r="O83" s="15">
         <v>9</v>
       </c>
-      <c r="O83" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O83),VLOOKUP(H83,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N83),VLOOKUP(H83,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N83)), NOT(ISBLANK(O83))),VLOOKUP(H83,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P83" s="15">
+        <v>1</v>
+      </c>
+      <c r="R83" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P83),VLOOKUP(I83,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O83),VLOOKUP(I83,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O83)), NOT(ISBLANK(P83))),VLOOKUP(I83,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#最大生命并清除buff，^次</v>
       </c>
-      <c r="R83" s="1" t="str">
+      <c r="S83" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S83" s="1" t="str">
+      <c r="T83" s="1" t="str">
         <f t="shared" si="6"/>
         <v>如果死亡，那么50%的概率</v>
       </c>
-      <c r="T83" s="1">
+      <c r="U83" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>147</v>
       </c>
@@ -6739,43 +7020,46 @@
         <v>383</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>VLOOKUP(J84,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S84&amp;VLOOKUP(I84,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E84,"#",TEXT(IF(ISBLANK(O84),ABS(N84),ABS(O84))*100,"0")&amp;"%")&amp;R84</f>
+        <f>VLOOKUP(K84,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T84&amp;VLOOKUP(J84,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E84,"#",TEXT(IF(ISBLANK(P84),ABS(O84),ABS(P84))*100,"0")&amp;"%")&amp;S84</f>
         <v>受击时50%的概率使自身-80%所受的伤害。</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" s="22">
+        <v>3</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M84" s="1">
+      <c r="N84" s="1">
         <v>0.5</v>
       </c>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15">
+      <c r="O84" s="15"/>
+      <c r="P84" s="15">
         <v>-0.8</v>
       </c>
-      <c r="Q84" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O84),VLOOKUP(H84,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N84),VLOOKUP(H84,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N84)), NOT(ISBLANK(O84))),VLOOKUP(H84,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R84" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P84),VLOOKUP(I84,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O84),VLOOKUP(I84,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O84)), NOT(ISBLANK(P84))),VLOOKUP(I84,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="R84" s="1" t="str">
+      <c r="S84" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S84" s="1" t="str">
+      <c r="T84" s="1" t="str">
         <f t="shared" si="6"/>
         <v>50%的概率</v>
       </c>
-      <c r="T84" s="1">
+      <c r="U84" s="1">
         <f t="shared" si="7"/>
         <v>-0.8</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>148</v>
       </c>
@@ -6793,43 +7077,46 @@
         <v>384</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>VLOOKUP(J85,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S85&amp;VLOOKUP(I85,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E85,"#",TEXT(IF(ISBLANK(O85),ABS(N85),ABS(O85))*100,"0")&amp;"%")&amp;R85</f>
+        <f>VLOOKUP(K85,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T85&amp;VLOOKUP(J85,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E85,"#",TEXT(IF(ISBLANK(P85),ABS(O85),ABS(P85))*100,"0")&amp;"%")&amp;S85</f>
         <v>攻击时1%的概率使自身+9900%造成的伤害。</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="22">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M85" s="1">
+      <c r="N85" s="1">
         <v>0.01</v>
       </c>
-      <c r="N85" s="15">
+      <c r="O85" s="15">
         <v>99</v>
       </c>
-      <c r="O85" s="15"/>
-      <c r="Q85" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O85),VLOOKUP(H85,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N85),VLOOKUP(H85,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N85)), NOT(ISBLANK(O85))),VLOOKUP(H85,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P85" s="15"/>
+      <c r="R85" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P85),VLOOKUP(I85,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O85),VLOOKUP(I85,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O85)), NOT(ISBLANK(P85))),VLOOKUP(I85,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R85" s="1" t="str">
+      <c r="S85" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S85" s="1" t="str">
+      <c r="T85" s="1" t="str">
         <f t="shared" si="6"/>
         <v>1%的概率</v>
       </c>
-      <c r="T85" s="1">
+      <c r="U85" s="1">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>152</v>
       </c>
@@ -6847,46 +7134,49 @@
         <v>385</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>VLOOKUP(J86,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S86&amp;VLOOKUP(I86,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E86,"#",TEXT(IF(ISBLANK(O86),ABS(N86),ABS(O86))*100,"0")&amp;"%")&amp;R86</f>
+        <f>VLOOKUP(K86,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T86&amp;VLOOKUP(J86,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E86,"#",TEXT(IF(ISBLANK(P86),ABS(O86),ABS(P86))*100,"0")&amp;"%")&amp;S86</f>
         <v>回合开始时使自身+20%攻击力，永久</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="22">
+        <v>5</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L86" s="1">
+      <c r="M86" s="1">
         <v>-1</v>
       </c>
-      <c r="M86" s="1">
-        <v>1</v>
-      </c>
-      <c r="N86" s="15">
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="O86" s="15">
         <v>0.2</v>
       </c>
-      <c r="O86" s="15"/>
-      <c r="Q86" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O86),VLOOKUP(H86,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N86),VLOOKUP(H86,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N86)), NOT(ISBLANK(O86))),VLOOKUP(H86,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P86" s="15"/>
+      <c r="R86" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P86),VLOOKUP(I86,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O86),VLOOKUP(I86,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O86)), NOT(ISBLANK(P86))),VLOOKUP(I86,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R86" s="1" t="str">
+      <c r="S86" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，永久</v>
       </c>
-      <c r="S86" s="1" t="str">
+      <c r="T86" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T86" s="1">
+      <c r="U86" s="1">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>153</v>
       </c>
@@ -6904,43 +7194,46 @@
         <v>363</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>VLOOKUP(J87,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S87&amp;VLOOKUP(I87,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E87,"#",TEXT(IF(ISBLANK(O87),ABS(N87),ABS(O87))*100,"0")&amp;"%")&amp;R87</f>
+        <f>VLOOKUP(K87,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T87&amp;VLOOKUP(J87,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E87,"#",TEXT(IF(ISBLANK(P87),ABS(O87),ABS(P87))*100,"0")&amp;"%")&amp;S87</f>
         <v>受击后30%的概率使对手-[20%×伤害值]的生命值。</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="22">
+        <v>2</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M87" s="1">
+      <c r="N87" s="1">
         <v>0.3</v>
       </c>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15">
+      <c r="O87" s="15"/>
+      <c r="P87" s="15">
         <v>-0.2</v>
       </c>
-      <c r="Q87" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O87),VLOOKUP(H87,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N87),VLOOKUP(H87,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N87)), NOT(ISBLANK(O87))),VLOOKUP(H87,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R87" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P87),VLOOKUP(I87,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O87),VLOOKUP(I87,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O87)), NOT(ISBLANK(P87))),VLOOKUP(I87,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×伤害值]的生命值</v>
       </c>
-      <c r="R87" s="1" t="str">
+      <c r="S87" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S87" s="1" t="str">
+      <c r="T87" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T87" s="1">
+      <c r="U87" s="1">
         <f t="shared" si="7"/>
         <v>-0.2</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>151</v>
       </c>
@@ -6958,41 +7251,44 @@
         <v>386</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>VLOOKUP(J88,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S88&amp;VLOOKUP(I88,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E88,"#",TEXT(IF(ISBLANK(O88),ABS(N88),ABS(O88))*100,"0")&amp;"%")&amp;R88</f>
+        <f>VLOOKUP(K88,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T88&amp;VLOOKUP(J88,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E88,"#",TEXT(IF(ISBLANK(P88),ABS(O88),ABS(P88))*100,"0")&amp;"%")&amp;S88</f>
         <v>回合开始时30%的概率使自身释放技能，但是失败了！。</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="22">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M88" s="1">
+      <c r="N88" s="1">
         <v>0.3</v>
       </c>
-      <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="Q88" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O88),VLOOKUP(H88,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N88),VLOOKUP(H88,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N88)), NOT(ISBLANK(O88))),VLOOKUP(H88,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P88" s="15"/>
+      <c r="R88" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P88),VLOOKUP(I88,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O88),VLOOKUP(I88,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O88)), NOT(ISBLANK(P88))),VLOOKUP(I88,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>释放技能，但是失败了！</v>
       </c>
-      <c r="R88" s="1" t="str">
+      <c r="S88" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S88" s="1" t="str">
+      <c r="T88" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T88" s="1">
+      <c r="U88" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>106</v>
       </c>
@@ -7010,41 +7306,44 @@
         <v>386</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>VLOOKUP(J89,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S89&amp;VLOOKUP(I89,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E89,"#",TEXT(IF(ISBLANK(O89),ABS(N89),ABS(O89))*100,"0")&amp;"%")&amp;R89</f>
+        <f>VLOOKUP(K89,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T89&amp;VLOOKUP(J89,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E89,"#",TEXT(IF(ISBLANK(P89),ABS(O89),ABS(P89))*100,"0")&amp;"%")&amp;S89</f>
         <v>回合开始时0%的概率使自身释放技能，但是失败了！。</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="22">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M89" s="1">
+      <c r="N89" s="1">
         <v>0</v>
       </c>
-      <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="Q89" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O89),VLOOKUP(H89,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N89),VLOOKUP(H89,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N89)), NOT(ISBLANK(O89))),VLOOKUP(H89,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P89" s="15"/>
+      <c r="R89" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P89),VLOOKUP(I89,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O89),VLOOKUP(I89,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O89)), NOT(ISBLANK(P89))),VLOOKUP(I89,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>释放技能，但是失败了！</v>
       </c>
-      <c r="R89" s="1" t="str">
+      <c r="S89" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S89" s="1" t="str">
+      <c r="T89" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0%的概率</v>
       </c>
-      <c r="T89" s="1">
+      <c r="U89" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>202</v>
       </c>
@@ -7062,43 +7361,46 @@
         <v>390</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>VLOOKUP(J90,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S90&amp;VLOOKUP(I90,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E90,"#",TEXT(IF(ISBLANK(O90),ABS(N90),ABS(O90))*100,"0")&amp;"%")&amp;R90</f>
+        <f>VLOOKUP(K90,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T90&amp;VLOOKUP(J90,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E90,"#",TEXT(IF(ISBLANK(P90),ABS(O90),ABS(P90))*100,"0")&amp;"%")&amp;S90</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="22">
+        <v>5</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M90" s="1">
-        <v>1</v>
-      </c>
-      <c r="N90" s="15">
+      <c r="N90" s="1">
+        <v>1</v>
+      </c>
+      <c r="O90" s="15">
         <v>5</v>
       </c>
-      <c r="O90" s="15"/>
-      <c r="Q90" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O90),VLOOKUP(H90,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N90),VLOOKUP(H90,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N90)), NOT(ISBLANK(O90))),VLOOKUP(H90,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P90" s="15"/>
+      <c r="R90" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P90),VLOOKUP(I90,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O90),VLOOKUP(I90,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O90)), NOT(ISBLANK(P90))),VLOOKUP(I90,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
       </c>
-      <c r="R90" s="1" t="str">
+      <c r="S90" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S90" s="1" t="str">
+      <c r="T90" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T90" s="1">
+      <c r="U90" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>154</v>
       </c>
@@ -7116,48 +7418,51 @@
         <v>402</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>VLOOKUP(J91,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S91&amp;VLOOKUP(I91,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(O91),ABS(N91),ABS(O91))*100,"0")&amp;"%")&amp;R91</f>
+        <f>VLOOKUP(K91,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T91&amp;VLOOKUP(J91,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(P91),ABS(O91),ABS(P91))*100,"0")&amp;"%")&amp;S91</f>
         <v>回合开始时20%的概率使自身+200%攻防，持续3回合。</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="22">
+        <v>4</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L91" s="1">
+      <c r="M91" s="1">
         <v>3</v>
       </c>
-      <c r="M91" s="1">
+      <c r="N91" s="1">
         <v>0.2</v>
-      </c>
-      <c r="N91" s="15">
-        <v>2</v>
       </c>
       <c r="O91" s="15">
         <v>2</v>
       </c>
-      <c r="Q91" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O91),VLOOKUP(H91,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N91),VLOOKUP(H91,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N91)), NOT(ISBLANK(O91))),VLOOKUP(H91,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P91" s="15">
+        <v>2</v>
+      </c>
+      <c r="R91" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P91),VLOOKUP(I91,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O91),VLOOKUP(I91,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O91)), NOT(ISBLANK(P91))),VLOOKUP(I91,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻防</v>
       </c>
-      <c r="R91" s="1" t="str">
+      <c r="S91" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S91" s="1" t="str">
+      <c r="T91" s="1" t="str">
         <f t="shared" si="6"/>
         <v>20%的概率</v>
       </c>
-      <c r="T91" s="1">
+      <c r="U91" s="1">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>155</v>
       </c>
@@ -7175,43 +7480,46 @@
         <v>390</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>VLOOKUP(J92,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S92&amp;VLOOKUP(I92,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E92,"#",TEXT(IF(ISBLANK(O92),ABS(N92),ABS(O92))*100,"0")&amp;"%")&amp;R92</f>
+        <f>VLOOKUP(K92,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T92&amp;VLOOKUP(J92,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E92,"#",TEXT(IF(ISBLANK(P92),ABS(O92),ABS(P92))*100,"0")&amp;"%")&amp;S92</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="22">
+        <v>5</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M92" s="1">
-        <v>1</v>
-      </c>
-      <c r="N92" s="15">
+      <c r="N92" s="1">
+        <v>1</v>
+      </c>
+      <c r="O92" s="15">
         <v>5</v>
       </c>
-      <c r="O92" s="15"/>
-      <c r="Q92" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O92),VLOOKUP(H92,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N92),VLOOKUP(H92,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N92)), NOT(ISBLANK(O92))),VLOOKUP(H92,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P92" s="15"/>
+      <c r="R92" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P92),VLOOKUP(I92,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O92),VLOOKUP(I92,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O92)), NOT(ISBLANK(P92))),VLOOKUP(I92,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
       </c>
-      <c r="R92" s="1" t="str">
+      <c r="S92" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S92" s="1" t="str">
+      <c r="T92" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T92" s="1">
+      <c r="U92" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>156</v>
       </c>
@@ -7229,43 +7537,46 @@
         <v>393</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>VLOOKUP(J93,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S93&amp;VLOOKUP(I93,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E93,"#",TEXT(IF(ISBLANK(O93),ABS(N93),ABS(O93))*100,"0")&amp;"%")&amp;R93</f>
+        <f>VLOOKUP(K93,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T93&amp;VLOOKUP(J93,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E93,"#",TEXT(IF(ISBLANK(P93),ABS(O93),ABS(P93))*100,"0")&amp;"%")&amp;S93</f>
         <v>回合开始时30%的概率使自身获得1个技能。</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="22">
+        <v>4</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M93" s="1">
+      <c r="N93" s="1">
         <v>0.3</v>
       </c>
-      <c r="N93" s="15">
-        <v>1</v>
-      </c>
-      <c r="O93" s="15"/>
-      <c r="Q93" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O93),VLOOKUP(H93,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N93),VLOOKUP(H93,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N93)), NOT(ISBLANK(O93))),VLOOKUP(H93,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O93" s="15">
+        <v>1</v>
+      </c>
+      <c r="P93" s="15"/>
+      <c r="R93" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P93),VLOOKUP(I93,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O93),VLOOKUP(I93,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O93)), NOT(ISBLANK(P93))),VLOOKUP(I93,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>获得^个技能</v>
       </c>
-      <c r="R93" s="1" t="str">
+      <c r="S93" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S93" s="1" t="str">
+      <c r="T93" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T93" s="1">
+      <c r="U93" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>157</v>
       </c>
@@ -7283,44 +7594,47 @@
         <v>401</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>VLOOKUP(J94,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S94&amp;VLOOKUP(I94,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(O94),ABS(N94),ABS(O94))*100,"0")&amp;"%")&amp;R94</f>
+        <f>VLOOKUP(K94,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T94&amp;VLOOKUP(J94,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(P94),ABS(O94),ABS(P94))*100,"0")&amp;"%")&amp;S94</f>
         <v>攻击后25%的概率使对手跳过回合，持续2回合。</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="22">
+        <v>3</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L94" s="1">
+      <c r="M94" s="1">
         <v>2</v>
       </c>
-      <c r="M94" s="1">
+      <c r="N94" s="1">
         <v>0.25</v>
       </c>
-      <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="Q94" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O94),VLOOKUP(H94,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N94),VLOOKUP(H94,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N94)), NOT(ISBLANK(O94))),VLOOKUP(H94,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P94" s="15"/>
+      <c r="R94" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P94),VLOOKUP(I94,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O94),VLOOKUP(I94,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O94)), NOT(ISBLANK(P94))),VLOOKUP(I94,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="R94" s="1" t="str">
+      <c r="S94" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S94" s="1" t="str">
+      <c r="T94" s="1" t="str">
         <f t="shared" si="6"/>
         <v>25%的概率</v>
       </c>
-      <c r="T94" s="1">
+      <c r="U94" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>158</v>
       </c>
@@ -7338,46 +7652,49 @@
         <v>400</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>VLOOKUP(J95,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S95&amp;VLOOKUP(I95,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(O95),ABS(N95),ABS(O95))*100,"0")&amp;"%")&amp;R95</f>
+        <f>VLOOKUP(K95,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T95&amp;VLOOKUP(J95,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(P95),ABS(O95),ABS(P95))*100,"0")&amp;"%")&amp;S95</f>
         <v>战斗开始时使对手-50%攻击力，永久</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="22">
+        <v>5</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L95" s="1">
+      <c r="M95" s="1">
         <v>-1</v>
       </c>
-      <c r="M95" s="1">
-        <v>1</v>
-      </c>
-      <c r="N95" s="15">
+      <c r="N95" s="1">
+        <v>1</v>
+      </c>
+      <c r="O95" s="15">
         <v>-0.5</v>
       </c>
-      <c r="O95" s="15"/>
-      <c r="Q95" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O95),VLOOKUP(H95,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N95),VLOOKUP(H95,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N95)), NOT(ISBLANK(O95))),VLOOKUP(H95,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P95" s="15"/>
+      <c r="R95" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P95),VLOOKUP(I95,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O95),VLOOKUP(I95,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O95)), NOT(ISBLANK(P95))),VLOOKUP(I95,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R95" s="1" t="str">
+      <c r="S95" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，永久</v>
       </c>
-      <c r="S95" s="1" t="str">
+      <c r="T95" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T95" s="1">
+      <c r="U95" s="1">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>159</v>
       </c>
@@ -7395,48 +7712,51 @@
         <v>387</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>VLOOKUP(J96,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S96&amp;VLOOKUP(I96,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E96,"#",TEXT(IF(ISBLANK(O96),ABS(N96),ABS(O96))*100,"0")&amp;"%")&amp;R96</f>
+        <f>VLOOKUP(K96,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T96&amp;VLOOKUP(J96,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E96,"#",TEXT(IF(ISBLANK(P96),ABS(O96),ABS(P96))*100,"0")&amp;"%")&amp;S96</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，9次。</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="22">
+        <v>5</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K96" s="1">
+      <c r="L96" s="1">
         <v>0</v>
       </c>
-      <c r="M96" s="1">
-        <v>1</v>
-      </c>
-      <c r="N96" s="15">
+      <c r="N96" s="1">
+        <v>1</v>
+      </c>
+      <c r="O96" s="15">
         <v>9</v>
       </c>
-      <c r="O96" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O96),VLOOKUP(H96,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N96),VLOOKUP(H96,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N96)), NOT(ISBLANK(O96))),VLOOKUP(H96,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P96" s="15">
+        <v>1</v>
+      </c>
+      <c r="R96" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P96),VLOOKUP(I96,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O96),VLOOKUP(I96,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O96)), NOT(ISBLANK(P96))),VLOOKUP(I96,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#最大生命并清除buff，^次</v>
       </c>
-      <c r="R96" s="1" t="str">
+      <c r="S96" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S96" s="1" t="str">
+      <c r="T96" s="1" t="str">
         <f t="shared" si="6"/>
         <v>如果死亡，那么</v>
       </c>
-      <c r="T96" s="1">
+      <c r="U96" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>160</v>
       </c>
@@ -7454,46 +7774,49 @@
         <v>399</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>VLOOKUP(J97,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S97&amp;VLOOKUP(I97,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(O97),ABS(N97),ABS(O97))*100,"0")&amp;"%")&amp;R97</f>
+        <f>VLOOKUP(K97,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T97&amp;VLOOKUP(J97,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(P97),ABS(O97),ABS(P97))*100,"0")&amp;"%")&amp;S97</f>
         <v>回合开始时30%的概率使自身+200%攻击力，持续3回合。</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="22">
+        <v>4</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L97" s="1">
+      <c r="M97" s="1">
         <v>3</v>
       </c>
-      <c r="M97" s="1">
+      <c r="N97" s="1">
         <v>0.3</v>
       </c>
-      <c r="N97" s="15">
+      <c r="O97" s="15">
         <v>2</v>
       </c>
-      <c r="O97" s="15"/>
-      <c r="Q97" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O97),VLOOKUP(H97,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N97),VLOOKUP(H97,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N97)), NOT(ISBLANK(O97))),VLOOKUP(H97,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P97" s="15"/>
+      <c r="R97" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P97),VLOOKUP(I97,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O97),VLOOKUP(I97,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O97)), NOT(ISBLANK(P97))),VLOOKUP(I97,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#攻击力</v>
       </c>
-      <c r="R97" s="1" t="str">
+      <c r="S97" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S97" s="1" t="str">
+      <c r="T97" s="1" t="str">
         <f t="shared" si="6"/>
         <v>30%的概率</v>
       </c>
-      <c r="T97" s="1">
+      <c r="U97" s="1">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>161</v>
       </c>
@@ -7511,43 +7834,46 @@
         <v>398</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>VLOOKUP(J98,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S98&amp;VLOOKUP(I98,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(O98),ABS(N98),ABS(O98))*100,"0")&amp;"%")&amp;R98</f>
+        <f>VLOOKUP(K98,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T98&amp;VLOOKUP(J98,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(P98),ABS(O98),ABS(P98))*100,"0")&amp;"%")&amp;S98</f>
         <v>受击时使自身-50%所受的伤害。</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="22">
+        <v>4</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M98" s="1">
-        <v>1</v>
-      </c>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15">
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15">
         <v>-0.5</v>
       </c>
-      <c r="Q98" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O98),VLOOKUP(H98,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N98),VLOOKUP(H98,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N98)), NOT(ISBLANK(O98))),VLOOKUP(H98,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R98" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P98),VLOOKUP(I98,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O98),VLOOKUP(I98,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O98)), NOT(ISBLANK(P98))),VLOOKUP(I98,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#所受的伤害</v>
       </c>
-      <c r="R98" s="1" t="str">
+      <c r="S98" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S98" s="1" t="str">
+      <c r="T98" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T98" s="1">
+      <c r="U98" s="1">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>162</v>
       </c>
@@ -7565,44 +7891,47 @@
         <v>416</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>VLOOKUP(J99,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S99&amp;VLOOKUP(I99,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(O99),ABS(N99),ABS(O99))*100,"0")&amp;"%")&amp;R99</f>
+        <f>VLOOKUP(K99,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T99&amp;VLOOKUP(J99,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(P99),ABS(O99),ABS(P99))*100,"0")&amp;"%")&amp;S99</f>
         <v>攻击后15%的概率使对手跳过回合，持续3回合。</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="22">
+        <v>3</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="J99" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="K99" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L99" s="1">
+      <c r="M99" s="1">
         <v>3</v>
       </c>
-      <c r="M99" s="1">
+      <c r="N99" s="1">
         <v>0.15</v>
       </c>
-      <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="Q99" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O99),VLOOKUP(H99,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N99),VLOOKUP(H99,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N99)), NOT(ISBLANK(O99))),VLOOKUP(H99,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P99" s="15"/>
+      <c r="R99" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P99),VLOOKUP(I99,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O99),VLOOKUP(I99,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O99)), NOT(ISBLANK(P99))),VLOOKUP(I99,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="R99" s="1" t="str">
+      <c r="S99" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S99" s="1" t="str">
+      <c r="T99" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="T99" s="1">
+      <c r="U99" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>163</v>
       </c>
@@ -7620,44 +7949,47 @@
         <v>415</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>VLOOKUP(J100,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S100&amp;VLOOKUP(I100,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(O100),ABS(N100),ABS(O100))*100,"0")&amp;"%")&amp;R100</f>
+        <f>VLOOKUP(K100,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T100&amp;VLOOKUP(J100,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(P100),ABS(O100),ABS(P100))*100,"0")&amp;"%")&amp;S100</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="22">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L100" s="1">
-        <v>1</v>
-      </c>
       <c r="M100" s="1">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1">
         <v>0.25</v>
       </c>
-      <c r="N100" s="15"/>
       <c r="O100" s="15"/>
-      <c r="Q100" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O100),VLOOKUP(H100,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N100),VLOOKUP(H100,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N100)), NOT(ISBLANK(O100))),VLOOKUP(H100,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P100" s="15"/>
+      <c r="R100" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P100),VLOOKUP(I100,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O100),VLOOKUP(I100,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O100)), NOT(ISBLANK(P100))),VLOOKUP(I100,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>跳过回合</v>
       </c>
-      <c r="R100" s="1" t="str">
+      <c r="S100" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续1回合。</v>
       </c>
-      <c r="S100" s="1" t="str">
+      <c r="T100" s="1" t="str">
         <f t="shared" si="6"/>
         <v>25%的概率</v>
       </c>
-      <c r="T100" s="1">
+      <c r="U100" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>164</v>
       </c>
@@ -7675,43 +8007,46 @@
         <v>394</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>VLOOKUP(J101,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S101&amp;VLOOKUP(I101,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E101,"#",TEXT(IF(ISBLANK(O101),ABS(N101),ABS(O101))*100,"0")&amp;"%")&amp;R101</f>
+        <f>VLOOKUP(K101,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T101&amp;VLOOKUP(J101,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E101,"#",TEXT(IF(ISBLANK(P101),ABS(O101),ABS(P101))*100,"0")&amp;"%")&amp;S101</f>
         <v>回合开始时10%的概率使对手-[100%×攻击力]的生命值。</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="22">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="K101" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M101" s="1">
+      <c r="N101" s="1">
         <v>0.1</v>
       </c>
-      <c r="N101" s="15">
+      <c r="O101" s="15">
         <v>-1</v>
       </c>
-      <c r="O101" s="15"/>
-      <c r="Q101" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O101),VLOOKUP(H101,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N101),VLOOKUP(H101,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N101)), NOT(ISBLANK(O101))),VLOOKUP(H101,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P101" s="15"/>
+      <c r="R101" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P101),VLOOKUP(I101,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O101),VLOOKUP(I101,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O101)), NOT(ISBLANK(P101))),VLOOKUP(I101,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*[#×攻击力]的生命值</v>
       </c>
-      <c r="R101" s="1" t="str">
+      <c r="S101" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S101" s="1" t="str">
+      <c r="T101" s="1" t="str">
         <f t="shared" si="6"/>
         <v>10%的概率</v>
       </c>
-      <c r="T101" s="1">
+      <c r="U101" s="1">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>165</v>
       </c>
@@ -7729,44 +8064,47 @@
         <v>397</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>VLOOKUP(J102,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S102&amp;VLOOKUP(I102,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E102,"#",TEXT(IF(ISBLANK(O102),ABS(N102),ABS(O102))*100,"0")&amp;"%")&amp;R102</f>
+        <f>VLOOKUP(K102,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T102&amp;VLOOKUP(J102,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E102,"#",TEXT(IF(ISBLANK(P102),ABS(O102),ABS(P102))*100,"0")&amp;"%")&amp;S102</f>
         <v>回合开始时15%的概率使自身闪避，持续2回合。</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="22">
+        <v>3</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L102" s="1">
+      <c r="M102" s="1">
         <v>2</v>
       </c>
-      <c r="M102" s="1">
+      <c r="N102" s="1">
         <v>0.15</v>
       </c>
-      <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="Q102" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O102),VLOOKUP(H102,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N102),VLOOKUP(H102,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N102)), NOT(ISBLANK(O102))),VLOOKUP(H102,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P102" s="15"/>
+      <c r="R102" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P102),VLOOKUP(I102,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O102),VLOOKUP(I102,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O102)), NOT(ISBLANK(P102))),VLOOKUP(I102,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="R102" s="1" t="str">
+      <c r="S102" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续2回合。</v>
       </c>
-      <c r="S102" s="1" t="str">
+      <c r="T102" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="T102" s="1">
+      <c r="U102" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>166</v>
       </c>
@@ -7784,43 +8122,46 @@
         <v>395</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>VLOOKUP(J103,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S103&amp;VLOOKUP(I103,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E103,"#",TEXT(IF(ISBLANK(O103),ABS(N103),ABS(O103))*100,"0")&amp;"%")&amp;R103</f>
+        <f>VLOOKUP(K103,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T103&amp;VLOOKUP(J103,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E103,"#",TEXT(IF(ISBLANK(P103),ABS(O103),ABS(P103))*100,"0")&amp;"%")&amp;S103</f>
         <v>攻击时80%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H103" s="22">
+        <v>4</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="K103" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M103" s="1">
+      <c r="N103" s="1">
         <v>0.8</v>
       </c>
-      <c r="N103" s="15">
+      <c r="O103" s="15">
         <v>0.5</v>
       </c>
-      <c r="O103" s="15"/>
-      <c r="Q103" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O103),VLOOKUP(H103,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N103),VLOOKUP(H103,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N103)), NOT(ISBLANK(O103))),VLOOKUP(H103,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P103" s="15"/>
+      <c r="R103" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P103),VLOOKUP(I103,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O103),VLOOKUP(I103,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O103)), NOT(ISBLANK(P103))),VLOOKUP(I103,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R103" s="1" t="str">
+      <c r="S103" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S103" s="1" t="str">
+      <c r="T103" s="1" t="str">
         <f t="shared" si="6"/>
         <v>80%的概率</v>
       </c>
-      <c r="T103" s="1">
+      <c r="U103" s="1">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>167</v>
       </c>
@@ -7838,43 +8179,46 @@
         <v>393</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>VLOOKUP(J104,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S104&amp;VLOOKUP(I104,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E104,"#",TEXT(IF(ISBLANK(O104),ABS(N104),ABS(O104))*100,"0")&amp;"%")&amp;R104</f>
+        <f>VLOOKUP(K104,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T104&amp;VLOOKUP(J104,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E104,"#",TEXT(IF(ISBLANK(P104),ABS(O104),ABS(P104))*100,"0")&amp;"%")&amp;S104</f>
         <v>回合开始时50%的概率使自身获得1个技能。</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="22">
+        <v>4</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="J104" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="K104" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M104" s="1">
+      <c r="N104" s="1">
         <v>0.5</v>
       </c>
-      <c r="N104" s="15">
-        <v>1</v>
-      </c>
-      <c r="O104" s="15"/>
-      <c r="Q104" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O104),VLOOKUP(H104,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N104),VLOOKUP(H104,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N104)), NOT(ISBLANK(O104))),VLOOKUP(H104,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O104" s="15">
+        <v>1</v>
+      </c>
+      <c r="P104" s="15"/>
+      <c r="R104" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P104),VLOOKUP(I104,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O104),VLOOKUP(I104,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O104)), NOT(ISBLANK(P104))),VLOOKUP(I104,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>获得^个技能</v>
       </c>
-      <c r="R104" s="1" t="str">
+      <c r="S104" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S104" s="1" t="str">
+      <c r="T104" s="1" t="str">
         <f t="shared" si="6"/>
         <v>50%的概率</v>
       </c>
-      <c r="T104" s="1">
+      <c r="U104" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>168</v>
       </c>
@@ -7892,43 +8236,46 @@
         <v>388</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f>VLOOKUP(J105,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S105&amp;VLOOKUP(I105,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E105,"#",TEXT(IF(ISBLANK(O105),ABS(N105),ABS(O105))*100,"0")&amp;"%")&amp;R105</f>
+        <f>VLOOKUP(K105,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T105&amp;VLOOKUP(J105,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E105,"#",TEXT(IF(ISBLANK(P105),ABS(O105),ABS(P105))*100,"0")&amp;"%")&amp;S105</f>
         <v>回合开始时60%的概率使对手禁用1个技能。</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" s="22">
+        <v>5</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="J105" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="K105" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M105" s="1">
+      <c r="N105" s="1">
         <v>0.6</v>
       </c>
-      <c r="N105" s="15">
-        <v>1</v>
-      </c>
-      <c r="O105" s="15"/>
-      <c r="Q105" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O105),VLOOKUP(H105,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N105),VLOOKUP(H105,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N105)), NOT(ISBLANK(O105))),VLOOKUP(H105,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O105" s="15">
+        <v>1</v>
+      </c>
+      <c r="P105" s="15"/>
+      <c r="R105" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P105),VLOOKUP(I105,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O105),VLOOKUP(I105,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O105)), NOT(ISBLANK(P105))),VLOOKUP(I105,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>禁用^个技能</v>
       </c>
-      <c r="R105" s="1" t="str">
+      <c r="S105" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S105" s="1" t="str">
+      <c r="T105" s="1" t="str">
         <f t="shared" si="6"/>
         <v>60%的概率</v>
       </c>
-      <c r="T105" s="1">
+      <c r="U105" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>169</v>
       </c>
@@ -7946,43 +8293,46 @@
         <v>392</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f>VLOOKUP(J106,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S106&amp;VLOOKUP(I106,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E106,"#",TEXT(IF(ISBLANK(O106),ABS(N106),ABS(O106))*100,"0")&amp;"%")&amp;R106</f>
+        <f>VLOOKUP(K106,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T106&amp;VLOOKUP(J106,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E106,"#",TEXT(IF(ISBLANK(P106),ABS(O106),ABS(P106))*100,"0")&amp;"%")&amp;S106</f>
         <v>攻击时70%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H106" s="22">
+        <v>3</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="J106" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="K106" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M106" s="1">
+      <c r="N106" s="1">
         <v>0.7</v>
       </c>
-      <c r="N106" s="15">
-        <v>1</v>
-      </c>
-      <c r="O106" s="15"/>
-      <c r="Q106" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O106),VLOOKUP(H106,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N106),VLOOKUP(H106,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N106)), NOT(ISBLANK(O106))),VLOOKUP(H106,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O106" s="15">
+        <v>1</v>
+      </c>
+      <c r="P106" s="15"/>
+      <c r="R106" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P106),VLOOKUP(I106,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O106),VLOOKUP(I106,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O106)), NOT(ISBLANK(P106))),VLOOKUP(I106,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R106" s="1" t="str">
+      <c r="S106" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S106" s="1" t="str">
+      <c r="T106" s="1" t="str">
         <f t="shared" si="6"/>
         <v>70%的概率</v>
       </c>
-      <c r="T106" s="1">
+      <c r="U106" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>170</v>
       </c>
@@ -8000,43 +8350,46 @@
         <v>396</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f>VLOOKUP(J107,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S107&amp;VLOOKUP(I107,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E107,"#",TEXT(IF(ISBLANK(O107),ABS(N107),ABS(O107))*100,"0")&amp;"%")&amp;R107</f>
+        <f>VLOOKUP(K107,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T107&amp;VLOOKUP(J107,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E107,"#",TEXT(IF(ISBLANK(P107),ABS(O107),ABS(P107))*100,"0")&amp;"%")&amp;S107</f>
         <v>攻击时60%的概率使自身+200%造成的伤害。</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H107" s="22">
+        <v>3</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="K107" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M107" s="1">
+      <c r="N107" s="1">
         <v>0.6</v>
       </c>
-      <c r="N107" s="15">
+      <c r="O107" s="15">
         <v>2</v>
       </c>
-      <c r="O107" s="15"/>
-      <c r="Q107" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O107),VLOOKUP(H107,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N107),VLOOKUP(H107,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N107)), NOT(ISBLANK(O107))),VLOOKUP(H107,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P107" s="15"/>
+      <c r="R107" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P107),VLOOKUP(I107,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O107),VLOOKUP(I107,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O107)), NOT(ISBLANK(P107))),VLOOKUP(I107,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>*#造成的伤害</v>
       </c>
-      <c r="R107" s="1" t="str">
+      <c r="S107" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S107" s="1" t="str">
+      <c r="T107" s="1" t="str">
         <f t="shared" si="6"/>
         <v>60%的概率</v>
       </c>
-      <c r="T107" s="1">
+      <c r="U107" s="1">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>171</v>
       </c>
@@ -8054,43 +8407,46 @@
         <v>388</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f>VLOOKUP(J108,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S108&amp;VLOOKUP(I108,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E108,"#",TEXT(IF(ISBLANK(O108),ABS(N108),ABS(O108))*100,"0")&amp;"%")&amp;R108</f>
+        <f>VLOOKUP(K108,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T108&amp;VLOOKUP(J108,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E108,"#",TEXT(IF(ISBLANK(P108),ABS(O108),ABS(P108))*100,"0")&amp;"%")&amp;S108</f>
         <v>回合开始时50%的概率使对手禁用1个技能。</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" s="22">
+        <v>4</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="J108" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M108" s="1">
+      <c r="N108" s="1">
         <v>0.5</v>
       </c>
-      <c r="N108" s="15">
-        <v>1</v>
-      </c>
-      <c r="O108" s="15"/>
-      <c r="Q108" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O108),VLOOKUP(H108,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N108),VLOOKUP(H108,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N108)), NOT(ISBLANK(O108))),VLOOKUP(H108,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="O108" s="15">
+        <v>1</v>
+      </c>
+      <c r="P108" s="15"/>
+      <c r="R108" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P108),VLOOKUP(I108,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O108),VLOOKUP(I108,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O108)), NOT(ISBLANK(P108))),VLOOKUP(I108,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>禁用^个技能</v>
       </c>
-      <c r="R108" s="1" t="str">
+      <c r="S108" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S108" s="1" t="str">
+      <c r="T108" s="1" t="str">
         <f t="shared" si="6"/>
         <v>50%的概率</v>
       </c>
-      <c r="T108" s="1">
+      <c r="U108" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>172</v>
       </c>
@@ -8108,44 +8464,47 @@
         <v>389</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f>VLOOKUP(J109,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S109&amp;VLOOKUP(I109,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E109,"#",TEXT(IF(ISBLANK(O109),ABS(N109),ABS(O109))*100,"0")&amp;"%")&amp;R109</f>
+        <f>VLOOKUP(K109,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T109&amp;VLOOKUP(J109,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E109,"#",TEXT(IF(ISBLANK(P109),ABS(O109),ABS(P109))*100,"0")&amp;"%")&amp;S109</f>
         <v>回合开始时15%的概率使自身闪避，持续3回合。</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H109" s="22">
+        <v>4</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="J109" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L109" s="1">
+      <c r="M109" s="1">
         <v>3</v>
       </c>
-      <c r="M109" s="1">
+      <c r="N109" s="1">
         <v>0.15</v>
       </c>
-      <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="Q109" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O109),VLOOKUP(H109,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N109),VLOOKUP(H109,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N109)), NOT(ISBLANK(O109))),VLOOKUP(H109,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="P109" s="15"/>
+      <c r="R109" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P109),VLOOKUP(I109,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O109),VLOOKUP(I109,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O109)), NOT(ISBLANK(P109))),VLOOKUP(I109,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>闪避</v>
       </c>
-      <c r="R109" s="1" t="str">
+      <c r="S109" s="1" t="str">
         <f t="shared" si="5"/>
         <v>，持续3回合。</v>
       </c>
-      <c r="S109" s="1" t="str">
+      <c r="T109" s="1" t="str">
         <f t="shared" si="6"/>
         <v>15%的概率</v>
       </c>
-      <c r="T109" s="1">
+      <c r="U109" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>203</v>
       </c>
@@ -8163,46 +8522,49 @@
         <v>391</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f>VLOOKUP(J110,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;S110&amp;VLOOKUP(I110,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E110,"#",TEXT(IF(ISBLANK(O110),ABS(N110),ABS(O110))*100,"0")&amp;"%")&amp;R110</f>
+        <f>VLOOKUP(K110,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T110&amp;VLOOKUP(J110,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E110,"#",TEXT(IF(ISBLANK(P110),ABS(O110),ABS(P110))*100,"0")&amp;"%")&amp;S110</f>
         <v>战斗准备阶段使自身(生物)随机获得X个技能。(玩家)增加5个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100。</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H110" s="22">
+        <v>5</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="J110" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="K110" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M110" s="1">
-        <v>1</v>
-      </c>
-      <c r="N110" s="15"/>
-      <c r="O110" s="15">
+      <c r="N110" s="1">
+        <v>1</v>
+      </c>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15">
         <v>5</v>
       </c>
-      <c r="Q110" s="1" t="str">
-        <f>_xlfn.IFS(ISBLANK(O110),VLOOKUP(H110,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(N110),VLOOKUP(H110,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(N110)), NOT(ISBLANK(O110))),VLOOKUP(H110,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
+      <c r="R110" s="1" t="str">
+        <f>_xlfn.IFS(ISBLANK(P110),VLOOKUP(I110,[1]Sheet1!$A$1:$B$25, 2, FALSE),ISBLANK(O110),VLOOKUP(I110,[1]Sheet1!$A$1:$C$25, 3, FALSE),AND(NOT(ISBLANK(O110)), NOT(ISBLANK(P110))),VLOOKUP(I110,[1]Sheet1!$A$1:$D$25,4, FALSE))</f>
         <v>(生物)随机获得X个技能。(玩家)增加^个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</v>
       </c>
-      <c r="R110" s="1" t="str">
+      <c r="S110" s="1" t="str">
         <f t="shared" si="5"/>
         <v>。</v>
       </c>
-      <c r="S110" s="1" t="str">
+      <c r="T110" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T110" s="1">
+      <c r="U110" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A5:A110">
@@ -8219,27 +8581,27 @@
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 G5:M6 G5:G36 O5:O110 U5:XFD110 B6:G110 G7:P12 N7:N110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149">
+  <conditionalFormatting sqref="B5:F5 G5:N6 G5:H36 P5:P110 V5:XFD110 B6:H110 G7:Q12 O7:O110 G13:P24 Q13:Q26 G25:N25 G26:P26 G27:Q110 A111:XFD149">
     <cfRule type="expression" dxfId="5" priority="10">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 G5:M6 O5:S6 G5:G36 O5:O110 U5:XFD110 B6:G110 G7:P12 N7:N110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149 R6:R110 Q7:S110">
+  <conditionalFormatting sqref="B5:F5 G5:N6 P5:T6 G5:H36 P5:P110 V5:XFD110 B6:H110 G7:Q12 O7:O110 G13:P24 Q13:Q26 G25:N25 G26:P26 G27:Q110 A111:XFD149 S6:S110 R7:T110">
     <cfRule type="expression" dxfId="4" priority="11">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 G5:M6 O5:S6 G5:G36 O5:O110 U5:XFD110 B6:G110 R6:R110 G7:P12 N7:N110 Q7:S110 G13:O24 P13:P26 G25:M25 G26:O26 G27:P110 A111:XFD149">
+  <conditionalFormatting sqref="B5:F5 G5:N6 P5:T6 G5:H36 P5:P110 V5:XFD110 B6:H110 S6:S110 G7:Q12 O7:O110 R7:T110 G13:P24 Q13:Q26 G25:N25 G26:P26 G27:Q110 A111:XFD149">
     <cfRule type="expression" dxfId="3" priority="12">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:M6 B5:D34 U5:XFD34 E5:F110 O5:O110 G5:G149 O6:P12 H7:N149 P13:P26 O27:P34 D35:D110 D111:G149">
+  <conditionalFormatting sqref="I5:N6 B5:D34 V5:XFD34 E5:F110 P5:P110 G5:H149 P6:Q12 I7:O149 Q13:Q26 P27:Q34 D35:D110 D111:H149">
     <cfRule type="expression" priority="13">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="O5">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
@@ -8247,12 +8609,12 @@
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:Q5 R5:S6 O6:Q6 R6:R110 Q7:S110">
+  <conditionalFormatting sqref="O5:R5 S5:T6 P6:R6 S6:S110 R7:T110">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:Q5 R5:S110 Q6 Q7:S110">
+  <conditionalFormatting sqref="O5:R5 S5:T110 R6 R7:T110">
     <cfRule type="expression" priority="8">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>

--- a/design/MiniTemplate/Excels/#skill.xlsx
+++ b/design/MiniTemplate/Excels/#skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA52C2-6C9D-48A4-A35C-D28885998936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21450BC1-C0EF-44C9-B240-C2197347F267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1579,6 +1579,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,11 +1596,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1818,6 +1818,9 @@
             <v>(生物)随机获得^个技能。(玩家)增加^个技能上限</v>
           </cell>
           <cell r="C13" t="str">
+            <v>(生物)随机获得X个技能。(玩家)增加^个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</v>
+          </cell>
+          <cell r="D13" t="str">
             <v>(生物)随机获得X个技能。(玩家)增加^个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</v>
           </cell>
         </row>
@@ -2183,9 +2186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2199,7 @@
     <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
     <col min="5" max="6" width="31.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="73.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="22"/>
+    <col min="8" max="8" width="8.88671875" style="18"/>
     <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
@@ -2205,7 +2208,7 @@
     <col min="14" max="14" width="9.109375" style="1"/>
     <col min="15" max="15" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="21.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="73" style="1" customWidth="1"/>
     <col min="19" max="19" width="19.109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="42.33203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2234,7 +2237,7 @@
       <c r="G1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>417</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -2255,10 +2258,10 @@
       <c r="N1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="23"/>
       <c r="R1" s="2" t="s">
         <v>339</v>
       </c>
@@ -2292,7 +2295,7 @@
       <c r="G2" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="19" t="s">
         <v>418</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -2313,10 +2316,10 @@
       <c r="N2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2328,7 +2331,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="22"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -2366,7 +2369,7 @@
       <c r="G4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="18">
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -2413,7 +2416,7 @@
         <f>VLOOKUP(K5,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T5&amp;VLOOKUP(J5,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E5,"#",TEXT(IF(ISBLANK(P5),ABS(O5),ABS(P5))*100,"0")&amp;"%")&amp;S5</f>
         <v>攻击后20%的概率使自身+[50%×伤害值]的生命值。</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="18">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2469,7 +2472,7 @@
         <f>VLOOKUP(K6,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T6&amp;VLOOKUP(J6,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E6,"#",TEXT(IF(ISBLANK(P6),ABS(O6),ABS(P6))*100,"0")&amp;"%")&amp;S6</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="18">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2528,7 +2531,7 @@
         <f>VLOOKUP(K7,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T7&amp;VLOOKUP(J7,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E7,"#",TEXT(IF(ISBLANK(P7),ABS(O7),ABS(P7))*100,"0")&amp;"%")&amp;S7</f>
         <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="18">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2586,7 +2589,7 @@
         <f>VLOOKUP(K8,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T8&amp;VLOOKUP(J8,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E8,"#",TEXT(IF(ISBLANK(P8),ABS(O8),ABS(P8))*100,"0")&amp;"%")&amp;S8</f>
         <v>回合开始时使自身+5%攻防，永久</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="18">
         <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2648,7 +2651,7 @@
         <f>VLOOKUP(K9,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T9&amp;VLOOKUP(J9,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E9,"#",TEXT(IF(ISBLANK(P9),ABS(O9),ABS(P9))*100,"0")&amp;"%")&amp;S9</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="18">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2705,7 +2708,7 @@
         <f>VLOOKUP(K10,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T10&amp;VLOOKUP(J10,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E10,"#",TEXT(IF(ISBLANK(P10),ABS(O10),ABS(P10))*100,"0")&amp;"%")&amp;S10</f>
         <v>回合开始时使自身+10%攻防，永久</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="18">
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2767,7 +2770,7 @@
         <f>VLOOKUP(K11,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T11&amp;VLOOKUP(J11,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E11,"#",TEXT(IF(ISBLANK(P11),ABS(O11),ABS(P11))*100,"0")&amp;"%")&amp;S11</f>
         <v>回合开始时使对手-5%攻防，永久</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2829,7 +2832,7 @@
         <f>VLOOKUP(K12,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T12&amp;VLOOKUP(J12,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E12,"#",TEXT(IF(ISBLANK(P12),ABS(O12),ABS(P12))*100,"0")&amp;"%")&amp;S12</f>
         <v>战斗开始时使对手攻防交换。</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="18">
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2884,7 +2887,7 @@
         <f>VLOOKUP(K13,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T13&amp;VLOOKUP(J13,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E13,"#",TEXT(IF(ISBLANK(P13),ABS(O13),ABS(P13))*100,"0")&amp;"%")&amp;S13</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="18">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -2942,7 +2945,7 @@
         <f>VLOOKUP(K14,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T14&amp;VLOOKUP(J14,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E14,"#",TEXT(IF(ISBLANK(P14),ABS(O14),ABS(P14))*100,"0")&amp;"%")&amp;S14</f>
         <v>攻击时20%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="18">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -2999,7 +3002,7 @@
         <f>VLOOKUP(K15,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T15&amp;VLOOKUP(J15,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E15,"#",TEXT(IF(ISBLANK(P15),ABS(O15),ABS(P15))*100,"0")&amp;"%")&amp;S15</f>
         <v>攻击前如果生命值&lt;50%，那么使自身+30%攻击力，永久</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="18">
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -3062,7 +3065,7 @@
         <f>VLOOKUP(K16,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T16&amp;VLOOKUP(J16,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(P16),ABS(O16),ABS(P16))*100,"0")&amp;"%")&amp;S16</f>
         <v>攻击时使自身无视闪避。</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="18">
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -3120,7 +3123,7 @@
         <f>VLOOKUP(K17,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T17&amp;VLOOKUP(J17,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E17,"#",TEXT(IF(ISBLANK(P17),ABS(O17),ABS(P17))*100,"0")&amp;"%")&amp;S17</f>
         <v>攻击后15%的概率使对手放弃攻击，持续2回合。</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="18">
         <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -3178,7 +3181,7 @@
         <f>VLOOKUP(K18,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T18&amp;VLOOKUP(J18,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(P18),ABS(O18),ABS(P18))*100,"0")&amp;"%")&amp;S18</f>
         <v>攻击时10%的概率使自身+400%造成的伤害。</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="18">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -3235,7 +3238,7 @@
         <f>VLOOKUP(K19,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T19&amp;VLOOKUP(J19,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(P19),ABS(O19),ABS(P19))*100,"0")&amp;"%")&amp;S19</f>
         <v>攻击后30%的概率使自身闪避，持续2回合。</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="18">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -3293,7 +3296,7 @@
         <f>VLOOKUP(K20,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T20&amp;VLOOKUP(J20,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E20,"#",TEXT(IF(ISBLANK(P20),ABS(O20),ABS(P20))*100,"0")&amp;"%")&amp;S20</f>
         <v>攻击前20%的概率使对手-50%攻击力，持续2回合。</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="18">
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -3353,7 +3356,7 @@
         <f>VLOOKUP(K21,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T21&amp;VLOOKUP(J21,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E21,"#",TEXT(IF(ISBLANK(P21),ABS(O21),ABS(P21))*100,"0")&amp;"%")&amp;S21</f>
         <v>受击时40%的概率使自身闪避。</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="18">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3411,7 +3414,7 @@
         <f>VLOOKUP(K22,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T22&amp;VLOOKUP(J22,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E22,"#",TEXT(IF(ISBLANK(P22),ABS(O22),ABS(P22))*100,"0")&amp;"%")&amp;S22</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="18">
         <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -3471,7 +3474,7 @@
         <f>VLOOKUP(K23,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T23&amp;VLOOKUP(J23,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E23,"#",TEXT(IF(ISBLANK(P23),ABS(O23),ABS(P23))*100,"0")&amp;"%")&amp;S23</f>
         <v>攻击前使对手-10%攻击力，永久</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="18">
         <v>5</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -3531,7 +3534,7 @@
         <f>VLOOKUP(K24,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T24&amp;VLOOKUP(J24,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E24,"#",TEXT(IF(ISBLANK(P24),ABS(O24),ABS(P24))*100,"0")&amp;"%")&amp;S24</f>
         <v>受击时50%的概率使自身闪避。</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="18">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -3589,7 +3592,7 @@
         <f>VLOOKUP(K25,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T25&amp;VLOOKUP(J25,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E25,"#",TEXT(IF(ISBLANK(P25),ABS(O25),ABS(P25))*100,"0")&amp;"%")&amp;S25</f>
         <v>受击后使对手-[40%×伤害值]的生命值。</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="18">
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -3645,7 +3648,7 @@
         <f>VLOOKUP(K26,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T26&amp;VLOOKUP(J26,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E26,"#",TEXT(IF(ISBLANK(P26),ABS(O26),ABS(P26))*100,"0")&amp;"%")&amp;S26</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="18">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -3702,7 +3705,7 @@
         <f>VLOOKUP(K27,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T27&amp;VLOOKUP(J27,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E27,"#",TEXT(IF(ISBLANK(P27),ABS(O27),ABS(P27))*100,"0")&amp;"%")&amp;S27</f>
         <v>攻击时20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="18">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -3760,7 +3763,7 @@
         <f>VLOOKUP(K28,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T28&amp;VLOOKUP(J28,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E28,"#",TEXT(IF(ISBLANK(P28),ABS(O28),ABS(P28))*100,"0")&amp;"%")&amp;S28</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="18">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -3820,7 +3823,7 @@
         <f>VLOOKUP(K29,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T29&amp;VLOOKUP(J29,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E29,"#",TEXT(IF(ISBLANK(P29),ABS(O29),ABS(P29))*100,"0")&amp;"%")&amp;S29</f>
         <v>攻击时30%的概率使自身+200%造成的伤害。</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="18">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -3877,7 +3880,7 @@
         <f>VLOOKUP(K30,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T30&amp;VLOOKUP(J30,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E30,"#",TEXT(IF(ISBLANK(P30),ABS(O30),ABS(P30))*100,"0")&amp;"%")&amp;S30</f>
         <v>受击时90%的概率使自身-20%所受的伤害。</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="18">
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -3934,7 +3937,7 @@
         <f>VLOOKUP(K31,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T31&amp;VLOOKUP(J31,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E31,"#",TEXT(IF(ISBLANK(P31),ABS(O31),ABS(P31))*100,"0")&amp;"%")&amp;S31</f>
         <v>受击时90%的概率使自身-30%所受的伤害。</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="18">
         <v>4</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -3991,7 +3994,7 @@
         <f>VLOOKUP(K32,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T32&amp;VLOOKUP(J32,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E32,"#",TEXT(IF(ISBLANK(P32),ABS(O32),ABS(P32))*100,"0")&amp;"%")&amp;S32</f>
         <v>攻击时10%的概率使自身+150%造成的伤害。</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="18">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -4048,7 +4051,7 @@
         <f>VLOOKUP(K33,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T33&amp;VLOOKUP(J33,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E33,"#",TEXT(IF(ISBLANK(P33),ABS(O33),ABS(P33))*100,"0")&amp;"%")&amp;S33</f>
         <v>攻击时25%的概率使自身+150%造成的伤害。</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="18">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -4105,7 +4108,7 @@
         <f>VLOOKUP(K34,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T34&amp;VLOOKUP(J34,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E34,"#",TEXT(IF(ISBLANK(P34),ABS(O34),ABS(P34))*100,"0")&amp;"%")&amp;S34</f>
         <v>受击后使对手-[50%×伤害值]的生命值。</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="18">
         <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -4162,7 +4165,7 @@
         <f>VLOOKUP(K35,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T35&amp;VLOOKUP(J35,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E35,"#",TEXT(IF(ISBLANK(P35),ABS(O35),ABS(P35))*100,"0")&amp;"%")&amp;S35</f>
         <v>回合开始时50%的概率使自身+[40%×攻击力]的生命值。</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="18">
         <v>3</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -4219,7 +4222,7 @@
         <f>VLOOKUP(K36,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T36&amp;VLOOKUP(J36,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E36,"#",TEXT(IF(ISBLANK(P36),ABS(O36),ABS(P36))*100,"0")&amp;"%")&amp;S36</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="18">
         <v>2</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -4277,7 +4280,7 @@
         <f>VLOOKUP(K37,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T37&amp;VLOOKUP(J37,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E37,"#",TEXT(IF(ISBLANK(P37),ABS(O37),ABS(P37))*100,"0")&amp;"%")&amp;S37</f>
         <v>受击前25%的概率使对手放弃攻击。</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="18">
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -4335,7 +4338,7 @@
         <f>VLOOKUP(K38,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T38&amp;VLOOKUP(J38,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E38,"#",TEXT(IF(ISBLANK(P38),ABS(O38),ABS(P38))*100,"0")&amp;"%")&amp;S38</f>
         <v>战斗开始时使对手-30%攻击力，永久</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="18">
         <v>5</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -4395,7 +4398,7 @@
         <f>VLOOKUP(K39,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T39&amp;VLOOKUP(J39,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E39,"#",TEXT(IF(ISBLANK(P39),ABS(O39),ABS(P39))*100,"0")&amp;"%")&amp;S39</f>
         <v>战斗准备阶段使对手禁用3个技能。</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="18">
         <v>5</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -4452,7 +4455,7 @@
         <f>VLOOKUP(K40,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T40&amp;VLOOKUP(J40,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E40,"#",TEXT(IF(ISBLANK(P40),ABS(O40),ABS(P40))*100,"0")&amp;"%")&amp;S40</f>
         <v>战斗开始时50%的概率使自身+100%攻击力，永久</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="18">
         <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -4512,7 +4515,7 @@
         <f>VLOOKUP(K41,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T41&amp;VLOOKUP(J41,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E41,"#",TEXT(IF(ISBLANK(P41),ABS(O41),ABS(P41))*100,"0")&amp;"%")&amp;S41</f>
         <v>攻击后30%的概率使对手放弃攻击，持续1回合。</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="18">
         <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -4570,7 +4573,7 @@
         <f>VLOOKUP(K42,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T42&amp;VLOOKUP(J42,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E42,"#",TEXT(IF(ISBLANK(P42),ABS(O42),ABS(P42))*100,"0")&amp;"%")&amp;S42</f>
         <v>受击后30%的概率使对手-30%攻防，永久</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="18">
         <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -4632,7 +4635,7 @@
         <f>VLOOKUP(K43,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T43&amp;VLOOKUP(J43,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E43,"#",TEXT(IF(ISBLANK(P43),ABS(O43),ABS(P43))*100,"0")&amp;"%")&amp;S43</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="18">
         <v>3</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -4689,7 +4692,7 @@
         <f>VLOOKUP(K44,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T44&amp;VLOOKUP(J44,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(P44),ABS(O44),ABS(P44))*100,"0")&amp;"%")&amp;S44</f>
         <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="18">
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -4747,7 +4750,7 @@
         <f>VLOOKUP(K45,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T45&amp;VLOOKUP(J45,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(P45),ABS(O45),ABS(P45))*100,"0")&amp;"%")&amp;S45</f>
         <v>攻击后20%的概率使自身闪避，持续1回合。</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="18">
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -4805,7 +4808,7 @@
         <f>VLOOKUP(K46,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T46&amp;VLOOKUP(J46,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E46,"#",TEXT(IF(ISBLANK(P46),ABS(O46),ABS(P46))*100,"0")&amp;"%")&amp;S46</f>
         <v>攻击时20%的概率使对手-100%防御力。</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="18">
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -4865,7 +4868,7 @@
         <f>VLOOKUP(K47,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T47&amp;VLOOKUP(J47,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E47,"#",TEXT(IF(ISBLANK(P47),ABS(O47),ABS(P47))*100,"0")&amp;"%")&amp;S47</f>
         <v>回合开始时20%的概率使自身+50%防御力，持续1回合。</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="18">
         <v>3</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -4925,7 +4928,7 @@
         <f>VLOOKUP(K48,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T48&amp;VLOOKUP(J48,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E48,"#",TEXT(IF(ISBLANK(P48),ABS(O48),ABS(P48))*100,"0")&amp;"%")&amp;S48</f>
         <v>攻击时25%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="18">
         <v>2</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -4982,7 +4985,7 @@
         <f>VLOOKUP(K49,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T49&amp;VLOOKUP(J49,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(P49),ABS(O49),ABS(P49))*100,"0")&amp;"%")&amp;S49</f>
         <v>受击时50%的概率使自身-30%所受的伤害。</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="18">
         <v>3</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -5039,7 +5042,7 @@
         <f>VLOOKUP(K50,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T50&amp;VLOOKUP(J50,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(P50),ABS(O50),ABS(P50))*100,"0")&amp;"%")&amp;S50</f>
         <v>攻击后10%的概率使对手跳过回合，持续2回合。</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="18">
         <v>2</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -5097,7 +5100,7 @@
         <f>VLOOKUP(K51,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T51&amp;VLOOKUP(J51,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E51,"#",TEXT(IF(ISBLANK(P51),ABS(O51),ABS(P51))*100,"0")&amp;"%")&amp;S51</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续2回合。</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="18">
         <v>3</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -5157,7 +5160,7 @@
         <f>VLOOKUP(K52,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T52&amp;VLOOKUP(J52,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E52,"#",TEXT(IF(ISBLANK(P52),ABS(O52),ABS(P52))*100,"0")&amp;"%")&amp;S52</f>
         <v>攻击后70%的概率使对手-5%攻击力，永久</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="18">
         <v>4</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -5217,7 +5220,7 @@
         <f>VLOOKUP(K53,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T53&amp;VLOOKUP(J53,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E53,"#",TEXT(IF(ISBLANK(P53),ABS(O53),ABS(P53))*100,"0")&amp;"%")&amp;S53</f>
         <v>攻击后20%的概率使自身+[100%×攻击力]的生命值。</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="18">
         <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -5274,7 +5277,7 @@
         <f>VLOOKUP(K54,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T54&amp;VLOOKUP(J54,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(P54),ABS(O54),ABS(P54))*100,"0")&amp;"%")&amp;S54</f>
         <v>攻击前50%的概率使对手-5%防御力，永久</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="18">
         <v>4</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -5334,7 +5337,7 @@
         <f>VLOOKUP(K55,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T55&amp;VLOOKUP(J55,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E55,"#",TEXT(IF(ISBLANK(P55),ABS(O55),ABS(P55))*100,"0")&amp;"%")&amp;S55</f>
         <v>回合开始时30%的概率使对手-50%防御力，持续2回合。</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="18">
         <v>4</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -5394,7 +5397,7 @@
         <f>VLOOKUP(K56,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T56&amp;VLOOKUP(J56,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E56,"#",TEXT(IF(ISBLANK(P56),ABS(O56),ABS(P56))*100,"0")&amp;"%")&amp;S56</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="18">
         <v>1</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -5452,7 +5455,7 @@
         <f>VLOOKUP(K57,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T57&amp;VLOOKUP(J57,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E57,"#",TEXT(IF(ISBLANK(P57),ABS(O57),ABS(P57))*100,"0")&amp;"%")&amp;S57</f>
         <v>战斗开始时50%的概率使自身+50%攻击力，永久</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="18">
         <v>5</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -5512,7 +5515,7 @@
         <f>VLOOKUP(K58,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T58&amp;VLOOKUP(J58,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E58,"#",TEXT(IF(ISBLANK(P58),ABS(O58),ABS(P58))*100,"0")&amp;"%")&amp;S58</f>
         <v>回合开始时使自身获得1个技能。</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="18">
         <v>5</v>
       </c>
       <c r="I58" s="1" t="s">
@@ -5569,7 +5572,7 @@
         <f>VLOOKUP(K59,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T59&amp;VLOOKUP(J59,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E59,"#",TEXT(IF(ISBLANK(P59),ABS(O59),ABS(P59))*100,"0")&amp;"%")&amp;S59</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="18">
         <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -5627,7 +5630,7 @@
         <f>VLOOKUP(K60,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T60&amp;VLOOKUP(J60,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(P60),ABS(O60),ABS(P60))*100,"0")&amp;"%")&amp;S60</f>
         <v>攻击时40%的概率使自身+20%造成的伤害。</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="18">
         <v>3</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -5684,7 +5687,7 @@
         <f>VLOOKUP(K61,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T61&amp;VLOOKUP(J61,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E61,"#",TEXT(IF(ISBLANK(P61),ABS(O61),ABS(P61))*100,"0")&amp;"%")&amp;S61</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H61" s="18">
         <v>3</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -5741,7 +5744,7 @@
         <f>VLOOKUP(K62,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T62&amp;VLOOKUP(J62,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E62,"#",TEXT(IF(ISBLANK(P62),ABS(O62),ABS(P62))*100,"0")&amp;"%")&amp;S62</f>
         <v>攻击时40%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="18">
         <v>3</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -5798,7 +5801,7 @@
         <f>VLOOKUP(K63,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T63&amp;VLOOKUP(J63,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E63,"#",TEXT(IF(ISBLANK(P63),ABS(O63),ABS(P63))*100,"0")&amp;"%")&amp;S63</f>
         <v>受击前15%的概率使对手变更目标。</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H63" s="18">
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -5856,7 +5859,7 @@
         <f>VLOOKUP(K64,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T64&amp;VLOOKUP(J64,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E64,"#",TEXT(IF(ISBLANK(P64),ABS(O64),ABS(P64))*100,"0")&amp;"%")&amp;S64</f>
         <v>受击前20%的概率使对手变更目标。</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H64" s="18">
         <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -5914,7 +5917,7 @@
         <f>VLOOKUP(K65,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T65&amp;VLOOKUP(J65,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E65,"#",TEXT(IF(ISBLANK(P65),ABS(O65),ABS(P65))*100,"0")&amp;"%")&amp;S65</f>
         <v>攻击后20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="18">
         <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -5972,7 +5975,7 @@
         <f>VLOOKUP(K66,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T66&amp;VLOOKUP(J66,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E66,"#",TEXT(IF(ISBLANK(P66),ABS(O66),ABS(P66))*100,"0")&amp;"%")&amp;S66</f>
         <v>攻击后20%的概率使对手放弃攻击，持续2回合。</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="18">
         <v>3</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -6030,7 +6033,7 @@
         <f>VLOOKUP(K67,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T67&amp;VLOOKUP(J67,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E67,"#",TEXT(IF(ISBLANK(P67),ABS(O67),ABS(P67))*100,"0")&amp;"%")&amp;S67</f>
         <v>攻击后20%的概率使对手放弃攻击，持续3回合。</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H67" s="18">
         <v>3</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -6088,7 +6091,7 @@
         <f>VLOOKUP(K68,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T68&amp;VLOOKUP(J68,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E68,"#",TEXT(IF(ISBLANK(P68),ABS(O68),ABS(P68))*100,"0")&amp;"%")&amp;S68</f>
         <v>回合开始时使自身+[25%×攻击力]的生命值。</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H68" s="18">
         <v>4</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -6145,7 +6148,7 @@
         <f>VLOOKUP(K69,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T69&amp;VLOOKUP(J69,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(P69),ABS(O69),ABS(P69))*100,"0")&amp;"%")&amp;S69</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H69" s="18">
         <v>2</v>
       </c>
       <c r="I69" s="1" t="s">
@@ -6203,7 +6206,7 @@
         <f>VLOOKUP(K70,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T70&amp;VLOOKUP(J70,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E70,"#",TEXT(IF(ISBLANK(P70),ABS(O70),ABS(P70))*100,"0")&amp;"%")&amp;S70</f>
         <v>攻击时15%的概率使自身+200%造成的伤害。</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="18">
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -6260,7 +6263,7 @@
         <f>VLOOKUP(K71,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T71&amp;VLOOKUP(J71,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(P71),ABS(O71),ABS(P71))*100,"0")&amp;"%")&amp;S71</f>
         <v>受击前70%的概率使对手-30%攻击力。</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="18">
         <v>3</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -6320,7 +6323,7 @@
         <f>VLOOKUP(K72,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T72&amp;VLOOKUP(J72,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E72,"#",TEXT(IF(ISBLANK(P72),ABS(O72),ABS(P72))*100,"0")&amp;"%")&amp;S72</f>
         <v>受击前15%的概率使对手放弃攻击。</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="18">
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
@@ -6378,7 +6381,7 @@
         <f>VLOOKUP(K73,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T73&amp;VLOOKUP(J73,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E73,"#",TEXT(IF(ISBLANK(P73),ABS(O73),ABS(P73))*100,"0")&amp;"%")&amp;S73</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H73" s="18">
         <v>1</v>
       </c>
       <c r="I73" s="1" t="s">
@@ -6436,7 +6439,7 @@
         <f>VLOOKUP(K74,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T74&amp;VLOOKUP(J74,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E74,"#",TEXT(IF(ISBLANK(P74),ABS(O74),ABS(P74))*100,"0")&amp;"%")&amp;S74</f>
         <v>战斗开始时30%的概率使对手-[200%×攻击力]的生命值。</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="18">
         <v>3</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -6493,7 +6496,7 @@
         <f>VLOOKUP(K75,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T75&amp;VLOOKUP(J75,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E75,"#",TEXT(IF(ISBLANK(P75),ABS(O75),ABS(P75))*100,"0")&amp;"%")&amp;S75</f>
         <v>攻击后30%的概率使自身+[100%×伤害值]的生命值。</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H75" s="18">
         <v>2</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -6550,7 +6553,7 @@
         <f>VLOOKUP(K76,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T76&amp;VLOOKUP(J76,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E76,"#",TEXT(IF(ISBLANK(P76),ABS(O76),ABS(P76))*100,"0")&amp;"%")&amp;S76</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H76" s="18">
         <v>5</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -6607,7 +6610,7 @@
         <f>VLOOKUP(K77,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T77&amp;VLOOKUP(J77,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(P77),ABS(O77),ABS(P77))*100,"0")&amp;"%")&amp;S77</f>
         <v>回合开始时30%的概率使自身+50%攻击力，持续2回合。</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H77" s="18">
         <v>4</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -6667,7 +6670,7 @@
         <f>VLOOKUP(K78,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T78&amp;VLOOKUP(J78,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(P78),ABS(O78),ABS(P78))*100,"0")&amp;"%")&amp;S78</f>
         <v>回合开始时30%的概率使自身+100%攻击力，持续2回合。</v>
       </c>
-      <c r="H78" s="22">
+      <c r="H78" s="18">
         <v>4</v>
       </c>
       <c r="I78" s="1" t="s">
@@ -6727,7 +6730,7 @@
         <f>VLOOKUP(K79,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T79&amp;VLOOKUP(J79,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(P79),ABS(O79),ABS(P79))*100,"0")&amp;"%")&amp;S79</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续1回合。</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H79" s="18">
         <v>3</v>
       </c>
       <c r="I79" s="1" t="s">
@@ -6787,7 +6790,7 @@
         <f>VLOOKUP(K80,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T80&amp;VLOOKUP(J80,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E80,"#",TEXT(IF(ISBLANK(P80),ABS(O80),ABS(P80))*100,"0")&amp;"%")&amp;S80</f>
         <v>攻击时30%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H80" s="22">
+      <c r="H80" s="18">
         <v>2</v>
       </c>
       <c r="I80" s="1" t="s">
@@ -6844,7 +6847,7 @@
         <f>VLOOKUP(K81,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T81&amp;VLOOKUP(J81,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E81,"#",TEXT(IF(ISBLANK(P81),ABS(O81),ABS(P81))*100,"0")&amp;"%")&amp;S81</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H81" s="18">
         <v>3</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -6901,7 +6904,7 @@
         <f>VLOOKUP(K82,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T82&amp;VLOOKUP(J82,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E82,"#",TEXT(IF(ISBLANK(P82),ABS(O82),ABS(P82))*100,"0")&amp;"%")&amp;S82</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
       </c>
-      <c r="H82" s="22">
+      <c r="H82" s="18">
         <v>5</v>
       </c>
       <c r="I82" s="1" t="s">
@@ -6961,7 +6964,7 @@
         <f>VLOOKUP(K83,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T83&amp;VLOOKUP(J83,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E83,"#",TEXT(IF(ISBLANK(P83),ABS(O83),ABS(P83))*100,"0")&amp;"%")&amp;S83</f>
         <v>受击后如果死亡，那么50%的概率使自身+100%最大生命并清除buff，9次。</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H83" s="18">
         <v>4</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -7023,7 +7026,7 @@
         <f>VLOOKUP(K84,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T84&amp;VLOOKUP(J84,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E84,"#",TEXT(IF(ISBLANK(P84),ABS(O84),ABS(P84))*100,"0")&amp;"%")&amp;S84</f>
         <v>受击时50%的概率使自身-80%所受的伤害。</v>
       </c>
-      <c r="H84" s="22">
+      <c r="H84" s="18">
         <v>3</v>
       </c>
       <c r="I84" s="1" t="s">
@@ -7080,7 +7083,7 @@
         <f>VLOOKUP(K85,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T85&amp;VLOOKUP(J85,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E85,"#",TEXT(IF(ISBLANK(P85),ABS(O85),ABS(P85))*100,"0")&amp;"%")&amp;S85</f>
         <v>攻击时1%的概率使自身+9900%造成的伤害。</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H85" s="18">
         <v>1</v>
       </c>
       <c r="I85" s="1" t="s">
@@ -7137,7 +7140,7 @@
         <f>VLOOKUP(K86,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T86&amp;VLOOKUP(J86,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E86,"#",TEXT(IF(ISBLANK(P86),ABS(O86),ABS(P86))*100,"0")&amp;"%")&amp;S86</f>
         <v>回合开始时使自身+20%攻击力，永久</v>
       </c>
-      <c r="H86" s="22">
+      <c r="H86" s="18">
         <v>5</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -7197,7 +7200,7 @@
         <f>VLOOKUP(K87,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T87&amp;VLOOKUP(J87,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E87,"#",TEXT(IF(ISBLANK(P87),ABS(O87),ABS(P87))*100,"0")&amp;"%")&amp;S87</f>
         <v>受击后30%的概率使对手-[20%×伤害值]的生命值。</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H87" s="18">
         <v>2</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -7254,7 +7257,7 @@
         <f>VLOOKUP(K88,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T88&amp;VLOOKUP(J88,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E88,"#",TEXT(IF(ISBLANK(P88),ABS(O88),ABS(P88))*100,"0")&amp;"%")&amp;S88</f>
         <v>回合开始时30%的概率使自身释放技能，但是失败了！。</v>
       </c>
-      <c r="H88" s="22">
+      <c r="H88" s="18">
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -7309,7 +7312,7 @@
         <f>VLOOKUP(K89,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T89&amp;VLOOKUP(J89,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E89,"#",TEXT(IF(ISBLANK(P89),ABS(O89),ABS(P89))*100,"0")&amp;"%")&amp;S89</f>
         <v>回合开始时0%的概率使自身释放技能，但是失败了！。</v>
       </c>
-      <c r="H89" s="22">
+      <c r="H89" s="18">
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -7364,7 +7367,7 @@
         <f>VLOOKUP(K90,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T90&amp;VLOOKUP(J90,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E90,"#",TEXT(IF(ISBLANK(P90),ABS(O90),ABS(P90))*100,"0")&amp;"%")&amp;S90</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
-      <c r="H90" s="22">
+      <c r="H90" s="18">
         <v>5</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -7421,7 +7424,7 @@
         <f>VLOOKUP(K91,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T91&amp;VLOOKUP(J91,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(P91),ABS(O91),ABS(P91))*100,"0")&amp;"%")&amp;S91</f>
         <v>回合开始时20%的概率使自身+200%攻防，持续3回合。</v>
       </c>
-      <c r="H91" s="22">
+      <c r="H91" s="18">
         <v>4</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -7483,7 +7486,7 @@
         <f>VLOOKUP(K92,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T92&amp;VLOOKUP(J92,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E92,"#",TEXT(IF(ISBLANK(P92),ABS(O92),ABS(P92))*100,"0")&amp;"%")&amp;S92</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
-      <c r="H92" s="22">
+      <c r="H92" s="18">
         <v>5</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -7540,7 +7543,7 @@
         <f>VLOOKUP(K93,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T93&amp;VLOOKUP(J93,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E93,"#",TEXT(IF(ISBLANK(P93),ABS(O93),ABS(P93))*100,"0")&amp;"%")&amp;S93</f>
         <v>回合开始时30%的概率使自身获得1个技能。</v>
       </c>
-      <c r="H93" s="22">
+      <c r="H93" s="18">
         <v>4</v>
       </c>
       <c r="I93" s="1" t="s">
@@ -7597,7 +7600,7 @@
         <f>VLOOKUP(K94,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T94&amp;VLOOKUP(J94,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(P94),ABS(O94),ABS(P94))*100,"0")&amp;"%")&amp;S94</f>
         <v>攻击后25%的概率使对手跳过回合，持续2回合。</v>
       </c>
-      <c r="H94" s="22">
+      <c r="H94" s="18">
         <v>3</v>
       </c>
       <c r="I94" s="1" t="s">
@@ -7655,7 +7658,7 @@
         <f>VLOOKUP(K95,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T95&amp;VLOOKUP(J95,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(P95),ABS(O95),ABS(P95))*100,"0")&amp;"%")&amp;S95</f>
         <v>战斗开始时使对手-50%攻击力，永久</v>
       </c>
-      <c r="H95" s="22">
+      <c r="H95" s="18">
         <v>5</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -7715,7 +7718,7 @@
         <f>VLOOKUP(K96,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T96&amp;VLOOKUP(J96,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E96,"#",TEXT(IF(ISBLANK(P96),ABS(O96),ABS(P96))*100,"0")&amp;"%")&amp;S96</f>
         <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，9次。</v>
       </c>
-      <c r="H96" s="22">
+      <c r="H96" s="18">
         <v>5</v>
       </c>
       <c r="I96" s="1" t="s">
@@ -7777,7 +7780,7 @@
         <f>VLOOKUP(K97,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T97&amp;VLOOKUP(J97,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(P97),ABS(O97),ABS(P97))*100,"0")&amp;"%")&amp;S97</f>
         <v>回合开始时30%的概率使自身+200%攻击力，持续3回合。</v>
       </c>
-      <c r="H97" s="22">
+      <c r="H97" s="18">
         <v>4</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -7837,7 +7840,7 @@
         <f>VLOOKUP(K98,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T98&amp;VLOOKUP(J98,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(P98),ABS(O98),ABS(P98))*100,"0")&amp;"%")&amp;S98</f>
         <v>受击时使自身-50%所受的伤害。</v>
       </c>
-      <c r="H98" s="22">
+      <c r="H98" s="18">
         <v>4</v>
       </c>
       <c r="I98" s="1" t="s">
@@ -7894,7 +7897,7 @@
         <f>VLOOKUP(K99,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T99&amp;VLOOKUP(J99,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(P99),ABS(O99),ABS(P99))*100,"0")&amp;"%")&amp;S99</f>
         <v>攻击后15%的概率使对手跳过回合，持续3回合。</v>
       </c>
-      <c r="H99" s="22">
+      <c r="H99" s="18">
         <v>3</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -7952,7 +7955,7 @@
         <f>VLOOKUP(K100,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T100&amp;VLOOKUP(J100,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(P100),ABS(O100),ABS(P100))*100,"0")&amp;"%")&amp;S100</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
-      <c r="H100" s="22">
+      <c r="H100" s="18">
         <v>2</v>
       </c>
       <c r="I100" s="1" t="s">
@@ -8010,7 +8013,7 @@
         <f>VLOOKUP(K101,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T101&amp;VLOOKUP(J101,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E101,"#",TEXT(IF(ISBLANK(P101),ABS(O101),ABS(P101))*100,"0")&amp;"%")&amp;S101</f>
         <v>回合开始时10%的概率使对手-[100%×攻击力]的生命值。</v>
       </c>
-      <c r="H101" s="22">
+      <c r="H101" s="18">
         <v>2</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -8067,7 +8070,7 @@
         <f>VLOOKUP(K102,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T102&amp;VLOOKUP(J102,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E102,"#",TEXT(IF(ISBLANK(P102),ABS(O102),ABS(P102))*100,"0")&amp;"%")&amp;S102</f>
         <v>回合开始时15%的概率使自身闪避，持续2回合。</v>
       </c>
-      <c r="H102" s="22">
+      <c r="H102" s="18">
         <v>3</v>
       </c>
       <c r="I102" s="1" t="s">
@@ -8125,7 +8128,7 @@
         <f>VLOOKUP(K103,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T103&amp;VLOOKUP(J103,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E103,"#",TEXT(IF(ISBLANK(P103),ABS(O103),ABS(P103))*100,"0")&amp;"%")&amp;S103</f>
         <v>攻击时80%的概率使自身+50%造成的伤害。</v>
       </c>
-      <c r="H103" s="22">
+      <c r="H103" s="18">
         <v>4</v>
       </c>
       <c r="I103" s="1" t="s">
@@ -8182,7 +8185,7 @@
         <f>VLOOKUP(K104,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T104&amp;VLOOKUP(J104,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E104,"#",TEXT(IF(ISBLANK(P104),ABS(O104),ABS(P104))*100,"0")&amp;"%")&amp;S104</f>
         <v>回合开始时50%的概率使自身获得1个技能。</v>
       </c>
-      <c r="H104" s="22">
+      <c r="H104" s="18">
         <v>4</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -8239,7 +8242,7 @@
         <f>VLOOKUP(K105,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T105&amp;VLOOKUP(J105,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E105,"#",TEXT(IF(ISBLANK(P105),ABS(O105),ABS(P105))*100,"0")&amp;"%")&amp;S105</f>
         <v>回合开始时60%的概率使对手禁用1个技能。</v>
       </c>
-      <c r="H105" s="22">
+      <c r="H105" s="18">
         <v>5</v>
       </c>
       <c r="I105" s="1" t="s">
@@ -8296,7 +8299,7 @@
         <f>VLOOKUP(K106,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T106&amp;VLOOKUP(J106,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E106,"#",TEXT(IF(ISBLANK(P106),ABS(O106),ABS(P106))*100,"0")&amp;"%")&amp;S106</f>
         <v>攻击时70%的概率使自身+100%造成的伤害。</v>
       </c>
-      <c r="H106" s="22">
+      <c r="H106" s="18">
         <v>3</v>
       </c>
       <c r="I106" s="1" t="s">
@@ -8353,7 +8356,7 @@
         <f>VLOOKUP(K107,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T107&amp;VLOOKUP(J107,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E107,"#",TEXT(IF(ISBLANK(P107),ABS(O107),ABS(P107))*100,"0")&amp;"%")&amp;S107</f>
         <v>攻击时60%的概率使自身+200%造成的伤害。</v>
       </c>
-      <c r="H107" s="22">
+      <c r="H107" s="18">
         <v>3</v>
       </c>
       <c r="I107" s="1" t="s">
@@ -8410,7 +8413,7 @@
         <f>VLOOKUP(K108,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T108&amp;VLOOKUP(J108,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E108,"#",TEXT(IF(ISBLANK(P108),ABS(O108),ABS(P108))*100,"0")&amp;"%")&amp;S108</f>
         <v>回合开始时50%的概率使对手禁用1个技能。</v>
       </c>
-      <c r="H108" s="22">
+      <c r="H108" s="18">
         <v>4</v>
       </c>
       <c r="I108" s="1" t="s">
@@ -8467,7 +8470,7 @@
         <f>VLOOKUP(K109,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T109&amp;VLOOKUP(J109,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E109,"#",TEXT(IF(ISBLANK(P109),ABS(O109),ABS(P109))*100,"0")&amp;"%")&amp;S109</f>
         <v>回合开始时15%的概率使自身闪避，持续3回合。</v>
       </c>
-      <c r="H109" s="22">
+      <c r="H109" s="18">
         <v>4</v>
       </c>
       <c r="I109" s="1" t="s">
@@ -8525,7 +8528,7 @@
         <f>VLOOKUP(K110,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T110&amp;VLOOKUP(J110,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E110,"#",TEXT(IF(ISBLANK(P110),ABS(O110),ABS(P110))*100,"0")&amp;"%")&amp;S110</f>
         <v>战斗准备阶段使自身(生物)随机获得X个技能。(玩家)增加5个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100。</v>
       </c>
-      <c r="H110" s="22">
+      <c r="H110" s="18">
         <v>5</v>
       </c>
       <c r="I110" s="1" t="s">
@@ -8540,7 +8543,9 @@
       <c r="N110" s="1">
         <v>1</v>
       </c>
-      <c r="O110" s="15"/>
+      <c r="O110" s="15">
+        <v>5</v>
+      </c>
       <c r="P110" s="15">
         <v>5</v>
       </c>

--- a/design/MiniTemplate/Excels/#skill.xlsx
+++ b/design/MiniTemplate/Excels/#skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21450BC1-C0EF-44C9-B240-C2197347F267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AEB5F6-157D-42D4-BE4A-ACDACAB992A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5688" yWindow="1284" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="420">
   <si>
     <t>##var</t>
   </si>
@@ -1358,6 +1358,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1920,6 +1924,14 @@
             <v>受击后</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>dead</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>死亡时</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -2186,9 +2198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2425,7 @@
         <v>346</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>VLOOKUP(K5,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T5&amp;VLOOKUP(J5,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E5,"#",TEXT(IF(ISBLANK(P5),ABS(O5),ABS(P5))*100,"0")&amp;"%")&amp;S5</f>
+        <f>VLOOKUP(K5,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T5&amp;VLOOKUP(J5,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E5,"#",TEXT(IF(ISBLANK(P5),ABS(O5),ABS(P5))*100,"0")&amp;"%")&amp;S5</f>
         <v>攻击后20%的概率使自身+[50%×伤害值]的生命值。</v>
       </c>
       <c r="H5" s="18">
@@ -2469,7 +2481,7 @@
         <v>347</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>VLOOKUP(K6,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T6&amp;VLOOKUP(J6,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E6,"#",TEXT(IF(ISBLANK(P6),ABS(O6),ABS(P6))*100,"0")&amp;"%")&amp;S6</f>
+        <f>VLOOKUP(K6,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T6&amp;VLOOKUP(J6,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E6,"#",TEXT(IF(ISBLANK(P6),ABS(O6),ABS(P6))*100,"0")&amp;"%")&amp;S6</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
       <c r="H6" s="18">
@@ -2528,7 +2540,7 @@
         <v>348</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>VLOOKUP(K7,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T7&amp;VLOOKUP(J7,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E7,"#",TEXT(IF(ISBLANK(P7),ABS(O7),ABS(P7))*100,"0")&amp;"%")&amp;S7</f>
+        <f>VLOOKUP(K7,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T7&amp;VLOOKUP(J7,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E7,"#",TEXT(IF(ISBLANK(P7),ABS(O7),ABS(P7))*100,"0")&amp;"%")&amp;S7</f>
         <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
       <c r="H7" s="18">
@@ -2586,7 +2598,7 @@
         <v>349</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>VLOOKUP(K8,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T8&amp;VLOOKUP(J8,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E8,"#",TEXT(IF(ISBLANK(P8),ABS(O8),ABS(P8))*100,"0")&amp;"%")&amp;S8</f>
+        <f>VLOOKUP(K8,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T8&amp;VLOOKUP(J8,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E8,"#",TEXT(IF(ISBLANK(P8),ABS(O8),ABS(P8))*100,"0")&amp;"%")&amp;S8</f>
         <v>回合开始时使自身+5%攻防，永久</v>
       </c>
       <c r="H8" s="18">
@@ -2648,7 +2660,7 @@
         <v>392</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>VLOOKUP(K9,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T9&amp;VLOOKUP(J9,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E9,"#",TEXT(IF(ISBLANK(P9),ABS(O9),ABS(P9))*100,"0")&amp;"%")&amp;S9</f>
+        <f>VLOOKUP(K9,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T9&amp;VLOOKUP(J9,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E9,"#",TEXT(IF(ISBLANK(P9),ABS(O9),ABS(P9))*100,"0")&amp;"%")&amp;S9</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
       <c r="H9" s="18">
@@ -2705,7 +2717,7 @@
         <v>351</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>VLOOKUP(K10,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T10&amp;VLOOKUP(J10,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E10,"#",TEXT(IF(ISBLANK(P10),ABS(O10),ABS(P10))*100,"0")&amp;"%")&amp;S10</f>
+        <f>VLOOKUP(K10,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T10&amp;VLOOKUP(J10,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E10,"#",TEXT(IF(ISBLANK(P10),ABS(O10),ABS(P10))*100,"0")&amp;"%")&amp;S10</f>
         <v>回合开始时使自身+10%攻防，永久</v>
       </c>
       <c r="H10" s="18">
@@ -2767,7 +2779,7 @@
         <v>352</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>VLOOKUP(K11,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T11&amp;VLOOKUP(J11,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E11,"#",TEXT(IF(ISBLANK(P11),ABS(O11),ABS(P11))*100,"0")&amp;"%")&amp;S11</f>
+        <f>VLOOKUP(K11,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T11&amp;VLOOKUP(J11,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E11,"#",TEXT(IF(ISBLANK(P11),ABS(O11),ABS(P11))*100,"0")&amp;"%")&amp;S11</f>
         <v>回合开始时使对手-5%攻防，永久</v>
       </c>
       <c r="H11" s="18">
@@ -2829,7 +2841,7 @@
         <v>353</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>VLOOKUP(K12,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T12&amp;VLOOKUP(J12,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E12,"#",TEXT(IF(ISBLANK(P12),ABS(O12),ABS(P12))*100,"0")&amp;"%")&amp;S12</f>
+        <f>VLOOKUP(K12,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T12&amp;VLOOKUP(J12,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E12,"#",TEXT(IF(ISBLANK(P12),ABS(O12),ABS(P12))*100,"0")&amp;"%")&amp;S12</f>
         <v>战斗开始时使对手攻防交换。</v>
       </c>
       <c r="H12" s="18">
@@ -2884,7 +2896,7 @@
         <v>354</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>VLOOKUP(K13,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T13&amp;VLOOKUP(J13,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E13,"#",TEXT(IF(ISBLANK(P13),ABS(O13),ABS(P13))*100,"0")&amp;"%")&amp;S13</f>
+        <f>VLOOKUP(K13,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T13&amp;VLOOKUP(J13,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E13,"#",TEXT(IF(ISBLANK(P13),ABS(O13),ABS(P13))*100,"0")&amp;"%")&amp;S13</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
       <c r="H13" s="18">
@@ -2942,7 +2954,7 @@
         <v>395</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>VLOOKUP(K14,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T14&amp;VLOOKUP(J14,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E14,"#",TEXT(IF(ISBLANK(P14),ABS(O14),ABS(P14))*100,"0")&amp;"%")&amp;S14</f>
+        <f>VLOOKUP(K14,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T14&amp;VLOOKUP(J14,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E14,"#",TEXT(IF(ISBLANK(P14),ABS(O14),ABS(P14))*100,"0")&amp;"%")&amp;S14</f>
         <v>攻击时20%的概率使自身+50%造成的伤害。</v>
       </c>
       <c r="H14" s="18">
@@ -2999,7 +3011,7 @@
         <v>355</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>VLOOKUP(K15,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T15&amp;VLOOKUP(J15,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E15,"#",TEXT(IF(ISBLANK(P15),ABS(O15),ABS(P15))*100,"0")&amp;"%")&amp;S15</f>
+        <f>VLOOKUP(K15,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T15&amp;VLOOKUP(J15,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E15,"#",TEXT(IF(ISBLANK(P15),ABS(O15),ABS(P15))*100,"0")&amp;"%")&amp;S15</f>
         <v>攻击前如果生命值&lt;50%，那么使自身+30%攻击力，永久</v>
       </c>
       <c r="H15" s="18">
@@ -3062,7 +3074,7 @@
         <v>413</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>VLOOKUP(K16,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T16&amp;VLOOKUP(J16,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(P16),ABS(O16),ABS(P16))*100,"0")&amp;"%")&amp;S16</f>
+        <f>VLOOKUP(K16,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T16&amp;VLOOKUP(J16,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E16,"#",TEXT(IF(ISBLANK(P16),ABS(O16),ABS(P16))*100,"0")&amp;"%")&amp;S16</f>
         <v>攻击时使自身无视闪避。</v>
       </c>
       <c r="H16" s="18">
@@ -3120,7 +3132,7 @@
         <v>356</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>VLOOKUP(K17,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T17&amp;VLOOKUP(J17,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E17,"#",TEXT(IF(ISBLANK(P17),ABS(O17),ABS(P17))*100,"0")&amp;"%")&amp;S17</f>
+        <f>VLOOKUP(K17,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T17&amp;VLOOKUP(J17,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E17,"#",TEXT(IF(ISBLANK(P17),ABS(O17),ABS(P17))*100,"0")&amp;"%")&amp;S17</f>
         <v>攻击后15%的概率使对手放弃攻击，持续2回合。</v>
       </c>
       <c r="H17" s="18">
@@ -3178,7 +3190,7 @@
         <v>412</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>VLOOKUP(K18,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T18&amp;VLOOKUP(J18,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(P18),ABS(O18),ABS(P18))*100,"0")&amp;"%")&amp;S18</f>
+        <f>VLOOKUP(K18,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T18&amp;VLOOKUP(J18,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E18,"#",TEXT(IF(ISBLANK(P18),ABS(O18),ABS(P18))*100,"0")&amp;"%")&amp;S18</f>
         <v>攻击时10%的概率使自身+400%造成的伤害。</v>
       </c>
       <c r="H18" s="18">
@@ -3235,7 +3247,7 @@
         <v>411</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>VLOOKUP(K19,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T19&amp;VLOOKUP(J19,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(P19),ABS(O19),ABS(P19))*100,"0")&amp;"%")&amp;S19</f>
+        <f>VLOOKUP(K19,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T19&amp;VLOOKUP(J19,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E19,"#",TEXT(IF(ISBLANK(P19),ABS(O19),ABS(P19))*100,"0")&amp;"%")&amp;S19</f>
         <v>攻击后30%的概率使自身闪避，持续2回合。</v>
       </c>
       <c r="H19" s="18">
@@ -3293,7 +3305,7 @@
         <v>357</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>VLOOKUP(K20,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T20&amp;VLOOKUP(J20,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E20,"#",TEXT(IF(ISBLANK(P20),ABS(O20),ABS(P20))*100,"0")&amp;"%")&amp;S20</f>
+        <f>VLOOKUP(K20,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T20&amp;VLOOKUP(J20,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E20,"#",TEXT(IF(ISBLANK(P20),ABS(O20),ABS(P20))*100,"0")&amp;"%")&amp;S20</f>
         <v>攻击前20%的概率使对手-50%攻击力，持续2回合。</v>
       </c>
       <c r="H20" s="18">
@@ -3353,7 +3365,7 @@
         <v>354</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>VLOOKUP(K21,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T21&amp;VLOOKUP(J21,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E21,"#",TEXT(IF(ISBLANK(P21),ABS(O21),ABS(P21))*100,"0")&amp;"%")&amp;S21</f>
+        <f>VLOOKUP(K21,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T21&amp;VLOOKUP(J21,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E21,"#",TEXT(IF(ISBLANK(P21),ABS(O21),ABS(P21))*100,"0")&amp;"%")&amp;S21</f>
         <v>受击时40%的概率使自身闪避。</v>
       </c>
       <c r="H21" s="18">
@@ -3411,8 +3423,8 @@
         <v>358</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>VLOOKUP(K22,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T22&amp;VLOOKUP(J22,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E22,"#",TEXT(IF(ISBLANK(P22),ABS(O22),ABS(P22))*100,"0")&amp;"%")&amp;S22</f>
-        <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
+        <f>VLOOKUP(K22,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T22&amp;VLOOKUP(J22,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E22,"#",TEXT(IF(ISBLANK(P22),ABS(O22),ABS(P22))*100,"0")&amp;"%")&amp;S22</f>
+        <v>死亡时使自身+100%最大生命并清除buff，1次。</v>
       </c>
       <c r="H22" s="18">
         <v>5</v>
@@ -3424,10 +3436,7 @@
         <v>197</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -3445,8 +3454,8 @@
         <v>。</v>
       </c>
       <c r="T22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>如果死亡，那么</v>
+        <f>IF(ISBLANK(L22),"","如果"&amp;IF(L22=0,"死亡","生命值&lt;"&amp;TEXT(L22*100,"0")&amp;"%")&amp;"，那么")&amp;IF(N22&lt;1,TEXT(N22*100,"0")&amp;"%的概率","")</f>
+        <v/>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="3"/>
@@ -3471,7 +3480,7 @@
         <v>357</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>VLOOKUP(K23,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T23&amp;VLOOKUP(J23,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E23,"#",TEXT(IF(ISBLANK(P23),ABS(O23),ABS(P23))*100,"0")&amp;"%")&amp;S23</f>
+        <f>VLOOKUP(K23,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T23&amp;VLOOKUP(J23,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E23,"#",TEXT(IF(ISBLANK(P23),ABS(O23),ABS(P23))*100,"0")&amp;"%")&amp;S23</f>
         <v>攻击前使对手-10%攻击力，永久</v>
       </c>
       <c r="H23" s="18">
@@ -3531,7 +3540,7 @@
         <v>354</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>VLOOKUP(K24,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T24&amp;VLOOKUP(J24,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E24,"#",TEXT(IF(ISBLANK(P24),ABS(O24),ABS(P24))*100,"0")&amp;"%")&amp;S24</f>
+        <f>VLOOKUP(K24,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T24&amp;VLOOKUP(J24,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E24,"#",TEXT(IF(ISBLANK(P24),ABS(O24),ABS(P24))*100,"0")&amp;"%")&amp;S24</f>
         <v>受击时50%的概率使自身闪避。</v>
       </c>
       <c r="H24" s="18">
@@ -3589,7 +3598,7 @@
         <v>359</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>VLOOKUP(K25,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T25&amp;VLOOKUP(J25,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E25,"#",TEXT(IF(ISBLANK(P25),ABS(O25),ABS(P25))*100,"0")&amp;"%")&amp;S25</f>
+        <f>VLOOKUP(K25,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T25&amp;VLOOKUP(J25,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E25,"#",TEXT(IF(ISBLANK(P25),ABS(O25),ABS(P25))*100,"0")&amp;"%")&amp;S25</f>
         <v>受击后使对手-[40%×伤害值]的生命值。</v>
       </c>
       <c r="H25" s="18">
@@ -3645,7 +3654,7 @@
         <v>392</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>VLOOKUP(K26,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T26&amp;VLOOKUP(J26,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E26,"#",TEXT(IF(ISBLANK(P26),ABS(O26),ABS(P26))*100,"0")&amp;"%")&amp;S26</f>
+        <f>VLOOKUP(K26,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T26&amp;VLOOKUP(J26,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E26,"#",TEXT(IF(ISBLANK(P26),ABS(O26),ABS(P26))*100,"0")&amp;"%")&amp;S26</f>
         <v>攻击时20%的概率使自身+100%造成的伤害。</v>
       </c>
       <c r="H26" s="18">
@@ -3702,7 +3711,7 @@
         <v>360</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>VLOOKUP(K27,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T27&amp;VLOOKUP(J27,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E27,"#",TEXT(IF(ISBLANK(P27),ABS(O27),ABS(P27))*100,"0")&amp;"%")&amp;S27</f>
+        <f>VLOOKUP(K27,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T27&amp;VLOOKUP(J27,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E27,"#",TEXT(IF(ISBLANK(P27),ABS(O27),ABS(P27))*100,"0")&amp;"%")&amp;S27</f>
         <v>攻击时20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
       <c r="H27" s="18">
@@ -3760,7 +3769,7 @@
         <v>361</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>VLOOKUP(K28,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T28&amp;VLOOKUP(J28,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E28,"#",TEXT(IF(ISBLANK(P28),ABS(O28),ABS(P28))*100,"0")&amp;"%")&amp;S28</f>
+        <f>VLOOKUP(K28,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T28&amp;VLOOKUP(J28,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E28,"#",TEXT(IF(ISBLANK(P28),ABS(O28),ABS(P28))*100,"0")&amp;"%")&amp;S28</f>
         <v>攻击时20%的概率使对手-50%防御力。</v>
       </c>
       <c r="H28" s="18">
@@ -3820,7 +3829,7 @@
         <v>396</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>VLOOKUP(K29,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T29&amp;VLOOKUP(J29,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E29,"#",TEXT(IF(ISBLANK(P29),ABS(O29),ABS(P29))*100,"0")&amp;"%")&amp;S29</f>
+        <f>VLOOKUP(K29,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T29&amp;VLOOKUP(J29,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E29,"#",TEXT(IF(ISBLANK(P29),ABS(O29),ABS(P29))*100,"0")&amp;"%")&amp;S29</f>
         <v>攻击时30%的概率使自身+200%造成的伤害。</v>
       </c>
       <c r="H29" s="18">
@@ -3877,7 +3886,7 @@
         <v>362</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>VLOOKUP(K30,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T30&amp;VLOOKUP(J30,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E30,"#",TEXT(IF(ISBLANK(P30),ABS(O30),ABS(P30))*100,"0")&amp;"%")&amp;S30</f>
+        <f>VLOOKUP(K30,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T30&amp;VLOOKUP(J30,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E30,"#",TEXT(IF(ISBLANK(P30),ABS(O30),ABS(P30))*100,"0")&amp;"%")&amp;S30</f>
         <v>受击时90%的概率使自身-20%所受的伤害。</v>
       </c>
       <c r="H30" s="18">
@@ -3934,7 +3943,7 @@
         <v>362</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>VLOOKUP(K31,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T31&amp;VLOOKUP(J31,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E31,"#",TEXT(IF(ISBLANK(P31),ABS(O31),ABS(P31))*100,"0")&amp;"%")&amp;S31</f>
+        <f>VLOOKUP(K31,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T31&amp;VLOOKUP(J31,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E31,"#",TEXT(IF(ISBLANK(P31),ABS(O31),ABS(P31))*100,"0")&amp;"%")&amp;S31</f>
         <v>受击时90%的概率使自身-30%所受的伤害。</v>
       </c>
       <c r="H31" s="18">
@@ -3991,7 +4000,7 @@
         <v>392</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>VLOOKUP(K32,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T32&amp;VLOOKUP(J32,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E32,"#",TEXT(IF(ISBLANK(P32),ABS(O32),ABS(P32))*100,"0")&amp;"%")&amp;S32</f>
+        <f>VLOOKUP(K32,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T32&amp;VLOOKUP(J32,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E32,"#",TEXT(IF(ISBLANK(P32),ABS(O32),ABS(P32))*100,"0")&amp;"%")&amp;S32</f>
         <v>攻击时10%的概率使自身+150%造成的伤害。</v>
       </c>
       <c r="H32" s="18">
@@ -4048,7 +4057,7 @@
         <v>392</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>VLOOKUP(K33,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T33&amp;VLOOKUP(J33,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E33,"#",TEXT(IF(ISBLANK(P33),ABS(O33),ABS(P33))*100,"0")&amp;"%")&amp;S33</f>
+        <f>VLOOKUP(K33,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T33&amp;VLOOKUP(J33,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E33,"#",TEXT(IF(ISBLANK(P33),ABS(O33),ABS(P33))*100,"0")&amp;"%")&amp;S33</f>
         <v>攻击时25%的概率使自身+150%造成的伤害。</v>
       </c>
       <c r="H33" s="18">
@@ -4105,7 +4114,7 @@
         <v>363</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>VLOOKUP(K34,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T34&amp;VLOOKUP(J34,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E34,"#",TEXT(IF(ISBLANK(P34),ABS(O34),ABS(P34))*100,"0")&amp;"%")&amp;S34</f>
+        <f>VLOOKUP(K34,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T34&amp;VLOOKUP(J34,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E34,"#",TEXT(IF(ISBLANK(P34),ABS(O34),ABS(P34))*100,"0")&amp;"%")&amp;S34</f>
         <v>受击后使对手-[50%×伤害值]的生命值。</v>
       </c>
       <c r="H34" s="18">
@@ -4162,7 +4171,7 @@
         <v>364</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>VLOOKUP(K35,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T35&amp;VLOOKUP(J35,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E35,"#",TEXT(IF(ISBLANK(P35),ABS(O35),ABS(P35))*100,"0")&amp;"%")&amp;S35</f>
+        <f>VLOOKUP(K35,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T35&amp;VLOOKUP(J35,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E35,"#",TEXT(IF(ISBLANK(P35),ABS(O35),ABS(P35))*100,"0")&amp;"%")&amp;S35</f>
         <v>回合开始时50%的概率使自身+[40%×攻击力]的生命值。</v>
       </c>
       <c r="H35" s="18">
@@ -4219,7 +4228,7 @@
         <v>365</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>VLOOKUP(K36,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T36&amp;VLOOKUP(J36,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E36,"#",TEXT(IF(ISBLANK(P36),ABS(O36),ABS(P36))*100,"0")&amp;"%")&amp;S36</f>
+        <f>VLOOKUP(K36,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T36&amp;VLOOKUP(J36,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E36,"#",TEXT(IF(ISBLANK(P36),ABS(O36),ABS(P36))*100,"0")&amp;"%")&amp;S36</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
       <c r="H36" s="18">
@@ -4277,7 +4286,7 @@
         <v>366</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>VLOOKUP(K37,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T37&amp;VLOOKUP(J37,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E37,"#",TEXT(IF(ISBLANK(P37),ABS(O37),ABS(P37))*100,"0")&amp;"%")&amp;S37</f>
+        <f>VLOOKUP(K37,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T37&amp;VLOOKUP(J37,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E37,"#",TEXT(IF(ISBLANK(P37),ABS(O37),ABS(P37))*100,"0")&amp;"%")&amp;S37</f>
         <v>受击前25%的概率使对手放弃攻击。</v>
       </c>
       <c r="H37" s="18">
@@ -4335,7 +4344,7 @@
         <v>367</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>VLOOKUP(K38,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T38&amp;VLOOKUP(J38,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E38,"#",TEXT(IF(ISBLANK(P38),ABS(O38),ABS(P38))*100,"0")&amp;"%")&amp;S38</f>
+        <f>VLOOKUP(K38,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T38&amp;VLOOKUP(J38,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E38,"#",TEXT(IF(ISBLANK(P38),ABS(O38),ABS(P38))*100,"0")&amp;"%")&amp;S38</f>
         <v>战斗开始时使对手-30%攻击力，永久</v>
       </c>
       <c r="H38" s="18">
@@ -4395,7 +4404,7 @@
         <v>368</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>VLOOKUP(K39,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T39&amp;VLOOKUP(J39,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E39,"#",TEXT(IF(ISBLANK(P39),ABS(O39),ABS(P39))*100,"0")&amp;"%")&amp;S39</f>
+        <f>VLOOKUP(K39,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T39&amp;VLOOKUP(J39,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E39,"#",TEXT(IF(ISBLANK(P39),ABS(O39),ABS(P39))*100,"0")&amp;"%")&amp;S39</f>
         <v>战斗准备阶段使对手禁用3个技能。</v>
       </c>
       <c r="H39" s="18">
@@ -4452,7 +4461,7 @@
         <v>369</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>VLOOKUP(K40,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T40&amp;VLOOKUP(J40,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E40,"#",TEXT(IF(ISBLANK(P40),ABS(O40),ABS(P40))*100,"0")&amp;"%")&amp;S40</f>
+        <f>VLOOKUP(K40,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T40&amp;VLOOKUP(J40,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E40,"#",TEXT(IF(ISBLANK(P40),ABS(O40),ABS(P40))*100,"0")&amp;"%")&amp;S40</f>
         <v>战斗开始时50%的概率使自身+100%攻击力，永久</v>
       </c>
       <c r="H40" s="18">
@@ -4512,7 +4521,7 @@
         <v>370</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>VLOOKUP(K41,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T41&amp;VLOOKUP(J41,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E41,"#",TEXT(IF(ISBLANK(P41),ABS(O41),ABS(P41))*100,"0")&amp;"%")&amp;S41</f>
+        <f>VLOOKUP(K41,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T41&amp;VLOOKUP(J41,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E41,"#",TEXT(IF(ISBLANK(P41),ABS(O41),ABS(P41))*100,"0")&amp;"%")&amp;S41</f>
         <v>攻击后30%的概率使对手放弃攻击，持续1回合。</v>
       </c>
       <c r="H41" s="18">
@@ -4570,7 +4579,7 @@
         <v>371</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>VLOOKUP(K42,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T42&amp;VLOOKUP(J42,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E42,"#",TEXT(IF(ISBLANK(P42),ABS(O42),ABS(P42))*100,"0")&amp;"%")&amp;S42</f>
+        <f>VLOOKUP(K42,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T42&amp;VLOOKUP(J42,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E42,"#",TEXT(IF(ISBLANK(P42),ABS(O42),ABS(P42))*100,"0")&amp;"%")&amp;S42</f>
         <v>受击后30%的概率使对手-30%攻防，永久</v>
       </c>
       <c r="H42" s="18">
@@ -4632,7 +4641,7 @@
         <v>395</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>VLOOKUP(K43,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T43&amp;VLOOKUP(J43,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E43,"#",TEXT(IF(ISBLANK(P43),ABS(O43),ABS(P43))*100,"0")&amp;"%")&amp;S43</f>
+        <f>VLOOKUP(K43,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T43&amp;VLOOKUP(J43,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E43,"#",TEXT(IF(ISBLANK(P43),ABS(O43),ABS(P43))*100,"0")&amp;"%")&amp;S43</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
       <c r="H43" s="18">
@@ -4689,7 +4698,7 @@
         <v>409</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>VLOOKUP(K44,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T44&amp;VLOOKUP(J44,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(P44),ABS(O44),ABS(P44))*100,"0")&amp;"%")&amp;S44</f>
+        <f>VLOOKUP(K44,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T44&amp;VLOOKUP(J44,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E44,"#",TEXT(IF(ISBLANK(P44),ABS(O44),ABS(P44))*100,"0")&amp;"%")&amp;S44</f>
         <v>攻击后20%的概率使对手跳过回合，持续1回合。</v>
       </c>
       <c r="H44" s="18">
@@ -4747,7 +4756,7 @@
         <v>410</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>VLOOKUP(K45,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T45&amp;VLOOKUP(J45,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(P45),ABS(O45),ABS(P45))*100,"0")&amp;"%")&amp;S45</f>
+        <f>VLOOKUP(K45,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T45&amp;VLOOKUP(J45,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E45,"#",TEXT(IF(ISBLANK(P45),ABS(O45),ABS(P45))*100,"0")&amp;"%")&amp;S45</f>
         <v>攻击后20%的概率使自身闪避，持续1回合。</v>
       </c>
       <c r="H45" s="18">
@@ -4805,7 +4814,7 @@
         <v>372</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>VLOOKUP(K46,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T46&amp;VLOOKUP(J46,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E46,"#",TEXT(IF(ISBLANK(P46),ABS(O46),ABS(P46))*100,"0")&amp;"%")&amp;S46</f>
+        <f>VLOOKUP(K46,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T46&amp;VLOOKUP(J46,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E46,"#",TEXT(IF(ISBLANK(P46),ABS(O46),ABS(P46))*100,"0")&amp;"%")&amp;S46</f>
         <v>攻击时20%的概率使对手-100%防御力。</v>
       </c>
       <c r="H46" s="18">
@@ -4865,7 +4874,7 @@
         <v>373</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>VLOOKUP(K47,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T47&amp;VLOOKUP(J47,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E47,"#",TEXT(IF(ISBLANK(P47),ABS(O47),ABS(P47))*100,"0")&amp;"%")&amp;S47</f>
+        <f>VLOOKUP(K47,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T47&amp;VLOOKUP(J47,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E47,"#",TEXT(IF(ISBLANK(P47),ABS(O47),ABS(P47))*100,"0")&amp;"%")&amp;S47</f>
         <v>回合开始时20%的概率使自身+50%防御力，持续1回合。</v>
       </c>
       <c r="H47" s="18">
@@ -4925,7 +4934,7 @@
         <v>392</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>VLOOKUP(K48,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T48&amp;VLOOKUP(J48,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E48,"#",TEXT(IF(ISBLANK(P48),ABS(O48),ABS(P48))*100,"0")&amp;"%")&amp;S48</f>
+        <f>VLOOKUP(K48,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T48&amp;VLOOKUP(J48,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E48,"#",TEXT(IF(ISBLANK(P48),ABS(O48),ABS(P48))*100,"0")&amp;"%")&amp;S48</f>
         <v>攻击时25%的概率使自身+100%造成的伤害。</v>
       </c>
       <c r="H48" s="18">
@@ -4982,7 +4991,7 @@
         <v>408</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>VLOOKUP(K49,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T49&amp;VLOOKUP(J49,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(P49),ABS(O49),ABS(P49))*100,"0")&amp;"%")&amp;S49</f>
+        <f>VLOOKUP(K49,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T49&amp;VLOOKUP(J49,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E49,"#",TEXT(IF(ISBLANK(P49),ABS(O49),ABS(P49))*100,"0")&amp;"%")&amp;S49</f>
         <v>受击时50%的概率使自身-30%所受的伤害。</v>
       </c>
       <c r="H49" s="18">
@@ -5039,7 +5048,7 @@
         <v>401</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>VLOOKUP(K50,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T50&amp;VLOOKUP(J50,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(P50),ABS(O50),ABS(P50))*100,"0")&amp;"%")&amp;S50</f>
+        <f>VLOOKUP(K50,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T50&amp;VLOOKUP(J50,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E50,"#",TEXT(IF(ISBLANK(P50),ABS(O50),ABS(P50))*100,"0")&amp;"%")&amp;S50</f>
         <v>攻击后10%的概率使对手跳过回合，持续2回合。</v>
       </c>
       <c r="H50" s="18">
@@ -5097,7 +5106,7 @@
         <v>357</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>VLOOKUP(K51,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T51&amp;VLOOKUP(J51,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E51,"#",TEXT(IF(ISBLANK(P51),ABS(O51),ABS(P51))*100,"0")&amp;"%")&amp;S51</f>
+        <f>VLOOKUP(K51,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T51&amp;VLOOKUP(J51,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E51,"#",TEXT(IF(ISBLANK(P51),ABS(O51),ABS(P51))*100,"0")&amp;"%")&amp;S51</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续2回合。</v>
       </c>
       <c r="H51" s="18">
@@ -5157,7 +5166,7 @@
         <v>374</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>VLOOKUP(K52,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T52&amp;VLOOKUP(J52,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E52,"#",TEXT(IF(ISBLANK(P52),ABS(O52),ABS(P52))*100,"0")&amp;"%")&amp;S52</f>
+        <f>VLOOKUP(K52,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T52&amp;VLOOKUP(J52,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E52,"#",TEXT(IF(ISBLANK(P52),ABS(O52),ABS(P52))*100,"0")&amp;"%")&amp;S52</f>
         <v>攻击后70%的概率使对手-5%攻击力，永久</v>
       </c>
       <c r="H52" s="18">
@@ -5217,7 +5226,7 @@
         <v>346</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>VLOOKUP(K53,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T53&amp;VLOOKUP(J53,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E53,"#",TEXT(IF(ISBLANK(P53),ABS(O53),ABS(P53))*100,"0")&amp;"%")&amp;S53</f>
+        <f>VLOOKUP(K53,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T53&amp;VLOOKUP(J53,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E53,"#",TEXT(IF(ISBLANK(P53),ABS(O53),ABS(P53))*100,"0")&amp;"%")&amp;S53</f>
         <v>攻击后20%的概率使自身+[100%×攻击力]的生命值。</v>
       </c>
       <c r="H53" s="18">
@@ -5274,7 +5283,7 @@
         <v>407</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>VLOOKUP(K54,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T54&amp;VLOOKUP(J54,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(P54),ABS(O54),ABS(P54))*100,"0")&amp;"%")&amp;S54</f>
+        <f>VLOOKUP(K54,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T54&amp;VLOOKUP(J54,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E54,"#",TEXT(IF(ISBLANK(P54),ABS(O54),ABS(P54))*100,"0")&amp;"%")&amp;S54</f>
         <v>攻击前50%的概率使对手-5%防御力，永久</v>
       </c>
       <c r="H54" s="18">
@@ -5334,7 +5343,7 @@
         <v>375</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>VLOOKUP(K55,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T55&amp;VLOOKUP(J55,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E55,"#",TEXT(IF(ISBLANK(P55),ABS(O55),ABS(P55))*100,"0")&amp;"%")&amp;S55</f>
+        <f>VLOOKUP(K55,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T55&amp;VLOOKUP(J55,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E55,"#",TEXT(IF(ISBLANK(P55),ABS(O55),ABS(P55))*100,"0")&amp;"%")&amp;S55</f>
         <v>回合开始时30%的概率使对手-50%防御力，持续2回合。</v>
       </c>
       <c r="H55" s="18">
@@ -5394,7 +5403,7 @@
         <v>354</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>VLOOKUP(K56,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T56&amp;VLOOKUP(J56,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E56,"#",TEXT(IF(ISBLANK(P56),ABS(O56),ABS(P56))*100,"0")&amp;"%")&amp;S56</f>
+        <f>VLOOKUP(K56,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T56&amp;VLOOKUP(J56,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E56,"#",TEXT(IF(ISBLANK(P56),ABS(O56),ABS(P56))*100,"0")&amp;"%")&amp;S56</f>
         <v>受击时20%的概率使自身闪避。</v>
       </c>
       <c r="H56" s="18">
@@ -5452,7 +5461,7 @@
         <v>376</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>VLOOKUP(K57,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T57&amp;VLOOKUP(J57,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E57,"#",TEXT(IF(ISBLANK(P57),ABS(O57),ABS(P57))*100,"0")&amp;"%")&amp;S57</f>
+        <f>VLOOKUP(K57,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T57&amp;VLOOKUP(J57,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E57,"#",TEXT(IF(ISBLANK(P57),ABS(O57),ABS(P57))*100,"0")&amp;"%")&amp;S57</f>
         <v>战斗开始时50%的概率使自身+50%攻击力，永久</v>
       </c>
       <c r="H57" s="18">
@@ -5512,7 +5521,7 @@
         <v>393</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>VLOOKUP(K58,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T58&amp;VLOOKUP(J58,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E58,"#",TEXT(IF(ISBLANK(P58),ABS(O58),ABS(P58))*100,"0")&amp;"%")&amp;S58</f>
+        <f>VLOOKUP(K58,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T58&amp;VLOOKUP(J58,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E58,"#",TEXT(IF(ISBLANK(P58),ABS(O58),ABS(P58))*100,"0")&amp;"%")&amp;S58</f>
         <v>回合开始时使自身获得1个技能。</v>
       </c>
       <c r="H58" s="18">
@@ -5569,7 +5578,7 @@
         <v>377</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>VLOOKUP(K59,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T59&amp;VLOOKUP(J59,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E59,"#",TEXT(IF(ISBLANK(P59),ABS(O59),ABS(P59))*100,"0")&amp;"%")&amp;S59</f>
+        <f>VLOOKUP(K59,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T59&amp;VLOOKUP(J59,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E59,"#",TEXT(IF(ISBLANK(P59),ABS(O59),ABS(P59))*100,"0")&amp;"%")&amp;S59</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
       <c r="H59" s="18">
@@ -5627,7 +5636,7 @@
         <v>406</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>VLOOKUP(K60,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T60&amp;VLOOKUP(J60,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(P60),ABS(O60),ABS(P60))*100,"0")&amp;"%")&amp;S60</f>
+        <f>VLOOKUP(K60,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T60&amp;VLOOKUP(J60,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E60,"#",TEXT(IF(ISBLANK(P60),ABS(O60),ABS(P60))*100,"0")&amp;"%")&amp;S60</f>
         <v>攻击时40%的概率使自身+20%造成的伤害。</v>
       </c>
       <c r="H60" s="18">
@@ -5684,7 +5693,7 @@
         <v>395</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>VLOOKUP(K61,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T61&amp;VLOOKUP(J61,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E61,"#",TEXT(IF(ISBLANK(P61),ABS(O61),ABS(P61))*100,"0")&amp;"%")&amp;S61</f>
+        <f>VLOOKUP(K61,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T61&amp;VLOOKUP(J61,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E61,"#",TEXT(IF(ISBLANK(P61),ABS(O61),ABS(P61))*100,"0")&amp;"%")&amp;S61</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
       <c r="H61" s="18">
@@ -5741,7 +5750,7 @@
         <v>392</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>VLOOKUP(K62,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T62&amp;VLOOKUP(J62,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E62,"#",TEXT(IF(ISBLANK(P62),ABS(O62),ABS(P62))*100,"0")&amp;"%")&amp;S62</f>
+        <f>VLOOKUP(K62,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T62&amp;VLOOKUP(J62,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E62,"#",TEXT(IF(ISBLANK(P62),ABS(O62),ABS(P62))*100,"0")&amp;"%")&amp;S62</f>
         <v>攻击时40%的概率使自身+100%造成的伤害。</v>
       </c>
       <c r="H62" s="18">
@@ -5798,7 +5807,7 @@
         <v>378</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>VLOOKUP(K63,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T63&amp;VLOOKUP(J63,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E63,"#",TEXT(IF(ISBLANK(P63),ABS(O63),ABS(P63))*100,"0")&amp;"%")&amp;S63</f>
+        <f>VLOOKUP(K63,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T63&amp;VLOOKUP(J63,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E63,"#",TEXT(IF(ISBLANK(P63),ABS(O63),ABS(P63))*100,"0")&amp;"%")&amp;S63</f>
         <v>受击前15%的概率使对手变更目标。</v>
       </c>
       <c r="H63" s="18">
@@ -5856,7 +5865,7 @@
         <v>378</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>VLOOKUP(K64,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T64&amp;VLOOKUP(J64,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E64,"#",TEXT(IF(ISBLANK(P64),ABS(O64),ABS(P64))*100,"0")&amp;"%")&amp;S64</f>
+        <f>VLOOKUP(K64,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T64&amp;VLOOKUP(J64,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E64,"#",TEXT(IF(ISBLANK(P64),ABS(O64),ABS(P64))*100,"0")&amp;"%")&amp;S64</f>
         <v>受击前20%的概率使对手变更目标。</v>
       </c>
       <c r="H64" s="18">
@@ -5914,7 +5923,7 @@
         <v>379</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>VLOOKUP(K65,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T65&amp;VLOOKUP(J65,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E65,"#",TEXT(IF(ISBLANK(P65),ABS(O65),ABS(P65))*100,"0")&amp;"%")&amp;S65</f>
+        <f>VLOOKUP(K65,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T65&amp;VLOOKUP(J65,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E65,"#",TEXT(IF(ISBLANK(P65),ABS(O65),ABS(P65))*100,"0")&amp;"%")&amp;S65</f>
         <v>攻击后20%的概率使对手放弃攻击，持续1回合。</v>
       </c>
       <c r="H65" s="18">
@@ -5972,7 +5981,7 @@
         <v>379</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>VLOOKUP(K66,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T66&amp;VLOOKUP(J66,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E66,"#",TEXT(IF(ISBLANK(P66),ABS(O66),ABS(P66))*100,"0")&amp;"%")&amp;S66</f>
+        <f>VLOOKUP(K66,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T66&amp;VLOOKUP(J66,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E66,"#",TEXT(IF(ISBLANK(P66),ABS(O66),ABS(P66))*100,"0")&amp;"%")&amp;S66</f>
         <v>攻击后20%的概率使对手放弃攻击，持续2回合。</v>
       </c>
       <c r="H66" s="18">
@@ -6030,7 +6039,7 @@
         <v>379</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>VLOOKUP(K67,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T67&amp;VLOOKUP(J67,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E67,"#",TEXT(IF(ISBLANK(P67),ABS(O67),ABS(P67))*100,"0")&amp;"%")&amp;S67</f>
+        <f>VLOOKUP(K67,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T67&amp;VLOOKUP(J67,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E67,"#",TEXT(IF(ISBLANK(P67),ABS(O67),ABS(P67))*100,"0")&amp;"%")&amp;S67</f>
         <v>攻击后20%的概率使对手放弃攻击，持续3回合。</v>
       </c>
       <c r="H67" s="18">
@@ -6088,7 +6097,7 @@
         <v>364</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>VLOOKUP(K68,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T68&amp;VLOOKUP(J68,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E68,"#",TEXT(IF(ISBLANK(P68),ABS(O68),ABS(P68))*100,"0")&amp;"%")&amp;S68</f>
+        <f>VLOOKUP(K68,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T68&amp;VLOOKUP(J68,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E68,"#",TEXT(IF(ISBLANK(P68),ABS(O68),ABS(P68))*100,"0")&amp;"%")&amp;S68</f>
         <v>回合开始时使自身+[25%×攻击力]的生命值。</v>
       </c>
       <c r="H68" s="18">
@@ -6145,7 +6154,7 @@
         <v>415</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>VLOOKUP(K69,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T69&amp;VLOOKUP(J69,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(P69),ABS(O69),ABS(P69))*100,"0")&amp;"%")&amp;S69</f>
+        <f>VLOOKUP(K69,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T69&amp;VLOOKUP(J69,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E69,"#",TEXT(IF(ISBLANK(P69),ABS(O69),ABS(P69))*100,"0")&amp;"%")&amp;S69</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
       <c r="H69" s="18">
@@ -6203,7 +6212,7 @@
         <v>396</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>VLOOKUP(K70,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T70&amp;VLOOKUP(J70,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E70,"#",TEXT(IF(ISBLANK(P70),ABS(O70),ABS(P70))*100,"0")&amp;"%")&amp;S70</f>
+        <f>VLOOKUP(K70,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T70&amp;VLOOKUP(J70,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E70,"#",TEXT(IF(ISBLANK(P70),ABS(O70),ABS(P70))*100,"0")&amp;"%")&amp;S70</f>
         <v>攻击时15%的概率使自身+200%造成的伤害。</v>
       </c>
       <c r="H70" s="18">
@@ -6260,7 +6269,7 @@
         <v>403</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>VLOOKUP(K71,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T71&amp;VLOOKUP(J71,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(P71),ABS(O71),ABS(P71))*100,"0")&amp;"%")&amp;S71</f>
+        <f>VLOOKUP(K71,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T71&amp;VLOOKUP(J71,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E71,"#",TEXT(IF(ISBLANK(P71),ABS(O71),ABS(P71))*100,"0")&amp;"%")&amp;S71</f>
         <v>受击前70%的概率使对手-30%攻击力。</v>
       </c>
       <c r="H71" s="18">
@@ -6320,7 +6329,7 @@
         <v>380</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>VLOOKUP(K72,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T72&amp;VLOOKUP(J72,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E72,"#",TEXT(IF(ISBLANK(P72),ABS(O72),ABS(P72))*100,"0")&amp;"%")&amp;S72</f>
+        <f>VLOOKUP(K72,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T72&amp;VLOOKUP(J72,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E72,"#",TEXT(IF(ISBLANK(P72),ABS(O72),ABS(P72))*100,"0")&amp;"%")&amp;S72</f>
         <v>受击前15%的概率使对手放弃攻击。</v>
       </c>
       <c r="H72" s="18">
@@ -6378,7 +6387,7 @@
         <v>380</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>VLOOKUP(K73,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T73&amp;VLOOKUP(J73,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E73,"#",TEXT(IF(ISBLANK(P73),ABS(O73),ABS(P73))*100,"0")&amp;"%")&amp;S73</f>
+        <f>VLOOKUP(K73,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T73&amp;VLOOKUP(J73,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E73,"#",TEXT(IF(ISBLANK(P73),ABS(O73),ABS(P73))*100,"0")&amp;"%")&amp;S73</f>
         <v>受击前30%的概率使对手放弃攻击。</v>
       </c>
       <c r="H73" s="18">
@@ -6436,7 +6445,7 @@
         <v>350</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>VLOOKUP(K74,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T74&amp;VLOOKUP(J74,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E74,"#",TEXT(IF(ISBLANK(P74),ABS(O74),ABS(P74))*100,"0")&amp;"%")&amp;S74</f>
+        <f>VLOOKUP(K74,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T74&amp;VLOOKUP(J74,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E74,"#",TEXT(IF(ISBLANK(P74),ABS(O74),ABS(P74))*100,"0")&amp;"%")&amp;S74</f>
         <v>战斗开始时30%的概率使对手-[200%×攻击力]的生命值。</v>
       </c>
       <c r="H74" s="18">
@@ -6493,7 +6502,7 @@
         <v>381</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>VLOOKUP(K75,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T75&amp;VLOOKUP(J75,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E75,"#",TEXT(IF(ISBLANK(P75),ABS(O75),ABS(P75))*100,"0")&amp;"%")&amp;S75</f>
+        <f>VLOOKUP(K75,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T75&amp;VLOOKUP(J75,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E75,"#",TEXT(IF(ISBLANK(P75),ABS(O75),ABS(P75))*100,"0")&amp;"%")&amp;S75</f>
         <v>攻击后30%的概率使自身+[100%×伤害值]的生命值。</v>
       </c>
       <c r="H75" s="18">
@@ -6550,7 +6559,7 @@
         <v>390</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>VLOOKUP(K76,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T76&amp;VLOOKUP(J76,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E76,"#",TEXT(IF(ISBLANK(P76),ABS(O76),ABS(P76))*100,"0")&amp;"%")&amp;S76</f>
+        <f>VLOOKUP(K76,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T76&amp;VLOOKUP(J76,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E76,"#",TEXT(IF(ISBLANK(P76),ABS(O76),ABS(P76))*100,"0")&amp;"%")&amp;S76</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
       <c r="H76" s="18">
@@ -6607,7 +6616,7 @@
         <v>405</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>VLOOKUP(K77,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T77&amp;VLOOKUP(J77,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(P77),ABS(O77),ABS(P77))*100,"0")&amp;"%")&amp;S77</f>
+        <f>VLOOKUP(K77,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T77&amp;VLOOKUP(J77,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E77,"#",TEXT(IF(ISBLANK(P77),ABS(O77),ABS(P77))*100,"0")&amp;"%")&amp;S77</f>
         <v>回合开始时30%的概率使自身+50%攻击力，持续2回合。</v>
       </c>
       <c r="H77" s="18">
@@ -6667,7 +6676,7 @@
         <v>404</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>VLOOKUP(K78,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T78&amp;VLOOKUP(J78,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(P78),ABS(O78),ABS(P78))*100,"0")&amp;"%")&amp;S78</f>
+        <f>VLOOKUP(K78,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T78&amp;VLOOKUP(J78,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E78,"#",TEXT(IF(ISBLANK(P78),ABS(O78),ABS(P78))*100,"0")&amp;"%")&amp;S78</f>
         <v>回合开始时30%的概率使自身+100%攻击力，持续2回合。</v>
       </c>
       <c r="H78" s="18">
@@ -6727,7 +6736,7 @@
         <v>403</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>VLOOKUP(K79,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T79&amp;VLOOKUP(J79,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(P79),ABS(O79),ABS(P79))*100,"0")&amp;"%")&amp;S79</f>
+        <f>VLOOKUP(K79,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T79&amp;VLOOKUP(J79,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E79,"#",TEXT(IF(ISBLANK(P79),ABS(O79),ABS(P79))*100,"0")&amp;"%")&amp;S79</f>
         <v>攻击后30%的概率使对手-30%攻击力，持续1回合。</v>
       </c>
       <c r="H79" s="18">
@@ -6787,7 +6796,7 @@
         <v>392</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>VLOOKUP(K80,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T80&amp;VLOOKUP(J80,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E80,"#",TEXT(IF(ISBLANK(P80),ABS(O80),ABS(P80))*100,"0")&amp;"%")&amp;S80</f>
+        <f>VLOOKUP(K80,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T80&amp;VLOOKUP(J80,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E80,"#",TEXT(IF(ISBLANK(P80),ABS(O80),ABS(P80))*100,"0")&amp;"%")&amp;S80</f>
         <v>攻击时30%的概率使自身+100%造成的伤害。</v>
       </c>
       <c r="H80" s="18">
@@ -6844,7 +6853,7 @@
         <v>395</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>VLOOKUP(K81,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T81&amp;VLOOKUP(J81,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E81,"#",TEXT(IF(ISBLANK(P81),ABS(O81),ABS(P81))*100,"0")&amp;"%")&amp;S81</f>
+        <f>VLOOKUP(K81,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T81&amp;VLOOKUP(J81,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E81,"#",TEXT(IF(ISBLANK(P81),ABS(O81),ABS(P81))*100,"0")&amp;"%")&amp;S81</f>
         <v>攻击时40%的概率使自身+50%造成的伤害。</v>
       </c>
       <c r="H81" s="18">
@@ -6901,8 +6910,8 @@
         <v>382</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>VLOOKUP(K82,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T82&amp;VLOOKUP(J82,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E82,"#",TEXT(IF(ISBLANK(P82),ABS(O82),ABS(P82))*100,"0")&amp;"%")&amp;S82</f>
-        <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，1次。</v>
+        <f>VLOOKUP(K82,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T82&amp;VLOOKUP(J82,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E82,"#",TEXT(IF(ISBLANK(P82),ABS(O82),ABS(P82))*100,"0")&amp;"%")&amp;S82</f>
+        <v>死亡时使自身+100%最大生命并清除buff，1次。</v>
       </c>
       <c r="H82" s="18">
         <v>5</v>
@@ -6914,10 +6923,7 @@
         <v>197</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L82" s="1">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="N82" s="1">
         <v>1</v>
@@ -6936,7 +6942,7 @@
       </c>
       <c r="T82" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>如果死亡，那么</v>
+        <v/>
       </c>
       <c r="U82" s="1">
         <f t="shared" si="7"/>
@@ -6961,8 +6967,8 @@
         <v>382</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>VLOOKUP(K83,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T83&amp;VLOOKUP(J83,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E83,"#",TEXT(IF(ISBLANK(P83),ABS(O83),ABS(P83))*100,"0")&amp;"%")&amp;S83</f>
-        <v>受击后如果死亡，那么50%的概率使自身+100%最大生命并清除buff，9次。</v>
+        <f>VLOOKUP(K83,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T83&amp;VLOOKUP(J83,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E83,"#",TEXT(IF(ISBLANK(P83),ABS(O83),ABS(P83))*100,"0")&amp;"%")&amp;S83</f>
+        <v>死亡时50%的概率使自身+100%最大生命并清除buff，9次。</v>
       </c>
       <c r="H83" s="18">
         <v>4</v>
@@ -6974,10 +6980,7 @@
         <v>197</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L83" s="1">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="N83" s="1">
         <v>0.5</v>
@@ -6998,7 +7001,7 @@
       </c>
       <c r="T83" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>如果死亡，那么50%的概率</v>
+        <v>50%的概率</v>
       </c>
       <c r="U83" s="1">
         <f t="shared" si="7"/>
@@ -7023,7 +7026,7 @@
         <v>383</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>VLOOKUP(K84,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T84&amp;VLOOKUP(J84,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E84,"#",TEXT(IF(ISBLANK(P84),ABS(O84),ABS(P84))*100,"0")&amp;"%")&amp;S84</f>
+        <f>VLOOKUP(K84,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T84&amp;VLOOKUP(J84,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E84,"#",TEXT(IF(ISBLANK(P84),ABS(O84),ABS(P84))*100,"0")&amp;"%")&amp;S84</f>
         <v>受击时50%的概率使自身-80%所受的伤害。</v>
       </c>
       <c r="H84" s="18">
@@ -7080,7 +7083,7 @@
         <v>384</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>VLOOKUP(K85,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T85&amp;VLOOKUP(J85,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E85,"#",TEXT(IF(ISBLANK(P85),ABS(O85),ABS(P85))*100,"0")&amp;"%")&amp;S85</f>
+        <f>VLOOKUP(K85,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T85&amp;VLOOKUP(J85,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E85,"#",TEXT(IF(ISBLANK(P85),ABS(O85),ABS(P85))*100,"0")&amp;"%")&amp;S85</f>
         <v>攻击时1%的概率使自身+9900%造成的伤害。</v>
       </c>
       <c r="H85" s="18">
@@ -7137,7 +7140,7 @@
         <v>385</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>VLOOKUP(K86,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T86&amp;VLOOKUP(J86,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E86,"#",TEXT(IF(ISBLANK(P86),ABS(O86),ABS(P86))*100,"0")&amp;"%")&amp;S86</f>
+        <f>VLOOKUP(K86,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T86&amp;VLOOKUP(J86,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E86,"#",TEXT(IF(ISBLANK(P86),ABS(O86),ABS(P86))*100,"0")&amp;"%")&amp;S86</f>
         <v>回合开始时使自身+20%攻击力，永久</v>
       </c>
       <c r="H86" s="18">
@@ -7197,7 +7200,7 @@
         <v>363</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>VLOOKUP(K87,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T87&amp;VLOOKUP(J87,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E87,"#",TEXT(IF(ISBLANK(P87),ABS(O87),ABS(P87))*100,"0")&amp;"%")&amp;S87</f>
+        <f>VLOOKUP(K87,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T87&amp;VLOOKUP(J87,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E87,"#",TEXT(IF(ISBLANK(P87),ABS(O87),ABS(P87))*100,"0")&amp;"%")&amp;S87</f>
         <v>受击后30%的概率使对手-[20%×伤害值]的生命值。</v>
       </c>
       <c r="H87" s="18">
@@ -7254,7 +7257,7 @@
         <v>386</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>VLOOKUP(K88,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T88&amp;VLOOKUP(J88,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E88,"#",TEXT(IF(ISBLANK(P88),ABS(O88),ABS(P88))*100,"0")&amp;"%")&amp;S88</f>
+        <f>VLOOKUP(K88,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T88&amp;VLOOKUP(J88,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E88,"#",TEXT(IF(ISBLANK(P88),ABS(O88),ABS(P88))*100,"0")&amp;"%")&amp;S88</f>
         <v>回合开始时30%的概率使自身释放技能，但是失败了！。</v>
       </c>
       <c r="H88" s="18">
@@ -7309,7 +7312,7 @@
         <v>386</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>VLOOKUP(K89,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T89&amp;VLOOKUP(J89,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E89,"#",TEXT(IF(ISBLANK(P89),ABS(O89),ABS(P89))*100,"0")&amp;"%")&amp;S89</f>
+        <f>VLOOKUP(K89,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T89&amp;VLOOKUP(J89,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E89,"#",TEXT(IF(ISBLANK(P89),ABS(O89),ABS(P89))*100,"0")&amp;"%")&amp;S89</f>
         <v>回合开始时0%的概率使自身释放技能，但是失败了！。</v>
       </c>
       <c r="H89" s="18">
@@ -7364,7 +7367,7 @@
         <v>390</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>VLOOKUP(K90,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T90&amp;VLOOKUP(J90,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E90,"#",TEXT(IF(ISBLANK(P90),ABS(O90),ABS(P90))*100,"0")&amp;"%")&amp;S90</f>
+        <f>VLOOKUP(K90,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T90&amp;VLOOKUP(J90,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E90,"#",TEXT(IF(ISBLANK(P90),ABS(O90),ABS(P90))*100,"0")&amp;"%")&amp;S90</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
       <c r="H90" s="18">
@@ -7421,7 +7424,7 @@
         <v>402</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>VLOOKUP(K91,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T91&amp;VLOOKUP(J91,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(P91),ABS(O91),ABS(P91))*100,"0")&amp;"%")&amp;S91</f>
+        <f>VLOOKUP(K91,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T91&amp;VLOOKUP(J91,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E91,"#",TEXT(IF(ISBLANK(P91),ABS(O91),ABS(P91))*100,"0")&amp;"%")&amp;S91</f>
         <v>回合开始时20%的概率使自身+200%攻防，持续3回合。</v>
       </c>
       <c r="H91" s="18">
@@ -7483,7 +7486,7 @@
         <v>390</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>VLOOKUP(K92,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T92&amp;VLOOKUP(J92,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E92,"#",TEXT(IF(ISBLANK(P92),ABS(O92),ABS(P92))*100,"0")&amp;"%")&amp;S92</f>
+        <f>VLOOKUP(K92,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T92&amp;VLOOKUP(J92,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E92,"#",TEXT(IF(ISBLANK(P92),ABS(O92),ABS(P92))*100,"0")&amp;"%")&amp;S92</f>
         <v>战斗准备阶段使自身(生物)随机获得5个技能。(玩家)增加5个技能上限。</v>
       </c>
       <c r="H92" s="18">
@@ -7540,7 +7543,7 @@
         <v>393</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>VLOOKUP(K93,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T93&amp;VLOOKUP(J93,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E93,"#",TEXT(IF(ISBLANK(P93),ABS(O93),ABS(P93))*100,"0")&amp;"%")&amp;S93</f>
+        <f>VLOOKUP(K93,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T93&amp;VLOOKUP(J93,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E93,"#",TEXT(IF(ISBLANK(P93),ABS(O93),ABS(P93))*100,"0")&amp;"%")&amp;S93</f>
         <v>回合开始时30%的概率使自身获得1个技能。</v>
       </c>
       <c r="H93" s="18">
@@ -7597,7 +7600,7 @@
         <v>401</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>VLOOKUP(K94,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T94&amp;VLOOKUP(J94,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(P94),ABS(O94),ABS(P94))*100,"0")&amp;"%")&amp;S94</f>
+        <f>VLOOKUP(K94,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T94&amp;VLOOKUP(J94,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E94,"#",TEXT(IF(ISBLANK(P94),ABS(O94),ABS(P94))*100,"0")&amp;"%")&amp;S94</f>
         <v>攻击后25%的概率使对手跳过回合，持续2回合。</v>
       </c>
       <c r="H94" s="18">
@@ -7655,7 +7658,7 @@
         <v>400</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>VLOOKUP(K95,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T95&amp;VLOOKUP(J95,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(P95),ABS(O95),ABS(P95))*100,"0")&amp;"%")&amp;S95</f>
+        <f>VLOOKUP(K95,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T95&amp;VLOOKUP(J95,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E95,"#",TEXT(IF(ISBLANK(P95),ABS(O95),ABS(P95))*100,"0")&amp;"%")&amp;S95</f>
         <v>战斗开始时使对手-50%攻击力，永久</v>
       </c>
       <c r="H95" s="18">
@@ -7715,8 +7718,8 @@
         <v>387</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>VLOOKUP(K96,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T96&amp;VLOOKUP(J96,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E96,"#",TEXT(IF(ISBLANK(P96),ABS(O96),ABS(P96))*100,"0")&amp;"%")&amp;S96</f>
-        <v>受击后如果死亡，那么使自身+100%最大生命并清除buff，9次。</v>
+        <f>VLOOKUP(K96,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T96&amp;VLOOKUP(J96,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E96,"#",TEXT(IF(ISBLANK(P96),ABS(O96),ABS(P96))*100,"0")&amp;"%")&amp;S96</f>
+        <v>死亡时使自身+100%最大生命并清除buff，9次。</v>
       </c>
       <c r="H96" s="18">
         <v>5</v>
@@ -7728,10 +7731,7 @@
         <v>197</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L96" s="1">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="N96" s="1">
         <v>1</v>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="T96" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>如果死亡，那么</v>
+        <v/>
       </c>
       <c r="U96" s="1">
         <f t="shared" si="7"/>
@@ -7777,7 +7777,7 @@
         <v>399</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>VLOOKUP(K97,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T97&amp;VLOOKUP(J97,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(P97),ABS(O97),ABS(P97))*100,"0")&amp;"%")&amp;S97</f>
+        <f>VLOOKUP(K97,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T97&amp;VLOOKUP(J97,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E97,"#",TEXT(IF(ISBLANK(P97),ABS(O97),ABS(P97))*100,"0")&amp;"%")&amp;S97</f>
         <v>回合开始时30%的概率使自身+200%攻击力，持续3回合。</v>
       </c>
       <c r="H97" s="18">
@@ -7837,7 +7837,7 @@
         <v>398</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>VLOOKUP(K98,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T98&amp;VLOOKUP(J98,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(P98),ABS(O98),ABS(P98))*100,"0")&amp;"%")&amp;S98</f>
+        <f>VLOOKUP(K98,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T98&amp;VLOOKUP(J98,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E98,"#",TEXT(IF(ISBLANK(P98),ABS(O98),ABS(P98))*100,"0")&amp;"%")&amp;S98</f>
         <v>受击时使自身-50%所受的伤害。</v>
       </c>
       <c r="H98" s="18">
@@ -7894,7 +7894,7 @@
         <v>416</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>VLOOKUP(K99,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T99&amp;VLOOKUP(J99,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(P99),ABS(O99),ABS(P99))*100,"0")&amp;"%")&amp;S99</f>
+        <f>VLOOKUP(K99,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T99&amp;VLOOKUP(J99,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E99,"#",TEXT(IF(ISBLANK(P99),ABS(O99),ABS(P99))*100,"0")&amp;"%")&amp;S99</f>
         <v>攻击后15%的概率使对手跳过回合，持续3回合。</v>
       </c>
       <c r="H99" s="18">
@@ -7952,7 +7952,7 @@
         <v>415</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>VLOOKUP(K100,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T100&amp;VLOOKUP(J100,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(P100),ABS(O100),ABS(P100))*100,"0")&amp;"%")&amp;S100</f>
+        <f>VLOOKUP(K100,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T100&amp;VLOOKUP(J100,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E100,"#",TEXT(IF(ISBLANK(P100),ABS(O100),ABS(P100))*100,"0")&amp;"%")&amp;S100</f>
         <v>攻击后25%的概率使对手跳过回合，持续1回合。</v>
       </c>
       <c r="H100" s="18">
@@ -8010,7 +8010,7 @@
         <v>394</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>VLOOKUP(K101,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T101&amp;VLOOKUP(J101,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E101,"#",TEXT(IF(ISBLANK(P101),ABS(O101),ABS(P101))*100,"0")&amp;"%")&amp;S101</f>
+        <f>VLOOKUP(K101,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T101&amp;VLOOKUP(J101,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E101,"#",TEXT(IF(ISBLANK(P101),ABS(O101),ABS(P101))*100,"0")&amp;"%")&amp;S101</f>
         <v>回合开始时10%的概率使对手-[100%×攻击力]的生命值。</v>
       </c>
       <c r="H101" s="18">
@@ -8067,7 +8067,7 @@
         <v>397</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>VLOOKUP(K102,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T102&amp;VLOOKUP(J102,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E102,"#",TEXT(IF(ISBLANK(P102),ABS(O102),ABS(P102))*100,"0")&amp;"%")&amp;S102</f>
+        <f>VLOOKUP(K102,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T102&amp;VLOOKUP(J102,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E102,"#",TEXT(IF(ISBLANK(P102),ABS(O102),ABS(P102))*100,"0")&amp;"%")&amp;S102</f>
         <v>回合开始时15%的概率使自身闪避，持续2回合。</v>
       </c>
       <c r="H102" s="18">
@@ -8125,7 +8125,7 @@
         <v>395</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>VLOOKUP(K103,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T103&amp;VLOOKUP(J103,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E103,"#",TEXT(IF(ISBLANK(P103),ABS(O103),ABS(P103))*100,"0")&amp;"%")&amp;S103</f>
+        <f>VLOOKUP(K103,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T103&amp;VLOOKUP(J103,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E103,"#",TEXT(IF(ISBLANK(P103),ABS(O103),ABS(P103))*100,"0")&amp;"%")&amp;S103</f>
         <v>攻击时80%的概率使自身+50%造成的伤害。</v>
       </c>
       <c r="H103" s="18">
@@ -8182,7 +8182,7 @@
         <v>393</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>VLOOKUP(K104,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T104&amp;VLOOKUP(J104,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E104,"#",TEXT(IF(ISBLANK(P104),ABS(O104),ABS(P104))*100,"0")&amp;"%")&amp;S104</f>
+        <f>VLOOKUP(K104,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T104&amp;VLOOKUP(J104,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E104,"#",TEXT(IF(ISBLANK(P104),ABS(O104),ABS(P104))*100,"0")&amp;"%")&amp;S104</f>
         <v>回合开始时50%的概率使自身获得1个技能。</v>
       </c>
       <c r="H104" s="18">
@@ -8239,7 +8239,7 @@
         <v>388</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f>VLOOKUP(K105,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T105&amp;VLOOKUP(J105,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E105,"#",TEXT(IF(ISBLANK(P105),ABS(O105),ABS(P105))*100,"0")&amp;"%")&amp;S105</f>
+        <f>VLOOKUP(K105,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T105&amp;VLOOKUP(J105,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E105,"#",TEXT(IF(ISBLANK(P105),ABS(O105),ABS(P105))*100,"0")&amp;"%")&amp;S105</f>
         <v>回合开始时60%的概率使对手禁用1个技能。</v>
       </c>
       <c r="H105" s="18">
@@ -8296,7 +8296,7 @@
         <v>392</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f>VLOOKUP(K106,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T106&amp;VLOOKUP(J106,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E106,"#",TEXT(IF(ISBLANK(P106),ABS(O106),ABS(P106))*100,"0")&amp;"%")&amp;S106</f>
+        <f>VLOOKUP(K106,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T106&amp;VLOOKUP(J106,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E106,"#",TEXT(IF(ISBLANK(P106),ABS(O106),ABS(P106))*100,"0")&amp;"%")&amp;S106</f>
         <v>攻击时70%的概率使自身+100%造成的伤害。</v>
       </c>
       <c r="H106" s="18">
@@ -8353,7 +8353,7 @@
         <v>396</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f>VLOOKUP(K107,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T107&amp;VLOOKUP(J107,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E107,"#",TEXT(IF(ISBLANK(P107),ABS(O107),ABS(P107))*100,"0")&amp;"%")&amp;S107</f>
+        <f>VLOOKUP(K107,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T107&amp;VLOOKUP(J107,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E107,"#",TEXT(IF(ISBLANK(P107),ABS(O107),ABS(P107))*100,"0")&amp;"%")&amp;S107</f>
         <v>攻击时60%的概率使自身+200%造成的伤害。</v>
       </c>
       <c r="H107" s="18">
@@ -8410,7 +8410,7 @@
         <v>388</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f>VLOOKUP(K108,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T108&amp;VLOOKUP(J108,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E108,"#",TEXT(IF(ISBLANK(P108),ABS(O108),ABS(P108))*100,"0")&amp;"%")&amp;S108</f>
+        <f>VLOOKUP(K108,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T108&amp;VLOOKUP(J108,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E108,"#",TEXT(IF(ISBLANK(P108),ABS(O108),ABS(P108))*100,"0")&amp;"%")&amp;S108</f>
         <v>回合开始时50%的概率使对手禁用1个技能。</v>
       </c>
       <c r="H108" s="18">
@@ -8467,7 +8467,7 @@
         <v>389</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f>VLOOKUP(K109,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T109&amp;VLOOKUP(J109,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E109,"#",TEXT(IF(ISBLANK(P109),ABS(O109),ABS(P109))*100,"0")&amp;"%")&amp;S109</f>
+        <f>VLOOKUP(K109,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T109&amp;VLOOKUP(J109,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E109,"#",TEXT(IF(ISBLANK(P109),ABS(O109),ABS(P109))*100,"0")&amp;"%")&amp;S109</f>
         <v>回合开始时15%的概率使自身闪避，持续3回合。</v>
       </c>
       <c r="H109" s="18">
@@ -8525,7 +8525,7 @@
         <v>391</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f>VLOOKUP(K110,[1]Sheet1!$A$17:$B$25,2,FALSE)&amp;T110&amp;VLOOKUP(J110,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E110,"#",TEXT(IF(ISBLANK(P110),ABS(O110),ABS(P110))*100,"0")&amp;"%")&amp;S110</f>
+        <f>VLOOKUP(K110,[1]Sheet1!$A$17:$B$26,2,FALSE)&amp;T110&amp;VLOOKUP(J110,[1]Sheet1!$A$1:$B$25,2,FALSE)&amp;SUBSTITUTE(E110,"#",TEXT(IF(ISBLANK(P110),ABS(O110),ABS(P110))*100,"0")&amp;"%")&amp;S110</f>
         <v>战斗准备阶段使自身(生物)随机获得X个技能。(玩家)增加5个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100。</v>
       </c>
       <c r="H110" s="18">
@@ -8586,22 +8586,22 @@
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 G5:N6 G5:H36 P5:P110 V5:XFD110 B6:H110 G7:Q12 O7:O110 G13:P24 Q13:Q26 G25:N25 G26:P26 G27:Q110 A111:XFD149">
+  <conditionalFormatting sqref="B5:F5 G5:N6 G5:H36 P5:P110 V5:XFD110 G7:Q12 O7:O110 G13:P24 Q13:Q26 G25:N25 G26:P26 G27:Q110 A111:XFD149 B6:H110">
     <cfRule type="expression" dxfId="5" priority="10">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 G5:N6 P5:T6 G5:H36 P5:P110 V5:XFD110 B6:H110 G7:Q12 O7:O110 G13:P24 Q13:Q26 G25:N25 G26:P26 G27:Q110 A111:XFD149 S6:S110 R7:T110">
+  <conditionalFormatting sqref="B5:F5 G5:N6 P5:T6 G5:H36 P5:P110 V5:XFD110 G7:Q12 O7:O110 G13:P24 Q13:Q26 G25:N25 G26:P26 G27:Q110 A111:XFD149 S6:S110 R7:T110 B6:H110">
     <cfRule type="expression" dxfId="4" priority="11">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 G5:N6 P5:T6 G5:H36 P5:P110 V5:XFD110 B6:H110 S6:S110 G7:Q12 O7:O110 R7:T110 G13:P24 Q13:Q26 G25:N25 G26:P26 G27:Q110 A111:XFD149">
+  <conditionalFormatting sqref="B5:F5 G5:N6 P5:T6 G5:H36 P5:P110 V5:XFD110 S6:S110 G7:Q12 O7:O110 R7:T110 G13:P24 Q13:Q26 G25:N25 G26:P26 G27:Q110 A111:XFD149 B6:H110">
     <cfRule type="expression" dxfId="3" priority="12">
       <formula>" = MOD（ROW（），2）"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:N6 B5:D34 V5:XFD34 E5:F110 P5:P110 G5:H149 P6:Q12 I7:O149 Q13:Q26 P27:Q34 D35:D110 D111:H149">
+  <conditionalFormatting sqref="I5:N6 B5:D34 V5:XFD34 E5:F110 P5:P110 P6:Q12 I7:O149 Q13:Q26 P27:Q34 D35:D110 D111:H149 G5:H149">
     <cfRule type="expression" priority="13">
       <formula xml:space="preserve"> MOD(ROW(),2)</formula>
     </cfRule>
